--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8225300</v>
+        <v>7744900</v>
       </c>
       <c r="E8" s="3">
-        <v>7650000</v>
+        <v>7203200</v>
       </c>
       <c r="F8" s="3">
-        <v>7727600</v>
+        <v>7276300</v>
       </c>
       <c r="G8" s="3">
-        <v>7194700</v>
+        <v>6774500</v>
       </c>
       <c r="H8" s="3">
-        <v>6592400</v>
+        <v>6207400</v>
       </c>
       <c r="I8" s="3">
-        <v>6097100</v>
+        <v>5741000</v>
       </c>
       <c r="J8" s="3">
-        <v>5254600</v>
+        <v>4947700</v>
       </c>
       <c r="K8" s="3">
         <v>4609100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5778200</v>
+        <v>5440700</v>
       </c>
       <c r="E9" s="3">
-        <v>5413500</v>
+        <v>5097300</v>
       </c>
       <c r="F9" s="3">
-        <v>5497300</v>
+        <v>5176200</v>
       </c>
       <c r="G9" s="3">
-        <v>5008400</v>
+        <v>4715900</v>
       </c>
       <c r="H9" s="3">
-        <v>4510800</v>
+        <v>4247400</v>
       </c>
       <c r="I9" s="3">
-        <v>4148700</v>
+        <v>3906400</v>
       </c>
       <c r="J9" s="3">
-        <v>3659700</v>
+        <v>3446000</v>
       </c>
       <c r="K9" s="3">
         <v>3265000</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2447100</v>
+        <v>2304100</v>
       </c>
       <c r="E10" s="3">
-        <v>2236500</v>
+        <v>2105900</v>
       </c>
       <c r="F10" s="3">
-        <v>2230400</v>
+        <v>2100100</v>
       </c>
       <c r="G10" s="3">
-        <v>2186300</v>
+        <v>2058600</v>
       </c>
       <c r="H10" s="3">
-        <v>2081600</v>
+        <v>1960000</v>
       </c>
       <c r="I10" s="3">
-        <v>1948500</v>
+        <v>1834700</v>
       </c>
       <c r="J10" s="3">
-        <v>1594800</v>
+        <v>1501700</v>
       </c>
       <c r="K10" s="3">
         <v>1344100</v>
@@ -878,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-11100</v>
+        <v>-10400</v>
       </c>
       <c r="E14" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="F14" s="3">
-        <v>-14400</v>
+        <v>-13600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>54400</v>
+        <v>51200</v>
       </c>
       <c r="E15" s="3">
-        <v>54300</v>
+        <v>51100</v>
       </c>
       <c r="F15" s="3">
-        <v>44600</v>
+        <v>42000</v>
       </c>
       <c r="G15" s="3">
-        <v>24400</v>
+        <v>23000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6822500</v>
+        <v>6424100</v>
       </c>
       <c r="E17" s="3">
-        <v>6466500</v>
+        <v>6088800</v>
       </c>
       <c r="F17" s="3">
-        <v>6409600</v>
+        <v>6035200</v>
       </c>
       <c r="G17" s="3">
-        <v>5834700</v>
+        <v>5494000</v>
       </c>
       <c r="H17" s="3">
-        <v>5252700</v>
+        <v>4945900</v>
       </c>
       <c r="I17" s="3">
-        <v>4842600</v>
+        <v>4559800</v>
       </c>
       <c r="J17" s="3">
-        <v>4272100</v>
+        <v>4022600</v>
       </c>
       <c r="K17" s="3">
         <v>3742800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1402700</v>
+        <v>1320800</v>
       </c>
       <c r="E18" s="3">
-        <v>1183500</v>
+        <v>1114400</v>
       </c>
       <c r="F18" s="3">
-        <v>1318100</v>
+        <v>1241100</v>
       </c>
       <c r="G18" s="3">
-        <v>1359900</v>
+        <v>1280500</v>
       </c>
       <c r="H18" s="3">
-        <v>1339700</v>
+        <v>1261500</v>
       </c>
       <c r="I18" s="3">
-        <v>1254500</v>
+        <v>1181300</v>
       </c>
       <c r="J18" s="3">
-        <v>982400</v>
+        <v>925000</v>
       </c>
       <c r="K18" s="3">
         <v>866300</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>296500</v>
+        <v>279200</v>
       </c>
       <c r="E20" s="3">
-        <v>303700</v>
+        <v>286000</v>
       </c>
       <c r="F20" s="3">
-        <v>258200</v>
+        <v>243200</v>
       </c>
       <c r="G20" s="3">
-        <v>273500</v>
+        <v>257600</v>
       </c>
       <c r="H20" s="3">
-        <v>239100</v>
+        <v>225100</v>
       </c>
       <c r="I20" s="3">
-        <v>175800</v>
+        <v>165500</v>
       </c>
       <c r="J20" s="3">
-        <v>133200</v>
+        <v>125400</v>
       </c>
       <c r="K20" s="3">
         <v>94700</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1972900</v>
+        <v>1856700</v>
       </c>
       <c r="E21" s="3">
-        <v>1784000</v>
+        <v>1678700</v>
       </c>
       <c r="F21" s="3">
-        <v>1901000</v>
+        <v>1788800</v>
       </c>
       <c r="G21" s="3">
-        <v>1843700</v>
+        <v>1735300</v>
       </c>
       <c r="H21" s="3">
-        <v>1759000</v>
+        <v>1655600</v>
       </c>
       <c r="I21" s="3">
-        <v>1586300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1267800</v>
+        <v>1493100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>1107600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78800</v>
+        <v>74200</v>
       </c>
       <c r="E22" s="3">
-        <v>48500</v>
+        <v>45600</v>
       </c>
       <c r="F22" s="3">
-        <v>26900</v>
+        <v>25300</v>
       </c>
       <c r="G22" s="3">
-        <v>19800</v>
+        <v>18600</v>
       </c>
       <c r="H22" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="I22" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="J22" s="3">
-        <v>12100</v>
+        <v>11400</v>
       </c>
       <c r="K22" s="3">
         <v>13500</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1620400</v>
+        <v>1525800</v>
       </c>
       <c r="E23" s="3">
-        <v>1438700</v>
+        <v>1354700</v>
       </c>
       <c r="F23" s="3">
-        <v>1549400</v>
+        <v>1458900</v>
       </c>
       <c r="G23" s="3">
-        <v>1613700</v>
+        <v>1519400</v>
       </c>
       <c r="H23" s="3">
-        <v>1568000</v>
+        <v>1476400</v>
       </c>
       <c r="I23" s="3">
-        <v>1418100</v>
+        <v>1335300</v>
       </c>
       <c r="J23" s="3">
-        <v>1103500</v>
+        <v>1039000</v>
       </c>
       <c r="K23" s="3">
         <v>947500</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>354400</v>
+        <v>333700</v>
       </c>
       <c r="E24" s="3">
-        <v>336300</v>
+        <v>316700</v>
       </c>
       <c r="F24" s="3">
-        <v>354000</v>
+        <v>333300</v>
       </c>
       <c r="G24" s="3">
-        <v>356100</v>
+        <v>335300</v>
       </c>
       <c r="H24" s="3">
-        <v>345700</v>
+        <v>325500</v>
       </c>
       <c r="I24" s="3">
-        <v>317300</v>
+        <v>298800</v>
       </c>
       <c r="J24" s="3">
-        <v>237400</v>
+        <v>223600</v>
       </c>
       <c r="K24" s="3">
         <v>187300</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1266000</v>
+        <v>1192100</v>
       </c>
       <c r="E26" s="3">
-        <v>1102400</v>
+        <v>1038000</v>
       </c>
       <c r="F26" s="3">
-        <v>1195400</v>
+        <v>1125600</v>
       </c>
       <c r="G26" s="3">
-        <v>1257500</v>
+        <v>1184100</v>
       </c>
       <c r="H26" s="3">
-        <v>1222300</v>
+        <v>1150900</v>
       </c>
       <c r="I26" s="3">
-        <v>1100800</v>
+        <v>1036500</v>
       </c>
       <c r="J26" s="3">
-        <v>866000</v>
+        <v>815500</v>
       </c>
       <c r="K26" s="3">
         <v>760100</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1264000</v>
+        <v>1190200</v>
       </c>
       <c r="E27" s="3">
-        <v>1102400</v>
+        <v>1038000</v>
       </c>
       <c r="F27" s="3">
-        <v>1191900</v>
+        <v>1122300</v>
       </c>
       <c r="G27" s="3">
-        <v>1250600</v>
+        <v>1177600</v>
       </c>
       <c r="H27" s="3">
-        <v>1214900</v>
+        <v>1143900</v>
       </c>
       <c r="I27" s="3">
-        <v>1094700</v>
+        <v>1030700</v>
       </c>
       <c r="J27" s="3">
-        <v>861500</v>
+        <v>811200</v>
       </c>
       <c r="K27" s="3">
         <v>756600</v>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>21900</v>
+        <v>20700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>70200</v>
+        <v>66100</v>
       </c>
       <c r="K29" s="3">
         <v>49200</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-296500</v>
+        <v>-279200</v>
       </c>
       <c r="E32" s="3">
-        <v>-303700</v>
+        <v>-286000</v>
       </c>
       <c r="F32" s="3">
-        <v>-258200</v>
+        <v>-243200</v>
       </c>
       <c r="G32" s="3">
-        <v>-273500</v>
+        <v>-257600</v>
       </c>
       <c r="H32" s="3">
-        <v>-239100</v>
+        <v>-225100</v>
       </c>
       <c r="I32" s="3">
-        <v>-175800</v>
+        <v>-165500</v>
       </c>
       <c r="J32" s="3">
-        <v>-133200</v>
+        <v>-125400</v>
       </c>
       <c r="K32" s="3">
         <v>-94700</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1264000</v>
+        <v>1190200</v>
       </c>
       <c r="E33" s="3">
-        <v>1124300</v>
+        <v>1058700</v>
       </c>
       <c r="F33" s="3">
-        <v>1191900</v>
+        <v>1122300</v>
       </c>
       <c r="G33" s="3">
-        <v>1250600</v>
+        <v>1177600</v>
       </c>
       <c r="H33" s="3">
-        <v>1214900</v>
+        <v>1143900</v>
       </c>
       <c r="I33" s="3">
-        <v>1094700</v>
+        <v>1030700</v>
       </c>
       <c r="J33" s="3">
-        <v>931700</v>
+        <v>877300</v>
       </c>
       <c r="K33" s="3">
         <v>805900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1264000</v>
+        <v>1190200</v>
       </c>
       <c r="E35" s="3">
-        <v>1124300</v>
+        <v>1058700</v>
       </c>
       <c r="F35" s="3">
-        <v>1191900</v>
+        <v>1122300</v>
       </c>
       <c r="G35" s="3">
-        <v>1250600</v>
+        <v>1177600</v>
       </c>
       <c r="H35" s="3">
-        <v>1214900</v>
+        <v>1143900</v>
       </c>
       <c r="I35" s="3">
-        <v>1094700</v>
+        <v>1030700</v>
       </c>
       <c r="J35" s="3">
-        <v>931700</v>
+        <v>877300</v>
       </c>
       <c r="K35" s="3">
         <v>805900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2225700</v>
+        <v>2097300</v>
       </c>
       <c r="E41" s="3">
-        <v>630700</v>
+        <v>594400</v>
       </c>
       <c r="F41" s="3">
-        <v>740000</v>
+        <v>697400</v>
       </c>
       <c r="G41" s="3">
-        <v>1390600</v>
+        <v>1310400</v>
       </c>
       <c r="H41" s="3">
-        <v>2231500</v>
+        <v>2102800</v>
       </c>
       <c r="I41" s="3">
-        <v>1603400</v>
+        <v>1510900</v>
       </c>
       <c r="J41" s="3">
-        <v>501000</v>
+        <v>472100</v>
       </c>
       <c r="K41" s="3">
         <v>594900</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3124000</v>
+        <v>2943800</v>
       </c>
       <c r="E42" s="3">
-        <v>3529200</v>
+        <v>3325600</v>
       </c>
       <c r="F42" s="3">
-        <v>4124500</v>
+        <v>3886500</v>
       </c>
       <c r="G42" s="3">
-        <v>6732900</v>
+        <v>6344500</v>
       </c>
       <c r="H42" s="3">
-        <v>1341800</v>
+        <v>1264400</v>
       </c>
       <c r="I42" s="3">
-        <v>1068100</v>
+        <v>1006500</v>
       </c>
       <c r="J42" s="3">
-        <v>1696800</v>
+        <v>1598900</v>
       </c>
       <c r="K42" s="3">
         <v>1164500</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2342800</v>
+        <v>2207700</v>
       </c>
       <c r="E43" s="3">
-        <v>2173400</v>
+        <v>2048000</v>
       </c>
       <c r="F43" s="3">
-        <v>2196200</v>
+        <v>2069500</v>
       </c>
       <c r="G43" s="3">
-        <v>3736900</v>
+        <v>3521300</v>
       </c>
       <c r="H43" s="3">
-        <v>2119000</v>
+        <v>1996700</v>
       </c>
       <c r="I43" s="3">
-        <v>1979800</v>
+        <v>1865500</v>
       </c>
       <c r="J43" s="3">
-        <v>1731400</v>
+        <v>1631600</v>
       </c>
       <c r="K43" s="3">
         <v>1744700</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>101100</v>
+        <v>95200</v>
       </c>
       <c r="E44" s="3">
-        <v>72900</v>
+        <v>68700</v>
       </c>
       <c r="F44" s="3">
-        <v>75300</v>
+        <v>71000</v>
       </c>
       <c r="G44" s="3">
-        <v>96800</v>
+        <v>91200</v>
       </c>
       <c r="H44" s="3">
-        <v>102200</v>
+        <v>96300</v>
       </c>
       <c r="I44" s="3">
-        <v>66500</v>
+        <v>62700</v>
       </c>
       <c r="J44" s="3">
-        <v>45800</v>
+        <v>43200</v>
       </c>
       <c r="K44" s="3">
         <v>154200</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>235900</v>
+        <v>222300</v>
       </c>
       <c r="E45" s="3">
-        <v>700300</v>
+        <v>659900</v>
       </c>
       <c r="F45" s="3">
-        <v>430100</v>
+        <v>405300</v>
       </c>
       <c r="G45" s="3">
-        <v>382300</v>
+        <v>360300</v>
       </c>
       <c r="H45" s="3">
-        <v>333900</v>
+        <v>314600</v>
       </c>
       <c r="I45" s="3">
-        <v>262000</v>
+        <v>246900</v>
       </c>
       <c r="J45" s="3">
-        <v>340900</v>
+        <v>321300</v>
       </c>
       <c r="K45" s="3">
         <v>296300</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8029600</v>
+        <v>7566300</v>
       </c>
       <c r="E46" s="3">
-        <v>7106400</v>
+        <v>6696400</v>
       </c>
       <c r="F46" s="3">
-        <v>7566100</v>
+        <v>7129600</v>
       </c>
       <c r="G46" s="3">
-        <v>7059700</v>
+        <v>6652400</v>
       </c>
       <c r="H46" s="3">
-        <v>6128300</v>
+        <v>5774800</v>
       </c>
       <c r="I46" s="3">
-        <v>4979800</v>
+        <v>4692500</v>
       </c>
       <c r="J46" s="3">
-        <v>4315900</v>
+        <v>4066900</v>
       </c>
       <c r="K46" s="3">
         <v>3954600</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>576200</v>
+        <v>543000</v>
       </c>
       <c r="E47" s="3">
-        <v>499900</v>
+        <v>471100</v>
       </c>
       <c r="F47" s="3">
-        <v>362000</v>
+        <v>341100</v>
       </c>
       <c r="G47" s="3">
-        <v>294600</v>
+        <v>277600</v>
       </c>
       <c r="H47" s="3">
-        <v>214500</v>
+        <v>202100</v>
       </c>
       <c r="I47" s="3">
-        <v>180700</v>
+        <v>170200</v>
       </c>
       <c r="J47" s="3">
-        <v>150600</v>
+        <v>142000</v>
       </c>
       <c r="K47" s="3">
         <v>231700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>991200</v>
+        <v>934100</v>
       </c>
       <c r="E48" s="3">
-        <v>912000</v>
+        <v>859400</v>
       </c>
       <c r="F48" s="3">
-        <v>979900</v>
+        <v>923400</v>
       </c>
       <c r="G48" s="3">
-        <v>912100</v>
+        <v>859400</v>
       </c>
       <c r="H48" s="3">
-        <v>761100</v>
+        <v>717100</v>
       </c>
       <c r="I48" s="3">
-        <v>722300</v>
+        <v>680700</v>
       </c>
       <c r="J48" s="3">
-        <v>709400</v>
+        <v>668400</v>
       </c>
       <c r="K48" s="3">
         <v>853000</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1835600</v>
+        <v>1729700</v>
       </c>
       <c r="E49" s="3">
-        <v>1905200</v>
+        <v>1795300</v>
       </c>
       <c r="F49" s="3">
-        <v>1989700</v>
+        <v>1874900</v>
       </c>
       <c r="G49" s="3">
-        <v>1654400</v>
+        <v>1558900</v>
       </c>
       <c r="H49" s="3">
-        <v>1067200</v>
+        <v>1005600</v>
       </c>
       <c r="I49" s="3">
-        <v>917600</v>
+        <v>864700</v>
       </c>
       <c r="J49" s="3">
-        <v>792800</v>
+        <v>747100</v>
       </c>
       <c r="K49" s="3">
         <v>1043500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>265100</v>
+        <v>249800</v>
       </c>
       <c r="E52" s="3">
-        <v>255900</v>
+        <v>241100</v>
       </c>
       <c r="F52" s="3">
-        <v>243200</v>
+        <v>229200</v>
       </c>
       <c r="G52" s="3">
-        <v>244400</v>
+        <v>230300</v>
       </c>
       <c r="H52" s="3">
-        <v>253400</v>
+        <v>238800</v>
       </c>
       <c r="I52" s="3">
-        <v>251900</v>
+        <v>237400</v>
       </c>
       <c r="J52" s="3">
-        <v>205000</v>
+        <v>193200</v>
       </c>
       <c r="K52" s="3">
         <v>221700</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11697700</v>
+        <v>11022900</v>
       </c>
       <c r="E54" s="3">
-        <v>10679400</v>
+        <v>10063300</v>
       </c>
       <c r="F54" s="3">
-        <v>11141000</v>
+        <v>10498200</v>
       </c>
       <c r="G54" s="3">
-        <v>10165000</v>
+        <v>9578600</v>
       </c>
       <c r="H54" s="3">
-        <v>8424500</v>
+        <v>7938400</v>
       </c>
       <c r="I54" s="3">
-        <v>7052300</v>
+        <v>6645500</v>
       </c>
       <c r="J54" s="3">
-        <v>6173800</v>
+        <v>5817600</v>
       </c>
       <c r="K54" s="3">
         <v>6304600</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400500</v>
+        <v>377400</v>
       </c>
       <c r="E57" s="3">
-        <v>342700</v>
+        <v>322900</v>
       </c>
       <c r="F57" s="3">
-        <v>329300</v>
+        <v>310300</v>
       </c>
       <c r="G57" s="3">
-        <v>1286500</v>
+        <v>1212300</v>
       </c>
       <c r="H57" s="3">
-        <v>264600</v>
+        <v>249300</v>
       </c>
       <c r="I57" s="3">
-        <v>247300</v>
+        <v>233000</v>
       </c>
       <c r="J57" s="3">
-        <v>216700</v>
+        <v>204200</v>
       </c>
       <c r="K57" s="3">
         <v>338800</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>998200</v>
+        <v>940600</v>
       </c>
       <c r="E58" s="3">
-        <v>1305600</v>
+        <v>1230300</v>
       </c>
       <c r="F58" s="3">
-        <v>1724100</v>
+        <v>1624700</v>
       </c>
       <c r="G58" s="3">
-        <v>3028700</v>
+        <v>2854000</v>
       </c>
       <c r="H58" s="3">
-        <v>929500</v>
+        <v>875900</v>
       </c>
       <c r="I58" s="3">
-        <v>571200</v>
+        <v>538200</v>
       </c>
       <c r="J58" s="3">
-        <v>884000</v>
+        <v>833000</v>
       </c>
       <c r="K58" s="3">
         <v>527000</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1610700</v>
+        <v>1517800</v>
       </c>
       <c r="E59" s="3">
-        <v>1349400</v>
+        <v>1271500</v>
       </c>
       <c r="F59" s="3">
-        <v>1169400</v>
+        <v>1101900</v>
       </c>
       <c r="G59" s="3">
-        <v>1225000</v>
+        <v>1154400</v>
       </c>
       <c r="H59" s="3">
-        <v>1108900</v>
+        <v>1044900</v>
       </c>
       <c r="I59" s="3">
-        <v>1097300</v>
+        <v>1034000</v>
       </c>
       <c r="J59" s="3">
-        <v>931500</v>
+        <v>877700</v>
       </c>
       <c r="K59" s="3">
         <v>835900</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3009500</v>
+        <v>2835900</v>
       </c>
       <c r="E60" s="3">
-        <v>2997600</v>
+        <v>2824700</v>
       </c>
       <c r="F60" s="3">
-        <v>3222800</v>
+        <v>3036900</v>
       </c>
       <c r="G60" s="3">
-        <v>3068600</v>
+        <v>2891600</v>
       </c>
       <c r="H60" s="3">
-        <v>2303000</v>
+        <v>2170100</v>
       </c>
       <c r="I60" s="3">
-        <v>1915800</v>
+        <v>1805300</v>
       </c>
       <c r="J60" s="3">
-        <v>2032100</v>
+        <v>1914900</v>
       </c>
       <c r="K60" s="3">
         <v>1701700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>398300</v>
+        <v>375300</v>
       </c>
       <c r="E61" s="3">
-        <v>635600</v>
+        <v>598900</v>
       </c>
       <c r="F61" s="3">
-        <v>275300</v>
+        <v>259500</v>
       </c>
       <c r="G61" s="3">
-        <v>243700</v>
+        <v>229700</v>
       </c>
       <c r="H61" s="3">
-        <v>178400</v>
+        <v>168100</v>
       </c>
       <c r="I61" s="3">
-        <v>153200</v>
+        <v>144300</v>
       </c>
       <c r="J61" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="K61" s="3">
         <v>325500</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>276600</v>
+        <v>260600</v>
       </c>
       <c r="E62" s="3">
-        <v>232000</v>
+        <v>218700</v>
       </c>
       <c r="F62" s="3">
-        <v>304200</v>
+        <v>286700</v>
       </c>
       <c r="G62" s="3">
-        <v>290600</v>
+        <v>273800</v>
       </c>
       <c r="H62" s="3">
-        <v>191900</v>
+        <v>180800</v>
       </c>
       <c r="I62" s="3">
-        <v>141100</v>
+        <v>133000</v>
       </c>
       <c r="J62" s="3">
-        <v>128500</v>
+        <v>121100</v>
       </c>
       <c r="K62" s="3">
         <v>139400</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3721400</v>
+        <v>3506700</v>
       </c>
       <c r="E66" s="3">
-        <v>3899000</v>
+        <v>3674000</v>
       </c>
       <c r="F66" s="3">
-        <v>3835900</v>
+        <v>3614600</v>
       </c>
       <c r="G66" s="3">
-        <v>3634000</v>
+        <v>3424300</v>
       </c>
       <c r="H66" s="3">
-        <v>2696400</v>
+        <v>2540800</v>
       </c>
       <c r="I66" s="3">
-        <v>2229600</v>
+        <v>2101000</v>
       </c>
       <c r="J66" s="3">
-        <v>2189100</v>
+        <v>2062800</v>
       </c>
       <c r="K66" s="3">
         <v>2178900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7514700</v>
+        <v>7081100</v>
       </c>
       <c r="E72" s="3">
-        <v>6385600</v>
+        <v>6017200</v>
       </c>
       <c r="F72" s="3">
-        <v>6913400</v>
+        <v>6514500</v>
       </c>
       <c r="G72" s="3">
-        <v>5971700</v>
+        <v>5627200</v>
       </c>
       <c r="H72" s="3">
-        <v>5226400</v>
+        <v>4924800</v>
       </c>
       <c r="I72" s="3">
-        <v>4421900</v>
+        <v>4166800</v>
       </c>
       <c r="J72" s="3">
-        <v>3678200</v>
+        <v>3466000</v>
       </c>
       <c r="K72" s="3">
         <v>3507000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7976300</v>
+        <v>7516200</v>
       </c>
       <c r="E76" s="3">
-        <v>6780400</v>
+        <v>6389200</v>
       </c>
       <c r="F76" s="3">
-        <v>7305100</v>
+        <v>6883600</v>
       </c>
       <c r="G76" s="3">
-        <v>6531000</v>
+        <v>6154200</v>
       </c>
       <c r="H76" s="3">
-        <v>5728100</v>
+        <v>5397600</v>
       </c>
       <c r="I76" s="3">
-        <v>4822700</v>
+        <v>4544500</v>
       </c>
       <c r="J76" s="3">
-        <v>3984700</v>
+        <v>3754800</v>
       </c>
       <c r="K76" s="3">
         <v>4125600</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1264000</v>
+        <v>1190200</v>
       </c>
       <c r="E81" s="3">
-        <v>1124300</v>
+        <v>1058700</v>
       </c>
       <c r="F81" s="3">
-        <v>1191900</v>
+        <v>1122300</v>
       </c>
       <c r="G81" s="3">
-        <v>1250600</v>
+        <v>1177600</v>
       </c>
       <c r="H81" s="3">
-        <v>1214900</v>
+        <v>1143900</v>
       </c>
       <c r="I81" s="3">
-        <v>1094700</v>
+        <v>1030700</v>
       </c>
       <c r="J81" s="3">
-        <v>931700</v>
+        <v>877300</v>
       </c>
       <c r="K81" s="3">
         <v>805900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>273400</v>
+        <v>257400</v>
       </c>
       <c r="E83" s="3">
-        <v>296600</v>
+        <v>279300</v>
       </c>
       <c r="F83" s="3">
-        <v>324400</v>
+        <v>305500</v>
       </c>
       <c r="G83" s="3">
-        <v>210100</v>
+        <v>197800</v>
       </c>
       <c r="H83" s="3">
-        <v>180000</v>
+        <v>169500</v>
       </c>
       <c r="I83" s="3">
-        <v>155900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>152100</v>
+        <v>146800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>146500</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1633100</v>
+        <v>1537700</v>
       </c>
       <c r="E89" s="3">
-        <v>1182600</v>
+        <v>1113600</v>
       </c>
       <c r="F89" s="3">
-        <v>1302500</v>
+        <v>1226500</v>
       </c>
       <c r="G89" s="3">
-        <v>1107400</v>
+        <v>1042700</v>
       </c>
       <c r="H89" s="3">
-        <v>1098800</v>
+        <v>1034600</v>
       </c>
       <c r="I89" s="3">
-        <v>953300</v>
+        <v>897600</v>
       </c>
       <c r="J89" s="3">
-        <v>988700</v>
+        <v>931000</v>
       </c>
       <c r="K89" s="3">
         <v>579500</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-319800</v>
+        <v>-301200</v>
       </c>
       <c r="E91" s="3">
-        <v>-307100</v>
+        <v>-289100</v>
       </c>
       <c r="F91" s="3">
-        <v>-292800</v>
+        <v>-275700</v>
       </c>
       <c r="G91" s="3">
-        <v>-195900</v>
+        <v>-184400</v>
       </c>
       <c r="H91" s="3">
-        <v>-177800</v>
+        <v>-167400</v>
       </c>
       <c r="I91" s="3">
-        <v>-125100</v>
+        <v>-117800</v>
       </c>
       <c r="J91" s="3">
-        <v>-149000</v>
+        <v>-140300</v>
       </c>
       <c r="K91" s="3">
         <v>-187600</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>703800</v>
+        <v>662700</v>
       </c>
       <c r="E94" s="3">
-        <v>499500</v>
+        <v>470300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1632600</v>
+        <v>-1537300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1939700</v>
+        <v>-1826400</v>
       </c>
       <c r="H94" s="3">
-        <v>-359000</v>
+        <v>-338100</v>
       </c>
       <c r="I94" s="3">
-        <v>-38900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-808300</v>
+        <v>-36700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-116500</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-76300</v>
+        <v>-71800</v>
       </c>
       <c r="E96" s="3">
-        <v>-76100</v>
+        <v>-71700</v>
       </c>
       <c r="F96" s="3">
-        <v>-122600</v>
+        <v>-115500</v>
       </c>
       <c r="G96" s="3">
-        <v>-498300</v>
+        <v>-469200</v>
       </c>
       <c r="H96" s="3">
-        <v>-414000</v>
+        <v>-389900</v>
       </c>
       <c r="I96" s="3">
-        <v>-326800</v>
+        <v>-307700</v>
       </c>
       <c r="J96" s="3">
-        <v>-239800</v>
+        <v>-225800</v>
       </c>
       <c r="K96" s="3">
         <v>-249100</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-693100</v>
+        <v>-652700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1824900</v>
+        <v>-1718300</v>
       </c>
       <c r="F100" s="3">
-        <v>-319400</v>
+        <v>-300800</v>
       </c>
       <c r="G100" s="3">
-        <v>-22300</v>
+        <v>-21000</v>
       </c>
       <c r="H100" s="3">
-        <v>-123100</v>
+        <v>-115900</v>
       </c>
       <c r="I100" s="3">
-        <v>-491000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-94400</v>
+        <v>-462300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-251600</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E101" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="F101" s="3">
-        <v>-19800</v>
+        <v>-18700</v>
       </c>
       <c r="G101" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="I101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>11100</v>
+        <v>-900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>24300</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1651100</v>
+        <v>1554700</v>
       </c>
       <c r="E102" s="3">
-        <v>-137500</v>
+        <v>-129500</v>
       </c>
       <c r="F102" s="3">
-        <v>-669300</v>
+        <v>-630300</v>
       </c>
       <c r="G102" s="3">
-        <v>-846900</v>
+        <v>-797400</v>
       </c>
       <c r="H102" s="3">
-        <v>624900</v>
+        <v>588400</v>
       </c>
       <c r="I102" s="3">
-        <v>422400</v>
+        <v>397700</v>
       </c>
       <c r="J102" s="3">
-        <v>97100</v>
+        <v>91400</v>
       </c>
       <c r="K102" s="3">
         <v>235700</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7744900</v>
+        <v>8219800</v>
       </c>
       <c r="E8" s="3">
-        <v>7203200</v>
+        <v>7891300</v>
       </c>
       <c r="F8" s="3">
-        <v>7276300</v>
+        <v>7339400</v>
       </c>
       <c r="G8" s="3">
-        <v>6774500</v>
+        <v>7413900</v>
       </c>
       <c r="H8" s="3">
-        <v>6207400</v>
+        <v>6902600</v>
       </c>
       <c r="I8" s="3">
-        <v>5741000</v>
+        <v>6324800</v>
       </c>
       <c r="J8" s="3">
+        <v>5849600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4947700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4609100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5440700</v>
+        <v>5874100</v>
       </c>
       <c r="E9" s="3">
-        <v>5097300</v>
+        <v>5543600</v>
       </c>
       <c r="F9" s="3">
-        <v>5176200</v>
+        <v>5193700</v>
       </c>
       <c r="G9" s="3">
-        <v>4715900</v>
+        <v>5274100</v>
       </c>
       <c r="H9" s="3">
-        <v>4247400</v>
+        <v>4805100</v>
       </c>
       <c r="I9" s="3">
-        <v>3906400</v>
+        <v>4327700</v>
       </c>
       <c r="J9" s="3">
+        <v>3980200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3446000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3265000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2304100</v>
+        <v>2345800</v>
       </c>
       <c r="E10" s="3">
-        <v>2105900</v>
+        <v>2347700</v>
       </c>
       <c r="F10" s="3">
-        <v>2100100</v>
+        <v>2145700</v>
       </c>
       <c r="G10" s="3">
-        <v>2058600</v>
+        <v>2139800</v>
       </c>
       <c r="H10" s="3">
-        <v>1960000</v>
+        <v>2097500</v>
       </c>
       <c r="I10" s="3">
-        <v>1834700</v>
+        <v>1997100</v>
       </c>
       <c r="J10" s="3">
+        <v>1869400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1501700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1344100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,26 +887,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-10400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>8500</v>
+        <v>-10600</v>
       </c>
       <c r="F14" s="3">
-        <v>-13600</v>
+        <v>8700</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>-13800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -901,26 +920,29 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>51200</v>
+        <v>47700</v>
       </c>
       <c r="E15" s="3">
-        <v>51100</v>
+        <v>52200</v>
       </c>
       <c r="F15" s="3">
-        <v>42000</v>
+        <v>52100</v>
       </c>
       <c r="G15" s="3">
-        <v>23000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>42800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>23400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -931,9 +953,12 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6424100</v>
+        <v>6795600</v>
       </c>
       <c r="E17" s="3">
-        <v>6088800</v>
+        <v>6545500</v>
       </c>
       <c r="F17" s="3">
-        <v>6035200</v>
+        <v>6204000</v>
       </c>
       <c r="G17" s="3">
-        <v>5494000</v>
+        <v>6149400</v>
       </c>
       <c r="H17" s="3">
-        <v>4945900</v>
+        <v>5597900</v>
       </c>
       <c r="I17" s="3">
-        <v>4559800</v>
+        <v>5039400</v>
       </c>
       <c r="J17" s="3">
+        <v>4646000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4022600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3742800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1320800</v>
+        <v>1424200</v>
       </c>
       <c r="E18" s="3">
-        <v>1114400</v>
+        <v>1345800</v>
       </c>
       <c r="F18" s="3">
-        <v>1241100</v>
+        <v>1135400</v>
       </c>
       <c r="G18" s="3">
-        <v>1280500</v>
+        <v>1264600</v>
       </c>
       <c r="H18" s="3">
-        <v>1261500</v>
+        <v>1304700</v>
       </c>
       <c r="I18" s="3">
-        <v>1181300</v>
+        <v>1285300</v>
       </c>
       <c r="J18" s="3">
+        <v>1203600</v>
+      </c>
+      <c r="K18" s="3">
         <v>925000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>866300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>279200</v>
+        <v>295200</v>
       </c>
       <c r="E20" s="3">
-        <v>286000</v>
+        <v>284500</v>
       </c>
       <c r="F20" s="3">
-        <v>243200</v>
+        <v>291400</v>
       </c>
       <c r="G20" s="3">
-        <v>257600</v>
+        <v>247800</v>
       </c>
       <c r="H20" s="3">
-        <v>225100</v>
+        <v>262400</v>
       </c>
       <c r="I20" s="3">
-        <v>165500</v>
+        <v>229400</v>
       </c>
       <c r="J20" s="3">
+        <v>168600</v>
+      </c>
+      <c r="K20" s="3">
         <v>125400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>94700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1856700</v>
+        <v>2000600</v>
       </c>
       <c r="E21" s="3">
-        <v>1678700</v>
+        <v>1892800</v>
       </c>
       <c r="F21" s="3">
-        <v>1788800</v>
+        <v>1711600</v>
       </c>
       <c r="G21" s="3">
-        <v>1735300</v>
+        <v>1823800</v>
       </c>
       <c r="H21" s="3">
-        <v>1655600</v>
+        <v>1768900</v>
       </c>
       <c r="I21" s="3">
-        <v>1493100</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1687600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1107600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>74200</v>
+        <v>69200</v>
       </c>
       <c r="E22" s="3">
-        <v>45600</v>
+        <v>75600</v>
       </c>
       <c r="F22" s="3">
-        <v>25300</v>
+        <v>46500</v>
       </c>
       <c r="G22" s="3">
-        <v>18600</v>
+        <v>25800</v>
       </c>
       <c r="H22" s="3">
-        <v>10200</v>
+        <v>19000</v>
       </c>
       <c r="I22" s="3">
-        <v>11500</v>
+        <v>10300</v>
       </c>
       <c r="J22" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K22" s="3">
         <v>11400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1525800</v>
+        <v>1650200</v>
       </c>
       <c r="E23" s="3">
-        <v>1354700</v>
+        <v>1554600</v>
       </c>
       <c r="F23" s="3">
-        <v>1458900</v>
+        <v>1380300</v>
       </c>
       <c r="G23" s="3">
-        <v>1519400</v>
+        <v>1486500</v>
       </c>
       <c r="H23" s="3">
-        <v>1476400</v>
+        <v>1548100</v>
       </c>
       <c r="I23" s="3">
-        <v>1335300</v>
+        <v>1504400</v>
       </c>
       <c r="J23" s="3">
+        <v>1360500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1039000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>947500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>333700</v>
+        <v>334000</v>
       </c>
       <c r="E24" s="3">
-        <v>316700</v>
+        <v>340000</v>
       </c>
       <c r="F24" s="3">
-        <v>333300</v>
+        <v>322600</v>
       </c>
       <c r="G24" s="3">
-        <v>335300</v>
+        <v>339600</v>
       </c>
       <c r="H24" s="3">
-        <v>325500</v>
+        <v>341700</v>
       </c>
       <c r="I24" s="3">
-        <v>298800</v>
+        <v>331700</v>
       </c>
       <c r="J24" s="3">
+        <v>304400</v>
+      </c>
+      <c r="K24" s="3">
         <v>223600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>187300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1192100</v>
+        <v>1316200</v>
       </c>
       <c r="E26" s="3">
-        <v>1038000</v>
+        <v>1214600</v>
       </c>
       <c r="F26" s="3">
-        <v>1125600</v>
+        <v>1057700</v>
       </c>
       <c r="G26" s="3">
-        <v>1184100</v>
+        <v>1146900</v>
       </c>
       <c r="H26" s="3">
-        <v>1150900</v>
+        <v>1206500</v>
       </c>
       <c r="I26" s="3">
-        <v>1036500</v>
+        <v>1172700</v>
       </c>
       <c r="J26" s="3">
+        <v>1056100</v>
+      </c>
+      <c r="K26" s="3">
         <v>815500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>760100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1190200</v>
+        <v>1309500</v>
       </c>
       <c r="E27" s="3">
-        <v>1038000</v>
+        <v>1212700</v>
       </c>
       <c r="F27" s="3">
-        <v>1122300</v>
+        <v>1057600</v>
       </c>
       <c r="G27" s="3">
-        <v>1177600</v>
+        <v>1143500</v>
       </c>
       <c r="H27" s="3">
-        <v>1143900</v>
+        <v>1199800</v>
       </c>
       <c r="I27" s="3">
-        <v>1030700</v>
+        <v>1165500</v>
       </c>
       <c r="J27" s="3">
+        <v>1050200</v>
+      </c>
+      <c r="K27" s="3">
         <v>811200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>756600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>20700</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>21100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>66100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>49200</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-279200</v>
+        <v>-295200</v>
       </c>
       <c r="E32" s="3">
-        <v>-286000</v>
+        <v>-284500</v>
       </c>
       <c r="F32" s="3">
-        <v>-243200</v>
+        <v>-291400</v>
       </c>
       <c r="G32" s="3">
-        <v>-257600</v>
+        <v>-247800</v>
       </c>
       <c r="H32" s="3">
-        <v>-225100</v>
+        <v>-262400</v>
       </c>
       <c r="I32" s="3">
-        <v>-165500</v>
+        <v>-229400</v>
       </c>
       <c r="J32" s="3">
+        <v>-168600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-125400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-94700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1190200</v>
+        <v>1309500</v>
       </c>
       <c r="E33" s="3">
-        <v>1058700</v>
+        <v>1212700</v>
       </c>
       <c r="F33" s="3">
-        <v>1122300</v>
+        <v>1078700</v>
       </c>
       <c r="G33" s="3">
-        <v>1177600</v>
+        <v>1143500</v>
       </c>
       <c r="H33" s="3">
-        <v>1143900</v>
+        <v>1199800</v>
       </c>
       <c r="I33" s="3">
-        <v>1030700</v>
+        <v>1165500</v>
       </c>
       <c r="J33" s="3">
+        <v>1050200</v>
+      </c>
+      <c r="K33" s="3">
         <v>877300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>805900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1190200</v>
+        <v>1309500</v>
       </c>
       <c r="E35" s="3">
-        <v>1058700</v>
+        <v>1212700</v>
       </c>
       <c r="F35" s="3">
-        <v>1122300</v>
+        <v>1078700</v>
       </c>
       <c r="G35" s="3">
-        <v>1177600</v>
+        <v>1143500</v>
       </c>
       <c r="H35" s="3">
-        <v>1143900</v>
+        <v>1199800</v>
       </c>
       <c r="I35" s="3">
-        <v>1030700</v>
+        <v>1165500</v>
       </c>
       <c r="J35" s="3">
+        <v>1050200</v>
+      </c>
+      <c r="K35" s="3">
         <v>877300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>805900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2097300</v>
+        <v>1946400</v>
       </c>
       <c r="E41" s="3">
-        <v>594400</v>
+        <v>2135400</v>
       </c>
       <c r="F41" s="3">
-        <v>697400</v>
+        <v>605100</v>
       </c>
       <c r="G41" s="3">
-        <v>1310400</v>
+        <v>710000</v>
       </c>
       <c r="H41" s="3">
-        <v>2102800</v>
+        <v>1334100</v>
       </c>
       <c r="I41" s="3">
-        <v>1510900</v>
+        <v>2140900</v>
       </c>
       <c r="J41" s="3">
+        <v>1538300</v>
+      </c>
+      <c r="K41" s="3">
         <v>472100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>594900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2943800</v>
+        <v>2543700</v>
       </c>
       <c r="E42" s="3">
-        <v>3325600</v>
+        <v>2997200</v>
       </c>
       <c r="F42" s="3">
-        <v>3886500</v>
+        <v>3385900</v>
       </c>
       <c r="G42" s="3">
-        <v>6344500</v>
+        <v>3957000</v>
       </c>
       <c r="H42" s="3">
-        <v>1264400</v>
+        <v>6459600</v>
       </c>
       <c r="I42" s="3">
-        <v>1006500</v>
+        <v>1287300</v>
       </c>
       <c r="J42" s="3">
+        <v>1024700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1598900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1164500</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2207700</v>
+        <v>2241900</v>
       </c>
       <c r="E43" s="3">
-        <v>2048000</v>
+        <v>2247700</v>
       </c>
       <c r="F43" s="3">
-        <v>2069500</v>
+        <v>2085100</v>
       </c>
       <c r="G43" s="3">
-        <v>3521300</v>
+        <v>2107000</v>
       </c>
       <c r="H43" s="3">
-        <v>1996700</v>
+        <v>3585200</v>
       </c>
       <c r="I43" s="3">
-        <v>1865500</v>
+        <v>2032900</v>
       </c>
       <c r="J43" s="3">
+        <v>1899400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1631600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1744700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>95200</v>
+        <v>67200</v>
       </c>
       <c r="E44" s="3">
-        <v>68700</v>
+        <v>97000</v>
       </c>
       <c r="F44" s="3">
-        <v>71000</v>
+        <v>69900</v>
       </c>
       <c r="G44" s="3">
-        <v>91200</v>
+        <v>72200</v>
       </c>
       <c r="H44" s="3">
-        <v>96300</v>
+        <v>92900</v>
       </c>
       <c r="I44" s="3">
-        <v>62700</v>
+        <v>98000</v>
       </c>
       <c r="J44" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K44" s="3">
         <v>43200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>154200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>222300</v>
+        <v>203300</v>
       </c>
       <c r="E45" s="3">
-        <v>659900</v>
+        <v>226300</v>
       </c>
       <c r="F45" s="3">
-        <v>405300</v>
+        <v>671900</v>
       </c>
       <c r="G45" s="3">
-        <v>360300</v>
+        <v>412600</v>
       </c>
       <c r="H45" s="3">
-        <v>314600</v>
+        <v>366800</v>
       </c>
       <c r="I45" s="3">
-        <v>246900</v>
+        <v>320300</v>
       </c>
       <c r="J45" s="3">
+        <v>251400</v>
+      </c>
+      <c r="K45" s="3">
         <v>321300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>296300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7566300</v>
+        <v>7002400</v>
       </c>
       <c r="E46" s="3">
-        <v>6696400</v>
+        <v>7703600</v>
       </c>
       <c r="F46" s="3">
-        <v>7129600</v>
+        <v>6817900</v>
       </c>
       <c r="G46" s="3">
-        <v>6652400</v>
+        <v>7259000</v>
       </c>
       <c r="H46" s="3">
-        <v>5774800</v>
+        <v>6773100</v>
       </c>
       <c r="I46" s="3">
-        <v>4692500</v>
+        <v>5879500</v>
       </c>
       <c r="J46" s="3">
+        <v>4777600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4066900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3954600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>543000</v>
+        <v>516700</v>
       </c>
       <c r="E47" s="3">
-        <v>471100</v>
+        <v>552800</v>
       </c>
       <c r="F47" s="3">
-        <v>341100</v>
+        <v>479600</v>
       </c>
       <c r="G47" s="3">
-        <v>277600</v>
+        <v>347300</v>
       </c>
       <c r="H47" s="3">
-        <v>202100</v>
+        <v>282700</v>
       </c>
       <c r="I47" s="3">
-        <v>170200</v>
+        <v>205800</v>
       </c>
       <c r="J47" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K47" s="3">
         <v>142000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>231700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>934100</v>
+        <v>1318300</v>
       </c>
       <c r="E48" s="3">
-        <v>859400</v>
+        <v>951000</v>
       </c>
       <c r="F48" s="3">
-        <v>923400</v>
+        <v>868000</v>
       </c>
       <c r="G48" s="3">
-        <v>859400</v>
+        <v>940100</v>
       </c>
       <c r="H48" s="3">
-        <v>717100</v>
+        <v>875000</v>
       </c>
       <c r="I48" s="3">
-        <v>680700</v>
+        <v>730200</v>
       </c>
       <c r="J48" s="3">
+        <v>693000</v>
+      </c>
+      <c r="K48" s="3">
         <v>668400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>853000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1729700</v>
+        <v>1985100</v>
       </c>
       <c r="E49" s="3">
-        <v>1795300</v>
+        <v>1761100</v>
       </c>
       <c r="F49" s="3">
-        <v>1874900</v>
+        <v>1827800</v>
       </c>
       <c r="G49" s="3">
-        <v>1558900</v>
+        <v>1908900</v>
       </c>
       <c r="H49" s="3">
-        <v>1005600</v>
+        <v>1587200</v>
       </c>
       <c r="I49" s="3">
-        <v>864700</v>
+        <v>1023800</v>
       </c>
       <c r="J49" s="3">
+        <v>880400</v>
+      </c>
+      <c r="K49" s="3">
         <v>747100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1043500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>249800</v>
+        <v>183300</v>
       </c>
       <c r="E52" s="3">
-        <v>241100</v>
+        <v>254300</v>
       </c>
       <c r="F52" s="3">
-        <v>229200</v>
+        <v>252400</v>
       </c>
       <c r="G52" s="3">
-        <v>230300</v>
+        <v>233300</v>
       </c>
       <c r="H52" s="3">
-        <v>238800</v>
+        <v>234500</v>
       </c>
       <c r="I52" s="3">
-        <v>237400</v>
+        <v>243100</v>
       </c>
       <c r="J52" s="3">
+        <v>241700</v>
+      </c>
+      <c r="K52" s="3">
         <v>193200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>221700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11022900</v>
+        <v>11005800</v>
       </c>
       <c r="E54" s="3">
-        <v>10063300</v>
+        <v>11222800</v>
       </c>
       <c r="F54" s="3">
-        <v>10498200</v>
+        <v>10245800</v>
       </c>
       <c r="G54" s="3">
-        <v>9578600</v>
+        <v>10688700</v>
       </c>
       <c r="H54" s="3">
-        <v>7938400</v>
+        <v>9752300</v>
       </c>
       <c r="I54" s="3">
-        <v>6645500</v>
+        <v>8082400</v>
       </c>
       <c r="J54" s="3">
+        <v>6766000</v>
+      </c>
+      <c r="K54" s="3">
         <v>5817600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6304600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>377400</v>
+        <v>364400</v>
       </c>
       <c r="E57" s="3">
-        <v>322900</v>
+        <v>384300</v>
       </c>
       <c r="F57" s="3">
-        <v>310300</v>
+        <v>328700</v>
       </c>
       <c r="G57" s="3">
-        <v>1212300</v>
+        <v>315900</v>
       </c>
       <c r="H57" s="3">
-        <v>249300</v>
+        <v>1234300</v>
       </c>
       <c r="I57" s="3">
-        <v>233000</v>
+        <v>253800</v>
       </c>
       <c r="J57" s="3">
+        <v>237300</v>
+      </c>
+      <c r="K57" s="3">
         <v>204200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>338800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>940600</v>
+        <v>1074400</v>
       </c>
       <c r="E58" s="3">
-        <v>1230300</v>
+        <v>957700</v>
       </c>
       <c r="F58" s="3">
-        <v>1624700</v>
+        <v>1252600</v>
       </c>
       <c r="G58" s="3">
-        <v>2854000</v>
+        <v>1654100</v>
       </c>
       <c r="H58" s="3">
-        <v>875900</v>
+        <v>2905700</v>
       </c>
       <c r="I58" s="3">
-        <v>538200</v>
+        <v>891800</v>
       </c>
       <c r="J58" s="3">
+        <v>548000</v>
+      </c>
+      <c r="K58" s="3">
         <v>833000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>527000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1517800</v>
+        <v>1476000</v>
       </c>
       <c r="E59" s="3">
-        <v>1271500</v>
+        <v>1545300</v>
       </c>
       <c r="F59" s="3">
-        <v>1101900</v>
+        <v>1294600</v>
       </c>
       <c r="G59" s="3">
-        <v>1154400</v>
+        <v>1121900</v>
       </c>
       <c r="H59" s="3">
-        <v>1044900</v>
+        <v>1175300</v>
       </c>
       <c r="I59" s="3">
-        <v>1034000</v>
+        <v>1063800</v>
       </c>
       <c r="J59" s="3">
+        <v>1052800</v>
+      </c>
+      <c r="K59" s="3">
         <v>877700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>835900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2835900</v>
+        <v>2914800</v>
       </c>
       <c r="E60" s="3">
-        <v>2824700</v>
+        <v>2887300</v>
       </c>
       <c r="F60" s="3">
-        <v>3036900</v>
+        <v>2875900</v>
       </c>
       <c r="G60" s="3">
-        <v>2891600</v>
+        <v>3091900</v>
       </c>
       <c r="H60" s="3">
-        <v>2170100</v>
+        <v>2944000</v>
       </c>
       <c r="I60" s="3">
-        <v>1805300</v>
+        <v>2209500</v>
       </c>
       <c r="J60" s="3">
+        <v>1838100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1914900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1701700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>375300</v>
+        <v>235400</v>
       </c>
       <c r="E61" s="3">
-        <v>598900</v>
+        <v>382100</v>
       </c>
       <c r="F61" s="3">
-        <v>259500</v>
+        <v>609800</v>
       </c>
       <c r="G61" s="3">
-        <v>229700</v>
+        <v>264200</v>
       </c>
       <c r="H61" s="3">
-        <v>168100</v>
+        <v>233900</v>
       </c>
       <c r="I61" s="3">
-        <v>144300</v>
+        <v>171200</v>
       </c>
       <c r="J61" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>325500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>260600</v>
+        <v>321400</v>
       </c>
       <c r="E62" s="3">
-        <v>218700</v>
+        <v>265400</v>
       </c>
       <c r="F62" s="3">
-        <v>286700</v>
+        <v>222600</v>
       </c>
       <c r="G62" s="3">
-        <v>273800</v>
+        <v>291900</v>
       </c>
       <c r="H62" s="3">
-        <v>180800</v>
+        <v>278800</v>
       </c>
       <c r="I62" s="3">
-        <v>133000</v>
+        <v>184100</v>
       </c>
       <c r="J62" s="3">
+        <v>135400</v>
+      </c>
+      <c r="K62" s="3">
         <v>121100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>139400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3506700</v>
+        <v>3496900</v>
       </c>
       <c r="E66" s="3">
-        <v>3674000</v>
+        <v>3570300</v>
       </c>
       <c r="F66" s="3">
-        <v>3614600</v>
+        <v>3740700</v>
       </c>
       <c r="G66" s="3">
-        <v>3424300</v>
+        <v>3680200</v>
       </c>
       <c r="H66" s="3">
-        <v>2540800</v>
+        <v>3486500</v>
       </c>
       <c r="I66" s="3">
-        <v>2101000</v>
+        <v>2586900</v>
       </c>
       <c r="J66" s="3">
+        <v>2139100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2062800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2178900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7081100</v>
+        <v>7031100</v>
       </c>
       <c r="E72" s="3">
-        <v>6017200</v>
+        <v>7209600</v>
       </c>
       <c r="F72" s="3">
-        <v>6514500</v>
+        <v>6126300</v>
       </c>
       <c r="G72" s="3">
-        <v>5627200</v>
+        <v>6632700</v>
       </c>
       <c r="H72" s="3">
-        <v>4924800</v>
+        <v>5729200</v>
       </c>
       <c r="I72" s="3">
-        <v>4166800</v>
+        <v>5014200</v>
       </c>
       <c r="J72" s="3">
+        <v>4242400</v>
+      </c>
+      <c r="K72" s="3">
         <v>3466000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3507000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7516200</v>
+        <v>7509000</v>
       </c>
       <c r="E76" s="3">
-        <v>6389200</v>
+        <v>7652500</v>
       </c>
       <c r="F76" s="3">
-        <v>6883600</v>
+        <v>6505100</v>
       </c>
       <c r="G76" s="3">
-        <v>6154200</v>
+        <v>7008500</v>
       </c>
       <c r="H76" s="3">
-        <v>5397600</v>
+        <v>6265900</v>
       </c>
       <c r="I76" s="3">
-        <v>4544500</v>
+        <v>5495500</v>
       </c>
       <c r="J76" s="3">
+        <v>4626900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3754800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4125600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1190200</v>
+        <v>1309500</v>
       </c>
       <c r="E81" s="3">
-        <v>1058700</v>
+        <v>1212700</v>
       </c>
       <c r="F81" s="3">
-        <v>1122300</v>
+        <v>1078700</v>
       </c>
       <c r="G81" s="3">
-        <v>1177600</v>
+        <v>1143500</v>
       </c>
       <c r="H81" s="3">
-        <v>1143900</v>
+        <v>1199800</v>
       </c>
       <c r="I81" s="3">
-        <v>1030700</v>
+        <v>1165500</v>
       </c>
       <c r="J81" s="3">
+        <v>1050200</v>
+      </c>
+      <c r="K81" s="3">
         <v>877300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>805900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>257400</v>
+        <v>281000</v>
       </c>
       <c r="E83" s="3">
-        <v>279300</v>
+        <v>262300</v>
       </c>
       <c r="F83" s="3">
-        <v>305500</v>
+        <v>284500</v>
       </c>
       <c r="G83" s="3">
-        <v>197800</v>
+        <v>311300</v>
       </c>
       <c r="H83" s="3">
-        <v>169500</v>
+        <v>201600</v>
       </c>
       <c r="I83" s="3">
-        <v>146800</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>172700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>149600</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>146500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1537700</v>
+        <v>1355700</v>
       </c>
       <c r="E89" s="3">
-        <v>1113600</v>
+        <v>1566800</v>
       </c>
       <c r="F89" s="3">
-        <v>1226500</v>
+        <v>1134600</v>
       </c>
       <c r="G89" s="3">
-        <v>1042700</v>
+        <v>1249700</v>
       </c>
       <c r="H89" s="3">
-        <v>1034600</v>
+        <v>1062400</v>
       </c>
       <c r="I89" s="3">
-        <v>897600</v>
+        <v>1054200</v>
       </c>
       <c r="J89" s="3">
+        <v>914600</v>
+      </c>
+      <c r="K89" s="3">
         <v>931000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>579500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-301200</v>
+        <v>-316500</v>
       </c>
       <c r="E91" s="3">
-        <v>-289100</v>
+        <v>-306900</v>
       </c>
       <c r="F91" s="3">
-        <v>-275700</v>
+        <v>-294600</v>
       </c>
       <c r="G91" s="3">
-        <v>-184400</v>
+        <v>-280900</v>
       </c>
       <c r="H91" s="3">
-        <v>-167400</v>
+        <v>-187900</v>
       </c>
       <c r="I91" s="3">
-        <v>-117800</v>
+        <v>-170500</v>
       </c>
       <c r="J91" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-140300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-187600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>662700</v>
+        <v>458100</v>
       </c>
       <c r="E94" s="3">
-        <v>470300</v>
+        <v>675200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1537300</v>
+        <v>479200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1826400</v>
+        <v>-1566300</v>
       </c>
       <c r="H94" s="3">
-        <v>-338100</v>
+        <v>-1861000</v>
       </c>
       <c r="I94" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-344500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-116500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-71800</v>
+        <v>-92400</v>
       </c>
       <c r="E96" s="3">
-        <v>-71700</v>
+        <v>-73200</v>
       </c>
       <c r="F96" s="3">
-        <v>-115500</v>
+        <v>-73000</v>
       </c>
       <c r="G96" s="3">
-        <v>-469200</v>
+        <v>-117600</v>
       </c>
       <c r="H96" s="3">
-        <v>-389900</v>
+        <v>-478100</v>
       </c>
       <c r="I96" s="3">
-        <v>-307700</v>
+        <v>-397200</v>
       </c>
       <c r="J96" s="3">
+        <v>-313500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-225800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-249100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-652700</v>
+        <v>-2033900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1718300</v>
+        <v>-665000</v>
       </c>
       <c r="F100" s="3">
-        <v>-300800</v>
+        <v>-1750800</v>
       </c>
       <c r="G100" s="3">
-        <v>-21000</v>
+        <v>-306500</v>
       </c>
       <c r="H100" s="3">
-        <v>-115900</v>
+        <v>-21400</v>
       </c>
       <c r="I100" s="3">
-        <v>-462300</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-118100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-471100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-251600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>25900</v>
       </c>
       <c r="E101" s="3">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="F101" s="3">
-        <v>-18700</v>
+        <v>5100</v>
       </c>
       <c r="G101" s="3">
-        <v>7300</v>
+        <v>-19000</v>
       </c>
       <c r="H101" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="I101" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1554700</v>
+        <v>-194300</v>
       </c>
       <c r="E102" s="3">
-        <v>-129500</v>
+        <v>1584100</v>
       </c>
       <c r="F102" s="3">
-        <v>-630300</v>
+        <v>-131900</v>
       </c>
       <c r="G102" s="3">
-        <v>-797400</v>
+        <v>-642200</v>
       </c>
       <c r="H102" s="3">
-        <v>588400</v>
+        <v>-812500</v>
       </c>
       <c r="I102" s="3">
-        <v>397700</v>
+        <v>599600</v>
       </c>
       <c r="J102" s="3">
+        <v>405200</v>
+      </c>
+      <c r="K102" s="3">
         <v>91400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>235700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8219800</v>
+        <v>8256400</v>
       </c>
       <c r="E8" s="3">
-        <v>7891300</v>
+        <v>7926500</v>
       </c>
       <c r="F8" s="3">
-        <v>7339400</v>
+        <v>7372100</v>
       </c>
       <c r="G8" s="3">
-        <v>7413900</v>
+        <v>7446900</v>
       </c>
       <c r="H8" s="3">
-        <v>6902600</v>
+        <v>6933300</v>
       </c>
       <c r="I8" s="3">
-        <v>6324800</v>
+        <v>6352900</v>
       </c>
       <c r="J8" s="3">
-        <v>5849600</v>
+        <v>5875700</v>
       </c>
       <c r="K8" s="3">
         <v>4947700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5874100</v>
+        <v>5900200</v>
       </c>
       <c r="E9" s="3">
-        <v>5543600</v>
+        <v>5568300</v>
       </c>
       <c r="F9" s="3">
-        <v>5193700</v>
+        <v>5216800</v>
       </c>
       <c r="G9" s="3">
-        <v>5274100</v>
+        <v>5297600</v>
       </c>
       <c r="H9" s="3">
-        <v>4805100</v>
+        <v>4826500</v>
       </c>
       <c r="I9" s="3">
-        <v>4327700</v>
+        <v>4347000</v>
       </c>
       <c r="J9" s="3">
-        <v>3980200</v>
+        <v>3998000</v>
       </c>
       <c r="K9" s="3">
         <v>3446000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2345800</v>
+        <v>2356200</v>
       </c>
       <c r="E10" s="3">
-        <v>2347700</v>
+        <v>2358200</v>
       </c>
       <c r="F10" s="3">
-        <v>2145700</v>
+        <v>2155300</v>
       </c>
       <c r="G10" s="3">
-        <v>2139800</v>
+        <v>2149300</v>
       </c>
       <c r="H10" s="3">
-        <v>2097500</v>
+        <v>2106800</v>
       </c>
       <c r="I10" s="3">
-        <v>1997100</v>
+        <v>2006000</v>
       </c>
       <c r="J10" s="3">
-        <v>1869400</v>
+        <v>1877700</v>
       </c>
       <c r="K10" s="3">
         <v>1501700</v>
@@ -900,13 +900,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-10600</v>
+        <v>-10700</v>
       </c>
       <c r="F14" s="3">
         <v>8700</v>
       </c>
       <c r="G14" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47700</v>
+        <v>47900</v>
       </c>
       <c r="E15" s="3">
-        <v>52200</v>
+        <v>52400</v>
       </c>
       <c r="F15" s="3">
-        <v>52100</v>
+        <v>52300</v>
       </c>
       <c r="G15" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="H15" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6795600</v>
+        <v>6825900</v>
       </c>
       <c r="E17" s="3">
-        <v>6545500</v>
+        <v>6574700</v>
       </c>
       <c r="F17" s="3">
-        <v>6204000</v>
+        <v>6231600</v>
       </c>
       <c r="G17" s="3">
-        <v>6149400</v>
+        <v>6176800</v>
       </c>
       <c r="H17" s="3">
-        <v>5597900</v>
+        <v>5622800</v>
       </c>
       <c r="I17" s="3">
-        <v>5039400</v>
+        <v>5061900</v>
       </c>
       <c r="J17" s="3">
-        <v>4646000</v>
+        <v>4666700</v>
       </c>
       <c r="K17" s="3">
         <v>4022600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1424200</v>
+        <v>1430500</v>
       </c>
       <c r="E18" s="3">
-        <v>1345800</v>
+        <v>1351800</v>
       </c>
       <c r="F18" s="3">
-        <v>1135400</v>
+        <v>1140500</v>
       </c>
       <c r="G18" s="3">
-        <v>1264600</v>
+        <v>1270200</v>
       </c>
       <c r="H18" s="3">
-        <v>1304700</v>
+        <v>1310500</v>
       </c>
       <c r="I18" s="3">
-        <v>1285300</v>
+        <v>1291100</v>
       </c>
       <c r="J18" s="3">
-        <v>1203600</v>
+        <v>1209000</v>
       </c>
       <c r="K18" s="3">
         <v>925000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>295200</v>
+        <v>296600</v>
       </c>
       <c r="E20" s="3">
-        <v>284500</v>
+        <v>285800</v>
       </c>
       <c r="F20" s="3">
-        <v>291400</v>
+        <v>292700</v>
       </c>
       <c r="G20" s="3">
-        <v>247800</v>
+        <v>248900</v>
       </c>
       <c r="H20" s="3">
-        <v>262400</v>
+        <v>263600</v>
       </c>
       <c r="I20" s="3">
-        <v>229400</v>
+        <v>230400</v>
       </c>
       <c r="J20" s="3">
-        <v>168600</v>
+        <v>169400</v>
       </c>
       <c r="K20" s="3">
         <v>125400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2000600</v>
+        <v>2009500</v>
       </c>
       <c r="E21" s="3">
-        <v>1892800</v>
+        <v>1901200</v>
       </c>
       <c r="F21" s="3">
-        <v>1711600</v>
+        <v>1719200</v>
       </c>
       <c r="G21" s="3">
-        <v>1823800</v>
+        <v>1831900</v>
       </c>
       <c r="H21" s="3">
-        <v>1768900</v>
+        <v>1776700</v>
       </c>
       <c r="I21" s="3">
-        <v>1687600</v>
+        <v>1695100</v>
       </c>
       <c r="J21" s="3">
-        <v>1521900</v>
+        <v>1528700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>69200</v>
+        <v>69500</v>
       </c>
       <c r="E22" s="3">
-        <v>75600</v>
+        <v>76000</v>
       </c>
       <c r="F22" s="3">
-        <v>46500</v>
+        <v>46700</v>
       </c>
       <c r="G22" s="3">
-        <v>25800</v>
+        <v>25900</v>
       </c>
       <c r="H22" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="I22" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="J22" s="3">
         <v>11700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1650200</v>
+        <v>1657600</v>
       </c>
       <c r="E23" s="3">
-        <v>1554600</v>
+        <v>1561600</v>
       </c>
       <c r="F23" s="3">
-        <v>1380300</v>
+        <v>1386500</v>
       </c>
       <c r="G23" s="3">
-        <v>1486500</v>
+        <v>1493100</v>
       </c>
       <c r="H23" s="3">
-        <v>1548100</v>
+        <v>1555000</v>
       </c>
       <c r="I23" s="3">
-        <v>1504400</v>
+        <v>1511100</v>
       </c>
       <c r="J23" s="3">
-        <v>1360500</v>
+        <v>1366600</v>
       </c>
       <c r="K23" s="3">
         <v>1039000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>334000</v>
+        <v>335500</v>
       </c>
       <c r="E24" s="3">
-        <v>340000</v>
+        <v>341500</v>
       </c>
       <c r="F24" s="3">
-        <v>322600</v>
+        <v>324100</v>
       </c>
       <c r="G24" s="3">
-        <v>339600</v>
+        <v>341100</v>
       </c>
       <c r="H24" s="3">
-        <v>341700</v>
+        <v>343200</v>
       </c>
       <c r="I24" s="3">
-        <v>331700</v>
+        <v>333200</v>
       </c>
       <c r="J24" s="3">
-        <v>304400</v>
+        <v>305800</v>
       </c>
       <c r="K24" s="3">
         <v>223600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1316200</v>
+        <v>1322100</v>
       </c>
       <c r="E26" s="3">
-        <v>1214600</v>
+        <v>1220000</v>
       </c>
       <c r="F26" s="3">
-        <v>1057700</v>
+        <v>1062400</v>
       </c>
       <c r="G26" s="3">
-        <v>1146900</v>
+        <v>1152000</v>
       </c>
       <c r="H26" s="3">
-        <v>1206500</v>
+        <v>1211800</v>
       </c>
       <c r="I26" s="3">
-        <v>1172700</v>
+        <v>1177900</v>
       </c>
       <c r="J26" s="3">
-        <v>1056100</v>
+        <v>1060800</v>
       </c>
       <c r="K26" s="3">
         <v>815500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1309500</v>
+        <v>1315400</v>
       </c>
       <c r="E27" s="3">
-        <v>1212700</v>
+        <v>1218100</v>
       </c>
       <c r="F27" s="3">
-        <v>1057600</v>
+        <v>1062300</v>
       </c>
       <c r="G27" s="3">
-        <v>1143500</v>
+        <v>1148600</v>
       </c>
       <c r="H27" s="3">
-        <v>1199800</v>
+        <v>1205200</v>
       </c>
       <c r="I27" s="3">
-        <v>1165500</v>
+        <v>1170700</v>
       </c>
       <c r="J27" s="3">
-        <v>1050200</v>
+        <v>1054900</v>
       </c>
       <c r="K27" s="3">
         <v>811200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-295200</v>
+        <v>-296600</v>
       </c>
       <c r="E32" s="3">
-        <v>-284500</v>
+        <v>-285800</v>
       </c>
       <c r="F32" s="3">
-        <v>-291400</v>
+        <v>-292700</v>
       </c>
       <c r="G32" s="3">
-        <v>-247800</v>
+        <v>-248900</v>
       </c>
       <c r="H32" s="3">
-        <v>-262400</v>
+        <v>-263600</v>
       </c>
       <c r="I32" s="3">
-        <v>-229400</v>
+        <v>-230400</v>
       </c>
       <c r="J32" s="3">
-        <v>-168600</v>
+        <v>-169400</v>
       </c>
       <c r="K32" s="3">
         <v>-125400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1309500</v>
+        <v>1315400</v>
       </c>
       <c r="E33" s="3">
-        <v>1212700</v>
+        <v>1218100</v>
       </c>
       <c r="F33" s="3">
-        <v>1078700</v>
+        <v>1083500</v>
       </c>
       <c r="G33" s="3">
-        <v>1143500</v>
+        <v>1148600</v>
       </c>
       <c r="H33" s="3">
-        <v>1199800</v>
+        <v>1205200</v>
       </c>
       <c r="I33" s="3">
-        <v>1165500</v>
+        <v>1170700</v>
       </c>
       <c r="J33" s="3">
-        <v>1050200</v>
+        <v>1054900</v>
       </c>
       <c r="K33" s="3">
         <v>877300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1309500</v>
+        <v>1315400</v>
       </c>
       <c r="E35" s="3">
-        <v>1212700</v>
+        <v>1218100</v>
       </c>
       <c r="F35" s="3">
-        <v>1078700</v>
+        <v>1083500</v>
       </c>
       <c r="G35" s="3">
-        <v>1143500</v>
+        <v>1148600</v>
       </c>
       <c r="H35" s="3">
-        <v>1199800</v>
+        <v>1205200</v>
       </c>
       <c r="I35" s="3">
-        <v>1165500</v>
+        <v>1170700</v>
       </c>
       <c r="J35" s="3">
-        <v>1050200</v>
+        <v>1054900</v>
       </c>
       <c r="K35" s="3">
         <v>877300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1946400</v>
+        <v>1955100</v>
       </c>
       <c r="E41" s="3">
-        <v>2135400</v>
+        <v>2144900</v>
       </c>
       <c r="F41" s="3">
-        <v>605100</v>
+        <v>607800</v>
       </c>
       <c r="G41" s="3">
-        <v>710000</v>
+        <v>713200</v>
       </c>
       <c r="H41" s="3">
-        <v>1334100</v>
+        <v>1340100</v>
       </c>
       <c r="I41" s="3">
-        <v>2140900</v>
+        <v>2150500</v>
       </c>
       <c r="J41" s="3">
-        <v>1538300</v>
+        <v>1545100</v>
       </c>
       <c r="K41" s="3">
         <v>472100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2543700</v>
+        <v>2555000</v>
       </c>
       <c r="E42" s="3">
-        <v>2997200</v>
+        <v>3010600</v>
       </c>
       <c r="F42" s="3">
-        <v>3385900</v>
+        <v>3401000</v>
       </c>
       <c r="G42" s="3">
-        <v>3957000</v>
+        <v>3974700</v>
       </c>
       <c r="H42" s="3">
-        <v>6459600</v>
+        <v>6488300</v>
       </c>
       <c r="I42" s="3">
-        <v>1287300</v>
+        <v>1293000</v>
       </c>
       <c r="J42" s="3">
-        <v>1024700</v>
+        <v>1029300</v>
       </c>
       <c r="K42" s="3">
         <v>1598900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2241900</v>
+        <v>2251900</v>
       </c>
       <c r="E43" s="3">
-        <v>2247700</v>
+        <v>2257700</v>
       </c>
       <c r="F43" s="3">
-        <v>2085100</v>
+        <v>2094400</v>
       </c>
       <c r="G43" s="3">
-        <v>2107000</v>
+        <v>2116400</v>
       </c>
       <c r="H43" s="3">
-        <v>3585200</v>
+        <v>3601200</v>
       </c>
       <c r="I43" s="3">
-        <v>2032900</v>
+        <v>2042000</v>
       </c>
       <c r="J43" s="3">
-        <v>1899400</v>
+        <v>1907800</v>
       </c>
       <c r="K43" s="3">
         <v>1631600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67200</v>
+        <v>67500</v>
       </c>
       <c r="E44" s="3">
-        <v>97000</v>
+        <v>97400</v>
       </c>
       <c r="F44" s="3">
-        <v>69900</v>
+        <v>70200</v>
       </c>
       <c r="G44" s="3">
-        <v>72200</v>
+        <v>72600</v>
       </c>
       <c r="H44" s="3">
-        <v>92900</v>
+        <v>93300</v>
       </c>
       <c r="I44" s="3">
-        <v>98000</v>
+        <v>98500</v>
       </c>
       <c r="J44" s="3">
-        <v>63800</v>
+        <v>64100</v>
       </c>
       <c r="K44" s="3">
         <v>43200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>203300</v>
+        <v>204200</v>
       </c>
       <c r="E45" s="3">
-        <v>226300</v>
+        <v>227300</v>
       </c>
       <c r="F45" s="3">
-        <v>671900</v>
+        <v>674800</v>
       </c>
       <c r="G45" s="3">
-        <v>412600</v>
+        <v>414500</v>
       </c>
       <c r="H45" s="3">
-        <v>366800</v>
+        <v>368400</v>
       </c>
       <c r="I45" s="3">
-        <v>320300</v>
+        <v>321800</v>
       </c>
       <c r="J45" s="3">
-        <v>251400</v>
+        <v>252500</v>
       </c>
       <c r="K45" s="3">
         <v>321300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7002400</v>
+        <v>7033600</v>
       </c>
       <c r="E46" s="3">
-        <v>7703600</v>
+        <v>7737900</v>
       </c>
       <c r="F46" s="3">
-        <v>6817900</v>
+        <v>6848300</v>
       </c>
       <c r="G46" s="3">
-        <v>7259000</v>
+        <v>7291300</v>
       </c>
       <c r="H46" s="3">
-        <v>6773100</v>
+        <v>6803200</v>
       </c>
       <c r="I46" s="3">
-        <v>5879500</v>
+        <v>5905700</v>
       </c>
       <c r="J46" s="3">
-        <v>4777600</v>
+        <v>4798900</v>
       </c>
       <c r="K46" s="3">
         <v>4066900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>516700</v>
+        <v>519000</v>
       </c>
       <c r="E47" s="3">
-        <v>552800</v>
+        <v>555300</v>
       </c>
       <c r="F47" s="3">
-        <v>479600</v>
+        <v>481700</v>
       </c>
       <c r="G47" s="3">
-        <v>347300</v>
+        <v>348800</v>
       </c>
       <c r="H47" s="3">
-        <v>282700</v>
+        <v>283900</v>
       </c>
       <c r="I47" s="3">
-        <v>205800</v>
+        <v>206700</v>
       </c>
       <c r="J47" s="3">
-        <v>173300</v>
+        <v>174100</v>
       </c>
       <c r="K47" s="3">
         <v>142000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1318300</v>
+        <v>1324200</v>
       </c>
       <c r="E48" s="3">
-        <v>951000</v>
+        <v>955200</v>
       </c>
       <c r="F48" s="3">
-        <v>868000</v>
+        <v>871900</v>
       </c>
       <c r="G48" s="3">
-        <v>940100</v>
+        <v>944300</v>
       </c>
       <c r="H48" s="3">
-        <v>875000</v>
+        <v>878900</v>
       </c>
       <c r="I48" s="3">
-        <v>730200</v>
+        <v>733400</v>
       </c>
       <c r="J48" s="3">
-        <v>693000</v>
+        <v>696100</v>
       </c>
       <c r="K48" s="3">
         <v>668400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1985100</v>
+        <v>1994000</v>
       </c>
       <c r="E49" s="3">
-        <v>1761100</v>
+        <v>1768900</v>
       </c>
       <c r="F49" s="3">
-        <v>1827800</v>
+        <v>1836000</v>
       </c>
       <c r="G49" s="3">
-        <v>1908900</v>
+        <v>1917400</v>
       </c>
       <c r="H49" s="3">
-        <v>1587200</v>
+        <v>1594300</v>
       </c>
       <c r="I49" s="3">
-        <v>1023800</v>
+        <v>1028400</v>
       </c>
       <c r="J49" s="3">
-        <v>880400</v>
+        <v>884300</v>
       </c>
       <c r="K49" s="3">
         <v>747100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>183300</v>
+        <v>184100</v>
       </c>
       <c r="E52" s="3">
-        <v>254300</v>
+        <v>255500</v>
       </c>
       <c r="F52" s="3">
-        <v>252400</v>
+        <v>253500</v>
       </c>
       <c r="G52" s="3">
-        <v>233300</v>
+        <v>234400</v>
       </c>
       <c r="H52" s="3">
-        <v>234500</v>
+        <v>235600</v>
       </c>
       <c r="I52" s="3">
-        <v>243100</v>
+        <v>244200</v>
       </c>
       <c r="J52" s="3">
-        <v>241700</v>
+        <v>242800</v>
       </c>
       <c r="K52" s="3">
         <v>193200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11005800</v>
+        <v>11054800</v>
       </c>
       <c r="E54" s="3">
-        <v>11222800</v>
+        <v>11272800</v>
       </c>
       <c r="F54" s="3">
-        <v>10245800</v>
+        <v>10291500</v>
       </c>
       <c r="G54" s="3">
-        <v>10688700</v>
+        <v>10736300</v>
       </c>
       <c r="H54" s="3">
-        <v>9752300</v>
+        <v>9795800</v>
       </c>
       <c r="I54" s="3">
-        <v>8082400</v>
+        <v>8118400</v>
       </c>
       <c r="J54" s="3">
-        <v>6766000</v>
+        <v>6796200</v>
       </c>
       <c r="K54" s="3">
         <v>5817600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>364400</v>
+        <v>366000</v>
       </c>
       <c r="E57" s="3">
-        <v>384300</v>
+        <v>386000</v>
       </c>
       <c r="F57" s="3">
-        <v>328700</v>
+        <v>330200</v>
       </c>
       <c r="G57" s="3">
-        <v>315900</v>
+        <v>317300</v>
       </c>
       <c r="H57" s="3">
-        <v>1234300</v>
+        <v>1239800</v>
       </c>
       <c r="I57" s="3">
-        <v>253800</v>
+        <v>255000</v>
       </c>
       <c r="J57" s="3">
-        <v>237300</v>
+        <v>238300</v>
       </c>
       <c r="K57" s="3">
         <v>204200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1074400</v>
+        <v>1079200</v>
       </c>
       <c r="E58" s="3">
-        <v>957700</v>
+        <v>962000</v>
       </c>
       <c r="F58" s="3">
-        <v>1252600</v>
+        <v>1258200</v>
       </c>
       <c r="G58" s="3">
-        <v>1654100</v>
+        <v>1661500</v>
       </c>
       <c r="H58" s="3">
-        <v>2905700</v>
+        <v>2918700</v>
       </c>
       <c r="I58" s="3">
-        <v>891800</v>
+        <v>895800</v>
       </c>
       <c r="J58" s="3">
-        <v>548000</v>
+        <v>550400</v>
       </c>
       <c r="K58" s="3">
         <v>833000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1476000</v>
+        <v>1482600</v>
       </c>
       <c r="E59" s="3">
-        <v>1545300</v>
+        <v>1552200</v>
       </c>
       <c r="F59" s="3">
-        <v>1294600</v>
+        <v>1300400</v>
       </c>
       <c r="G59" s="3">
-        <v>1121900</v>
+        <v>1126900</v>
       </c>
       <c r="H59" s="3">
-        <v>1175300</v>
+        <v>1180500</v>
       </c>
       <c r="I59" s="3">
-        <v>1063800</v>
+        <v>1068600</v>
       </c>
       <c r="J59" s="3">
-        <v>1052800</v>
+        <v>1057500</v>
       </c>
       <c r="K59" s="3">
         <v>877700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2914800</v>
+        <v>2927800</v>
       </c>
       <c r="E60" s="3">
-        <v>2887300</v>
+        <v>2900200</v>
       </c>
       <c r="F60" s="3">
-        <v>2875900</v>
+        <v>2888700</v>
       </c>
       <c r="G60" s="3">
-        <v>3091900</v>
+        <v>3105700</v>
       </c>
       <c r="H60" s="3">
-        <v>2944000</v>
+        <v>2957100</v>
       </c>
       <c r="I60" s="3">
-        <v>2209500</v>
+        <v>2219300</v>
       </c>
       <c r="J60" s="3">
-        <v>1838100</v>
+        <v>1846200</v>
       </c>
       <c r="K60" s="3">
         <v>1914900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>235400</v>
+        <v>236500</v>
       </c>
       <c r="E61" s="3">
-        <v>382100</v>
+        <v>383800</v>
       </c>
       <c r="F61" s="3">
-        <v>609800</v>
+        <v>612500</v>
       </c>
       <c r="G61" s="3">
-        <v>264200</v>
+        <v>265300</v>
       </c>
       <c r="H61" s="3">
-        <v>233900</v>
+        <v>234900</v>
       </c>
       <c r="I61" s="3">
-        <v>171200</v>
+        <v>171900</v>
       </c>
       <c r="J61" s="3">
-        <v>146900</v>
+        <v>147600</v>
       </c>
       <c r="K61" s="3">
         <v>11300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>321400</v>
+        <v>322800</v>
       </c>
       <c r="E62" s="3">
-        <v>265400</v>
+        <v>266500</v>
       </c>
       <c r="F62" s="3">
-        <v>222600</v>
+        <v>223600</v>
       </c>
       <c r="G62" s="3">
-        <v>291900</v>
+        <v>293200</v>
       </c>
       <c r="H62" s="3">
-        <v>278800</v>
+        <v>280000</v>
       </c>
       <c r="I62" s="3">
-        <v>184100</v>
+        <v>184900</v>
       </c>
       <c r="J62" s="3">
-        <v>135400</v>
+        <v>136000</v>
       </c>
       <c r="K62" s="3">
         <v>121100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3496900</v>
+        <v>3512400</v>
       </c>
       <c r="E66" s="3">
-        <v>3570300</v>
+        <v>3586200</v>
       </c>
       <c r="F66" s="3">
-        <v>3740700</v>
+        <v>3757300</v>
       </c>
       <c r="G66" s="3">
-        <v>3680200</v>
+        <v>3696600</v>
       </c>
       <c r="H66" s="3">
-        <v>3486500</v>
+        <v>3502000</v>
       </c>
       <c r="I66" s="3">
-        <v>2586900</v>
+        <v>2598500</v>
       </c>
       <c r="J66" s="3">
-        <v>2139100</v>
+        <v>2148600</v>
       </c>
       <c r="K66" s="3">
         <v>2062800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7031100</v>
+        <v>7062400</v>
       </c>
       <c r="E72" s="3">
-        <v>7209600</v>
+        <v>7241700</v>
       </c>
       <c r="F72" s="3">
-        <v>6126300</v>
+        <v>6153600</v>
       </c>
       <c r="G72" s="3">
-        <v>6632700</v>
+        <v>6662300</v>
       </c>
       <c r="H72" s="3">
-        <v>5729200</v>
+        <v>5754800</v>
       </c>
       <c r="I72" s="3">
-        <v>5014200</v>
+        <v>5036500</v>
       </c>
       <c r="J72" s="3">
-        <v>4242400</v>
+        <v>4261300</v>
       </c>
       <c r="K72" s="3">
         <v>3466000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7509000</v>
+        <v>7542400</v>
       </c>
       <c r="E76" s="3">
-        <v>7652500</v>
+        <v>7686600</v>
       </c>
       <c r="F76" s="3">
-        <v>6505100</v>
+        <v>6534100</v>
       </c>
       <c r="G76" s="3">
-        <v>7008500</v>
+        <v>7039700</v>
       </c>
       <c r="H76" s="3">
-        <v>6265900</v>
+        <v>6293800</v>
       </c>
       <c r="I76" s="3">
-        <v>5495500</v>
+        <v>5520000</v>
       </c>
       <c r="J76" s="3">
-        <v>4626900</v>
+        <v>4647500</v>
       </c>
       <c r="K76" s="3">
         <v>3754800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1309500</v>
+        <v>1315400</v>
       </c>
       <c r="E81" s="3">
-        <v>1212700</v>
+        <v>1218100</v>
       </c>
       <c r="F81" s="3">
-        <v>1078700</v>
+        <v>1083500</v>
       </c>
       <c r="G81" s="3">
-        <v>1143500</v>
+        <v>1148600</v>
       </c>
       <c r="H81" s="3">
-        <v>1199800</v>
+        <v>1205200</v>
       </c>
       <c r="I81" s="3">
-        <v>1165500</v>
+        <v>1170700</v>
       </c>
       <c r="J81" s="3">
-        <v>1050200</v>
+        <v>1054900</v>
       </c>
       <c r="K81" s="3">
         <v>877300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>281000</v>
+        <v>282300</v>
       </c>
       <c r="E83" s="3">
-        <v>262300</v>
+        <v>263500</v>
       </c>
       <c r="F83" s="3">
-        <v>284500</v>
+        <v>285800</v>
       </c>
       <c r="G83" s="3">
-        <v>311300</v>
+        <v>312600</v>
       </c>
       <c r="H83" s="3">
-        <v>201600</v>
+        <v>202500</v>
       </c>
       <c r="I83" s="3">
-        <v>172700</v>
+        <v>173500</v>
       </c>
       <c r="J83" s="3">
-        <v>149600</v>
+        <v>150300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1355700</v>
+        <v>1361700</v>
       </c>
       <c r="E89" s="3">
-        <v>1566800</v>
+        <v>1573800</v>
       </c>
       <c r="F89" s="3">
-        <v>1134600</v>
+        <v>1139700</v>
       </c>
       <c r="G89" s="3">
-        <v>1249700</v>
+        <v>1255200</v>
       </c>
       <c r="H89" s="3">
-        <v>1062400</v>
+        <v>1067200</v>
       </c>
       <c r="I89" s="3">
-        <v>1054200</v>
+        <v>1058900</v>
       </c>
       <c r="J89" s="3">
-        <v>914600</v>
+        <v>918600</v>
       </c>
       <c r="K89" s="3">
         <v>931000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-316500</v>
+        <v>-317900</v>
       </c>
       <c r="E91" s="3">
-        <v>-306900</v>
+        <v>-308200</v>
       </c>
       <c r="F91" s="3">
-        <v>-294600</v>
+        <v>-295900</v>
       </c>
       <c r="G91" s="3">
-        <v>-280900</v>
+        <v>-282100</v>
       </c>
       <c r="H91" s="3">
-        <v>-187900</v>
+        <v>-188800</v>
       </c>
       <c r="I91" s="3">
-        <v>-170500</v>
+        <v>-171300</v>
       </c>
       <c r="J91" s="3">
-        <v>-120100</v>
+        <v>-120600</v>
       </c>
       <c r="K91" s="3">
         <v>-140300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>458100</v>
+        <v>460200</v>
       </c>
       <c r="E94" s="3">
-        <v>675200</v>
+        <v>678200</v>
       </c>
       <c r="F94" s="3">
-        <v>479200</v>
+        <v>481400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1566300</v>
+        <v>-1573300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1861000</v>
+        <v>-1869300</v>
       </c>
       <c r="I94" s="3">
-        <v>-344500</v>
+        <v>-346000</v>
       </c>
       <c r="J94" s="3">
-        <v>-37400</v>
+        <v>-37500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-92400</v>
+        <v>-92900</v>
       </c>
       <c r="E96" s="3">
-        <v>-73200</v>
+        <v>-73500</v>
       </c>
       <c r="F96" s="3">
-        <v>-73000</v>
+        <v>-73300</v>
       </c>
       <c r="G96" s="3">
-        <v>-117600</v>
+        <v>-118200</v>
       </c>
       <c r="H96" s="3">
-        <v>-478100</v>
+        <v>-480200</v>
       </c>
       <c r="I96" s="3">
-        <v>-397200</v>
+        <v>-399000</v>
       </c>
       <c r="J96" s="3">
-        <v>-313500</v>
+        <v>-314900</v>
       </c>
       <c r="K96" s="3">
         <v>-225800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2033900</v>
+        <v>-2043000</v>
       </c>
       <c r="E100" s="3">
-        <v>-665000</v>
+        <v>-668000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1750800</v>
+        <v>-1758600</v>
       </c>
       <c r="G100" s="3">
-        <v>-306500</v>
+        <v>-307800</v>
       </c>
       <c r="H100" s="3">
-        <v>-21400</v>
+        <v>-21500</v>
       </c>
       <c r="I100" s="3">
-        <v>-118100</v>
+        <v>-118600</v>
       </c>
       <c r="J100" s="3">
-        <v>-471100</v>
+        <v>-473200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="E101" s="3">
         <v>7100</v>
@@ -3472,13 +3472,13 @@
         <v>5100</v>
       </c>
       <c r="G101" s="3">
-        <v>-19000</v>
+        <v>-19100</v>
       </c>
       <c r="H101" s="3">
         <v>7400</v>
       </c>
       <c r="I101" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J101" s="3">
         <v>-900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-194300</v>
+        <v>-195100</v>
       </c>
       <c r="E102" s="3">
-        <v>1584100</v>
+        <v>1591100</v>
       </c>
       <c r="F102" s="3">
-        <v>-131900</v>
+        <v>-132500</v>
       </c>
       <c r="G102" s="3">
-        <v>-642200</v>
+        <v>-645000</v>
       </c>
       <c r="H102" s="3">
-        <v>-812500</v>
+        <v>-816100</v>
       </c>
       <c r="I102" s="3">
-        <v>599600</v>
+        <v>602200</v>
       </c>
       <c r="J102" s="3">
-        <v>405200</v>
+        <v>407000</v>
       </c>
       <c r="K102" s="3">
         <v>91400</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8256400</v>
+        <v>8396800</v>
       </c>
       <c r="E8" s="3">
-        <v>7926500</v>
+        <v>8061200</v>
       </c>
       <c r="F8" s="3">
-        <v>7372100</v>
+        <v>7497400</v>
       </c>
       <c r="G8" s="3">
-        <v>7446900</v>
+        <v>7573500</v>
       </c>
       <c r="H8" s="3">
-        <v>6933300</v>
+        <v>7051200</v>
       </c>
       <c r="I8" s="3">
-        <v>6352900</v>
+        <v>6460900</v>
       </c>
       <c r="J8" s="3">
-        <v>5875700</v>
+        <v>5975500</v>
       </c>
       <c r="K8" s="3">
         <v>4947700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5900200</v>
+        <v>6000500</v>
       </c>
       <c r="E9" s="3">
-        <v>5568300</v>
+        <v>5663000</v>
       </c>
       <c r="F9" s="3">
-        <v>5216800</v>
+        <v>5305500</v>
       </c>
       <c r="G9" s="3">
-        <v>5297600</v>
+        <v>5387600</v>
       </c>
       <c r="H9" s="3">
-        <v>4826500</v>
+        <v>4908500</v>
       </c>
       <c r="I9" s="3">
-        <v>4347000</v>
+        <v>4420900</v>
       </c>
       <c r="J9" s="3">
-        <v>3998000</v>
+        <v>4065900</v>
       </c>
       <c r="K9" s="3">
         <v>3446000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2356200</v>
+        <v>2396300</v>
       </c>
       <c r="E10" s="3">
-        <v>2358200</v>
+        <v>2398300</v>
       </c>
       <c r="F10" s="3">
-        <v>2155300</v>
+        <v>2191900</v>
       </c>
       <c r="G10" s="3">
-        <v>2149300</v>
+        <v>2185900</v>
       </c>
       <c r="H10" s="3">
-        <v>2106800</v>
+        <v>2142700</v>
       </c>
       <c r="I10" s="3">
-        <v>2006000</v>
+        <v>2040100</v>
       </c>
       <c r="J10" s="3">
-        <v>1877700</v>
+        <v>1909600</v>
       </c>
       <c r="K10" s="3">
         <v>1501700</v>
@@ -900,13 +900,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-10700</v>
+        <v>-10900</v>
       </c>
       <c r="F14" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G14" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47900</v>
+        <v>48700</v>
       </c>
       <c r="E15" s="3">
-        <v>52400</v>
+        <v>53300</v>
       </c>
       <c r="F15" s="3">
-        <v>52300</v>
+        <v>53200</v>
       </c>
       <c r="G15" s="3">
-        <v>43000</v>
+        <v>43700</v>
       </c>
       <c r="H15" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6825900</v>
+        <v>6941900</v>
       </c>
       <c r="E17" s="3">
-        <v>6574700</v>
+        <v>6686500</v>
       </c>
       <c r="F17" s="3">
-        <v>6231600</v>
+        <v>6337500</v>
       </c>
       <c r="G17" s="3">
-        <v>6176800</v>
+        <v>6281800</v>
       </c>
       <c r="H17" s="3">
-        <v>5622800</v>
+        <v>5718400</v>
       </c>
       <c r="I17" s="3">
-        <v>5061900</v>
+        <v>5147900</v>
       </c>
       <c r="J17" s="3">
-        <v>4666700</v>
+        <v>4746000</v>
       </c>
       <c r="K17" s="3">
         <v>4022600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1430500</v>
+        <v>1454800</v>
       </c>
       <c r="E18" s="3">
-        <v>1351800</v>
+        <v>1374800</v>
       </c>
       <c r="F18" s="3">
-        <v>1140500</v>
+        <v>1159900</v>
       </c>
       <c r="G18" s="3">
-        <v>1270200</v>
+        <v>1291800</v>
       </c>
       <c r="H18" s="3">
-        <v>1310500</v>
+        <v>1332800</v>
       </c>
       <c r="I18" s="3">
-        <v>1291100</v>
+        <v>1313000</v>
       </c>
       <c r="J18" s="3">
-        <v>1209000</v>
+        <v>1229500</v>
       </c>
       <c r="K18" s="3">
         <v>925000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>296600</v>
+        <v>301600</v>
       </c>
       <c r="E20" s="3">
-        <v>285800</v>
+        <v>290600</v>
       </c>
       <c r="F20" s="3">
-        <v>292700</v>
+        <v>297600</v>
       </c>
       <c r="G20" s="3">
-        <v>248900</v>
+        <v>253100</v>
       </c>
       <c r="H20" s="3">
-        <v>263600</v>
+        <v>268100</v>
       </c>
       <c r="I20" s="3">
-        <v>230400</v>
+        <v>234300</v>
       </c>
       <c r="J20" s="3">
-        <v>169400</v>
+        <v>172300</v>
       </c>
       <c r="K20" s="3">
         <v>125400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2009500</v>
+        <v>2043900</v>
       </c>
       <c r="E21" s="3">
-        <v>1901200</v>
+        <v>1933700</v>
       </c>
       <c r="F21" s="3">
-        <v>1719200</v>
+        <v>1748600</v>
       </c>
       <c r="G21" s="3">
-        <v>1831900</v>
+        <v>1863300</v>
       </c>
       <c r="H21" s="3">
-        <v>1776700</v>
+        <v>1807100</v>
       </c>
       <c r="I21" s="3">
-        <v>1695100</v>
+        <v>1724000</v>
       </c>
       <c r="J21" s="3">
-        <v>1528700</v>
+        <v>1554800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>69500</v>
+        <v>70700</v>
       </c>
       <c r="E22" s="3">
-        <v>76000</v>
+        <v>77300</v>
       </c>
       <c r="F22" s="3">
-        <v>46700</v>
+        <v>47500</v>
       </c>
       <c r="G22" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="H22" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="I22" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="J22" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="K22" s="3">
         <v>11400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1657600</v>
+        <v>1685800</v>
       </c>
       <c r="E23" s="3">
-        <v>1561600</v>
+        <v>1588100</v>
       </c>
       <c r="F23" s="3">
-        <v>1386500</v>
+        <v>1410000</v>
       </c>
       <c r="G23" s="3">
-        <v>1493100</v>
+        <v>1518500</v>
       </c>
       <c r="H23" s="3">
-        <v>1555000</v>
+        <v>1581500</v>
       </c>
       <c r="I23" s="3">
-        <v>1511100</v>
+        <v>1536800</v>
       </c>
       <c r="J23" s="3">
-        <v>1366600</v>
+        <v>1389800</v>
       </c>
       <c r="K23" s="3">
         <v>1039000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>335500</v>
+        <v>341200</v>
       </c>
       <c r="E24" s="3">
-        <v>341500</v>
+        <v>347300</v>
       </c>
       <c r="F24" s="3">
-        <v>324100</v>
+        <v>329600</v>
       </c>
       <c r="G24" s="3">
-        <v>341100</v>
+        <v>346900</v>
       </c>
       <c r="H24" s="3">
-        <v>343200</v>
+        <v>349000</v>
       </c>
       <c r="I24" s="3">
-        <v>333200</v>
+        <v>338800</v>
       </c>
       <c r="J24" s="3">
-        <v>305800</v>
+        <v>311000</v>
       </c>
       <c r="K24" s="3">
         <v>223600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1322100</v>
+        <v>1344500</v>
       </c>
       <c r="E26" s="3">
-        <v>1220000</v>
+        <v>1240800</v>
       </c>
       <c r="F26" s="3">
-        <v>1062400</v>
+        <v>1080400</v>
       </c>
       <c r="G26" s="3">
-        <v>1152000</v>
+        <v>1171600</v>
       </c>
       <c r="H26" s="3">
-        <v>1211800</v>
+        <v>1232400</v>
       </c>
       <c r="I26" s="3">
-        <v>1177900</v>
+        <v>1197900</v>
       </c>
       <c r="J26" s="3">
-        <v>1060800</v>
+        <v>1078900</v>
       </c>
       <c r="K26" s="3">
         <v>815500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1315400</v>
+        <v>1337700</v>
       </c>
       <c r="E27" s="3">
-        <v>1218100</v>
+        <v>1238800</v>
       </c>
       <c r="F27" s="3">
-        <v>1062300</v>
+        <v>1080400</v>
       </c>
       <c r="G27" s="3">
-        <v>1148600</v>
+        <v>1168200</v>
       </c>
       <c r="H27" s="3">
-        <v>1205200</v>
+        <v>1225700</v>
       </c>
       <c r="I27" s="3">
-        <v>1170700</v>
+        <v>1190600</v>
       </c>
       <c r="J27" s="3">
-        <v>1054900</v>
+        <v>1072800</v>
       </c>
       <c r="K27" s="3">
         <v>811200</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>21100</v>
+        <v>21500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-296600</v>
+        <v>-301600</v>
       </c>
       <c r="E32" s="3">
-        <v>-285800</v>
+        <v>-290600</v>
       </c>
       <c r="F32" s="3">
-        <v>-292700</v>
+        <v>-297600</v>
       </c>
       <c r="G32" s="3">
-        <v>-248900</v>
+        <v>-253100</v>
       </c>
       <c r="H32" s="3">
-        <v>-263600</v>
+        <v>-268100</v>
       </c>
       <c r="I32" s="3">
-        <v>-230400</v>
+        <v>-234300</v>
       </c>
       <c r="J32" s="3">
-        <v>-169400</v>
+        <v>-172300</v>
       </c>
       <c r="K32" s="3">
         <v>-125400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1315400</v>
+        <v>1337700</v>
       </c>
       <c r="E33" s="3">
-        <v>1218100</v>
+        <v>1238800</v>
       </c>
       <c r="F33" s="3">
-        <v>1083500</v>
+        <v>1101900</v>
       </c>
       <c r="G33" s="3">
-        <v>1148600</v>
+        <v>1168200</v>
       </c>
       <c r="H33" s="3">
-        <v>1205200</v>
+        <v>1225700</v>
       </c>
       <c r="I33" s="3">
-        <v>1170700</v>
+        <v>1190600</v>
       </c>
       <c r="J33" s="3">
-        <v>1054900</v>
+        <v>1072800</v>
       </c>
       <c r="K33" s="3">
         <v>877300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1315400</v>
+        <v>1337700</v>
       </c>
       <c r="E35" s="3">
-        <v>1218100</v>
+        <v>1238800</v>
       </c>
       <c r="F35" s="3">
-        <v>1083500</v>
+        <v>1101900</v>
       </c>
       <c r="G35" s="3">
-        <v>1148600</v>
+        <v>1168200</v>
       </c>
       <c r="H35" s="3">
-        <v>1205200</v>
+        <v>1225700</v>
       </c>
       <c r="I35" s="3">
-        <v>1170700</v>
+        <v>1190600</v>
       </c>
       <c r="J35" s="3">
-        <v>1054900</v>
+        <v>1072800</v>
       </c>
       <c r="K35" s="3">
         <v>877300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1955100</v>
+        <v>1988300</v>
       </c>
       <c r="E41" s="3">
-        <v>2144900</v>
+        <v>2181400</v>
       </c>
       <c r="F41" s="3">
-        <v>607800</v>
+        <v>618200</v>
       </c>
       <c r="G41" s="3">
-        <v>713200</v>
+        <v>725300</v>
       </c>
       <c r="H41" s="3">
-        <v>1340100</v>
+        <v>1362900</v>
       </c>
       <c r="I41" s="3">
-        <v>2150500</v>
+        <v>2187000</v>
       </c>
       <c r="J41" s="3">
-        <v>1545100</v>
+        <v>1571400</v>
       </c>
       <c r="K41" s="3">
         <v>472100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2555000</v>
+        <v>2598400</v>
       </c>
       <c r="E42" s="3">
-        <v>3010600</v>
+        <v>3061700</v>
       </c>
       <c r="F42" s="3">
-        <v>3401000</v>
+        <v>3458800</v>
       </c>
       <c r="G42" s="3">
-        <v>3974700</v>
+        <v>4042200</v>
       </c>
       <c r="H42" s="3">
-        <v>6488300</v>
+        <v>6598600</v>
       </c>
       <c r="I42" s="3">
-        <v>1293000</v>
+        <v>1315000</v>
       </c>
       <c r="J42" s="3">
-        <v>1029300</v>
+        <v>1046800</v>
       </c>
       <c r="K42" s="3">
         <v>1598900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2251900</v>
+        <v>2290200</v>
       </c>
       <c r="E43" s="3">
-        <v>2257700</v>
+        <v>2296100</v>
       </c>
       <c r="F43" s="3">
-        <v>2094400</v>
+        <v>2130000</v>
       </c>
       <c r="G43" s="3">
-        <v>2116400</v>
+        <v>2152400</v>
       </c>
       <c r="H43" s="3">
-        <v>3601200</v>
+        <v>3662400</v>
       </c>
       <c r="I43" s="3">
-        <v>2042000</v>
+        <v>2076700</v>
       </c>
       <c r="J43" s="3">
-        <v>1907800</v>
+        <v>1940300</v>
       </c>
       <c r="K43" s="3">
         <v>1631600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67500</v>
+        <v>68600</v>
       </c>
       <c r="E44" s="3">
-        <v>97400</v>
+        <v>99000</v>
       </c>
       <c r="F44" s="3">
-        <v>70200</v>
+        <v>71400</v>
       </c>
       <c r="G44" s="3">
-        <v>72600</v>
+        <v>73800</v>
       </c>
       <c r="H44" s="3">
-        <v>93300</v>
+        <v>94900</v>
       </c>
       <c r="I44" s="3">
-        <v>98500</v>
+        <v>100200</v>
       </c>
       <c r="J44" s="3">
-        <v>64100</v>
+        <v>65200</v>
       </c>
       <c r="K44" s="3">
         <v>43200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>204200</v>
+        <v>207600</v>
       </c>
       <c r="E45" s="3">
-        <v>227300</v>
+        <v>231200</v>
       </c>
       <c r="F45" s="3">
-        <v>674800</v>
+        <v>686300</v>
       </c>
       <c r="G45" s="3">
-        <v>414500</v>
+        <v>421500</v>
       </c>
       <c r="H45" s="3">
-        <v>368400</v>
+        <v>374700</v>
       </c>
       <c r="I45" s="3">
-        <v>321800</v>
+        <v>327200</v>
       </c>
       <c r="J45" s="3">
-        <v>252500</v>
+        <v>256800</v>
       </c>
       <c r="K45" s="3">
         <v>321300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7033600</v>
+        <v>7153100</v>
       </c>
       <c r="E46" s="3">
-        <v>7737900</v>
+        <v>7869400</v>
       </c>
       <c r="F46" s="3">
-        <v>6848300</v>
+        <v>6964700</v>
       </c>
       <c r="G46" s="3">
-        <v>7291300</v>
+        <v>7415200</v>
       </c>
       <c r="H46" s="3">
-        <v>6803200</v>
+        <v>6918900</v>
       </c>
       <c r="I46" s="3">
-        <v>5905700</v>
+        <v>6006100</v>
       </c>
       <c r="J46" s="3">
-        <v>4798900</v>
+        <v>4880500</v>
       </c>
       <c r="K46" s="3">
         <v>4066900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>519000</v>
+        <v>527800</v>
       </c>
       <c r="E47" s="3">
-        <v>555300</v>
+        <v>564700</v>
       </c>
       <c r="F47" s="3">
-        <v>481700</v>
+        <v>489900</v>
       </c>
       <c r="G47" s="3">
-        <v>348800</v>
+        <v>354800</v>
       </c>
       <c r="H47" s="3">
-        <v>283900</v>
+        <v>288700</v>
       </c>
       <c r="I47" s="3">
-        <v>206700</v>
+        <v>210200</v>
       </c>
       <c r="J47" s="3">
-        <v>174100</v>
+        <v>177100</v>
       </c>
       <c r="K47" s="3">
         <v>142000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1324200</v>
+        <v>1346700</v>
       </c>
       <c r="E48" s="3">
-        <v>955200</v>
+        <v>971500</v>
       </c>
       <c r="F48" s="3">
-        <v>871900</v>
+        <v>886700</v>
       </c>
       <c r="G48" s="3">
-        <v>944300</v>
+        <v>960400</v>
       </c>
       <c r="H48" s="3">
-        <v>878900</v>
+        <v>893900</v>
       </c>
       <c r="I48" s="3">
-        <v>733400</v>
+        <v>745900</v>
       </c>
       <c r="J48" s="3">
-        <v>696100</v>
+        <v>707900</v>
       </c>
       <c r="K48" s="3">
         <v>668400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1994000</v>
+        <v>2027900</v>
       </c>
       <c r="E49" s="3">
-        <v>1768900</v>
+        <v>1799000</v>
       </c>
       <c r="F49" s="3">
-        <v>1836000</v>
+        <v>1867200</v>
       </c>
       <c r="G49" s="3">
-        <v>1917400</v>
+        <v>1950000</v>
       </c>
       <c r="H49" s="3">
-        <v>1594300</v>
+        <v>1621400</v>
       </c>
       <c r="I49" s="3">
-        <v>1028400</v>
+        <v>1045900</v>
       </c>
       <c r="J49" s="3">
-        <v>884300</v>
+        <v>899300</v>
       </c>
       <c r="K49" s="3">
         <v>747100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>184100</v>
+        <v>187300</v>
       </c>
       <c r="E52" s="3">
-        <v>255500</v>
+        <v>259800</v>
       </c>
       <c r="F52" s="3">
-        <v>253500</v>
+        <v>257800</v>
       </c>
       <c r="G52" s="3">
-        <v>234400</v>
+        <v>238400</v>
       </c>
       <c r="H52" s="3">
-        <v>235600</v>
+        <v>239600</v>
       </c>
       <c r="I52" s="3">
-        <v>244200</v>
+        <v>248400</v>
       </c>
       <c r="J52" s="3">
-        <v>242800</v>
+        <v>246900</v>
       </c>
       <c r="K52" s="3">
         <v>193200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11054800</v>
+        <v>11242800</v>
       </c>
       <c r="E54" s="3">
-        <v>11272800</v>
+        <v>11464400</v>
       </c>
       <c r="F54" s="3">
-        <v>10291500</v>
+        <v>10466400</v>
       </c>
       <c r="G54" s="3">
-        <v>10736300</v>
+        <v>10918800</v>
       </c>
       <c r="H54" s="3">
-        <v>9795800</v>
+        <v>9962300</v>
       </c>
       <c r="I54" s="3">
-        <v>8118400</v>
+        <v>8256500</v>
       </c>
       <c r="J54" s="3">
-        <v>6796200</v>
+        <v>6911700</v>
       </c>
       <c r="K54" s="3">
         <v>5817600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>366000</v>
+        <v>372200</v>
       </c>
       <c r="E57" s="3">
-        <v>386000</v>
+        <v>392500</v>
       </c>
       <c r="F57" s="3">
-        <v>330200</v>
+        <v>335800</v>
       </c>
       <c r="G57" s="3">
-        <v>317300</v>
+        <v>322700</v>
       </c>
       <c r="H57" s="3">
-        <v>1239800</v>
+        <v>1260900</v>
       </c>
       <c r="I57" s="3">
-        <v>255000</v>
+        <v>259300</v>
       </c>
       <c r="J57" s="3">
-        <v>238300</v>
+        <v>242400</v>
       </c>
       <c r="K57" s="3">
         <v>204200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1079200</v>
+        <v>1097500</v>
       </c>
       <c r="E58" s="3">
-        <v>962000</v>
+        <v>978300</v>
       </c>
       <c r="F58" s="3">
-        <v>1258200</v>
+        <v>1279600</v>
       </c>
       <c r="G58" s="3">
-        <v>1661500</v>
+        <v>1689700</v>
       </c>
       <c r="H58" s="3">
-        <v>2918700</v>
+        <v>2968300</v>
       </c>
       <c r="I58" s="3">
-        <v>895800</v>
+        <v>911000</v>
       </c>
       <c r="J58" s="3">
-        <v>550400</v>
+        <v>559800</v>
       </c>
       <c r="K58" s="3">
         <v>833000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1482600</v>
+        <v>1507800</v>
       </c>
       <c r="E59" s="3">
-        <v>1552200</v>
+        <v>1578600</v>
       </c>
       <c r="F59" s="3">
-        <v>1300400</v>
+        <v>1322500</v>
       </c>
       <c r="G59" s="3">
-        <v>1126900</v>
+        <v>1146100</v>
       </c>
       <c r="H59" s="3">
-        <v>1180500</v>
+        <v>1200600</v>
       </c>
       <c r="I59" s="3">
-        <v>1068600</v>
+        <v>1086700</v>
       </c>
       <c r="J59" s="3">
-        <v>1057500</v>
+        <v>1075500</v>
       </c>
       <c r="K59" s="3">
         <v>877700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2927800</v>
+        <v>2977600</v>
       </c>
       <c r="E60" s="3">
-        <v>2900200</v>
+        <v>2949500</v>
       </c>
       <c r="F60" s="3">
-        <v>2888700</v>
+        <v>2937900</v>
       </c>
       <c r="G60" s="3">
-        <v>3105700</v>
+        <v>3158500</v>
       </c>
       <c r="H60" s="3">
-        <v>2957100</v>
+        <v>3007400</v>
       </c>
       <c r="I60" s="3">
-        <v>2219300</v>
+        <v>2257000</v>
       </c>
       <c r="J60" s="3">
-        <v>1846200</v>
+        <v>1877600</v>
       </c>
       <c r="K60" s="3">
         <v>1914900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>236500</v>
+        <v>240500</v>
       </c>
       <c r="E61" s="3">
-        <v>383800</v>
+        <v>390300</v>
       </c>
       <c r="F61" s="3">
-        <v>612500</v>
+        <v>622900</v>
       </c>
       <c r="G61" s="3">
-        <v>265300</v>
+        <v>269800</v>
       </c>
       <c r="H61" s="3">
-        <v>234900</v>
+        <v>238900</v>
       </c>
       <c r="I61" s="3">
-        <v>171900</v>
+        <v>174800</v>
       </c>
       <c r="J61" s="3">
-        <v>147600</v>
+        <v>150100</v>
       </c>
       <c r="K61" s="3">
         <v>11300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>322800</v>
+        <v>328300</v>
       </c>
       <c r="E62" s="3">
-        <v>266500</v>
+        <v>271100</v>
       </c>
       <c r="F62" s="3">
-        <v>223600</v>
+        <v>227400</v>
       </c>
       <c r="G62" s="3">
-        <v>293200</v>
+        <v>298100</v>
       </c>
       <c r="H62" s="3">
-        <v>280000</v>
+        <v>284800</v>
       </c>
       <c r="I62" s="3">
-        <v>184900</v>
+        <v>188100</v>
       </c>
       <c r="J62" s="3">
-        <v>136000</v>
+        <v>138300</v>
       </c>
       <c r="K62" s="3">
         <v>121100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3512400</v>
+        <v>3572200</v>
       </c>
       <c r="E66" s="3">
-        <v>3586200</v>
+        <v>3647200</v>
       </c>
       <c r="F66" s="3">
-        <v>3757300</v>
+        <v>3821200</v>
       </c>
       <c r="G66" s="3">
-        <v>3696600</v>
+        <v>3759400</v>
       </c>
       <c r="H66" s="3">
-        <v>3502000</v>
+        <v>3561500</v>
       </c>
       <c r="I66" s="3">
-        <v>2598500</v>
+        <v>2642600</v>
       </c>
       <c r="J66" s="3">
-        <v>2148600</v>
+        <v>2185200</v>
       </c>
       <c r="K66" s="3">
         <v>2062800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7062400</v>
+        <v>7182500</v>
       </c>
       <c r="E72" s="3">
-        <v>7241700</v>
+        <v>7364800</v>
       </c>
       <c r="F72" s="3">
-        <v>6153600</v>
+        <v>6258200</v>
       </c>
       <c r="G72" s="3">
-        <v>6662300</v>
+        <v>6775500</v>
       </c>
       <c r="H72" s="3">
-        <v>5754800</v>
+        <v>5852600</v>
       </c>
       <c r="I72" s="3">
-        <v>5036500</v>
+        <v>5122100</v>
       </c>
       <c r="J72" s="3">
-        <v>4261300</v>
+        <v>4333700</v>
       </c>
       <c r="K72" s="3">
         <v>3466000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7542400</v>
+        <v>7670600</v>
       </c>
       <c r="E76" s="3">
-        <v>7686600</v>
+        <v>7817300</v>
       </c>
       <c r="F76" s="3">
-        <v>6534100</v>
+        <v>6645200</v>
       </c>
       <c r="G76" s="3">
-        <v>7039700</v>
+        <v>7159400</v>
       </c>
       <c r="H76" s="3">
-        <v>6293800</v>
+        <v>6400800</v>
       </c>
       <c r="I76" s="3">
-        <v>5520000</v>
+        <v>5613800</v>
       </c>
       <c r="J76" s="3">
-        <v>4647500</v>
+        <v>4726500</v>
       </c>
       <c r="K76" s="3">
         <v>3754800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1315400</v>
+        <v>1337700</v>
       </c>
       <c r="E81" s="3">
-        <v>1218100</v>
+        <v>1238800</v>
       </c>
       <c r="F81" s="3">
-        <v>1083500</v>
+        <v>1101900</v>
       </c>
       <c r="G81" s="3">
-        <v>1148600</v>
+        <v>1168200</v>
       </c>
       <c r="H81" s="3">
-        <v>1205200</v>
+        <v>1225700</v>
       </c>
       <c r="I81" s="3">
-        <v>1170700</v>
+        <v>1190600</v>
       </c>
       <c r="J81" s="3">
-        <v>1054900</v>
+        <v>1072800</v>
       </c>
       <c r="K81" s="3">
         <v>877300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>282300</v>
+        <v>287100</v>
       </c>
       <c r="E83" s="3">
-        <v>263500</v>
+        <v>268000</v>
       </c>
       <c r="F83" s="3">
-        <v>285800</v>
+        <v>290700</v>
       </c>
       <c r="G83" s="3">
-        <v>312600</v>
+        <v>318000</v>
       </c>
       <c r="H83" s="3">
-        <v>202500</v>
+        <v>205900</v>
       </c>
       <c r="I83" s="3">
-        <v>173500</v>
+        <v>176400</v>
       </c>
       <c r="J83" s="3">
-        <v>150300</v>
+        <v>152800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1361700</v>
+        <v>1384800</v>
       </c>
       <c r="E89" s="3">
-        <v>1573800</v>
+        <v>1600500</v>
       </c>
       <c r="F89" s="3">
-        <v>1139700</v>
+        <v>1159000</v>
       </c>
       <c r="G89" s="3">
-        <v>1255200</v>
+        <v>1276600</v>
       </c>
       <c r="H89" s="3">
-        <v>1067200</v>
+        <v>1085300</v>
       </c>
       <c r="I89" s="3">
-        <v>1058900</v>
+        <v>1076900</v>
       </c>
       <c r="J89" s="3">
-        <v>918600</v>
+        <v>934300</v>
       </c>
       <c r="K89" s="3">
         <v>931000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-317900</v>
+        <v>-323300</v>
       </c>
       <c r="E91" s="3">
-        <v>-308200</v>
+        <v>-313500</v>
       </c>
       <c r="F91" s="3">
-        <v>-295900</v>
+        <v>-300900</v>
       </c>
       <c r="G91" s="3">
-        <v>-282100</v>
+        <v>-286900</v>
       </c>
       <c r="H91" s="3">
-        <v>-188800</v>
+        <v>-192000</v>
       </c>
       <c r="I91" s="3">
-        <v>-171300</v>
+        <v>-174200</v>
       </c>
       <c r="J91" s="3">
-        <v>-120600</v>
+        <v>-122600</v>
       </c>
       <c r="K91" s="3">
         <v>-140300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>460200</v>
+        <v>468000</v>
       </c>
       <c r="E94" s="3">
-        <v>678200</v>
+        <v>689700</v>
       </c>
       <c r="F94" s="3">
-        <v>481400</v>
+        <v>489600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1573300</v>
+        <v>-1600100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1869300</v>
+        <v>-1901000</v>
       </c>
       <c r="I94" s="3">
-        <v>-346000</v>
+        <v>-351900</v>
       </c>
       <c r="J94" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-92900</v>
+        <v>-94400</v>
       </c>
       <c r="E96" s="3">
-        <v>-73500</v>
+        <v>-74800</v>
       </c>
       <c r="F96" s="3">
-        <v>-73300</v>
+        <v>-74600</v>
       </c>
       <c r="G96" s="3">
-        <v>-118200</v>
+        <v>-120200</v>
       </c>
       <c r="H96" s="3">
-        <v>-480200</v>
+        <v>-488400</v>
       </c>
       <c r="I96" s="3">
-        <v>-399000</v>
+        <v>-405800</v>
       </c>
       <c r="J96" s="3">
-        <v>-314900</v>
+        <v>-320200</v>
       </c>
       <c r="K96" s="3">
         <v>-225800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2043000</v>
+        <v>-2077700</v>
       </c>
       <c r="E100" s="3">
-        <v>-668000</v>
+        <v>-679300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1758600</v>
+        <v>-1788500</v>
       </c>
       <c r="G100" s="3">
-        <v>-307800</v>
+        <v>-313100</v>
       </c>
       <c r="H100" s="3">
-        <v>-21500</v>
+        <v>-21800</v>
       </c>
       <c r="I100" s="3">
-        <v>-118600</v>
+        <v>-120600</v>
       </c>
       <c r="J100" s="3">
-        <v>-473200</v>
+        <v>-481200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="E101" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F101" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G101" s="3">
-        <v>-19100</v>
+        <v>-19400</v>
       </c>
       <c r="H101" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="I101" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="J101" s="3">
         <v>-900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-195100</v>
+        <v>-198400</v>
       </c>
       <c r="E102" s="3">
-        <v>1591100</v>
+        <v>1618200</v>
       </c>
       <c r="F102" s="3">
-        <v>-132500</v>
+        <v>-134700</v>
       </c>
       <c r="G102" s="3">
-        <v>-645000</v>
+        <v>-656000</v>
       </c>
       <c r="H102" s="3">
-        <v>-816100</v>
+        <v>-830000</v>
       </c>
       <c r="I102" s="3">
-        <v>602200</v>
+        <v>612500</v>
       </c>
       <c r="J102" s="3">
-        <v>407000</v>
+        <v>413900</v>
       </c>
       <c r="K102" s="3">
         <v>91400</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8396800</v>
+        <v>8384600</v>
       </c>
       <c r="E8" s="3">
-        <v>8061200</v>
+        <v>8049500</v>
       </c>
       <c r="F8" s="3">
-        <v>7497400</v>
+        <v>7486500</v>
       </c>
       <c r="G8" s="3">
-        <v>7573500</v>
+        <v>7562500</v>
       </c>
       <c r="H8" s="3">
-        <v>7051200</v>
+        <v>7040900</v>
       </c>
       <c r="I8" s="3">
-        <v>6460900</v>
+        <v>6451500</v>
       </c>
       <c r="J8" s="3">
-        <v>5975500</v>
+        <v>5966900</v>
       </c>
       <c r="K8" s="3">
         <v>4947700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6000500</v>
+        <v>5991800</v>
       </c>
       <c r="E9" s="3">
-        <v>5663000</v>
+        <v>5654700</v>
       </c>
       <c r="F9" s="3">
-        <v>5305500</v>
+        <v>5297800</v>
       </c>
       <c r="G9" s="3">
-        <v>5387600</v>
+        <v>5379800</v>
       </c>
       <c r="H9" s="3">
-        <v>4908500</v>
+        <v>4901400</v>
       </c>
       <c r="I9" s="3">
-        <v>4420900</v>
+        <v>4414400</v>
       </c>
       <c r="J9" s="3">
-        <v>4065900</v>
+        <v>4060000</v>
       </c>
       <c r="K9" s="3">
         <v>3446000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2396300</v>
+        <v>2392800</v>
       </c>
       <c r="E10" s="3">
-        <v>2398300</v>
+        <v>2394800</v>
       </c>
       <c r="F10" s="3">
-        <v>2191900</v>
+        <v>2188700</v>
       </c>
       <c r="G10" s="3">
-        <v>2185900</v>
+        <v>2182700</v>
       </c>
       <c r="H10" s="3">
-        <v>2142700</v>
+        <v>2139500</v>
       </c>
       <c r="I10" s="3">
-        <v>2040100</v>
+        <v>2037100</v>
       </c>
       <c r="J10" s="3">
-        <v>1909600</v>
+        <v>1906900</v>
       </c>
       <c r="K10" s="3">
         <v>1501700</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>48700</v>
+        <v>48600</v>
       </c>
       <c r="E15" s="3">
-        <v>53300</v>
+        <v>53200</v>
       </c>
       <c r="F15" s="3">
-        <v>53200</v>
+        <v>53100</v>
       </c>
       <c r="G15" s="3">
-        <v>43700</v>
+        <v>43600</v>
       </c>
       <c r="H15" s="3">
         <v>23900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6941900</v>
+        <v>6931900</v>
       </c>
       <c r="E17" s="3">
-        <v>6686500</v>
+        <v>6676700</v>
       </c>
       <c r="F17" s="3">
-        <v>6337500</v>
+        <v>6328300</v>
       </c>
       <c r="G17" s="3">
-        <v>6281800</v>
+        <v>6272600</v>
       </c>
       <c r="H17" s="3">
-        <v>5718400</v>
+        <v>5710100</v>
       </c>
       <c r="I17" s="3">
-        <v>5147900</v>
+        <v>5140400</v>
       </c>
       <c r="J17" s="3">
-        <v>4746000</v>
+        <v>4739100</v>
       </c>
       <c r="K17" s="3">
         <v>4022600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1454800</v>
+        <v>1452700</v>
       </c>
       <c r="E18" s="3">
-        <v>1374800</v>
+        <v>1372800</v>
       </c>
       <c r="F18" s="3">
-        <v>1159900</v>
+        <v>1158200</v>
       </c>
       <c r="G18" s="3">
-        <v>1291800</v>
+        <v>1289900</v>
       </c>
       <c r="H18" s="3">
-        <v>1332800</v>
+        <v>1330900</v>
       </c>
       <c r="I18" s="3">
-        <v>1313000</v>
+        <v>1311100</v>
       </c>
       <c r="J18" s="3">
-        <v>1229500</v>
+        <v>1227700</v>
       </c>
       <c r="K18" s="3">
         <v>925000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>301600</v>
+        <v>301200</v>
       </c>
       <c r="E20" s="3">
-        <v>290600</v>
+        <v>290200</v>
       </c>
       <c r="F20" s="3">
-        <v>297600</v>
+        <v>297200</v>
       </c>
       <c r="G20" s="3">
-        <v>253100</v>
+        <v>252700</v>
       </c>
       <c r="H20" s="3">
-        <v>268100</v>
+        <v>267700</v>
       </c>
       <c r="I20" s="3">
-        <v>234300</v>
+        <v>234000</v>
       </c>
       <c r="J20" s="3">
-        <v>172300</v>
+        <v>172000</v>
       </c>
       <c r="K20" s="3">
         <v>125400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2043900</v>
+        <v>2040300</v>
       </c>
       <c r="E21" s="3">
-        <v>1933700</v>
+        <v>1930300</v>
       </c>
       <c r="F21" s="3">
-        <v>1748600</v>
+        <v>1745400</v>
       </c>
       <c r="G21" s="3">
-        <v>1863300</v>
+        <v>1859900</v>
       </c>
       <c r="H21" s="3">
-        <v>1807100</v>
+        <v>1804000</v>
       </c>
       <c r="I21" s="3">
-        <v>1724000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1554800</v>
+        <v>1721100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,16 +1122,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70700</v>
+        <v>70600</v>
       </c>
       <c r="E22" s="3">
-        <v>77300</v>
+        <v>77200</v>
       </c>
       <c r="F22" s="3">
-        <v>47500</v>
+        <v>47400</v>
       </c>
       <c r="G22" s="3">
-        <v>26400</v>
+        <v>26300</v>
       </c>
       <c r="H22" s="3">
         <v>19400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1685800</v>
+        <v>1683300</v>
       </c>
       <c r="E23" s="3">
-        <v>1588100</v>
+        <v>1585800</v>
       </c>
       <c r="F23" s="3">
-        <v>1410000</v>
+        <v>1408000</v>
       </c>
       <c r="G23" s="3">
-        <v>1518500</v>
+        <v>1516300</v>
       </c>
       <c r="H23" s="3">
-        <v>1581500</v>
+        <v>1579200</v>
       </c>
       <c r="I23" s="3">
-        <v>1536800</v>
+        <v>1534500</v>
       </c>
       <c r="J23" s="3">
-        <v>1389800</v>
+        <v>1387800</v>
       </c>
       <c r="K23" s="3">
         <v>1039000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>341200</v>
+        <v>340700</v>
       </c>
       <c r="E24" s="3">
-        <v>347300</v>
+        <v>346800</v>
       </c>
       <c r="F24" s="3">
-        <v>329600</v>
+        <v>329100</v>
       </c>
       <c r="G24" s="3">
-        <v>346900</v>
+        <v>346400</v>
       </c>
       <c r="H24" s="3">
-        <v>349000</v>
+        <v>348500</v>
       </c>
       <c r="I24" s="3">
-        <v>338800</v>
+        <v>338300</v>
       </c>
       <c r="J24" s="3">
-        <v>311000</v>
+        <v>310500</v>
       </c>
       <c r="K24" s="3">
         <v>223600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1344500</v>
+        <v>1342600</v>
       </c>
       <c r="E26" s="3">
-        <v>1240800</v>
+        <v>1239000</v>
       </c>
       <c r="F26" s="3">
-        <v>1080400</v>
+        <v>1078900</v>
       </c>
       <c r="G26" s="3">
-        <v>1171600</v>
+        <v>1169900</v>
       </c>
       <c r="H26" s="3">
-        <v>1232400</v>
+        <v>1230700</v>
       </c>
       <c r="I26" s="3">
-        <v>1197900</v>
+        <v>1196200</v>
       </c>
       <c r="J26" s="3">
-        <v>1078900</v>
+        <v>1077300</v>
       </c>
       <c r="K26" s="3">
         <v>815500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1337700</v>
+        <v>1335800</v>
       </c>
       <c r="E27" s="3">
-        <v>1238800</v>
+        <v>1237000</v>
       </c>
       <c r="F27" s="3">
-        <v>1080400</v>
+        <v>1078800</v>
       </c>
       <c r="G27" s="3">
-        <v>1168200</v>
+        <v>1166500</v>
       </c>
       <c r="H27" s="3">
-        <v>1225700</v>
+        <v>1223900</v>
       </c>
       <c r="I27" s="3">
-        <v>1190600</v>
+        <v>1188900</v>
       </c>
       <c r="J27" s="3">
-        <v>1072800</v>
+        <v>1071300</v>
       </c>
       <c r="K27" s="3">
         <v>811200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-301600</v>
+        <v>-301200</v>
       </c>
       <c r="E32" s="3">
-        <v>-290600</v>
+        <v>-290200</v>
       </c>
       <c r="F32" s="3">
-        <v>-297600</v>
+        <v>-297200</v>
       </c>
       <c r="G32" s="3">
-        <v>-253100</v>
+        <v>-252700</v>
       </c>
       <c r="H32" s="3">
-        <v>-268100</v>
+        <v>-267700</v>
       </c>
       <c r="I32" s="3">
-        <v>-234300</v>
+        <v>-234000</v>
       </c>
       <c r="J32" s="3">
-        <v>-172300</v>
+        <v>-172000</v>
       </c>
       <c r="K32" s="3">
         <v>-125400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1337700</v>
+        <v>1335800</v>
       </c>
       <c r="E33" s="3">
-        <v>1238800</v>
+        <v>1237000</v>
       </c>
       <c r="F33" s="3">
-        <v>1101900</v>
+        <v>1100300</v>
       </c>
       <c r="G33" s="3">
-        <v>1168200</v>
+        <v>1166500</v>
       </c>
       <c r="H33" s="3">
-        <v>1225700</v>
+        <v>1223900</v>
       </c>
       <c r="I33" s="3">
-        <v>1190600</v>
+        <v>1188900</v>
       </c>
       <c r="J33" s="3">
-        <v>1072800</v>
+        <v>1071300</v>
       </c>
       <c r="K33" s="3">
         <v>877300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1337700</v>
+        <v>1335800</v>
       </c>
       <c r="E35" s="3">
-        <v>1238800</v>
+        <v>1237000</v>
       </c>
       <c r="F35" s="3">
-        <v>1101900</v>
+        <v>1100300</v>
       </c>
       <c r="G35" s="3">
-        <v>1168200</v>
+        <v>1166500</v>
       </c>
       <c r="H35" s="3">
-        <v>1225700</v>
+        <v>1223900</v>
       </c>
       <c r="I35" s="3">
-        <v>1190600</v>
+        <v>1188900</v>
       </c>
       <c r="J35" s="3">
-        <v>1072800</v>
+        <v>1071300</v>
       </c>
       <c r="K35" s="3">
         <v>877300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1988300</v>
+        <v>1985400</v>
       </c>
       <c r="E41" s="3">
-        <v>2181400</v>
+        <v>2178200</v>
       </c>
       <c r="F41" s="3">
-        <v>618200</v>
+        <v>617300</v>
       </c>
       <c r="G41" s="3">
-        <v>725300</v>
+        <v>724200</v>
       </c>
       <c r="H41" s="3">
-        <v>1362900</v>
+        <v>1360900</v>
       </c>
       <c r="I41" s="3">
-        <v>2187000</v>
+        <v>2183800</v>
       </c>
       <c r="J41" s="3">
-        <v>1571400</v>
+        <v>1569100</v>
       </c>
       <c r="K41" s="3">
         <v>472100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2598400</v>
+        <v>2594600</v>
       </c>
       <c r="E42" s="3">
-        <v>3061700</v>
+        <v>3057300</v>
       </c>
       <c r="F42" s="3">
-        <v>3458800</v>
+        <v>3453800</v>
       </c>
       <c r="G42" s="3">
-        <v>4042200</v>
+        <v>4036400</v>
       </c>
       <c r="H42" s="3">
-        <v>6598600</v>
+        <v>6589000</v>
       </c>
       <c r="I42" s="3">
-        <v>1315000</v>
+        <v>1313100</v>
       </c>
       <c r="J42" s="3">
-        <v>1046800</v>
+        <v>1045300</v>
       </c>
       <c r="K42" s="3">
         <v>1598900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2290200</v>
+        <v>2286800</v>
       </c>
       <c r="E43" s="3">
-        <v>2296100</v>
+        <v>2292800</v>
       </c>
       <c r="F43" s="3">
-        <v>2130000</v>
+        <v>2126900</v>
       </c>
       <c r="G43" s="3">
-        <v>2152400</v>
+        <v>2149300</v>
       </c>
       <c r="H43" s="3">
-        <v>3662400</v>
+        <v>3657100</v>
       </c>
       <c r="I43" s="3">
-        <v>2076700</v>
+        <v>2073700</v>
       </c>
       <c r="J43" s="3">
-        <v>1940300</v>
+        <v>1937400</v>
       </c>
       <c r="K43" s="3">
         <v>1631600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68600</v>
+        <v>68500</v>
       </c>
       <c r="E44" s="3">
-        <v>99000</v>
+        <v>98900</v>
       </c>
       <c r="F44" s="3">
-        <v>71400</v>
+        <v>71300</v>
       </c>
       <c r="G44" s="3">
-        <v>73800</v>
+        <v>73700</v>
       </c>
       <c r="H44" s="3">
-        <v>94900</v>
+        <v>94800</v>
       </c>
       <c r="I44" s="3">
-        <v>100200</v>
+        <v>100000</v>
       </c>
       <c r="J44" s="3">
-        <v>65200</v>
+        <v>65100</v>
       </c>
       <c r="K44" s="3">
         <v>43200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>207600</v>
+        <v>207300</v>
       </c>
       <c r="E45" s="3">
-        <v>231200</v>
+        <v>230900</v>
       </c>
       <c r="F45" s="3">
-        <v>686300</v>
+        <v>685300</v>
       </c>
       <c r="G45" s="3">
-        <v>421500</v>
+        <v>420900</v>
       </c>
       <c r="H45" s="3">
-        <v>374700</v>
+        <v>374200</v>
       </c>
       <c r="I45" s="3">
-        <v>327200</v>
+        <v>326800</v>
       </c>
       <c r="J45" s="3">
-        <v>256800</v>
+        <v>256400</v>
       </c>
       <c r="K45" s="3">
         <v>321300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7153100</v>
+        <v>7142800</v>
       </c>
       <c r="E46" s="3">
-        <v>7869400</v>
+        <v>7858000</v>
       </c>
       <c r="F46" s="3">
-        <v>6964700</v>
+        <v>6954600</v>
       </c>
       <c r="G46" s="3">
-        <v>7415200</v>
+        <v>7404500</v>
       </c>
       <c r="H46" s="3">
-        <v>6918900</v>
+        <v>6908800</v>
       </c>
       <c r="I46" s="3">
-        <v>6006100</v>
+        <v>5997400</v>
       </c>
       <c r="J46" s="3">
-        <v>4880500</v>
+        <v>4873400</v>
       </c>
       <c r="K46" s="3">
         <v>4066900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>527800</v>
+        <v>527100</v>
       </c>
       <c r="E47" s="3">
-        <v>564700</v>
+        <v>563900</v>
       </c>
       <c r="F47" s="3">
-        <v>489900</v>
+        <v>489200</v>
       </c>
       <c r="G47" s="3">
-        <v>354800</v>
+        <v>354300</v>
       </c>
       <c r="H47" s="3">
-        <v>288700</v>
+        <v>288300</v>
       </c>
       <c r="I47" s="3">
-        <v>210200</v>
+        <v>209900</v>
       </c>
       <c r="J47" s="3">
-        <v>177100</v>
+        <v>176800</v>
       </c>
       <c r="K47" s="3">
         <v>142000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1346700</v>
+        <v>1344700</v>
       </c>
       <c r="E48" s="3">
-        <v>971500</v>
+        <v>970100</v>
       </c>
       <c r="F48" s="3">
-        <v>886700</v>
+        <v>885400</v>
       </c>
       <c r="G48" s="3">
-        <v>960400</v>
+        <v>959000</v>
       </c>
       <c r="H48" s="3">
-        <v>893900</v>
+        <v>892600</v>
       </c>
       <c r="I48" s="3">
-        <v>745900</v>
+        <v>744800</v>
       </c>
       <c r="J48" s="3">
-        <v>707900</v>
+        <v>706900</v>
       </c>
       <c r="K48" s="3">
         <v>668400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2027900</v>
+        <v>2024900</v>
       </c>
       <c r="E49" s="3">
-        <v>1799000</v>
+        <v>1796400</v>
       </c>
       <c r="F49" s="3">
-        <v>1867200</v>
+        <v>1864500</v>
       </c>
       <c r="G49" s="3">
-        <v>1950000</v>
+        <v>1947200</v>
       </c>
       <c r="H49" s="3">
-        <v>1621400</v>
+        <v>1619000</v>
       </c>
       <c r="I49" s="3">
-        <v>1045900</v>
+        <v>1044400</v>
       </c>
       <c r="J49" s="3">
-        <v>899300</v>
+        <v>898000</v>
       </c>
       <c r="K49" s="3">
         <v>747100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>187300</v>
+        <v>187000</v>
       </c>
       <c r="E52" s="3">
-        <v>259800</v>
+        <v>259400</v>
       </c>
       <c r="F52" s="3">
-        <v>257800</v>
+        <v>257500</v>
       </c>
       <c r="G52" s="3">
-        <v>238400</v>
+        <v>238000</v>
       </c>
       <c r="H52" s="3">
-        <v>239600</v>
+        <v>239200</v>
       </c>
       <c r="I52" s="3">
-        <v>248400</v>
+        <v>248000</v>
       </c>
       <c r="J52" s="3">
-        <v>246900</v>
+        <v>246500</v>
       </c>
       <c r="K52" s="3">
         <v>193200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11242800</v>
+        <v>11226400</v>
       </c>
       <c r="E54" s="3">
-        <v>11464400</v>
+        <v>11447800</v>
       </c>
       <c r="F54" s="3">
-        <v>10466400</v>
+        <v>10451200</v>
       </c>
       <c r="G54" s="3">
-        <v>10918800</v>
+        <v>10902900</v>
       </c>
       <c r="H54" s="3">
-        <v>9962300</v>
+        <v>9947800</v>
       </c>
       <c r="I54" s="3">
-        <v>8256500</v>
+        <v>8244500</v>
       </c>
       <c r="J54" s="3">
-        <v>6911700</v>
+        <v>6901700</v>
       </c>
       <c r="K54" s="3">
         <v>5817600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>372200</v>
+        <v>371700</v>
       </c>
       <c r="E57" s="3">
-        <v>392500</v>
+        <v>392000</v>
       </c>
       <c r="F57" s="3">
-        <v>335800</v>
+        <v>335300</v>
       </c>
       <c r="G57" s="3">
-        <v>322700</v>
+        <v>322200</v>
       </c>
       <c r="H57" s="3">
-        <v>1260900</v>
+        <v>1259100</v>
       </c>
       <c r="I57" s="3">
-        <v>259300</v>
+        <v>258900</v>
       </c>
       <c r="J57" s="3">
-        <v>242400</v>
+        <v>242000</v>
       </c>
       <c r="K57" s="3">
         <v>204200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1097500</v>
+        <v>1095900</v>
       </c>
       <c r="E58" s="3">
-        <v>978300</v>
+        <v>976900</v>
       </c>
       <c r="F58" s="3">
-        <v>1279600</v>
+        <v>1277700</v>
       </c>
       <c r="G58" s="3">
-        <v>1689700</v>
+        <v>1687300</v>
       </c>
       <c r="H58" s="3">
-        <v>2968300</v>
+        <v>2964000</v>
       </c>
       <c r="I58" s="3">
-        <v>911000</v>
+        <v>909700</v>
       </c>
       <c r="J58" s="3">
-        <v>559800</v>
+        <v>559000</v>
       </c>
       <c r="K58" s="3">
         <v>833000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1507800</v>
+        <v>1505600</v>
       </c>
       <c r="E59" s="3">
-        <v>1578600</v>
+        <v>1576300</v>
       </c>
       <c r="F59" s="3">
-        <v>1322500</v>
+        <v>1320600</v>
       </c>
       <c r="G59" s="3">
-        <v>1146100</v>
+        <v>1144400</v>
       </c>
       <c r="H59" s="3">
-        <v>1200600</v>
+        <v>1198900</v>
       </c>
       <c r="I59" s="3">
-        <v>1086700</v>
+        <v>1085200</v>
       </c>
       <c r="J59" s="3">
-        <v>1075500</v>
+        <v>1073900</v>
       </c>
       <c r="K59" s="3">
         <v>877700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2977600</v>
+        <v>2973200</v>
       </c>
       <c r="E60" s="3">
-        <v>2949500</v>
+        <v>2945200</v>
       </c>
       <c r="F60" s="3">
-        <v>2937900</v>
+        <v>2933600</v>
       </c>
       <c r="G60" s="3">
-        <v>3158500</v>
+        <v>3153900</v>
       </c>
       <c r="H60" s="3">
-        <v>3007400</v>
+        <v>3003000</v>
       </c>
       <c r="I60" s="3">
-        <v>2257000</v>
+        <v>2253800</v>
       </c>
       <c r="J60" s="3">
-        <v>1877600</v>
+        <v>1874900</v>
       </c>
       <c r="K60" s="3">
         <v>1914900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>240500</v>
+        <v>240100</v>
       </c>
       <c r="E61" s="3">
-        <v>390300</v>
+        <v>389800</v>
       </c>
       <c r="F61" s="3">
-        <v>622900</v>
+        <v>622000</v>
       </c>
       <c r="G61" s="3">
-        <v>269800</v>
+        <v>269500</v>
       </c>
       <c r="H61" s="3">
-        <v>238900</v>
+        <v>238500</v>
       </c>
       <c r="I61" s="3">
-        <v>174800</v>
+        <v>174600</v>
       </c>
       <c r="J61" s="3">
-        <v>150100</v>
+        <v>149900</v>
       </c>
       <c r="K61" s="3">
         <v>11300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>328300</v>
+        <v>327800</v>
       </c>
       <c r="E62" s="3">
-        <v>271100</v>
+        <v>270700</v>
       </c>
       <c r="F62" s="3">
-        <v>227400</v>
+        <v>227100</v>
       </c>
       <c r="G62" s="3">
-        <v>298100</v>
+        <v>297700</v>
       </c>
       <c r="H62" s="3">
-        <v>284800</v>
+        <v>284400</v>
       </c>
       <c r="I62" s="3">
-        <v>188100</v>
+        <v>187800</v>
       </c>
       <c r="J62" s="3">
-        <v>138300</v>
+        <v>138100</v>
       </c>
       <c r="K62" s="3">
         <v>121100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3572200</v>
+        <v>3567000</v>
       </c>
       <c r="E66" s="3">
-        <v>3647200</v>
+        <v>3641900</v>
       </c>
       <c r="F66" s="3">
-        <v>3821200</v>
+        <v>3815700</v>
       </c>
       <c r="G66" s="3">
-        <v>3759400</v>
+        <v>3753900</v>
       </c>
       <c r="H66" s="3">
-        <v>3561500</v>
+        <v>3556300</v>
       </c>
       <c r="I66" s="3">
-        <v>2642600</v>
+        <v>2638800</v>
       </c>
       <c r="J66" s="3">
-        <v>2185200</v>
+        <v>2182000</v>
       </c>
       <c r="K66" s="3">
         <v>2062800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7182500</v>
+        <v>7172000</v>
       </c>
       <c r="E72" s="3">
-        <v>7364800</v>
+        <v>7354100</v>
       </c>
       <c r="F72" s="3">
-        <v>6258200</v>
+        <v>6249100</v>
       </c>
       <c r="G72" s="3">
-        <v>6775500</v>
+        <v>6765700</v>
       </c>
       <c r="H72" s="3">
-        <v>5852600</v>
+        <v>5844100</v>
       </c>
       <c r="I72" s="3">
-        <v>5122100</v>
+        <v>5114700</v>
       </c>
       <c r="J72" s="3">
-        <v>4333700</v>
+        <v>4327400</v>
       </c>
       <c r="K72" s="3">
         <v>3466000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7670600</v>
+        <v>7659500</v>
       </c>
       <c r="E76" s="3">
-        <v>7817300</v>
+        <v>7805900</v>
       </c>
       <c r="F76" s="3">
-        <v>6645200</v>
+        <v>6635500</v>
       </c>
       <c r="G76" s="3">
-        <v>7159400</v>
+        <v>7149000</v>
       </c>
       <c r="H76" s="3">
-        <v>6400800</v>
+        <v>6391500</v>
       </c>
       <c r="I76" s="3">
-        <v>5613800</v>
+        <v>5605700</v>
       </c>
       <c r="J76" s="3">
-        <v>4726500</v>
+        <v>4719700</v>
       </c>
       <c r="K76" s="3">
         <v>3754800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1337700</v>
+        <v>1335800</v>
       </c>
       <c r="E81" s="3">
-        <v>1238800</v>
+        <v>1237000</v>
       </c>
       <c r="F81" s="3">
-        <v>1101900</v>
+        <v>1100300</v>
       </c>
       <c r="G81" s="3">
-        <v>1168200</v>
+        <v>1166500</v>
       </c>
       <c r="H81" s="3">
-        <v>1225700</v>
+        <v>1223900</v>
       </c>
       <c r="I81" s="3">
-        <v>1190600</v>
+        <v>1188900</v>
       </c>
       <c r="J81" s="3">
-        <v>1072800</v>
+        <v>1071300</v>
       </c>
       <c r="K81" s="3">
         <v>877300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>287100</v>
+        <v>286600</v>
       </c>
       <c r="E83" s="3">
-        <v>268000</v>
+        <v>267600</v>
       </c>
       <c r="F83" s="3">
-        <v>290700</v>
+        <v>290200</v>
       </c>
       <c r="G83" s="3">
-        <v>318000</v>
+        <v>317500</v>
       </c>
       <c r="H83" s="3">
-        <v>205900</v>
+        <v>205600</v>
       </c>
       <c r="I83" s="3">
-        <v>176400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>152800</v>
+        <v>176200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1384800</v>
+        <v>1382800</v>
       </c>
       <c r="E89" s="3">
-        <v>1600500</v>
+        <v>1598200</v>
       </c>
       <c r="F89" s="3">
-        <v>1159000</v>
+        <v>1157400</v>
       </c>
       <c r="G89" s="3">
-        <v>1276600</v>
+        <v>1274700</v>
       </c>
       <c r="H89" s="3">
-        <v>1085300</v>
+        <v>1083700</v>
       </c>
       <c r="I89" s="3">
-        <v>1076900</v>
+        <v>1075300</v>
       </c>
       <c r="J89" s="3">
-        <v>934300</v>
+        <v>932900</v>
       </c>
       <c r="K89" s="3">
         <v>931000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-323300</v>
+        <v>-322800</v>
       </c>
       <c r="E91" s="3">
-        <v>-313500</v>
+        <v>-313000</v>
       </c>
       <c r="F91" s="3">
-        <v>-300900</v>
+        <v>-300500</v>
       </c>
       <c r="G91" s="3">
-        <v>-286900</v>
+        <v>-286500</v>
       </c>
       <c r="H91" s="3">
-        <v>-192000</v>
+        <v>-191700</v>
       </c>
       <c r="I91" s="3">
-        <v>-174200</v>
+        <v>-174000</v>
       </c>
       <c r="J91" s="3">
-        <v>-122600</v>
+        <v>-122500</v>
       </c>
       <c r="K91" s="3">
         <v>-140300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>468000</v>
+        <v>467300</v>
       </c>
       <c r="E94" s="3">
-        <v>689700</v>
+        <v>688700</v>
       </c>
       <c r="F94" s="3">
-        <v>489600</v>
+        <v>488800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1600100</v>
+        <v>-1597700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1901000</v>
+        <v>-1898300</v>
       </c>
       <c r="I94" s="3">
-        <v>-351900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-38200</v>
+        <v>-351400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-94400</v>
+        <v>-94300</v>
       </c>
       <c r="E96" s="3">
-        <v>-74800</v>
+        <v>-74700</v>
       </c>
       <c r="F96" s="3">
-        <v>-74600</v>
+        <v>-74500</v>
       </c>
       <c r="G96" s="3">
-        <v>-120200</v>
+        <v>-120000</v>
       </c>
       <c r="H96" s="3">
-        <v>-488400</v>
+        <v>-487700</v>
       </c>
       <c r="I96" s="3">
-        <v>-405800</v>
+        <v>-405200</v>
       </c>
       <c r="J96" s="3">
-        <v>-320200</v>
+        <v>-319800</v>
       </c>
       <c r="K96" s="3">
         <v>-225800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2077700</v>
+        <v>-2074700</v>
       </c>
       <c r="E100" s="3">
-        <v>-679300</v>
+        <v>-678300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1788500</v>
+        <v>-1785900</v>
       </c>
       <c r="G100" s="3">
-        <v>-313100</v>
+        <v>-312600</v>
       </c>
       <c r="H100" s="3">
         <v>-21800</v>
       </c>
       <c r="I100" s="3">
-        <v>-120600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-481200</v>
+        <v>-120400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3475,13 +3475,13 @@
         <v>-19400</v>
       </c>
       <c r="H101" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I101" s="3">
         <v>8100</v>
       </c>
-      <c r="J101" s="3">
-        <v>-900</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198400</v>
+        <v>-198100</v>
       </c>
       <c r="E102" s="3">
-        <v>1618200</v>
+        <v>1615800</v>
       </c>
       <c r="F102" s="3">
-        <v>-134700</v>
+        <v>-134500</v>
       </c>
       <c r="G102" s="3">
-        <v>-656000</v>
+        <v>-655000</v>
       </c>
       <c r="H102" s="3">
-        <v>-830000</v>
+        <v>-828800</v>
       </c>
       <c r="I102" s="3">
-        <v>612500</v>
+        <v>611600</v>
       </c>
       <c r="J102" s="3">
-        <v>413900</v>
+        <v>413300</v>
       </c>
       <c r="K102" s="3">
         <v>91400</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8384600</v>
+        <v>8331300</v>
       </c>
       <c r="E8" s="3">
-        <v>8049500</v>
+        <v>8207600</v>
       </c>
       <c r="F8" s="3">
-        <v>7486500</v>
+        <v>7879600</v>
       </c>
       <c r="G8" s="3">
-        <v>7562500</v>
+        <v>7328500</v>
       </c>
       <c r="H8" s="3">
-        <v>7040900</v>
+        <v>7402900</v>
       </c>
       <c r="I8" s="3">
-        <v>6451500</v>
+        <v>6892300</v>
       </c>
       <c r="J8" s="3">
+        <v>6315400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5966900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4947700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4609100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5991800</v>
+        <v>5692100</v>
       </c>
       <c r="E9" s="3">
-        <v>5654700</v>
+        <v>5865300</v>
       </c>
       <c r="F9" s="3">
-        <v>5297800</v>
+        <v>5535400</v>
       </c>
       <c r="G9" s="3">
-        <v>5379800</v>
+        <v>5186000</v>
       </c>
       <c r="H9" s="3">
-        <v>4901400</v>
+        <v>5266300</v>
       </c>
       <c r="I9" s="3">
-        <v>4414400</v>
+        <v>4797900</v>
       </c>
       <c r="J9" s="3">
+        <v>4321300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4060000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3446000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3265000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2392800</v>
+        <v>2639200</v>
       </c>
       <c r="E10" s="3">
-        <v>2394800</v>
+        <v>2342300</v>
       </c>
       <c r="F10" s="3">
-        <v>2188700</v>
+        <v>2344200</v>
       </c>
       <c r="G10" s="3">
-        <v>2182700</v>
+        <v>2142500</v>
       </c>
       <c r="H10" s="3">
-        <v>2139500</v>
+        <v>2136600</v>
       </c>
       <c r="I10" s="3">
-        <v>2037100</v>
+        <v>2094400</v>
       </c>
       <c r="J10" s="3">
+        <v>1994100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1906900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1501700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1344100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,29 +906,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-10900</v>
-      </c>
       <c r="F14" s="3">
-        <v>8800</v>
+        <v>-10600</v>
       </c>
       <c r="G14" s="3">
-        <v>-14100</v>
+        <v>8600</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>-13800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -923,29 +942,32 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>48600</v>
+        <v>66200</v>
       </c>
       <c r="E15" s="3">
-        <v>53200</v>
+        <v>47600</v>
       </c>
       <c r="F15" s="3">
-        <v>53100</v>
+        <v>52100</v>
       </c>
       <c r="G15" s="3">
-        <v>43600</v>
+        <v>52000</v>
       </c>
       <c r="H15" s="3">
-        <v>23900</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>42700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>23400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -956,9 +978,12 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6931900</v>
+        <v>6676300</v>
       </c>
       <c r="E17" s="3">
-        <v>6676700</v>
+        <v>6785600</v>
       </c>
       <c r="F17" s="3">
-        <v>6328300</v>
+        <v>6535800</v>
       </c>
       <c r="G17" s="3">
-        <v>6272600</v>
+        <v>6194800</v>
       </c>
       <c r="H17" s="3">
-        <v>5710100</v>
+        <v>6140200</v>
       </c>
       <c r="I17" s="3">
-        <v>5140400</v>
+        <v>5589600</v>
       </c>
       <c r="J17" s="3">
+        <v>5031900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4739100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4022600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3742800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1452700</v>
+        <v>1655100</v>
       </c>
       <c r="E18" s="3">
-        <v>1372800</v>
+        <v>1422100</v>
       </c>
       <c r="F18" s="3">
-        <v>1158200</v>
+        <v>1343800</v>
       </c>
       <c r="G18" s="3">
-        <v>1289900</v>
+        <v>1133800</v>
       </c>
       <c r="H18" s="3">
-        <v>1330900</v>
+        <v>1262700</v>
       </c>
       <c r="I18" s="3">
-        <v>1311100</v>
+        <v>1302800</v>
       </c>
       <c r="J18" s="3">
+        <v>1283400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1227700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>925000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>866300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>301200</v>
+        <v>272400</v>
       </c>
       <c r="E20" s="3">
-        <v>290200</v>
+        <v>294800</v>
       </c>
       <c r="F20" s="3">
-        <v>297200</v>
+        <v>284100</v>
       </c>
       <c r="G20" s="3">
-        <v>252700</v>
+        <v>290900</v>
       </c>
       <c r="H20" s="3">
-        <v>267700</v>
+        <v>247400</v>
       </c>
       <c r="I20" s="3">
-        <v>234000</v>
+        <v>262000</v>
       </c>
       <c r="J20" s="3">
+        <v>229000</v>
+      </c>
+      <c r="K20" s="3">
         <v>172000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>125400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>94700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2040300</v>
+        <v>2299700</v>
       </c>
       <c r="E21" s="3">
-        <v>1930300</v>
+        <v>1997700</v>
       </c>
       <c r="F21" s="3">
-        <v>1745400</v>
+        <v>1890000</v>
       </c>
       <c r="G21" s="3">
-        <v>1859900</v>
+        <v>1709000</v>
       </c>
       <c r="H21" s="3">
-        <v>1804000</v>
+        <v>1821100</v>
       </c>
       <c r="I21" s="3">
-        <v>1721100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1766200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1685100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1107600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70600</v>
+        <v>57800</v>
       </c>
       <c r="E22" s="3">
-        <v>77200</v>
+        <v>69100</v>
       </c>
       <c r="F22" s="3">
-        <v>47400</v>
+        <v>75500</v>
       </c>
       <c r="G22" s="3">
-        <v>26300</v>
+        <v>46400</v>
       </c>
       <c r="H22" s="3">
-        <v>19400</v>
+        <v>25800</v>
       </c>
       <c r="I22" s="3">
-        <v>10600</v>
+        <v>19000</v>
       </c>
       <c r="J22" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K22" s="3">
         <v>11900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1683300</v>
+        <v>1869600</v>
       </c>
       <c r="E23" s="3">
-        <v>1585800</v>
+        <v>1647800</v>
       </c>
       <c r="F23" s="3">
-        <v>1408000</v>
+        <v>1552300</v>
       </c>
       <c r="G23" s="3">
-        <v>1516300</v>
+        <v>1378300</v>
       </c>
       <c r="H23" s="3">
-        <v>1579200</v>
+        <v>1484300</v>
       </c>
       <c r="I23" s="3">
-        <v>1534500</v>
+        <v>1545800</v>
       </c>
       <c r="J23" s="3">
+        <v>1502100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1387800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1039000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>947500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>340700</v>
+        <v>408100</v>
       </c>
       <c r="E24" s="3">
-        <v>346800</v>
+        <v>333500</v>
       </c>
       <c r="F24" s="3">
-        <v>329100</v>
+        <v>339500</v>
       </c>
       <c r="G24" s="3">
-        <v>346400</v>
+        <v>322200</v>
       </c>
       <c r="H24" s="3">
-        <v>348500</v>
+        <v>339100</v>
       </c>
       <c r="I24" s="3">
-        <v>338300</v>
+        <v>341200</v>
       </c>
       <c r="J24" s="3">
+        <v>331200</v>
+      </c>
+      <c r="K24" s="3">
         <v>310500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>223600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>187300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1342600</v>
+        <v>1461500</v>
       </c>
       <c r="E26" s="3">
-        <v>1239000</v>
+        <v>1314200</v>
       </c>
       <c r="F26" s="3">
-        <v>1078900</v>
+        <v>1212800</v>
       </c>
       <c r="G26" s="3">
-        <v>1169900</v>
+        <v>1056100</v>
       </c>
       <c r="H26" s="3">
-        <v>1230700</v>
+        <v>1145200</v>
       </c>
       <c r="I26" s="3">
-        <v>1196200</v>
+        <v>1204700</v>
       </c>
       <c r="J26" s="3">
+        <v>1170900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1077300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>815500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>760100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1335800</v>
+        <v>1451900</v>
       </c>
       <c r="E27" s="3">
-        <v>1237000</v>
+        <v>1307600</v>
       </c>
       <c r="F27" s="3">
-        <v>1078800</v>
+        <v>1210900</v>
       </c>
       <c r="G27" s="3">
-        <v>1166500</v>
+        <v>1056100</v>
       </c>
       <c r="H27" s="3">
-        <v>1223900</v>
+        <v>1141800</v>
       </c>
       <c r="I27" s="3">
-        <v>1188900</v>
+        <v>1198100</v>
       </c>
       <c r="J27" s="3">
+        <v>1163800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1071300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>811200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>756600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,30 +1418,33 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>21500</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>21000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>66100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>49200</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-301200</v>
+        <v>-272400</v>
       </c>
       <c r="E32" s="3">
-        <v>-290200</v>
+        <v>-294800</v>
       </c>
       <c r="F32" s="3">
-        <v>-297200</v>
+        <v>-284100</v>
       </c>
       <c r="G32" s="3">
-        <v>-252700</v>
+        <v>-290900</v>
       </c>
       <c r="H32" s="3">
-        <v>-267700</v>
+        <v>-247400</v>
       </c>
       <c r="I32" s="3">
-        <v>-234000</v>
+        <v>-262000</v>
       </c>
       <c r="J32" s="3">
+        <v>-229000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-172000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-125400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-94700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1335800</v>
+        <v>1451900</v>
       </c>
       <c r="E33" s="3">
-        <v>1237000</v>
+        <v>1307600</v>
       </c>
       <c r="F33" s="3">
-        <v>1100300</v>
+        <v>1210900</v>
       </c>
       <c r="G33" s="3">
-        <v>1166500</v>
+        <v>1077100</v>
       </c>
       <c r="H33" s="3">
-        <v>1223900</v>
+        <v>1141800</v>
       </c>
       <c r="I33" s="3">
-        <v>1188900</v>
+        <v>1198100</v>
       </c>
       <c r="J33" s="3">
+        <v>1163800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1071300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>877300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>805900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1335800</v>
+        <v>1451900</v>
       </c>
       <c r="E35" s="3">
-        <v>1237000</v>
+        <v>1307600</v>
       </c>
       <c r="F35" s="3">
-        <v>1100300</v>
+        <v>1210900</v>
       </c>
       <c r="G35" s="3">
-        <v>1166500</v>
+        <v>1077100</v>
       </c>
       <c r="H35" s="3">
-        <v>1223900</v>
+        <v>1141800</v>
       </c>
       <c r="I35" s="3">
-        <v>1188900</v>
+        <v>1198100</v>
       </c>
       <c r="J35" s="3">
+        <v>1163800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1071300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>877300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>805900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1985400</v>
+        <v>2283700</v>
       </c>
       <c r="E41" s="3">
-        <v>2178200</v>
+        <v>1943500</v>
       </c>
       <c r="F41" s="3">
-        <v>617300</v>
+        <v>2132200</v>
       </c>
       <c r="G41" s="3">
-        <v>724200</v>
+        <v>604200</v>
       </c>
       <c r="H41" s="3">
-        <v>1360900</v>
+        <v>708900</v>
       </c>
       <c r="I41" s="3">
-        <v>2183800</v>
+        <v>1332200</v>
       </c>
       <c r="J41" s="3">
+        <v>2137700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1569100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>472100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>594900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2594600</v>
+        <v>2355000</v>
       </c>
       <c r="E42" s="3">
-        <v>3057300</v>
+        <v>2539900</v>
       </c>
       <c r="F42" s="3">
-        <v>3453800</v>
+        <v>2992800</v>
       </c>
       <c r="G42" s="3">
-        <v>4036400</v>
+        <v>3380900</v>
       </c>
       <c r="H42" s="3">
-        <v>6589000</v>
+        <v>3951200</v>
       </c>
       <c r="I42" s="3">
-        <v>1313100</v>
+        <v>6450000</v>
       </c>
       <c r="J42" s="3">
+        <v>1285400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1045300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1598900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1164500</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2286800</v>
+        <v>2093400</v>
       </c>
       <c r="E43" s="3">
-        <v>2292800</v>
+        <v>2238600</v>
       </c>
       <c r="F43" s="3">
-        <v>2126900</v>
+        <v>2244400</v>
       </c>
       <c r="G43" s="3">
-        <v>2149300</v>
+        <v>2082000</v>
       </c>
       <c r="H43" s="3">
-        <v>3657100</v>
+        <v>2103900</v>
       </c>
       <c r="I43" s="3">
-        <v>2073700</v>
+        <v>3579900</v>
       </c>
       <c r="J43" s="3">
+        <v>2029900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1937400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1631600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1744700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68500</v>
+        <v>57300</v>
       </c>
       <c r="E44" s="3">
-        <v>98900</v>
+        <v>67100</v>
       </c>
       <c r="F44" s="3">
-        <v>71300</v>
+        <v>96800</v>
       </c>
       <c r="G44" s="3">
-        <v>73700</v>
+        <v>69800</v>
       </c>
       <c r="H44" s="3">
-        <v>94800</v>
+        <v>72100</v>
       </c>
       <c r="I44" s="3">
-        <v>100000</v>
+        <v>92800</v>
       </c>
       <c r="J44" s="3">
+        <v>97900</v>
+      </c>
+      <c r="K44" s="3">
         <v>65100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>154200</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>207300</v>
+        <v>247400</v>
       </c>
       <c r="E45" s="3">
-        <v>230900</v>
+        <v>203000</v>
       </c>
       <c r="F45" s="3">
-        <v>685300</v>
+        <v>226000</v>
       </c>
       <c r="G45" s="3">
-        <v>420900</v>
+        <v>670900</v>
       </c>
       <c r="H45" s="3">
-        <v>374200</v>
+        <v>412000</v>
       </c>
       <c r="I45" s="3">
-        <v>326800</v>
+        <v>366300</v>
       </c>
       <c r="J45" s="3">
+        <v>319900</v>
+      </c>
+      <c r="K45" s="3">
         <v>256400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>321300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>296300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7142800</v>
+        <v>7036900</v>
       </c>
       <c r="E46" s="3">
-        <v>7858000</v>
+        <v>6992000</v>
       </c>
       <c r="F46" s="3">
-        <v>6954600</v>
+        <v>7692100</v>
       </c>
       <c r="G46" s="3">
-        <v>7404500</v>
+        <v>6807800</v>
       </c>
       <c r="H46" s="3">
-        <v>6908800</v>
+        <v>7248200</v>
       </c>
       <c r="I46" s="3">
-        <v>5997400</v>
+        <v>6763000</v>
       </c>
       <c r="J46" s="3">
+        <v>5870800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4873400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4066900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3954600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>527100</v>
+        <v>545500</v>
       </c>
       <c r="E47" s="3">
-        <v>563900</v>
+        <v>515900</v>
       </c>
       <c r="F47" s="3">
-        <v>489200</v>
+        <v>552000</v>
       </c>
       <c r="G47" s="3">
-        <v>354300</v>
+        <v>478900</v>
       </c>
       <c r="H47" s="3">
-        <v>288300</v>
+        <v>346800</v>
       </c>
       <c r="I47" s="3">
-        <v>209900</v>
+        <v>282200</v>
       </c>
       <c r="J47" s="3">
+        <v>205500</v>
+      </c>
+      <c r="K47" s="3">
         <v>176800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>142000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>231700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1344700</v>
+        <v>1366700</v>
       </c>
       <c r="E48" s="3">
-        <v>970100</v>
+        <v>1316300</v>
       </c>
       <c r="F48" s="3">
-        <v>885400</v>
+        <v>949600</v>
       </c>
       <c r="G48" s="3">
-        <v>959000</v>
+        <v>866800</v>
       </c>
       <c r="H48" s="3">
-        <v>892600</v>
+        <v>938700</v>
       </c>
       <c r="I48" s="3">
-        <v>744800</v>
+        <v>873700</v>
       </c>
       <c r="J48" s="3">
+        <v>729100</v>
+      </c>
+      <c r="K48" s="3">
         <v>706900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>668400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>853000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2024900</v>
+        <v>2047300</v>
       </c>
       <c r="E49" s="3">
-        <v>1796400</v>
+        <v>1982200</v>
       </c>
       <c r="F49" s="3">
-        <v>1864500</v>
+        <v>1758500</v>
       </c>
       <c r="G49" s="3">
-        <v>1947200</v>
+        <v>1825100</v>
       </c>
       <c r="H49" s="3">
-        <v>1619000</v>
+        <v>1906100</v>
       </c>
       <c r="I49" s="3">
-        <v>1044400</v>
+        <v>1584800</v>
       </c>
       <c r="J49" s="3">
+        <v>1022300</v>
+      </c>
+      <c r="K49" s="3">
         <v>898000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>747100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1043500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>187000</v>
+        <v>186500</v>
       </c>
       <c r="E52" s="3">
-        <v>259400</v>
+        <v>183100</v>
       </c>
       <c r="F52" s="3">
-        <v>257500</v>
+        <v>254000</v>
       </c>
       <c r="G52" s="3">
-        <v>238000</v>
+        <v>252000</v>
       </c>
       <c r="H52" s="3">
-        <v>239200</v>
+        <v>233000</v>
       </c>
       <c r="I52" s="3">
-        <v>248000</v>
+        <v>234200</v>
       </c>
       <c r="J52" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K52" s="3">
         <v>246500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>193200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>221700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11226400</v>
+        <v>11182800</v>
       </c>
       <c r="E54" s="3">
-        <v>11447800</v>
+        <v>10989500</v>
       </c>
       <c r="F54" s="3">
-        <v>10451200</v>
+        <v>11206100</v>
       </c>
       <c r="G54" s="3">
-        <v>10902900</v>
+        <v>10230600</v>
       </c>
       <c r="H54" s="3">
-        <v>9947800</v>
+        <v>10672800</v>
       </c>
       <c r="I54" s="3">
-        <v>8244500</v>
+        <v>9737800</v>
       </c>
       <c r="J54" s="3">
+        <v>8070400</v>
+      </c>
+      <c r="K54" s="3">
         <v>6901700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5817600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6304600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>371700</v>
+        <v>312500</v>
       </c>
       <c r="E57" s="3">
-        <v>392000</v>
+        <v>363900</v>
       </c>
       <c r="F57" s="3">
-        <v>335300</v>
+        <v>383700</v>
       </c>
       <c r="G57" s="3">
-        <v>322200</v>
+        <v>328300</v>
       </c>
       <c r="H57" s="3">
-        <v>1259100</v>
+        <v>315400</v>
       </c>
       <c r="I57" s="3">
-        <v>258900</v>
+        <v>1232500</v>
       </c>
       <c r="J57" s="3">
+        <v>253500</v>
+      </c>
+      <c r="K57" s="3">
         <v>242000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>204200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>338800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1095900</v>
+        <v>1123700</v>
       </c>
       <c r="E58" s="3">
-        <v>976900</v>
+        <v>1072800</v>
       </c>
       <c r="F58" s="3">
-        <v>1277700</v>
+        <v>956300</v>
       </c>
       <c r="G58" s="3">
-        <v>1687300</v>
+        <v>1250700</v>
       </c>
       <c r="H58" s="3">
-        <v>2964000</v>
+        <v>1651700</v>
       </c>
       <c r="I58" s="3">
-        <v>909700</v>
+        <v>2901400</v>
       </c>
       <c r="J58" s="3">
+        <v>890500</v>
+      </c>
+      <c r="K58" s="3">
         <v>559000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>833000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>527000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1505600</v>
+        <v>1657900</v>
       </c>
       <c r="E59" s="3">
-        <v>1576300</v>
+        <v>1473800</v>
       </c>
       <c r="F59" s="3">
-        <v>1320600</v>
+        <v>1543000</v>
       </c>
       <c r="G59" s="3">
-        <v>1144400</v>
+        <v>1292700</v>
       </c>
       <c r="H59" s="3">
-        <v>1198900</v>
+        <v>1120300</v>
       </c>
       <c r="I59" s="3">
-        <v>1085200</v>
+        <v>1173600</v>
       </c>
       <c r="J59" s="3">
+        <v>1062300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1073900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>877700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>835900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2973200</v>
+        <v>3094000</v>
       </c>
       <c r="E60" s="3">
-        <v>2945200</v>
+        <v>2910500</v>
       </c>
       <c r="F60" s="3">
-        <v>2933600</v>
+        <v>2883000</v>
       </c>
       <c r="G60" s="3">
-        <v>3153900</v>
+        <v>2871700</v>
       </c>
       <c r="H60" s="3">
-        <v>3003000</v>
+        <v>3087400</v>
       </c>
       <c r="I60" s="3">
-        <v>2253800</v>
+        <v>2939600</v>
       </c>
       <c r="J60" s="3">
+        <v>2206200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1874900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1914900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1701700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>240100</v>
+        <v>282100</v>
       </c>
       <c r="E61" s="3">
-        <v>389800</v>
+        <v>235100</v>
       </c>
       <c r="F61" s="3">
-        <v>622000</v>
+        <v>381500</v>
       </c>
       <c r="G61" s="3">
-        <v>269500</v>
+        <v>608900</v>
       </c>
       <c r="H61" s="3">
-        <v>238500</v>
+        <v>263800</v>
       </c>
       <c r="I61" s="3">
-        <v>174600</v>
+        <v>233500</v>
       </c>
       <c r="J61" s="3">
+        <v>170900</v>
+      </c>
+      <c r="K61" s="3">
         <v>149900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>325500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>327800</v>
+        <v>347400</v>
       </c>
       <c r="E62" s="3">
-        <v>270700</v>
+        <v>320900</v>
       </c>
       <c r="F62" s="3">
-        <v>227100</v>
+        <v>265000</v>
       </c>
       <c r="G62" s="3">
-        <v>297700</v>
+        <v>222300</v>
       </c>
       <c r="H62" s="3">
-        <v>284400</v>
+        <v>291400</v>
       </c>
       <c r="I62" s="3">
-        <v>187800</v>
+        <v>278400</v>
       </c>
       <c r="J62" s="3">
+        <v>183800</v>
+      </c>
+      <c r="K62" s="3">
         <v>138100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>121100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>139400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3567000</v>
+        <v>3743700</v>
       </c>
       <c r="E66" s="3">
-        <v>3641900</v>
+        <v>3491700</v>
       </c>
       <c r="F66" s="3">
-        <v>3815700</v>
+        <v>3565000</v>
       </c>
       <c r="G66" s="3">
-        <v>3753900</v>
+        <v>3735100</v>
       </c>
       <c r="H66" s="3">
-        <v>3556300</v>
+        <v>3674700</v>
       </c>
       <c r="I66" s="3">
-        <v>2638800</v>
+        <v>3481300</v>
       </c>
       <c r="J66" s="3">
+        <v>2583100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2182000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2062800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2178900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7172000</v>
+        <v>6909100</v>
       </c>
       <c r="E72" s="3">
-        <v>7354100</v>
+        <v>7020700</v>
       </c>
       <c r="F72" s="3">
-        <v>6249100</v>
+        <v>7198900</v>
       </c>
       <c r="G72" s="3">
-        <v>6765700</v>
+        <v>6117200</v>
       </c>
       <c r="H72" s="3">
-        <v>5844100</v>
+        <v>6622900</v>
       </c>
       <c r="I72" s="3">
-        <v>5114700</v>
+        <v>5720700</v>
       </c>
       <c r="J72" s="3">
+        <v>5006700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4327400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3466000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3507000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7659500</v>
+        <v>7439100</v>
       </c>
       <c r="E76" s="3">
-        <v>7805900</v>
+        <v>7497800</v>
       </c>
       <c r="F76" s="3">
-        <v>6635500</v>
+        <v>7641200</v>
       </c>
       <c r="G76" s="3">
-        <v>7149000</v>
+        <v>6495500</v>
       </c>
       <c r="H76" s="3">
-        <v>6391500</v>
+        <v>6998100</v>
       </c>
       <c r="I76" s="3">
-        <v>5605700</v>
+        <v>6256600</v>
       </c>
       <c r="J76" s="3">
+        <v>5487400</v>
+      </c>
+      <c r="K76" s="3">
         <v>4719700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3754800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4125600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1335800</v>
+        <v>1451900</v>
       </c>
       <c r="E81" s="3">
-        <v>1237000</v>
+        <v>1307600</v>
       </c>
       <c r="F81" s="3">
-        <v>1100300</v>
+        <v>1210900</v>
       </c>
       <c r="G81" s="3">
-        <v>1166500</v>
+        <v>1077100</v>
       </c>
       <c r="H81" s="3">
-        <v>1223900</v>
+        <v>1141800</v>
       </c>
       <c r="I81" s="3">
-        <v>1188900</v>
+        <v>1198100</v>
       </c>
       <c r="J81" s="3">
+        <v>1163800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1071300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>877300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>805900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>286600</v>
+        <v>372000</v>
       </c>
       <c r="E83" s="3">
-        <v>267600</v>
+        <v>280600</v>
       </c>
       <c r="F83" s="3">
-        <v>290200</v>
+        <v>261900</v>
       </c>
       <c r="G83" s="3">
-        <v>317500</v>
+        <v>284100</v>
       </c>
       <c r="H83" s="3">
-        <v>205600</v>
+        <v>310800</v>
       </c>
       <c r="I83" s="3">
-        <v>176200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>201300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>172500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>146500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1382800</v>
+        <v>1984500</v>
       </c>
       <c r="E89" s="3">
-        <v>1598200</v>
+        <v>1353600</v>
       </c>
       <c r="F89" s="3">
-        <v>1157400</v>
+        <v>1564500</v>
       </c>
       <c r="G89" s="3">
-        <v>1274700</v>
+        <v>1132900</v>
       </c>
       <c r="H89" s="3">
-        <v>1083700</v>
+        <v>1247800</v>
       </c>
       <c r="I89" s="3">
-        <v>1075300</v>
+        <v>1060800</v>
       </c>
       <c r="J89" s="3">
+        <v>1052600</v>
+      </c>
+      <c r="K89" s="3">
         <v>932900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>931000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>579500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-322800</v>
+        <v>-263300</v>
       </c>
       <c r="E91" s="3">
-        <v>-313000</v>
+        <v>-316000</v>
       </c>
       <c r="F91" s="3">
-        <v>-300500</v>
+        <v>-306400</v>
       </c>
       <c r="G91" s="3">
-        <v>-286500</v>
+        <v>-294200</v>
       </c>
       <c r="H91" s="3">
-        <v>-191700</v>
+        <v>-280500</v>
       </c>
       <c r="I91" s="3">
-        <v>-174000</v>
+        <v>-187600</v>
       </c>
       <c r="J91" s="3">
+        <v>-170300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-122500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-140300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-187600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>467300</v>
+        <v>104100</v>
       </c>
       <c r="E94" s="3">
-        <v>688700</v>
+        <v>457500</v>
       </c>
       <c r="F94" s="3">
-        <v>488800</v>
+        <v>674200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1597700</v>
+        <v>478500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1898300</v>
+        <v>-1564000</v>
       </c>
       <c r="I94" s="3">
-        <v>-351400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-1858200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-344000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-116500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-94300</v>
+        <v>-73400</v>
       </c>
       <c r="E96" s="3">
-        <v>-74700</v>
+        <v>-92300</v>
       </c>
       <c r="F96" s="3">
-        <v>-74500</v>
+        <v>-73100</v>
       </c>
       <c r="G96" s="3">
-        <v>-120000</v>
+        <v>-72900</v>
       </c>
       <c r="H96" s="3">
-        <v>-487700</v>
+        <v>-117500</v>
       </c>
       <c r="I96" s="3">
-        <v>-405200</v>
+        <v>-477400</v>
       </c>
       <c r="J96" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-319800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-225800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-249100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2074700</v>
+        <v>-1732900</v>
       </c>
       <c r="E100" s="3">
-        <v>-678300</v>
+        <v>-2030900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1785900</v>
+        <v>-664000</v>
       </c>
       <c r="G100" s="3">
-        <v>-312600</v>
+        <v>-1748200</v>
       </c>
       <c r="H100" s="3">
-        <v>-21800</v>
+        <v>-306000</v>
       </c>
       <c r="I100" s="3">
-        <v>-120400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-21300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-117900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-251600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26400</v>
+        <v>-12000</v>
       </c>
       <c r="E101" s="3">
-        <v>7200</v>
+        <v>25900</v>
       </c>
       <c r="F101" s="3">
-        <v>5200</v>
+        <v>7100</v>
       </c>
       <c r="G101" s="3">
-        <v>-19400</v>
+        <v>5000</v>
       </c>
       <c r="H101" s="3">
-        <v>7500</v>
+        <v>-19000</v>
       </c>
       <c r="I101" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>7400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>24300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198100</v>
+        <v>343800</v>
       </c>
       <c r="E102" s="3">
-        <v>1615800</v>
+        <v>-194000</v>
       </c>
       <c r="F102" s="3">
-        <v>-134500</v>
+        <v>1581700</v>
       </c>
       <c r="G102" s="3">
-        <v>-655000</v>
+        <v>-131700</v>
       </c>
       <c r="H102" s="3">
-        <v>-828800</v>
+        <v>-641200</v>
       </c>
       <c r="I102" s="3">
-        <v>611600</v>
+        <v>-811300</v>
       </c>
       <c r="J102" s="3">
+        <v>598700</v>
+      </c>
+      <c r="K102" s="3">
         <v>413300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>235700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8331300</v>
+        <v>8257000</v>
       </c>
       <c r="E8" s="3">
-        <v>8207600</v>
+        <v>8134400</v>
       </c>
       <c r="F8" s="3">
-        <v>7879600</v>
+        <v>7809300</v>
       </c>
       <c r="G8" s="3">
-        <v>7328500</v>
+        <v>7263100</v>
       </c>
       <c r="H8" s="3">
-        <v>7402900</v>
+        <v>7336900</v>
       </c>
       <c r="I8" s="3">
-        <v>6892300</v>
+        <v>6830800</v>
       </c>
       <c r="J8" s="3">
-        <v>6315400</v>
+        <v>6259000</v>
       </c>
       <c r="K8" s="3">
         <v>5966900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5692100</v>
+        <v>5641300</v>
       </c>
       <c r="E9" s="3">
-        <v>5865300</v>
+        <v>5813000</v>
       </c>
       <c r="F9" s="3">
-        <v>5535400</v>
+        <v>5486000</v>
       </c>
       <c r="G9" s="3">
-        <v>5186000</v>
+        <v>5139700</v>
       </c>
       <c r="H9" s="3">
-        <v>5266300</v>
+        <v>5219300</v>
       </c>
       <c r="I9" s="3">
-        <v>4797900</v>
+        <v>4755100</v>
       </c>
       <c r="J9" s="3">
-        <v>4321300</v>
+        <v>4282700</v>
       </c>
       <c r="K9" s="3">
         <v>4060000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2639200</v>
+        <v>2615700</v>
       </c>
       <c r="E10" s="3">
-        <v>2342300</v>
+        <v>2321400</v>
       </c>
       <c r="F10" s="3">
-        <v>2344200</v>
+        <v>2323300</v>
       </c>
       <c r="G10" s="3">
-        <v>2142500</v>
+        <v>2123400</v>
       </c>
       <c r="H10" s="3">
-        <v>2136600</v>
+        <v>2117600</v>
       </c>
       <c r="I10" s="3">
-        <v>2094400</v>
+        <v>2075700</v>
       </c>
       <c r="J10" s="3">
-        <v>1994100</v>
+        <v>1976300</v>
       </c>
       <c r="K10" s="3">
         <v>1906900</v>
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="G14" s="3">
         <v>8600</v>
       </c>
       <c r="H14" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -952,22 +952,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>66200</v>
+        <v>65600</v>
       </c>
       <c r="E15" s="3">
-        <v>47600</v>
+        <v>47200</v>
       </c>
       <c r="F15" s="3">
-        <v>52100</v>
+        <v>51600</v>
       </c>
       <c r="G15" s="3">
-        <v>52000</v>
+        <v>51500</v>
       </c>
       <c r="H15" s="3">
-        <v>42700</v>
+        <v>42300</v>
       </c>
       <c r="I15" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6676300</v>
+        <v>6616700</v>
       </c>
       <c r="E17" s="3">
-        <v>6785600</v>
+        <v>6725000</v>
       </c>
       <c r="F17" s="3">
-        <v>6535800</v>
+        <v>6477500</v>
       </c>
       <c r="G17" s="3">
-        <v>6194800</v>
+        <v>6139500</v>
       </c>
       <c r="H17" s="3">
-        <v>6140200</v>
+        <v>6085500</v>
       </c>
       <c r="I17" s="3">
-        <v>5589600</v>
+        <v>5539700</v>
       </c>
       <c r="J17" s="3">
-        <v>5031900</v>
+        <v>4987000</v>
       </c>
       <c r="K17" s="3">
         <v>4739100</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1655100</v>
+        <v>1640300</v>
       </c>
       <c r="E18" s="3">
-        <v>1422100</v>
+        <v>1409400</v>
       </c>
       <c r="F18" s="3">
-        <v>1343800</v>
+        <v>1331800</v>
       </c>
       <c r="G18" s="3">
-        <v>1133800</v>
+        <v>1123600</v>
       </c>
       <c r="H18" s="3">
-        <v>1262700</v>
+        <v>1251400</v>
       </c>
       <c r="I18" s="3">
-        <v>1302800</v>
+        <v>1291100</v>
       </c>
       <c r="J18" s="3">
-        <v>1283400</v>
+        <v>1272000</v>
       </c>
       <c r="K18" s="3">
         <v>1227700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>272400</v>
+        <v>270000</v>
       </c>
       <c r="E20" s="3">
-        <v>294800</v>
+        <v>292200</v>
       </c>
       <c r="F20" s="3">
-        <v>284100</v>
+        <v>281500</v>
       </c>
       <c r="G20" s="3">
-        <v>290900</v>
+        <v>288300</v>
       </c>
       <c r="H20" s="3">
-        <v>247400</v>
+        <v>245200</v>
       </c>
       <c r="I20" s="3">
-        <v>262000</v>
+        <v>259700</v>
       </c>
       <c r="J20" s="3">
-        <v>229000</v>
+        <v>227000</v>
       </c>
       <c r="K20" s="3">
         <v>172000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2299700</v>
+        <v>2278900</v>
       </c>
       <c r="E21" s="3">
-        <v>1997700</v>
+        <v>1979600</v>
       </c>
       <c r="F21" s="3">
-        <v>1890000</v>
+        <v>1872900</v>
       </c>
       <c r="G21" s="3">
-        <v>1709000</v>
+        <v>1693600</v>
       </c>
       <c r="H21" s="3">
-        <v>1821100</v>
+        <v>1804600</v>
       </c>
       <c r="I21" s="3">
-        <v>1766200</v>
+        <v>1750300</v>
       </c>
       <c r="J21" s="3">
-        <v>1685100</v>
+        <v>1669900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57800</v>
+        <v>57300</v>
       </c>
       <c r="E22" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="F22" s="3">
-        <v>75500</v>
+        <v>74900</v>
       </c>
       <c r="G22" s="3">
-        <v>46400</v>
+        <v>46000</v>
       </c>
       <c r="H22" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="I22" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="J22" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="K22" s="3">
         <v>11900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1869600</v>
+        <v>1853000</v>
       </c>
       <c r="E23" s="3">
-        <v>1647800</v>
+        <v>1633100</v>
       </c>
       <c r="F23" s="3">
-        <v>1552300</v>
+        <v>1538500</v>
       </c>
       <c r="G23" s="3">
-        <v>1378300</v>
+        <v>1366000</v>
       </c>
       <c r="H23" s="3">
-        <v>1484300</v>
+        <v>1471000</v>
       </c>
       <c r="I23" s="3">
-        <v>1545800</v>
+        <v>1532100</v>
       </c>
       <c r="J23" s="3">
-        <v>1502100</v>
+        <v>1488700</v>
       </c>
       <c r="K23" s="3">
         <v>1387800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>408100</v>
+        <v>404500</v>
       </c>
       <c r="E24" s="3">
-        <v>333500</v>
+        <v>330600</v>
       </c>
       <c r="F24" s="3">
-        <v>339500</v>
+        <v>336500</v>
       </c>
       <c r="G24" s="3">
-        <v>322200</v>
+        <v>319300</v>
       </c>
       <c r="H24" s="3">
-        <v>339100</v>
+        <v>336100</v>
       </c>
       <c r="I24" s="3">
-        <v>341200</v>
+        <v>338100</v>
       </c>
       <c r="J24" s="3">
-        <v>331200</v>
+        <v>328200</v>
       </c>
       <c r="K24" s="3">
         <v>310500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1461500</v>
+        <v>1448500</v>
       </c>
       <c r="E26" s="3">
-        <v>1314200</v>
+        <v>1302500</v>
       </c>
       <c r="F26" s="3">
-        <v>1212800</v>
+        <v>1202000</v>
       </c>
       <c r="G26" s="3">
-        <v>1056100</v>
+        <v>1046700</v>
       </c>
       <c r="H26" s="3">
-        <v>1145200</v>
+        <v>1135000</v>
       </c>
       <c r="I26" s="3">
-        <v>1204700</v>
+        <v>1193900</v>
       </c>
       <c r="J26" s="3">
-        <v>1170900</v>
+        <v>1160500</v>
       </c>
       <c r="K26" s="3">
         <v>1077300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1451900</v>
+        <v>1438900</v>
       </c>
       <c r="E27" s="3">
-        <v>1307600</v>
+        <v>1295900</v>
       </c>
       <c r="F27" s="3">
-        <v>1210900</v>
+        <v>1200100</v>
       </c>
       <c r="G27" s="3">
-        <v>1056100</v>
+        <v>1046600</v>
       </c>
       <c r="H27" s="3">
-        <v>1141800</v>
+        <v>1131700</v>
       </c>
       <c r="I27" s="3">
-        <v>1198100</v>
+        <v>1187400</v>
       </c>
       <c r="J27" s="3">
-        <v>1163800</v>
+        <v>1153400</v>
       </c>
       <c r="K27" s="3">
         <v>1071300</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-272400</v>
+        <v>-270000</v>
       </c>
       <c r="E32" s="3">
-        <v>-294800</v>
+        <v>-292200</v>
       </c>
       <c r="F32" s="3">
-        <v>-284100</v>
+        <v>-281500</v>
       </c>
       <c r="G32" s="3">
-        <v>-290900</v>
+        <v>-288300</v>
       </c>
       <c r="H32" s="3">
-        <v>-247400</v>
+        <v>-245200</v>
       </c>
       <c r="I32" s="3">
-        <v>-262000</v>
+        <v>-259700</v>
       </c>
       <c r="J32" s="3">
-        <v>-229000</v>
+        <v>-227000</v>
       </c>
       <c r="K32" s="3">
         <v>-172000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1451900</v>
+        <v>1438900</v>
       </c>
       <c r="E33" s="3">
-        <v>1307600</v>
+        <v>1295900</v>
       </c>
       <c r="F33" s="3">
-        <v>1210900</v>
+        <v>1200100</v>
       </c>
       <c r="G33" s="3">
-        <v>1077100</v>
+        <v>1067500</v>
       </c>
       <c r="H33" s="3">
-        <v>1141800</v>
+        <v>1131700</v>
       </c>
       <c r="I33" s="3">
-        <v>1198100</v>
+        <v>1187400</v>
       </c>
       <c r="J33" s="3">
-        <v>1163800</v>
+        <v>1153400</v>
       </c>
       <c r="K33" s="3">
         <v>1071300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1451900</v>
+        <v>1438900</v>
       </c>
       <c r="E35" s="3">
-        <v>1307600</v>
+        <v>1295900</v>
       </c>
       <c r="F35" s="3">
-        <v>1210900</v>
+        <v>1200100</v>
       </c>
       <c r="G35" s="3">
-        <v>1077100</v>
+        <v>1067500</v>
       </c>
       <c r="H35" s="3">
-        <v>1141800</v>
+        <v>1131700</v>
       </c>
       <c r="I35" s="3">
-        <v>1198100</v>
+        <v>1187400</v>
       </c>
       <c r="J35" s="3">
-        <v>1163800</v>
+        <v>1153400</v>
       </c>
       <c r="K35" s="3">
         <v>1071300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2283700</v>
+        <v>2263300</v>
       </c>
       <c r="E41" s="3">
-        <v>1943500</v>
+        <v>1926200</v>
       </c>
       <c r="F41" s="3">
-        <v>2132200</v>
+        <v>2113200</v>
       </c>
       <c r="G41" s="3">
-        <v>604200</v>
+        <v>598900</v>
       </c>
       <c r="H41" s="3">
-        <v>708900</v>
+        <v>702600</v>
       </c>
       <c r="I41" s="3">
-        <v>1332200</v>
+        <v>1320300</v>
       </c>
       <c r="J41" s="3">
-        <v>2137700</v>
+        <v>2118700</v>
       </c>
       <c r="K41" s="3">
         <v>1569100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2355000</v>
+        <v>2334000</v>
       </c>
       <c r="E42" s="3">
-        <v>2539900</v>
+        <v>2517200</v>
       </c>
       <c r="F42" s="3">
-        <v>2992800</v>
+        <v>2966100</v>
       </c>
       <c r="G42" s="3">
-        <v>3380900</v>
+        <v>3350700</v>
       </c>
       <c r="H42" s="3">
-        <v>3951200</v>
+        <v>3915900</v>
       </c>
       <c r="I42" s="3">
-        <v>6450000</v>
+        <v>6392400</v>
       </c>
       <c r="J42" s="3">
-        <v>1285400</v>
+        <v>1273900</v>
       </c>
       <c r="K42" s="3">
         <v>1045300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2093400</v>
+        <v>2074700</v>
       </c>
       <c r="E43" s="3">
-        <v>2238600</v>
+        <v>2218600</v>
       </c>
       <c r="F43" s="3">
-        <v>2244400</v>
+        <v>2224300</v>
       </c>
       <c r="G43" s="3">
-        <v>2082000</v>
+        <v>2063500</v>
       </c>
       <c r="H43" s="3">
-        <v>2103900</v>
+        <v>2085100</v>
       </c>
       <c r="I43" s="3">
-        <v>3579900</v>
+        <v>3547900</v>
       </c>
       <c r="J43" s="3">
-        <v>2029900</v>
+        <v>2011800</v>
       </c>
       <c r="K43" s="3">
         <v>1937400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57300</v>
+        <v>56800</v>
       </c>
       <c r="E44" s="3">
-        <v>67100</v>
+        <v>66500</v>
       </c>
       <c r="F44" s="3">
-        <v>96800</v>
+        <v>95900</v>
       </c>
       <c r="G44" s="3">
-        <v>69800</v>
+        <v>69200</v>
       </c>
       <c r="H44" s="3">
-        <v>72100</v>
+        <v>71500</v>
       </c>
       <c r="I44" s="3">
-        <v>92800</v>
+        <v>91900</v>
       </c>
       <c r="J44" s="3">
-        <v>97900</v>
+        <v>97000</v>
       </c>
       <c r="K44" s="3">
         <v>65100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>247400</v>
+        <v>245200</v>
       </c>
       <c r="E45" s="3">
-        <v>203000</v>
+        <v>201100</v>
       </c>
       <c r="F45" s="3">
-        <v>226000</v>
+        <v>224000</v>
       </c>
       <c r="G45" s="3">
-        <v>670900</v>
+        <v>664900</v>
       </c>
       <c r="H45" s="3">
-        <v>412000</v>
+        <v>408400</v>
       </c>
       <c r="I45" s="3">
-        <v>366300</v>
+        <v>363000</v>
       </c>
       <c r="J45" s="3">
-        <v>319900</v>
+        <v>317000</v>
       </c>
       <c r="K45" s="3">
         <v>256400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7036900</v>
+        <v>6974100</v>
       </c>
       <c r="E46" s="3">
-        <v>6992000</v>
+        <v>6929600</v>
       </c>
       <c r="F46" s="3">
-        <v>7692100</v>
+        <v>7623500</v>
       </c>
       <c r="G46" s="3">
-        <v>6807800</v>
+        <v>6747100</v>
       </c>
       <c r="H46" s="3">
-        <v>7248200</v>
+        <v>7183500</v>
       </c>
       <c r="I46" s="3">
-        <v>6763000</v>
+        <v>6702700</v>
       </c>
       <c r="J46" s="3">
-        <v>5870800</v>
+        <v>5818400</v>
       </c>
       <c r="K46" s="3">
         <v>4873400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>545500</v>
+        <v>540600</v>
       </c>
       <c r="E47" s="3">
-        <v>515900</v>
+        <v>511300</v>
       </c>
       <c r="F47" s="3">
-        <v>552000</v>
+        <v>547100</v>
       </c>
       <c r="G47" s="3">
-        <v>478900</v>
+        <v>474600</v>
       </c>
       <c r="H47" s="3">
-        <v>346800</v>
+        <v>343700</v>
       </c>
       <c r="I47" s="3">
-        <v>282200</v>
+        <v>279700</v>
       </c>
       <c r="J47" s="3">
-        <v>205500</v>
+        <v>203600</v>
       </c>
       <c r="K47" s="3">
         <v>176800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1366700</v>
+        <v>1354500</v>
       </c>
       <c r="E48" s="3">
-        <v>1316300</v>
+        <v>1304600</v>
       </c>
       <c r="F48" s="3">
-        <v>949600</v>
+        <v>941100</v>
       </c>
       <c r="G48" s="3">
-        <v>866800</v>
+        <v>859000</v>
       </c>
       <c r="H48" s="3">
-        <v>938700</v>
+        <v>930400</v>
       </c>
       <c r="I48" s="3">
-        <v>873700</v>
+        <v>865900</v>
       </c>
       <c r="J48" s="3">
-        <v>729100</v>
+        <v>722600</v>
       </c>
       <c r="K48" s="3">
         <v>706900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2047300</v>
+        <v>2029000</v>
       </c>
       <c r="E49" s="3">
-        <v>1982200</v>
+        <v>1964500</v>
       </c>
       <c r="F49" s="3">
-        <v>1758500</v>
+        <v>1742800</v>
       </c>
       <c r="G49" s="3">
-        <v>1825100</v>
+        <v>1808800</v>
       </c>
       <c r="H49" s="3">
-        <v>1906100</v>
+        <v>1889100</v>
       </c>
       <c r="I49" s="3">
-        <v>1584800</v>
+        <v>1570700</v>
       </c>
       <c r="J49" s="3">
-        <v>1022300</v>
+        <v>1013200</v>
       </c>
       <c r="K49" s="3">
         <v>898000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>186500</v>
+        <v>184900</v>
       </c>
       <c r="E52" s="3">
-        <v>183100</v>
+        <v>181400</v>
       </c>
       <c r="F52" s="3">
-        <v>254000</v>
+        <v>251700</v>
       </c>
       <c r="G52" s="3">
-        <v>252000</v>
+        <v>249800</v>
       </c>
       <c r="H52" s="3">
-        <v>233000</v>
+        <v>230900</v>
       </c>
       <c r="I52" s="3">
-        <v>234200</v>
+        <v>232100</v>
       </c>
       <c r="J52" s="3">
-        <v>242800</v>
+        <v>240600</v>
       </c>
       <c r="K52" s="3">
         <v>246500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11182800</v>
+        <v>11083000</v>
       </c>
       <c r="E54" s="3">
-        <v>10989500</v>
+        <v>10891400</v>
       </c>
       <c r="F54" s="3">
-        <v>11206100</v>
+        <v>11106200</v>
       </c>
       <c r="G54" s="3">
-        <v>10230600</v>
+        <v>10139300</v>
       </c>
       <c r="H54" s="3">
-        <v>10672800</v>
+        <v>10577600</v>
       </c>
       <c r="I54" s="3">
-        <v>9737800</v>
+        <v>9651000</v>
       </c>
       <c r="J54" s="3">
-        <v>8070400</v>
+        <v>7998400</v>
       </c>
       <c r="K54" s="3">
         <v>6901700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>312500</v>
+        <v>309700</v>
       </c>
       <c r="E57" s="3">
-        <v>363900</v>
+        <v>360600</v>
       </c>
       <c r="F57" s="3">
-        <v>383700</v>
+        <v>380300</v>
       </c>
       <c r="G57" s="3">
-        <v>328300</v>
+        <v>325300</v>
       </c>
       <c r="H57" s="3">
-        <v>315400</v>
+        <v>312600</v>
       </c>
       <c r="I57" s="3">
-        <v>1232500</v>
+        <v>1221500</v>
       </c>
       <c r="J57" s="3">
-        <v>253500</v>
+        <v>251200</v>
       </c>
       <c r="K57" s="3">
         <v>242000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1123700</v>
+        <v>1113600</v>
       </c>
       <c r="E58" s="3">
-        <v>1072800</v>
+        <v>1063200</v>
       </c>
       <c r="F58" s="3">
-        <v>956300</v>
+        <v>947700</v>
       </c>
       <c r="G58" s="3">
-        <v>1250700</v>
+        <v>1239600</v>
       </c>
       <c r="H58" s="3">
-        <v>1651700</v>
+        <v>1636900</v>
       </c>
       <c r="I58" s="3">
-        <v>2901400</v>
+        <v>2875500</v>
       </c>
       <c r="J58" s="3">
-        <v>890500</v>
+        <v>882500</v>
       </c>
       <c r="K58" s="3">
         <v>559000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1657900</v>
+        <v>1643100</v>
       </c>
       <c r="E59" s="3">
-        <v>1473800</v>
+        <v>1460700</v>
       </c>
       <c r="F59" s="3">
-        <v>1543000</v>
+        <v>1529300</v>
       </c>
       <c r="G59" s="3">
-        <v>1292700</v>
+        <v>1281100</v>
       </c>
       <c r="H59" s="3">
-        <v>1120300</v>
+        <v>1110300</v>
       </c>
       <c r="I59" s="3">
-        <v>1173600</v>
+        <v>1163100</v>
       </c>
       <c r="J59" s="3">
-        <v>1062300</v>
+        <v>1052800</v>
       </c>
       <c r="K59" s="3">
         <v>1073900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3094000</v>
+        <v>3066400</v>
       </c>
       <c r="E60" s="3">
-        <v>2910500</v>
+        <v>2884500</v>
       </c>
       <c r="F60" s="3">
-        <v>2883000</v>
+        <v>2857300</v>
       </c>
       <c r="G60" s="3">
-        <v>2871700</v>
+        <v>2846000</v>
       </c>
       <c r="H60" s="3">
-        <v>3087400</v>
+        <v>3059800</v>
       </c>
       <c r="I60" s="3">
-        <v>2939600</v>
+        <v>2913400</v>
       </c>
       <c r="J60" s="3">
-        <v>2206200</v>
+        <v>2186500</v>
       </c>
       <c r="K60" s="3">
         <v>1874900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>282100</v>
+        <v>279500</v>
       </c>
       <c r="E61" s="3">
-        <v>235100</v>
+        <v>233000</v>
       </c>
       <c r="F61" s="3">
-        <v>381500</v>
+        <v>378100</v>
       </c>
       <c r="G61" s="3">
-        <v>608900</v>
+        <v>603400</v>
       </c>
       <c r="H61" s="3">
-        <v>263800</v>
+        <v>261400</v>
       </c>
       <c r="I61" s="3">
-        <v>233500</v>
+        <v>231400</v>
       </c>
       <c r="J61" s="3">
-        <v>170900</v>
+        <v>169400</v>
       </c>
       <c r="K61" s="3">
         <v>149900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>347400</v>
+        <v>344300</v>
       </c>
       <c r="E62" s="3">
-        <v>320900</v>
+        <v>318000</v>
       </c>
       <c r="F62" s="3">
-        <v>265000</v>
+        <v>262600</v>
       </c>
       <c r="G62" s="3">
-        <v>222300</v>
+        <v>220300</v>
       </c>
       <c r="H62" s="3">
-        <v>291400</v>
+        <v>288800</v>
       </c>
       <c r="I62" s="3">
-        <v>278400</v>
+        <v>275900</v>
       </c>
       <c r="J62" s="3">
-        <v>183800</v>
+        <v>182200</v>
       </c>
       <c r="K62" s="3">
         <v>138100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3743700</v>
+        <v>3710300</v>
       </c>
       <c r="E66" s="3">
-        <v>3491700</v>
+        <v>3460500</v>
       </c>
       <c r="F66" s="3">
-        <v>3565000</v>
+        <v>3533200</v>
       </c>
       <c r="G66" s="3">
-        <v>3735100</v>
+        <v>3701800</v>
       </c>
       <c r="H66" s="3">
-        <v>3674700</v>
+        <v>3641900</v>
       </c>
       <c r="I66" s="3">
-        <v>3481300</v>
+        <v>3450200</v>
       </c>
       <c r="J66" s="3">
-        <v>2583100</v>
+        <v>2560000</v>
       </c>
       <c r="K66" s="3">
         <v>2182000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6909100</v>
+        <v>6847400</v>
       </c>
       <c r="E72" s="3">
-        <v>7020700</v>
+        <v>6958000</v>
       </c>
       <c r="F72" s="3">
-        <v>7198900</v>
+        <v>7134700</v>
       </c>
       <c r="G72" s="3">
-        <v>6117200</v>
+        <v>6062600</v>
       </c>
       <c r="H72" s="3">
-        <v>6622900</v>
+        <v>6563800</v>
       </c>
       <c r="I72" s="3">
-        <v>5720700</v>
+        <v>5669700</v>
       </c>
       <c r="J72" s="3">
-        <v>5006700</v>
+        <v>4962100</v>
       </c>
       <c r="K72" s="3">
         <v>4327400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7439100</v>
+        <v>7372800</v>
       </c>
       <c r="E76" s="3">
-        <v>7497800</v>
+        <v>7430900</v>
       </c>
       <c r="F76" s="3">
-        <v>7641200</v>
+        <v>7573000</v>
       </c>
       <c r="G76" s="3">
-        <v>6495500</v>
+        <v>6437500</v>
       </c>
       <c r="H76" s="3">
-        <v>6998100</v>
+        <v>6935700</v>
       </c>
       <c r="I76" s="3">
-        <v>6256600</v>
+        <v>6200700</v>
       </c>
       <c r="J76" s="3">
-        <v>5487400</v>
+        <v>5438400</v>
       </c>
       <c r="K76" s="3">
         <v>4719700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1451900</v>
+        <v>1438900</v>
       </c>
       <c r="E81" s="3">
-        <v>1307600</v>
+        <v>1295900</v>
       </c>
       <c r="F81" s="3">
-        <v>1210900</v>
+        <v>1200100</v>
       </c>
       <c r="G81" s="3">
-        <v>1077100</v>
+        <v>1067500</v>
       </c>
       <c r="H81" s="3">
-        <v>1141800</v>
+        <v>1131700</v>
       </c>
       <c r="I81" s="3">
-        <v>1198100</v>
+        <v>1187400</v>
       </c>
       <c r="J81" s="3">
-        <v>1163800</v>
+        <v>1153400</v>
       </c>
       <c r="K81" s="3">
         <v>1071300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>372000</v>
+        <v>368700</v>
       </c>
       <c r="E83" s="3">
-        <v>280600</v>
+        <v>278100</v>
       </c>
       <c r="F83" s="3">
-        <v>261900</v>
+        <v>259600</v>
       </c>
       <c r="G83" s="3">
-        <v>284100</v>
+        <v>281600</v>
       </c>
       <c r="H83" s="3">
-        <v>310800</v>
+        <v>308000</v>
       </c>
       <c r="I83" s="3">
-        <v>201300</v>
+        <v>199500</v>
       </c>
       <c r="J83" s="3">
-        <v>172500</v>
+        <v>170900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1984500</v>
+        <v>1966800</v>
       </c>
       <c r="E89" s="3">
-        <v>1353600</v>
+        <v>1341600</v>
       </c>
       <c r="F89" s="3">
-        <v>1564500</v>
+        <v>1550500</v>
       </c>
       <c r="G89" s="3">
-        <v>1132900</v>
+        <v>1122800</v>
       </c>
       <c r="H89" s="3">
-        <v>1247800</v>
+        <v>1236700</v>
       </c>
       <c r="I89" s="3">
-        <v>1060800</v>
+        <v>1051400</v>
       </c>
       <c r="J89" s="3">
-        <v>1052600</v>
+        <v>1043200</v>
       </c>
       <c r="K89" s="3">
         <v>932900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-263300</v>
+        <v>-261000</v>
       </c>
       <c r="E91" s="3">
-        <v>-316000</v>
+        <v>-313200</v>
       </c>
       <c r="F91" s="3">
-        <v>-306400</v>
+        <v>-303700</v>
       </c>
       <c r="G91" s="3">
-        <v>-294200</v>
+        <v>-291500</v>
       </c>
       <c r="H91" s="3">
-        <v>-280500</v>
+        <v>-278000</v>
       </c>
       <c r="I91" s="3">
-        <v>-187600</v>
+        <v>-186000</v>
       </c>
       <c r="J91" s="3">
-        <v>-170300</v>
+        <v>-168800</v>
       </c>
       <c r="K91" s="3">
         <v>-122500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>104100</v>
+        <v>103200</v>
       </c>
       <c r="E94" s="3">
-        <v>457500</v>
+        <v>453400</v>
       </c>
       <c r="F94" s="3">
-        <v>674200</v>
+        <v>668200</v>
       </c>
       <c r="G94" s="3">
-        <v>478500</v>
+        <v>474300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1564000</v>
+        <v>-1550100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1858200</v>
+        <v>-1841600</v>
       </c>
       <c r="J94" s="3">
-        <v>-344000</v>
+        <v>-340900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-73400</v>
+        <v>-72800</v>
       </c>
       <c r="E96" s="3">
-        <v>-92300</v>
+        <v>-91500</v>
       </c>
       <c r="F96" s="3">
-        <v>-73100</v>
+        <v>-72400</v>
       </c>
       <c r="G96" s="3">
-        <v>-72900</v>
+        <v>-72200</v>
       </c>
       <c r="H96" s="3">
-        <v>-117500</v>
+        <v>-116400</v>
       </c>
       <c r="I96" s="3">
-        <v>-477400</v>
+        <v>-473100</v>
       </c>
       <c r="J96" s="3">
-        <v>-396600</v>
+        <v>-393100</v>
       </c>
       <c r="K96" s="3">
         <v>-319800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1732900</v>
+        <v>-1717400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2030900</v>
+        <v>-2012800</v>
       </c>
       <c r="F100" s="3">
-        <v>-664000</v>
+        <v>-658100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1748200</v>
+        <v>-1732600</v>
       </c>
       <c r="H100" s="3">
-        <v>-306000</v>
+        <v>-303300</v>
       </c>
       <c r="I100" s="3">
-        <v>-21300</v>
+        <v>-21200</v>
       </c>
       <c r="J100" s="3">
-        <v>-117900</v>
+        <v>-116900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12000</v>
+        <v>-11900</v>
       </c>
       <c r="E101" s="3">
-        <v>25900</v>
+        <v>25600</v>
       </c>
       <c r="F101" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="G101" s="3">
         <v>5000</v>
       </c>
       <c r="H101" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="I101" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="J101" s="3">
         <v>7900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>343800</v>
+        <v>340700</v>
       </c>
       <c r="E102" s="3">
-        <v>-194000</v>
+        <v>-192200</v>
       </c>
       <c r="F102" s="3">
-        <v>1581700</v>
+        <v>1567600</v>
       </c>
       <c r="G102" s="3">
-        <v>-131700</v>
+        <v>-130500</v>
       </c>
       <c r="H102" s="3">
-        <v>-641200</v>
+        <v>-635500</v>
       </c>
       <c r="I102" s="3">
-        <v>-811300</v>
+        <v>-804100</v>
       </c>
       <c r="J102" s="3">
-        <v>598700</v>
+        <v>593300</v>
       </c>
       <c r="K102" s="3">
         <v>413300</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8257000</v>
+        <v>8096000</v>
       </c>
       <c r="E8" s="3">
-        <v>8134400</v>
+        <v>7975700</v>
       </c>
       <c r="F8" s="3">
-        <v>7809300</v>
+        <v>7657000</v>
       </c>
       <c r="G8" s="3">
-        <v>7263100</v>
+        <v>7121500</v>
       </c>
       <c r="H8" s="3">
-        <v>7336900</v>
+        <v>7193800</v>
       </c>
       <c r="I8" s="3">
-        <v>6830800</v>
+        <v>6697600</v>
       </c>
       <c r="J8" s="3">
-        <v>6259000</v>
+        <v>6137000</v>
       </c>
       <c r="K8" s="3">
         <v>5966900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5641300</v>
+        <v>5531300</v>
       </c>
       <c r="E9" s="3">
-        <v>5813000</v>
+        <v>5699600</v>
       </c>
       <c r="F9" s="3">
-        <v>5486000</v>
+        <v>5379000</v>
       </c>
       <c r="G9" s="3">
-        <v>5139700</v>
+        <v>5039500</v>
       </c>
       <c r="H9" s="3">
-        <v>5219300</v>
+        <v>5117500</v>
       </c>
       <c r="I9" s="3">
-        <v>4755100</v>
+        <v>4662400</v>
       </c>
       <c r="J9" s="3">
-        <v>4282700</v>
+        <v>4199200</v>
       </c>
       <c r="K9" s="3">
         <v>4060000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2615700</v>
+        <v>2564700</v>
       </c>
       <c r="E10" s="3">
-        <v>2321400</v>
+        <v>2276100</v>
       </c>
       <c r="F10" s="3">
-        <v>2323300</v>
+        <v>2278000</v>
       </c>
       <c r="G10" s="3">
-        <v>2123400</v>
+        <v>2082000</v>
       </c>
       <c r="H10" s="3">
-        <v>2117600</v>
+        <v>2076300</v>
       </c>
       <c r="I10" s="3">
-        <v>2075700</v>
+        <v>2035200</v>
       </c>
       <c r="J10" s="3">
-        <v>1976300</v>
+        <v>1937800</v>
       </c>
       <c r="K10" s="3">
         <v>1906900</v>
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25000</v>
+        <v>24600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-10500</v>
+        <v>-10300</v>
       </c>
       <c r="G14" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="H14" s="3">
-        <v>-13700</v>
+        <v>-13400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -952,22 +952,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>65600</v>
+        <v>64300</v>
       </c>
       <c r="E15" s="3">
-        <v>47200</v>
+        <v>46300</v>
       </c>
       <c r="F15" s="3">
-        <v>51600</v>
+        <v>50600</v>
       </c>
       <c r="G15" s="3">
-        <v>51500</v>
+        <v>50500</v>
       </c>
       <c r="H15" s="3">
-        <v>42300</v>
+        <v>41500</v>
       </c>
       <c r="I15" s="3">
-        <v>23200</v>
+        <v>22700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6616700</v>
+        <v>6487600</v>
       </c>
       <c r="E17" s="3">
-        <v>6725000</v>
+        <v>6593800</v>
       </c>
       <c r="F17" s="3">
-        <v>6477500</v>
+        <v>6351200</v>
       </c>
       <c r="G17" s="3">
-        <v>6139500</v>
+        <v>6019700</v>
       </c>
       <c r="H17" s="3">
-        <v>6085500</v>
+        <v>5966800</v>
       </c>
       <c r="I17" s="3">
-        <v>5539700</v>
+        <v>5431600</v>
       </c>
       <c r="J17" s="3">
-        <v>4987000</v>
+        <v>4889800</v>
       </c>
       <c r="K17" s="3">
         <v>4739100</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1640300</v>
+        <v>1608300</v>
       </c>
       <c r="E18" s="3">
-        <v>1409400</v>
+        <v>1381900</v>
       </c>
       <c r="F18" s="3">
-        <v>1331800</v>
+        <v>1305800</v>
       </c>
       <c r="G18" s="3">
-        <v>1123600</v>
+        <v>1101700</v>
       </c>
       <c r="H18" s="3">
-        <v>1251400</v>
+        <v>1227000</v>
       </c>
       <c r="I18" s="3">
-        <v>1291100</v>
+        <v>1266000</v>
       </c>
       <c r="J18" s="3">
-        <v>1272000</v>
+        <v>1247200</v>
       </c>
       <c r="K18" s="3">
         <v>1227700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>270000</v>
+        <v>264700</v>
       </c>
       <c r="E20" s="3">
-        <v>292200</v>
+        <v>286500</v>
       </c>
       <c r="F20" s="3">
-        <v>281500</v>
+        <v>276100</v>
       </c>
       <c r="G20" s="3">
-        <v>288300</v>
+        <v>282700</v>
       </c>
       <c r="H20" s="3">
-        <v>245200</v>
+        <v>240400</v>
       </c>
       <c r="I20" s="3">
-        <v>259700</v>
+        <v>254600</v>
       </c>
       <c r="J20" s="3">
-        <v>227000</v>
+        <v>222600</v>
       </c>
       <c r="K20" s="3">
         <v>172000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2278900</v>
+        <v>2235300</v>
       </c>
       <c r="E21" s="3">
-        <v>1979600</v>
+        <v>1941700</v>
       </c>
       <c r="F21" s="3">
-        <v>1872900</v>
+        <v>1837000</v>
       </c>
       <c r="G21" s="3">
-        <v>1693600</v>
+        <v>1661200</v>
       </c>
       <c r="H21" s="3">
-        <v>1804600</v>
+        <v>1770100</v>
       </c>
       <c r="I21" s="3">
-        <v>1750300</v>
+        <v>1716600</v>
       </c>
       <c r="J21" s="3">
-        <v>1669900</v>
+        <v>1637700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57300</v>
+        <v>56200</v>
       </c>
       <c r="E22" s="3">
-        <v>68500</v>
+        <v>67100</v>
       </c>
       <c r="F22" s="3">
-        <v>74900</v>
+        <v>73400</v>
       </c>
       <c r="G22" s="3">
-        <v>46000</v>
+        <v>45100</v>
       </c>
       <c r="H22" s="3">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="I22" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="J22" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="K22" s="3">
         <v>11900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1853000</v>
+        <v>1816800</v>
       </c>
       <c r="E23" s="3">
-        <v>1633100</v>
+        <v>1601200</v>
       </c>
       <c r="F23" s="3">
-        <v>1538500</v>
+        <v>1508500</v>
       </c>
       <c r="G23" s="3">
-        <v>1366000</v>
+        <v>1339300</v>
       </c>
       <c r="H23" s="3">
-        <v>1471000</v>
+        <v>1442400</v>
       </c>
       <c r="I23" s="3">
-        <v>1532100</v>
+        <v>1502200</v>
       </c>
       <c r="J23" s="3">
-        <v>1488700</v>
+        <v>1459700</v>
       </c>
       <c r="K23" s="3">
         <v>1387800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>404500</v>
+        <v>396600</v>
       </c>
       <c r="E24" s="3">
-        <v>330600</v>
+        <v>324100</v>
       </c>
       <c r="F24" s="3">
-        <v>336500</v>
+        <v>329900</v>
       </c>
       <c r="G24" s="3">
-        <v>319300</v>
+        <v>313100</v>
       </c>
       <c r="H24" s="3">
-        <v>336100</v>
+        <v>329500</v>
       </c>
       <c r="I24" s="3">
-        <v>338100</v>
+        <v>331500</v>
       </c>
       <c r="J24" s="3">
-        <v>328200</v>
+        <v>321800</v>
       </c>
       <c r="K24" s="3">
         <v>310500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1448500</v>
+        <v>1420200</v>
       </c>
       <c r="E26" s="3">
-        <v>1302500</v>
+        <v>1277100</v>
       </c>
       <c r="F26" s="3">
-        <v>1202000</v>
+        <v>1178600</v>
       </c>
       <c r="G26" s="3">
-        <v>1046700</v>
+        <v>1026300</v>
       </c>
       <c r="H26" s="3">
-        <v>1135000</v>
+        <v>1112800</v>
       </c>
       <c r="I26" s="3">
-        <v>1193900</v>
+        <v>1170600</v>
       </c>
       <c r="J26" s="3">
-        <v>1160500</v>
+        <v>1137900</v>
       </c>
       <c r="K26" s="3">
         <v>1077300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1438900</v>
+        <v>1410900</v>
       </c>
       <c r="E27" s="3">
-        <v>1295900</v>
+        <v>1270600</v>
       </c>
       <c r="F27" s="3">
-        <v>1200100</v>
+        <v>1176700</v>
       </c>
       <c r="G27" s="3">
-        <v>1046600</v>
+        <v>1026200</v>
       </c>
       <c r="H27" s="3">
-        <v>1131700</v>
+        <v>1109600</v>
       </c>
       <c r="I27" s="3">
-        <v>1187400</v>
+        <v>1164200</v>
       </c>
       <c r="J27" s="3">
-        <v>1153400</v>
+        <v>1130900</v>
       </c>
       <c r="K27" s="3">
         <v>1071300</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>20800</v>
+        <v>20400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-270000</v>
+        <v>-264700</v>
       </c>
       <c r="E32" s="3">
-        <v>-292200</v>
+        <v>-286500</v>
       </c>
       <c r="F32" s="3">
-        <v>-281500</v>
+        <v>-276100</v>
       </c>
       <c r="G32" s="3">
-        <v>-288300</v>
+        <v>-282700</v>
       </c>
       <c r="H32" s="3">
-        <v>-245200</v>
+        <v>-240400</v>
       </c>
       <c r="I32" s="3">
-        <v>-259700</v>
+        <v>-254600</v>
       </c>
       <c r="J32" s="3">
-        <v>-227000</v>
+        <v>-222600</v>
       </c>
       <c r="K32" s="3">
         <v>-172000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1438900</v>
+        <v>1410900</v>
       </c>
       <c r="E33" s="3">
-        <v>1295900</v>
+        <v>1270600</v>
       </c>
       <c r="F33" s="3">
-        <v>1200100</v>
+        <v>1176700</v>
       </c>
       <c r="G33" s="3">
-        <v>1067500</v>
+        <v>1046700</v>
       </c>
       <c r="H33" s="3">
-        <v>1131700</v>
+        <v>1109600</v>
       </c>
       <c r="I33" s="3">
-        <v>1187400</v>
+        <v>1164200</v>
       </c>
       <c r="J33" s="3">
-        <v>1153400</v>
+        <v>1130900</v>
       </c>
       <c r="K33" s="3">
         <v>1071300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1438900</v>
+        <v>1410900</v>
       </c>
       <c r="E35" s="3">
-        <v>1295900</v>
+        <v>1270600</v>
       </c>
       <c r="F35" s="3">
-        <v>1200100</v>
+        <v>1176700</v>
       </c>
       <c r="G35" s="3">
-        <v>1067500</v>
+        <v>1046700</v>
       </c>
       <c r="H35" s="3">
-        <v>1131700</v>
+        <v>1109600</v>
       </c>
       <c r="I35" s="3">
-        <v>1187400</v>
+        <v>1164200</v>
       </c>
       <c r="J35" s="3">
-        <v>1153400</v>
+        <v>1130900</v>
       </c>
       <c r="K35" s="3">
         <v>1071300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2263300</v>
+        <v>2219200</v>
       </c>
       <c r="E41" s="3">
-        <v>1926200</v>
+        <v>1888600</v>
       </c>
       <c r="F41" s="3">
-        <v>2113200</v>
+        <v>2072000</v>
       </c>
       <c r="G41" s="3">
-        <v>598900</v>
+        <v>587200</v>
       </c>
       <c r="H41" s="3">
-        <v>702600</v>
+        <v>688900</v>
       </c>
       <c r="I41" s="3">
-        <v>1320300</v>
+        <v>1294500</v>
       </c>
       <c r="J41" s="3">
-        <v>2118700</v>
+        <v>2077300</v>
       </c>
       <c r="K41" s="3">
         <v>1569100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2334000</v>
+        <v>2288500</v>
       </c>
       <c r="E42" s="3">
-        <v>2517200</v>
+        <v>2468100</v>
       </c>
       <c r="F42" s="3">
-        <v>2966100</v>
+        <v>2908200</v>
       </c>
       <c r="G42" s="3">
-        <v>3350700</v>
+        <v>3285300</v>
       </c>
       <c r="H42" s="3">
-        <v>3915900</v>
+        <v>3839500</v>
       </c>
       <c r="I42" s="3">
-        <v>6392400</v>
+        <v>6267700</v>
       </c>
       <c r="J42" s="3">
-        <v>1273900</v>
+        <v>1249100</v>
       </c>
       <c r="K42" s="3">
         <v>1045300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2074700</v>
+        <v>2034300</v>
       </c>
       <c r="E43" s="3">
-        <v>2218600</v>
+        <v>2175300</v>
       </c>
       <c r="F43" s="3">
-        <v>2224300</v>
+        <v>2181000</v>
       </c>
       <c r="G43" s="3">
-        <v>2063500</v>
+        <v>2023200</v>
       </c>
       <c r="H43" s="3">
-        <v>2085100</v>
+        <v>2044500</v>
       </c>
       <c r="I43" s="3">
-        <v>3547900</v>
+        <v>3478700</v>
       </c>
       <c r="J43" s="3">
-        <v>2011800</v>
+        <v>1972600</v>
       </c>
       <c r="K43" s="3">
         <v>1937400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56800</v>
+        <v>13900</v>
       </c>
       <c r="E44" s="3">
-        <v>66500</v>
+        <v>24400</v>
       </c>
       <c r="F44" s="3">
-        <v>95900</v>
+        <v>51600</v>
       </c>
       <c r="G44" s="3">
-        <v>69200</v>
+        <v>44000</v>
       </c>
       <c r="H44" s="3">
-        <v>71500</v>
+        <v>51200</v>
       </c>
       <c r="I44" s="3">
-        <v>91900</v>
+        <v>70400</v>
       </c>
       <c r="J44" s="3">
-        <v>97000</v>
+        <v>63400</v>
       </c>
       <c r="K44" s="3">
         <v>65100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>245200</v>
+        <v>282200</v>
       </c>
       <c r="E45" s="3">
-        <v>201100</v>
+        <v>238000</v>
       </c>
       <c r="F45" s="3">
-        <v>224000</v>
+        <v>262000</v>
       </c>
       <c r="G45" s="3">
-        <v>664900</v>
+        <v>675700</v>
       </c>
       <c r="H45" s="3">
-        <v>408400</v>
+        <v>419300</v>
       </c>
       <c r="I45" s="3">
-        <v>363000</v>
+        <v>375600</v>
       </c>
       <c r="J45" s="3">
-        <v>317000</v>
+        <v>342600</v>
       </c>
       <c r="K45" s="3">
         <v>256400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6974100</v>
+        <v>6838000</v>
       </c>
       <c r="E46" s="3">
-        <v>6929600</v>
+        <v>6794500</v>
       </c>
       <c r="F46" s="3">
-        <v>7623500</v>
+        <v>7474800</v>
       </c>
       <c r="G46" s="3">
-        <v>6747100</v>
+        <v>6615500</v>
       </c>
       <c r="H46" s="3">
-        <v>7183500</v>
+        <v>7043400</v>
       </c>
       <c r="I46" s="3">
-        <v>6702700</v>
+        <v>6571900</v>
       </c>
       <c r="J46" s="3">
-        <v>5818400</v>
+        <v>5705000</v>
       </c>
       <c r="K46" s="3">
         <v>4873400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>540600</v>
+        <v>481000</v>
       </c>
       <c r="E47" s="3">
-        <v>511300</v>
+        <v>444700</v>
       </c>
       <c r="F47" s="3">
-        <v>547100</v>
+        <v>536400</v>
       </c>
       <c r="G47" s="3">
-        <v>474600</v>
+        <v>465400</v>
       </c>
       <c r="H47" s="3">
-        <v>343700</v>
+        <v>337000</v>
       </c>
       <c r="I47" s="3">
-        <v>279700</v>
+        <v>274300</v>
       </c>
       <c r="J47" s="3">
-        <v>203600</v>
+        <v>199700</v>
       </c>
       <c r="K47" s="3">
         <v>176800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1354500</v>
+        <v>1328100</v>
       </c>
       <c r="E48" s="3">
-        <v>1304600</v>
+        <v>1279100</v>
       </c>
       <c r="F48" s="3">
-        <v>941100</v>
+        <v>922800</v>
       </c>
       <c r="G48" s="3">
-        <v>859000</v>
+        <v>842300</v>
       </c>
       <c r="H48" s="3">
-        <v>930400</v>
+        <v>912200</v>
       </c>
       <c r="I48" s="3">
-        <v>865900</v>
+        <v>849100</v>
       </c>
       <c r="J48" s="3">
-        <v>722600</v>
+        <v>708500</v>
       </c>
       <c r="K48" s="3">
         <v>706900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2029000</v>
+        <v>1989400</v>
       </c>
       <c r="E49" s="3">
-        <v>1964500</v>
+        <v>1926200</v>
       </c>
       <c r="F49" s="3">
-        <v>1742800</v>
+        <v>1708800</v>
       </c>
       <c r="G49" s="3">
-        <v>1808800</v>
+        <v>1773600</v>
       </c>
       <c r="H49" s="3">
-        <v>1889100</v>
+        <v>1852300</v>
       </c>
       <c r="I49" s="3">
-        <v>1570700</v>
+        <v>1540100</v>
       </c>
       <c r="J49" s="3">
-        <v>1013200</v>
+        <v>993400</v>
       </c>
       <c r="K49" s="3">
         <v>898000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>184900</v>
+        <v>230300</v>
       </c>
       <c r="E52" s="3">
-        <v>181400</v>
+        <v>234500</v>
       </c>
       <c r="F52" s="3">
-        <v>251700</v>
+        <v>246800</v>
       </c>
       <c r="G52" s="3">
-        <v>249800</v>
+        <v>244900</v>
       </c>
       <c r="H52" s="3">
-        <v>230900</v>
+        <v>226400</v>
       </c>
       <c r="I52" s="3">
-        <v>232100</v>
+        <v>227500</v>
       </c>
       <c r="J52" s="3">
-        <v>240600</v>
+        <v>235900</v>
       </c>
       <c r="K52" s="3">
         <v>246500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11083000</v>
+        <v>10866800</v>
       </c>
       <c r="E54" s="3">
-        <v>10891400</v>
+        <v>10679000</v>
       </c>
       <c r="F54" s="3">
-        <v>11106200</v>
+        <v>10889500</v>
       </c>
       <c r="G54" s="3">
-        <v>10139300</v>
+        <v>9941600</v>
       </c>
       <c r="H54" s="3">
-        <v>10577600</v>
+        <v>10371300</v>
       </c>
       <c r="I54" s="3">
-        <v>9651000</v>
+        <v>9462700</v>
       </c>
       <c r="J54" s="3">
-        <v>7998400</v>
+        <v>7842400</v>
       </c>
       <c r="K54" s="3">
         <v>6901700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>309700</v>
+        <v>303600</v>
       </c>
       <c r="E57" s="3">
-        <v>360600</v>
+        <v>353600</v>
       </c>
       <c r="F57" s="3">
-        <v>380300</v>
+        <v>372800</v>
       </c>
       <c r="G57" s="3">
-        <v>325300</v>
+        <v>319000</v>
       </c>
       <c r="H57" s="3">
-        <v>312600</v>
+        <v>306500</v>
       </c>
       <c r="I57" s="3">
-        <v>1221500</v>
+        <v>1197700</v>
       </c>
       <c r="J57" s="3">
-        <v>251200</v>
+        <v>246300</v>
       </c>
       <c r="K57" s="3">
         <v>242000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1113600</v>
+        <v>1091900</v>
       </c>
       <c r="E58" s="3">
-        <v>1063200</v>
+        <v>1042500</v>
       </c>
       <c r="F58" s="3">
-        <v>947700</v>
+        <v>929300</v>
       </c>
       <c r="G58" s="3">
-        <v>1239600</v>
+        <v>1215400</v>
       </c>
       <c r="H58" s="3">
-        <v>1636900</v>
+        <v>1605000</v>
       </c>
       <c r="I58" s="3">
-        <v>2875500</v>
+        <v>2819500</v>
       </c>
       <c r="J58" s="3">
-        <v>882500</v>
+        <v>865300</v>
       </c>
       <c r="K58" s="3">
         <v>559000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1643100</v>
+        <v>1611100</v>
       </c>
       <c r="E59" s="3">
-        <v>1460700</v>
+        <v>1432200</v>
       </c>
       <c r="F59" s="3">
-        <v>1529300</v>
+        <v>1499400</v>
       </c>
       <c r="G59" s="3">
-        <v>1281100</v>
+        <v>1256200</v>
       </c>
       <c r="H59" s="3">
-        <v>1110300</v>
+        <v>1088600</v>
       </c>
       <c r="I59" s="3">
-        <v>1163100</v>
+        <v>1140400</v>
       </c>
       <c r="J59" s="3">
-        <v>1052800</v>
+        <v>1032200</v>
       </c>
       <c r="K59" s="3">
         <v>1073900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3066400</v>
+        <v>3006600</v>
       </c>
       <c r="E60" s="3">
-        <v>2884500</v>
+        <v>2828300</v>
       </c>
       <c r="F60" s="3">
-        <v>2857300</v>
+        <v>2801600</v>
       </c>
       <c r="G60" s="3">
-        <v>2846000</v>
+        <v>2790500</v>
       </c>
       <c r="H60" s="3">
-        <v>3059800</v>
+        <v>3000100</v>
       </c>
       <c r="I60" s="3">
-        <v>2913400</v>
+        <v>2856600</v>
       </c>
       <c r="J60" s="3">
-        <v>2186500</v>
+        <v>2143900</v>
       </c>
       <c r="K60" s="3">
         <v>1874900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>279500</v>
+        <v>274100</v>
       </c>
       <c r="E61" s="3">
-        <v>233000</v>
+        <v>228400</v>
       </c>
       <c r="F61" s="3">
-        <v>378100</v>
+        <v>370800</v>
       </c>
       <c r="G61" s="3">
-        <v>603400</v>
+        <v>591700</v>
       </c>
       <c r="H61" s="3">
-        <v>261400</v>
+        <v>256300</v>
       </c>
       <c r="I61" s="3">
-        <v>231400</v>
+        <v>226900</v>
       </c>
       <c r="J61" s="3">
-        <v>169400</v>
+        <v>166100</v>
       </c>
       <c r="K61" s="3">
         <v>149900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>344300</v>
+        <v>337600</v>
       </c>
       <c r="E62" s="3">
-        <v>318000</v>
+        <v>311800</v>
       </c>
       <c r="F62" s="3">
-        <v>262600</v>
+        <v>257500</v>
       </c>
       <c r="G62" s="3">
-        <v>220300</v>
+        <v>216000</v>
       </c>
       <c r="H62" s="3">
-        <v>288800</v>
+        <v>283200</v>
       </c>
       <c r="I62" s="3">
-        <v>275900</v>
+        <v>270500</v>
       </c>
       <c r="J62" s="3">
-        <v>182200</v>
+        <v>178700</v>
       </c>
       <c r="K62" s="3">
         <v>138100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3710300</v>
+        <v>3637900</v>
       </c>
       <c r="E66" s="3">
-        <v>3460500</v>
+        <v>3393000</v>
       </c>
       <c r="F66" s="3">
-        <v>3533200</v>
+        <v>3464300</v>
       </c>
       <c r="G66" s="3">
-        <v>3701800</v>
+        <v>3629600</v>
       </c>
       <c r="H66" s="3">
-        <v>3641900</v>
+        <v>3570900</v>
       </c>
       <c r="I66" s="3">
-        <v>3450200</v>
+        <v>3382900</v>
       </c>
       <c r="J66" s="3">
-        <v>2560000</v>
+        <v>2510100</v>
       </c>
       <c r="K66" s="3">
         <v>2182000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6847400</v>
+        <v>6754000</v>
       </c>
       <c r="E72" s="3">
-        <v>6958000</v>
+        <v>6842600</v>
       </c>
       <c r="F72" s="3">
-        <v>7134700</v>
+        <v>7029700</v>
       </c>
       <c r="G72" s="3">
-        <v>6062600</v>
+        <v>5967600</v>
       </c>
       <c r="H72" s="3">
-        <v>6563800</v>
+        <v>6482200</v>
       </c>
       <c r="I72" s="3">
-        <v>5669700</v>
+        <v>5588200</v>
       </c>
       <c r="J72" s="3">
-        <v>4962100</v>
+        <v>4882400</v>
       </c>
       <c r="K72" s="3">
         <v>4327400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7372800</v>
+        <v>7229000</v>
       </c>
       <c r="E76" s="3">
-        <v>7430900</v>
+        <v>7286000</v>
       </c>
       <c r="F76" s="3">
-        <v>7573000</v>
+        <v>7425300</v>
       </c>
       <c r="G76" s="3">
-        <v>6437500</v>
+        <v>6312000</v>
       </c>
       <c r="H76" s="3">
-        <v>6935700</v>
+        <v>6800400</v>
       </c>
       <c r="I76" s="3">
-        <v>6200700</v>
+        <v>6079800</v>
       </c>
       <c r="J76" s="3">
-        <v>5438400</v>
+        <v>5332300</v>
       </c>
       <c r="K76" s="3">
         <v>4719700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1438900</v>
+        <v>1410900</v>
       </c>
       <c r="E81" s="3">
-        <v>1295900</v>
+        <v>1270600</v>
       </c>
       <c r="F81" s="3">
-        <v>1200100</v>
+        <v>1176700</v>
       </c>
       <c r="G81" s="3">
-        <v>1067500</v>
+        <v>1046700</v>
       </c>
       <c r="H81" s="3">
-        <v>1131700</v>
+        <v>1109600</v>
       </c>
       <c r="I81" s="3">
-        <v>1187400</v>
+        <v>1164200</v>
       </c>
       <c r="J81" s="3">
-        <v>1153400</v>
+        <v>1130900</v>
       </c>
       <c r="K81" s="3">
         <v>1071300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>368700</v>
+        <v>361500</v>
       </c>
       <c r="E83" s="3">
-        <v>278100</v>
+        <v>272700</v>
       </c>
       <c r="F83" s="3">
-        <v>259600</v>
+        <v>254500</v>
       </c>
       <c r="G83" s="3">
-        <v>281600</v>
+        <v>276100</v>
       </c>
       <c r="H83" s="3">
-        <v>308000</v>
+        <v>302000</v>
       </c>
       <c r="I83" s="3">
-        <v>199500</v>
+        <v>195600</v>
       </c>
       <c r="J83" s="3">
-        <v>170900</v>
+        <v>167600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1966800</v>
+        <v>1928500</v>
       </c>
       <c r="E89" s="3">
-        <v>1341600</v>
+        <v>1315400</v>
       </c>
       <c r="F89" s="3">
-        <v>1550500</v>
+        <v>1520300</v>
       </c>
       <c r="G89" s="3">
-        <v>1122800</v>
+        <v>1100900</v>
       </c>
       <c r="H89" s="3">
-        <v>1236700</v>
+        <v>1212500</v>
       </c>
       <c r="I89" s="3">
-        <v>1051400</v>
+        <v>1030900</v>
       </c>
       <c r="J89" s="3">
-        <v>1043200</v>
+        <v>1022900</v>
       </c>
       <c r="K89" s="3">
         <v>932900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-261000</v>
+        <v>-255900</v>
       </c>
       <c r="E91" s="3">
-        <v>-313200</v>
+        <v>-307100</v>
       </c>
       <c r="F91" s="3">
-        <v>-303700</v>
+        <v>-297700</v>
       </c>
       <c r="G91" s="3">
-        <v>-291500</v>
+        <v>-285800</v>
       </c>
       <c r="H91" s="3">
-        <v>-278000</v>
+        <v>-272500</v>
       </c>
       <c r="I91" s="3">
-        <v>-186000</v>
+        <v>-182300</v>
       </c>
       <c r="J91" s="3">
-        <v>-168800</v>
+        <v>-165500</v>
       </c>
       <c r="K91" s="3">
         <v>-122500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>103200</v>
+        <v>101100</v>
       </c>
       <c r="E94" s="3">
-        <v>453400</v>
+        <v>444500</v>
       </c>
       <c r="F94" s="3">
-        <v>668200</v>
+        <v>655100</v>
       </c>
       <c r="G94" s="3">
-        <v>474300</v>
+        <v>465000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1550100</v>
+        <v>-1519800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1841600</v>
+        <v>-1805700</v>
       </c>
       <c r="J94" s="3">
-        <v>-340900</v>
+        <v>-334200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-72800</v>
+        <v>-71300</v>
       </c>
       <c r="E96" s="3">
-        <v>-91500</v>
+        <v>-89700</v>
       </c>
       <c r="F96" s="3">
-        <v>-72400</v>
+        <v>-71000</v>
       </c>
       <c r="G96" s="3">
-        <v>-72200</v>
+        <v>-70800</v>
       </c>
       <c r="H96" s="3">
-        <v>-116400</v>
+        <v>-114200</v>
       </c>
       <c r="I96" s="3">
-        <v>-473100</v>
+        <v>-463900</v>
       </c>
       <c r="J96" s="3">
-        <v>-393100</v>
+        <v>-385400</v>
       </c>
       <c r="K96" s="3">
         <v>-319800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1717400</v>
+        <v>-1683900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2012800</v>
+        <v>-1973500</v>
       </c>
       <c r="F100" s="3">
-        <v>-658100</v>
+        <v>-645300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1732600</v>
+        <v>-1698800</v>
       </c>
       <c r="H100" s="3">
-        <v>-303300</v>
+        <v>-297400</v>
       </c>
       <c r="I100" s="3">
-        <v>-21200</v>
+        <v>-20700</v>
       </c>
       <c r="J100" s="3">
-        <v>-116900</v>
+        <v>-114600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11900</v>
+        <v>-11600</v>
       </c>
       <c r="E101" s="3">
-        <v>25600</v>
+        <v>25100</v>
       </c>
       <c r="F101" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="G101" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H101" s="3">
-        <v>-18800</v>
+        <v>-18500</v>
       </c>
       <c r="I101" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>340700</v>
+        <v>334100</v>
       </c>
       <c r="E102" s="3">
-        <v>-192200</v>
+        <v>-188500</v>
       </c>
       <c r="F102" s="3">
-        <v>1567600</v>
+        <v>1537000</v>
       </c>
       <c r="G102" s="3">
-        <v>-130500</v>
+        <v>-128000</v>
       </c>
       <c r="H102" s="3">
-        <v>-635500</v>
+        <v>-623100</v>
       </c>
       <c r="I102" s="3">
-        <v>-804100</v>
+        <v>-788400</v>
       </c>
       <c r="J102" s="3">
-        <v>593300</v>
+        <v>581800</v>
       </c>
       <c r="K102" s="3">
         <v>413300</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8096000</v>
+        <v>8003000</v>
       </c>
       <c r="E8" s="3">
-        <v>7975700</v>
+        <v>7884200</v>
       </c>
       <c r="F8" s="3">
-        <v>7657000</v>
+        <v>7569100</v>
       </c>
       <c r="G8" s="3">
-        <v>7121500</v>
+        <v>7039700</v>
       </c>
       <c r="H8" s="3">
-        <v>7193800</v>
+        <v>7111200</v>
       </c>
       <c r="I8" s="3">
-        <v>6697600</v>
+        <v>6620700</v>
       </c>
       <c r="J8" s="3">
-        <v>6137000</v>
+        <v>6066500</v>
       </c>
       <c r="K8" s="3">
         <v>5966900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5531300</v>
+        <v>5467800</v>
       </c>
       <c r="E9" s="3">
-        <v>5699600</v>
+        <v>5634200</v>
       </c>
       <c r="F9" s="3">
-        <v>5379000</v>
+        <v>5317300</v>
       </c>
       <c r="G9" s="3">
-        <v>5039500</v>
+        <v>4981600</v>
       </c>
       <c r="H9" s="3">
-        <v>5117500</v>
+        <v>5058700</v>
       </c>
       <c r="I9" s="3">
-        <v>4662400</v>
+        <v>4608900</v>
       </c>
       <c r="J9" s="3">
-        <v>4199200</v>
+        <v>4151000</v>
       </c>
       <c r="K9" s="3">
         <v>4060000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2564700</v>
+        <v>2535200</v>
       </c>
       <c r="E10" s="3">
-        <v>2276100</v>
+        <v>2250000</v>
       </c>
       <c r="F10" s="3">
-        <v>2278000</v>
+        <v>2251900</v>
       </c>
       <c r="G10" s="3">
-        <v>2082000</v>
+        <v>2058100</v>
       </c>
       <c r="H10" s="3">
-        <v>2076300</v>
+        <v>2052400</v>
       </c>
       <c r="I10" s="3">
-        <v>2035200</v>
+        <v>2011900</v>
       </c>
       <c r="J10" s="3">
-        <v>1937800</v>
+        <v>1915500</v>
       </c>
       <c r="K10" s="3">
         <v>1906900</v>
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="G14" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="H14" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -952,22 +952,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>64300</v>
+        <v>63600</v>
       </c>
       <c r="E15" s="3">
-        <v>46300</v>
+        <v>45700</v>
       </c>
       <c r="F15" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="G15" s="3">
-        <v>50500</v>
+        <v>49900</v>
       </c>
       <c r="H15" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="I15" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6487600</v>
+        <v>6413200</v>
       </c>
       <c r="E17" s="3">
-        <v>6593800</v>
+        <v>6518200</v>
       </c>
       <c r="F17" s="3">
-        <v>6351200</v>
+        <v>6278300</v>
       </c>
       <c r="G17" s="3">
-        <v>6019700</v>
+        <v>5950700</v>
       </c>
       <c r="H17" s="3">
-        <v>5966800</v>
+        <v>5898300</v>
       </c>
       <c r="I17" s="3">
-        <v>5431600</v>
+        <v>5369300</v>
       </c>
       <c r="J17" s="3">
-        <v>4889800</v>
+        <v>4833700</v>
       </c>
       <c r="K17" s="3">
         <v>4739100</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1608300</v>
+        <v>1589800</v>
       </c>
       <c r="E18" s="3">
-        <v>1381900</v>
+        <v>1366000</v>
       </c>
       <c r="F18" s="3">
-        <v>1305800</v>
+        <v>1290800</v>
       </c>
       <c r="G18" s="3">
-        <v>1101700</v>
+        <v>1089100</v>
       </c>
       <c r="H18" s="3">
-        <v>1227000</v>
+        <v>1212900</v>
       </c>
       <c r="I18" s="3">
-        <v>1266000</v>
+        <v>1251400</v>
       </c>
       <c r="J18" s="3">
-        <v>1247200</v>
+        <v>1232900</v>
       </c>
       <c r="K18" s="3">
         <v>1227700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>264700</v>
+        <v>261700</v>
       </c>
       <c r="E20" s="3">
-        <v>286500</v>
+        <v>283200</v>
       </c>
       <c r="F20" s="3">
-        <v>276100</v>
+        <v>272900</v>
       </c>
       <c r="G20" s="3">
-        <v>282700</v>
+        <v>279500</v>
       </c>
       <c r="H20" s="3">
-        <v>240400</v>
+        <v>237600</v>
       </c>
       <c r="I20" s="3">
-        <v>254600</v>
+        <v>251700</v>
       </c>
       <c r="J20" s="3">
-        <v>222600</v>
+        <v>220000</v>
       </c>
       <c r="K20" s="3">
         <v>172000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2235300</v>
+        <v>2121000</v>
       </c>
       <c r="E21" s="3">
-        <v>1941700</v>
+        <v>1900800</v>
       </c>
       <c r="F21" s="3">
-        <v>1837000</v>
+        <v>1836600</v>
       </c>
       <c r="G21" s="3">
-        <v>1661200</v>
+        <v>1667100</v>
       </c>
       <c r="H21" s="3">
-        <v>1770100</v>
+        <v>1643900</v>
       </c>
       <c r="I21" s="3">
-        <v>1716600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1637700</v>
+        <v>1668800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56200</v>
+        <v>55500</v>
       </c>
       <c r="E22" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="F22" s="3">
-        <v>73400</v>
+        <v>72600</v>
       </c>
       <c r="G22" s="3">
-        <v>45100</v>
+        <v>44600</v>
       </c>
       <c r="H22" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="I22" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="J22" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="K22" s="3">
         <v>11900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1816800</v>
+        <v>1796000</v>
       </c>
       <c r="E23" s="3">
-        <v>1601200</v>
+        <v>1582900</v>
       </c>
       <c r="F23" s="3">
-        <v>1508500</v>
+        <v>1491200</v>
       </c>
       <c r="G23" s="3">
-        <v>1339300</v>
+        <v>1324000</v>
       </c>
       <c r="H23" s="3">
-        <v>1442400</v>
+        <v>1425800</v>
       </c>
       <c r="I23" s="3">
-        <v>1502200</v>
+        <v>1484900</v>
       </c>
       <c r="J23" s="3">
-        <v>1459700</v>
+        <v>1442900</v>
       </c>
       <c r="K23" s="3">
         <v>1387800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>396600</v>
+        <v>392100</v>
       </c>
       <c r="E24" s="3">
-        <v>324100</v>
+        <v>320400</v>
       </c>
       <c r="F24" s="3">
-        <v>329900</v>
+        <v>326100</v>
       </c>
       <c r="G24" s="3">
-        <v>313100</v>
+        <v>309500</v>
       </c>
       <c r="H24" s="3">
-        <v>329500</v>
+        <v>325800</v>
       </c>
       <c r="I24" s="3">
-        <v>331500</v>
+        <v>327700</v>
       </c>
       <c r="J24" s="3">
-        <v>321800</v>
+        <v>318100</v>
       </c>
       <c r="K24" s="3">
         <v>310500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1420200</v>
+        <v>1403900</v>
       </c>
       <c r="E26" s="3">
-        <v>1277100</v>
+        <v>1262500</v>
       </c>
       <c r="F26" s="3">
-        <v>1178600</v>
+        <v>1165000</v>
       </c>
       <c r="G26" s="3">
-        <v>1026300</v>
+        <v>1014500</v>
       </c>
       <c r="H26" s="3">
-        <v>1112800</v>
+        <v>1100000</v>
       </c>
       <c r="I26" s="3">
-        <v>1170600</v>
+        <v>1157200</v>
       </c>
       <c r="J26" s="3">
-        <v>1137900</v>
+        <v>1124800</v>
       </c>
       <c r="K26" s="3">
         <v>1077300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1410900</v>
+        <v>1394700</v>
       </c>
       <c r="E27" s="3">
-        <v>1270600</v>
+        <v>1256100</v>
       </c>
       <c r="F27" s="3">
-        <v>1176700</v>
+        <v>1163200</v>
       </c>
       <c r="G27" s="3">
-        <v>1026200</v>
+        <v>1014500</v>
       </c>
       <c r="H27" s="3">
-        <v>1109600</v>
+        <v>1096800</v>
       </c>
       <c r="I27" s="3">
-        <v>1164200</v>
+        <v>1150800</v>
       </c>
       <c r="J27" s="3">
-        <v>1130900</v>
+        <v>1117900</v>
       </c>
       <c r="K27" s="3">
         <v>1071300</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-264700</v>
+        <v>-261700</v>
       </c>
       <c r="E32" s="3">
-        <v>-286500</v>
+        <v>-283200</v>
       </c>
       <c r="F32" s="3">
-        <v>-276100</v>
+        <v>-272900</v>
       </c>
       <c r="G32" s="3">
-        <v>-282700</v>
+        <v>-279500</v>
       </c>
       <c r="H32" s="3">
-        <v>-240400</v>
+        <v>-237600</v>
       </c>
       <c r="I32" s="3">
-        <v>-254600</v>
+        <v>-251700</v>
       </c>
       <c r="J32" s="3">
-        <v>-222600</v>
+        <v>-220000</v>
       </c>
       <c r="K32" s="3">
         <v>-172000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1410900</v>
+        <v>1394700</v>
       </c>
       <c r="E33" s="3">
-        <v>1270600</v>
+        <v>1256100</v>
       </c>
       <c r="F33" s="3">
-        <v>1176700</v>
+        <v>1163200</v>
       </c>
       <c r="G33" s="3">
-        <v>1046700</v>
+        <v>1034600</v>
       </c>
       <c r="H33" s="3">
-        <v>1109600</v>
+        <v>1096800</v>
       </c>
       <c r="I33" s="3">
-        <v>1164200</v>
+        <v>1150800</v>
       </c>
       <c r="J33" s="3">
-        <v>1130900</v>
+        <v>1117900</v>
       </c>
       <c r="K33" s="3">
         <v>1071300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1410900</v>
+        <v>1394700</v>
       </c>
       <c r="E35" s="3">
-        <v>1270600</v>
+        <v>1256100</v>
       </c>
       <c r="F35" s="3">
-        <v>1176700</v>
+        <v>1163200</v>
       </c>
       <c r="G35" s="3">
-        <v>1046700</v>
+        <v>1034600</v>
       </c>
       <c r="H35" s="3">
-        <v>1109600</v>
+        <v>1096800</v>
       </c>
       <c r="I35" s="3">
-        <v>1164200</v>
+        <v>1150800</v>
       </c>
       <c r="J35" s="3">
-        <v>1130900</v>
+        <v>1117900</v>
       </c>
       <c r="K35" s="3">
         <v>1071300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2219200</v>
+        <v>2193700</v>
       </c>
       <c r="E41" s="3">
-        <v>1888600</v>
+        <v>1866900</v>
       </c>
       <c r="F41" s="3">
-        <v>2072000</v>
+        <v>2048200</v>
       </c>
       <c r="G41" s="3">
-        <v>587200</v>
+        <v>580400</v>
       </c>
       <c r="H41" s="3">
-        <v>688900</v>
+        <v>681000</v>
       </c>
       <c r="I41" s="3">
-        <v>1294500</v>
+        <v>1279700</v>
       </c>
       <c r="J41" s="3">
-        <v>2077300</v>
+        <v>2053500</v>
       </c>
       <c r="K41" s="3">
         <v>1569100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2288500</v>
+        <v>2262200</v>
       </c>
       <c r="E42" s="3">
-        <v>2468100</v>
+        <v>2439800</v>
       </c>
       <c r="F42" s="3">
-        <v>2908200</v>
+        <v>2874800</v>
       </c>
       <c r="G42" s="3">
-        <v>3285300</v>
+        <v>3247600</v>
       </c>
       <c r="H42" s="3">
-        <v>3839500</v>
+        <v>3795500</v>
       </c>
       <c r="I42" s="3">
-        <v>6267700</v>
+        <v>6195800</v>
       </c>
       <c r="J42" s="3">
-        <v>1249100</v>
+        <v>1234800</v>
       </c>
       <c r="K42" s="3">
         <v>1045300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2034300</v>
+        <v>2010900</v>
       </c>
       <c r="E43" s="3">
-        <v>2175300</v>
+        <v>2150400</v>
       </c>
       <c r="F43" s="3">
-        <v>2181000</v>
+        <v>2155900</v>
       </c>
       <c r="G43" s="3">
-        <v>2023200</v>
+        <v>2000000</v>
       </c>
       <c r="H43" s="3">
-        <v>2044500</v>
+        <v>2021000</v>
       </c>
       <c r="I43" s="3">
-        <v>3478700</v>
+        <v>3438800</v>
       </c>
       <c r="J43" s="3">
-        <v>1972600</v>
+        <v>1949900</v>
       </c>
       <c r="K43" s="3">
         <v>1937400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="E44" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="F44" s="3">
-        <v>51600</v>
+        <v>51000</v>
       </c>
       <c r="G44" s="3">
-        <v>44000</v>
+        <v>43500</v>
       </c>
       <c r="H44" s="3">
-        <v>51200</v>
+        <v>50600</v>
       </c>
       <c r="I44" s="3">
-        <v>70400</v>
+        <v>69600</v>
       </c>
       <c r="J44" s="3">
-        <v>63400</v>
+        <v>62600</v>
       </c>
       <c r="K44" s="3">
         <v>65100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>282200</v>
+        <v>279000</v>
       </c>
       <c r="E45" s="3">
-        <v>238000</v>
+        <v>235300</v>
       </c>
       <c r="F45" s="3">
-        <v>262000</v>
+        <v>259000</v>
       </c>
       <c r="G45" s="3">
-        <v>675700</v>
+        <v>667900</v>
       </c>
       <c r="H45" s="3">
-        <v>419300</v>
+        <v>414500</v>
       </c>
       <c r="I45" s="3">
-        <v>375600</v>
+        <v>371300</v>
       </c>
       <c r="J45" s="3">
-        <v>342600</v>
+        <v>338600</v>
       </c>
       <c r="K45" s="3">
         <v>256400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6838000</v>
+        <v>6759600</v>
       </c>
       <c r="E46" s="3">
-        <v>6794500</v>
+        <v>6716500</v>
       </c>
       <c r="F46" s="3">
-        <v>7474800</v>
+        <v>7389000</v>
       </c>
       <c r="G46" s="3">
-        <v>6615500</v>
+        <v>6539500</v>
       </c>
       <c r="H46" s="3">
-        <v>7043400</v>
+        <v>6962600</v>
       </c>
       <c r="I46" s="3">
-        <v>6571900</v>
+        <v>6496500</v>
       </c>
       <c r="J46" s="3">
-        <v>5705000</v>
+        <v>5639500</v>
       </c>
       <c r="K46" s="3">
         <v>4873400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>481000</v>
+        <v>475500</v>
       </c>
       <c r="E47" s="3">
-        <v>444700</v>
+        <v>439600</v>
       </c>
       <c r="F47" s="3">
-        <v>536400</v>
+        <v>530200</v>
       </c>
       <c r="G47" s="3">
-        <v>465400</v>
+        <v>460000</v>
       </c>
       <c r="H47" s="3">
-        <v>337000</v>
+        <v>333100</v>
       </c>
       <c r="I47" s="3">
-        <v>274300</v>
+        <v>271100</v>
       </c>
       <c r="J47" s="3">
-        <v>199700</v>
+        <v>197400</v>
       </c>
       <c r="K47" s="3">
         <v>176800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1328100</v>
+        <v>1312800</v>
       </c>
       <c r="E48" s="3">
-        <v>1279100</v>
+        <v>1264500</v>
       </c>
       <c r="F48" s="3">
-        <v>922800</v>
+        <v>912200</v>
       </c>
       <c r="G48" s="3">
-        <v>842300</v>
+        <v>832600</v>
       </c>
       <c r="H48" s="3">
-        <v>912200</v>
+        <v>901700</v>
       </c>
       <c r="I48" s="3">
-        <v>849100</v>
+        <v>839300</v>
       </c>
       <c r="J48" s="3">
-        <v>708500</v>
+        <v>700300</v>
       </c>
       <c r="K48" s="3">
         <v>706900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1989400</v>
+        <v>1966600</v>
       </c>
       <c r="E49" s="3">
-        <v>1926200</v>
+        <v>1904100</v>
       </c>
       <c r="F49" s="3">
-        <v>1708800</v>
+        <v>1689200</v>
       </c>
       <c r="G49" s="3">
-        <v>1773600</v>
+        <v>1753200</v>
       </c>
       <c r="H49" s="3">
-        <v>1852300</v>
+        <v>1831000</v>
       </c>
       <c r="I49" s="3">
-        <v>1540100</v>
+        <v>1522400</v>
       </c>
       <c r="J49" s="3">
-        <v>993400</v>
+        <v>982000</v>
       </c>
       <c r="K49" s="3">
         <v>898000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>230300</v>
+        <v>227600</v>
       </c>
       <c r="E52" s="3">
-        <v>234500</v>
+        <v>231800</v>
       </c>
       <c r="F52" s="3">
-        <v>246800</v>
+        <v>244000</v>
       </c>
       <c r="G52" s="3">
-        <v>244900</v>
+        <v>242100</v>
       </c>
       <c r="H52" s="3">
-        <v>226400</v>
+        <v>223800</v>
       </c>
       <c r="I52" s="3">
-        <v>227500</v>
+        <v>224900</v>
       </c>
       <c r="J52" s="3">
-        <v>235900</v>
+        <v>233200</v>
       </c>
       <c r="K52" s="3">
         <v>246500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10866800</v>
+        <v>10742100</v>
       </c>
       <c r="E54" s="3">
-        <v>10679000</v>
+        <v>10556400</v>
       </c>
       <c r="F54" s="3">
-        <v>10889500</v>
+        <v>10764600</v>
       </c>
       <c r="G54" s="3">
-        <v>9941600</v>
+        <v>9827500</v>
       </c>
       <c r="H54" s="3">
-        <v>10371300</v>
+        <v>10252200</v>
       </c>
       <c r="I54" s="3">
-        <v>9462700</v>
+        <v>9354100</v>
       </c>
       <c r="J54" s="3">
-        <v>7842400</v>
+        <v>7752400</v>
       </c>
       <c r="K54" s="3">
         <v>6901700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>303600</v>
+        <v>300200</v>
       </c>
       <c r="E57" s="3">
-        <v>353600</v>
+        <v>349500</v>
       </c>
       <c r="F57" s="3">
-        <v>372800</v>
+        <v>368600</v>
       </c>
       <c r="G57" s="3">
-        <v>319000</v>
+        <v>315300</v>
       </c>
       <c r="H57" s="3">
-        <v>306500</v>
+        <v>303000</v>
       </c>
       <c r="I57" s="3">
-        <v>1197700</v>
+        <v>1183900</v>
       </c>
       <c r="J57" s="3">
-        <v>246300</v>
+        <v>243500</v>
       </c>
       <c r="K57" s="3">
         <v>242000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1091900</v>
+        <v>1079400</v>
       </c>
       <c r="E58" s="3">
-        <v>1042500</v>
+        <v>1030500</v>
       </c>
       <c r="F58" s="3">
-        <v>929300</v>
+        <v>918600</v>
       </c>
       <c r="G58" s="3">
-        <v>1215400</v>
+        <v>1201400</v>
       </c>
       <c r="H58" s="3">
-        <v>1605000</v>
+        <v>1586600</v>
       </c>
       <c r="I58" s="3">
-        <v>2819500</v>
+        <v>2787100</v>
       </c>
       <c r="J58" s="3">
-        <v>865300</v>
+        <v>855400</v>
       </c>
       <c r="K58" s="3">
         <v>559000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1611100</v>
+        <v>1592600</v>
       </c>
       <c r="E59" s="3">
-        <v>1432200</v>
+        <v>1415700</v>
       </c>
       <c r="F59" s="3">
-        <v>1499400</v>
+        <v>1482200</v>
       </c>
       <c r="G59" s="3">
-        <v>1256200</v>
+        <v>1241700</v>
       </c>
       <c r="H59" s="3">
-        <v>1088600</v>
+        <v>1076100</v>
       </c>
       <c r="I59" s="3">
-        <v>1140400</v>
+        <v>1127300</v>
       </c>
       <c r="J59" s="3">
-        <v>1032200</v>
+        <v>1020400</v>
       </c>
       <c r="K59" s="3">
         <v>1073900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3006600</v>
+        <v>2972100</v>
       </c>
       <c r="E60" s="3">
-        <v>2828300</v>
+        <v>2795800</v>
       </c>
       <c r="F60" s="3">
-        <v>2801600</v>
+        <v>2769400</v>
       </c>
       <c r="G60" s="3">
-        <v>2790500</v>
+        <v>2758500</v>
       </c>
       <c r="H60" s="3">
-        <v>3000100</v>
+        <v>2965700</v>
       </c>
       <c r="I60" s="3">
-        <v>2856600</v>
+        <v>2823800</v>
       </c>
       <c r="J60" s="3">
-        <v>2143900</v>
+        <v>2119300</v>
       </c>
       <c r="K60" s="3">
         <v>1874900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>274100</v>
+        <v>270900</v>
       </c>
       <c r="E61" s="3">
-        <v>228400</v>
+        <v>225800</v>
       </c>
       <c r="F61" s="3">
-        <v>370800</v>
+        <v>366500</v>
       </c>
       <c r="G61" s="3">
-        <v>591700</v>
+        <v>584900</v>
       </c>
       <c r="H61" s="3">
-        <v>256300</v>
+        <v>253400</v>
       </c>
       <c r="I61" s="3">
-        <v>226900</v>
+        <v>224300</v>
       </c>
       <c r="J61" s="3">
-        <v>166100</v>
+        <v>164200</v>
       </c>
       <c r="K61" s="3">
         <v>149900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>337600</v>
+        <v>333700</v>
       </c>
       <c r="E62" s="3">
-        <v>311800</v>
+        <v>308200</v>
       </c>
       <c r="F62" s="3">
-        <v>257500</v>
+        <v>254500</v>
       </c>
       <c r="G62" s="3">
-        <v>216000</v>
+        <v>213500</v>
       </c>
       <c r="H62" s="3">
-        <v>283200</v>
+        <v>279900</v>
       </c>
       <c r="I62" s="3">
-        <v>270500</v>
+        <v>267400</v>
       </c>
       <c r="J62" s="3">
-        <v>178700</v>
+        <v>176600</v>
       </c>
       <c r="K62" s="3">
         <v>138100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3637900</v>
+        <v>3596100</v>
       </c>
       <c r="E66" s="3">
-        <v>3393000</v>
+        <v>3354100</v>
       </c>
       <c r="F66" s="3">
-        <v>3464300</v>
+        <v>3424500</v>
       </c>
       <c r="G66" s="3">
-        <v>3629600</v>
+        <v>3587900</v>
       </c>
       <c r="H66" s="3">
-        <v>3570900</v>
+        <v>3529900</v>
       </c>
       <c r="I66" s="3">
-        <v>3382900</v>
+        <v>3344100</v>
       </c>
       <c r="J66" s="3">
-        <v>2510100</v>
+        <v>2481300</v>
       </c>
       <c r="K66" s="3">
         <v>2182000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6754000</v>
+        <v>6676500</v>
       </c>
       <c r="E72" s="3">
-        <v>6842600</v>
+        <v>6764000</v>
       </c>
       <c r="F72" s="3">
-        <v>7029700</v>
+        <v>6949000</v>
       </c>
       <c r="G72" s="3">
-        <v>5967600</v>
+        <v>5899100</v>
       </c>
       <c r="H72" s="3">
-        <v>6482200</v>
+        <v>6407800</v>
       </c>
       <c r="I72" s="3">
-        <v>5588200</v>
+        <v>5524100</v>
       </c>
       <c r="J72" s="3">
-        <v>4882400</v>
+        <v>4826400</v>
       </c>
       <c r="K72" s="3">
         <v>4327400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7229000</v>
+        <v>7146000</v>
       </c>
       <c r="E76" s="3">
-        <v>7286000</v>
+        <v>7202400</v>
       </c>
       <c r="F76" s="3">
-        <v>7425300</v>
+        <v>7340100</v>
       </c>
       <c r="G76" s="3">
-        <v>6312000</v>
+        <v>6239500</v>
       </c>
       <c r="H76" s="3">
-        <v>6800400</v>
+        <v>6722300</v>
       </c>
       <c r="I76" s="3">
-        <v>6079800</v>
+        <v>6010000</v>
       </c>
       <c r="J76" s="3">
-        <v>5332300</v>
+        <v>5271100</v>
       </c>
       <c r="K76" s="3">
         <v>4719700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1410900</v>
+        <v>1394700</v>
       </c>
       <c r="E81" s="3">
-        <v>1270600</v>
+        <v>1256100</v>
       </c>
       <c r="F81" s="3">
-        <v>1176700</v>
+        <v>1163200</v>
       </c>
       <c r="G81" s="3">
-        <v>1046700</v>
+        <v>1034600</v>
       </c>
       <c r="H81" s="3">
-        <v>1109600</v>
+        <v>1096800</v>
       </c>
       <c r="I81" s="3">
-        <v>1164200</v>
+        <v>1150800</v>
       </c>
       <c r="J81" s="3">
-        <v>1130900</v>
+        <v>1117900</v>
       </c>
       <c r="K81" s="3">
         <v>1071300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>361500</v>
+        <v>269500</v>
       </c>
       <c r="E83" s="3">
-        <v>272700</v>
+        <v>251600</v>
       </c>
       <c r="F83" s="3">
-        <v>254500</v>
+        <v>272900</v>
       </c>
       <c r="G83" s="3">
-        <v>276100</v>
+        <v>298500</v>
       </c>
       <c r="H83" s="3">
-        <v>302000</v>
+        <v>193300</v>
       </c>
       <c r="I83" s="3">
-        <v>195600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>167600</v>
+        <v>165700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1928500</v>
+        <v>1300300</v>
       </c>
       <c r="E89" s="3">
-        <v>1315400</v>
+        <v>1502800</v>
       </c>
       <c r="F89" s="3">
-        <v>1520300</v>
+        <v>1088300</v>
       </c>
       <c r="G89" s="3">
-        <v>1100900</v>
+        <v>1198600</v>
       </c>
       <c r="H89" s="3">
-        <v>1212500</v>
+        <v>1019000</v>
       </c>
       <c r="I89" s="3">
-        <v>1030900</v>
+        <v>1011100</v>
       </c>
       <c r="J89" s="3">
-        <v>1022900</v>
+        <v>877200</v>
       </c>
       <c r="K89" s="3">
         <v>932900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-255900</v>
+        <v>-303600</v>
       </c>
       <c r="E91" s="3">
-        <v>-307100</v>
+        <v>-294300</v>
       </c>
       <c r="F91" s="3">
-        <v>-297700</v>
+        <v>-282600</v>
       </c>
       <c r="G91" s="3">
-        <v>-285800</v>
+        <v>-269400</v>
       </c>
       <c r="H91" s="3">
-        <v>-272500</v>
+        <v>-180200</v>
       </c>
       <c r="I91" s="3">
-        <v>-182300</v>
+        <v>-163600</v>
       </c>
       <c r="J91" s="3">
-        <v>-165500</v>
+        <v>-115200</v>
       </c>
       <c r="K91" s="3">
         <v>-122500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>101100</v>
+        <v>439400</v>
       </c>
       <c r="E94" s="3">
-        <v>444500</v>
+        <v>647600</v>
       </c>
       <c r="F94" s="3">
-        <v>655100</v>
+        <v>459700</v>
       </c>
       <c r="G94" s="3">
-        <v>465000</v>
+        <v>-1502400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1519800</v>
+        <v>-1785000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1805700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-334200</v>
+        <v>-330400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-71300</v>
+        <v>-88700</v>
       </c>
       <c r="E96" s="3">
-        <v>-89700</v>
+        <v>-70200</v>
       </c>
       <c r="F96" s="3">
-        <v>-71000</v>
+        <v>-70000</v>
       </c>
       <c r="G96" s="3">
-        <v>-70800</v>
+        <v>-112800</v>
       </c>
       <c r="H96" s="3">
-        <v>-114200</v>
+        <v>-458600</v>
       </c>
       <c r="I96" s="3">
-        <v>-463900</v>
+        <v>-381000</v>
       </c>
       <c r="J96" s="3">
-        <v>-385400</v>
+        <v>-300700</v>
       </c>
       <c r="K96" s="3">
         <v>-319800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1683900</v>
+        <v>-1950900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1973500</v>
+        <v>-637800</v>
       </c>
       <c r="F100" s="3">
-        <v>-645300</v>
+        <v>-1679300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1698800</v>
+        <v>-294000</v>
       </c>
       <c r="H100" s="3">
-        <v>-297400</v>
+        <v>-20500</v>
       </c>
       <c r="I100" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-114600</v>
+        <v>-113300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11600</v>
+        <v>24800</v>
       </c>
       <c r="E101" s="3">
-        <v>25100</v>
+        <v>6800</v>
       </c>
       <c r="F101" s="3">
-        <v>6900</v>
+        <v>4800</v>
       </c>
       <c r="G101" s="3">
-        <v>4900</v>
+        <v>-18200</v>
       </c>
       <c r="H101" s="3">
-        <v>-18500</v>
+        <v>7100</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>7700</v>
+        <v>7600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>334100</v>
+        <v>-186300</v>
       </c>
       <c r="E102" s="3">
-        <v>-188500</v>
+        <v>1519400</v>
       </c>
       <c r="F102" s="3">
-        <v>1537000</v>
+        <v>-126500</v>
       </c>
       <c r="G102" s="3">
-        <v>-128000</v>
+        <v>-615900</v>
       </c>
       <c r="H102" s="3">
-        <v>-623100</v>
+        <v>-779300</v>
       </c>
       <c r="I102" s="3">
-        <v>-788400</v>
+        <v>575100</v>
       </c>
       <c r="J102" s="3">
-        <v>581800</v>
+        <v>388700</v>
       </c>
       <c r="K102" s="3">
         <v>413300</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8003000</v>
+        <v>9902500</v>
       </c>
       <c r="E8" s="3">
-        <v>7884200</v>
+        <v>7755300</v>
       </c>
       <c r="F8" s="3">
-        <v>7569100</v>
+        <v>7640100</v>
       </c>
       <c r="G8" s="3">
-        <v>7039700</v>
+        <v>7334800</v>
       </c>
       <c r="H8" s="3">
-        <v>7111200</v>
+        <v>6821800</v>
       </c>
       <c r="I8" s="3">
-        <v>6620700</v>
+        <v>6891000</v>
       </c>
       <c r="J8" s="3">
+        <v>6415700</v>
+      </c>
+      <c r="K8" s="3">
         <v>6066500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5966900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4947700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4609100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5467800</v>
+        <v>6959500</v>
       </c>
       <c r="E9" s="3">
-        <v>5634200</v>
+        <v>5298500</v>
       </c>
       <c r="F9" s="3">
-        <v>5317300</v>
+        <v>5459800</v>
       </c>
       <c r="G9" s="3">
-        <v>4981600</v>
+        <v>5152600</v>
       </c>
       <c r="H9" s="3">
-        <v>5058700</v>
+        <v>4827400</v>
       </c>
       <c r="I9" s="3">
-        <v>4608900</v>
+        <v>4902100</v>
       </c>
       <c r="J9" s="3">
+        <v>4466200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4151000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4060000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3446000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3265000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2535200</v>
+        <v>2943000</v>
       </c>
       <c r="E10" s="3">
-        <v>2250000</v>
+        <v>2456700</v>
       </c>
       <c r="F10" s="3">
-        <v>2251900</v>
+        <v>2180300</v>
       </c>
       <c r="G10" s="3">
-        <v>2058100</v>
+        <v>2182100</v>
       </c>
       <c r="H10" s="3">
-        <v>2052400</v>
+        <v>1994400</v>
       </c>
       <c r="I10" s="3">
-        <v>2011900</v>
+        <v>1988900</v>
       </c>
       <c r="J10" s="3">
+        <v>1949600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1915500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1906900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1501700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1344100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,32 +925,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>24300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-10200</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>8300</v>
+        <v>-9900</v>
       </c>
       <c r="H14" s="3">
-        <v>-13300</v>
+        <v>8100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>-12800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -945,32 +964,35 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>63600</v>
+        <v>206800</v>
       </c>
       <c r="E15" s="3">
-        <v>45700</v>
+        <v>61600</v>
       </c>
       <c r="F15" s="3">
-        <v>50100</v>
+        <v>44300</v>
       </c>
       <c r="G15" s="3">
-        <v>49900</v>
+        <v>48500</v>
       </c>
       <c r="H15" s="3">
-        <v>41000</v>
+        <v>48400</v>
       </c>
       <c r="I15" s="3">
-        <v>22500</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+        <v>39800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6413200</v>
+        <v>8146100</v>
       </c>
       <c r="E17" s="3">
-        <v>6518200</v>
+        <v>6214600</v>
       </c>
       <c r="F17" s="3">
-        <v>6278300</v>
+        <v>6316400</v>
       </c>
       <c r="G17" s="3">
-        <v>5950700</v>
+        <v>6083900</v>
       </c>
       <c r="H17" s="3">
-        <v>5898300</v>
+        <v>5766400</v>
       </c>
       <c r="I17" s="3">
-        <v>5369300</v>
+        <v>5715700</v>
       </c>
       <c r="J17" s="3">
+        <v>5203100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4833700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4739100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4022600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3742800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1589800</v>
+        <v>1756400</v>
       </c>
       <c r="E18" s="3">
-        <v>1366000</v>
+        <v>1540600</v>
       </c>
       <c r="F18" s="3">
-        <v>1290800</v>
+        <v>1323700</v>
       </c>
       <c r="G18" s="3">
-        <v>1089100</v>
+        <v>1250900</v>
       </c>
       <c r="H18" s="3">
-        <v>1212900</v>
+        <v>1055400</v>
       </c>
       <c r="I18" s="3">
-        <v>1251400</v>
+        <v>1175400</v>
       </c>
       <c r="J18" s="3">
+        <v>1212700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1232900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1227700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>925000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>866300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,67 +1115,71 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>261700</v>
+        <v>204300</v>
       </c>
       <c r="E20" s="3">
-        <v>283200</v>
+        <v>253600</v>
       </c>
       <c r="F20" s="3">
-        <v>272900</v>
+        <v>274400</v>
       </c>
       <c r="G20" s="3">
-        <v>279500</v>
+        <v>264400</v>
       </c>
       <c r="H20" s="3">
-        <v>237600</v>
+        <v>270800</v>
       </c>
       <c r="I20" s="3">
-        <v>251700</v>
+        <v>230300</v>
       </c>
       <c r="J20" s="3">
+        <v>243900</v>
+      </c>
+      <c r="K20" s="3">
         <v>220000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>172000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>125400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>94700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2121000</v>
+        <v>2347900</v>
       </c>
       <c r="E21" s="3">
-        <v>1900800</v>
+        <v>2140700</v>
       </c>
       <c r="F21" s="3">
-        <v>1836600</v>
+        <v>1859600</v>
       </c>
       <c r="G21" s="3">
-        <v>1667100</v>
+        <v>1759300</v>
       </c>
       <c r="H21" s="3">
-        <v>1643900</v>
+        <v>1590900</v>
       </c>
       <c r="I21" s="3">
-        <v>1668800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1695200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1644100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1151,120 +1187,132 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>1107600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55500</v>
+        <v>66700</v>
       </c>
       <c r="E22" s="3">
-        <v>66400</v>
+        <v>53800</v>
       </c>
       <c r="F22" s="3">
-        <v>72600</v>
+        <v>64300</v>
       </c>
       <c r="G22" s="3">
-        <v>44600</v>
+        <v>70300</v>
       </c>
       <c r="H22" s="3">
-        <v>24800</v>
+        <v>43200</v>
       </c>
       <c r="I22" s="3">
-        <v>18200</v>
+        <v>24000</v>
       </c>
       <c r="J22" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K22" s="3">
         <v>9900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1796000</v>
+        <v>1894000</v>
       </c>
       <c r="E23" s="3">
-        <v>1582900</v>
+        <v>1740400</v>
       </c>
       <c r="F23" s="3">
-        <v>1491200</v>
+        <v>1533900</v>
       </c>
       <c r="G23" s="3">
-        <v>1324000</v>
+        <v>1445000</v>
       </c>
       <c r="H23" s="3">
-        <v>1425800</v>
+        <v>1283000</v>
       </c>
       <c r="I23" s="3">
-        <v>1484900</v>
+        <v>1381700</v>
       </c>
       <c r="J23" s="3">
+        <v>1439000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1442900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1387800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1039000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>947500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>392100</v>
+        <v>362400</v>
       </c>
       <c r="E24" s="3">
-        <v>320400</v>
+        <v>379900</v>
       </c>
       <c r="F24" s="3">
-        <v>326100</v>
+        <v>310500</v>
       </c>
       <c r="G24" s="3">
-        <v>309500</v>
+        <v>316000</v>
       </c>
       <c r="H24" s="3">
-        <v>325800</v>
+        <v>299900</v>
       </c>
       <c r="I24" s="3">
-        <v>327700</v>
+        <v>315700</v>
       </c>
       <c r="J24" s="3">
+        <v>317600</v>
+      </c>
+      <c r="K24" s="3">
         <v>318100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>310500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>223600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>187300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1403900</v>
+        <v>1531600</v>
       </c>
       <c r="E26" s="3">
-        <v>1262500</v>
+        <v>1360400</v>
       </c>
       <c r="F26" s="3">
-        <v>1165000</v>
+        <v>1223400</v>
       </c>
       <c r="G26" s="3">
-        <v>1014500</v>
+        <v>1129000</v>
       </c>
       <c r="H26" s="3">
-        <v>1100000</v>
+        <v>983100</v>
       </c>
       <c r="I26" s="3">
-        <v>1157200</v>
+        <v>1066000</v>
       </c>
       <c r="J26" s="3">
+        <v>1121400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1124800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1077300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>815500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>760100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1394700</v>
+        <v>1529800</v>
       </c>
       <c r="E27" s="3">
-        <v>1256100</v>
+        <v>1351500</v>
       </c>
       <c r="F27" s="3">
-        <v>1163200</v>
+        <v>1217200</v>
       </c>
       <c r="G27" s="3">
-        <v>1014500</v>
+        <v>1127200</v>
       </c>
       <c r="H27" s="3">
-        <v>1096800</v>
+        <v>983000</v>
       </c>
       <c r="I27" s="3">
-        <v>1150800</v>
+        <v>1062900</v>
       </c>
       <c r="J27" s="3">
+        <v>1115200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1117900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1071300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>811200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>756600</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,30 +1481,33 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>20200</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>19600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>66100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>49200</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-261700</v>
+        <v>-204300</v>
       </c>
       <c r="E32" s="3">
-        <v>-283200</v>
+        <v>-253600</v>
       </c>
       <c r="F32" s="3">
-        <v>-272900</v>
+        <v>-274400</v>
       </c>
       <c r="G32" s="3">
-        <v>-279500</v>
+        <v>-264400</v>
       </c>
       <c r="H32" s="3">
-        <v>-237600</v>
+        <v>-270800</v>
       </c>
       <c r="I32" s="3">
-        <v>-251700</v>
+        <v>-230300</v>
       </c>
       <c r="J32" s="3">
+        <v>-243900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-220000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-172000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-125400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-94700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1394700</v>
+        <v>1529800</v>
       </c>
       <c r="E33" s="3">
-        <v>1256100</v>
+        <v>1351500</v>
       </c>
       <c r="F33" s="3">
-        <v>1163200</v>
+        <v>1217200</v>
       </c>
       <c r="G33" s="3">
-        <v>1034600</v>
+        <v>1127200</v>
       </c>
       <c r="H33" s="3">
-        <v>1096800</v>
+        <v>1002600</v>
       </c>
       <c r="I33" s="3">
-        <v>1150800</v>
+        <v>1062900</v>
       </c>
       <c r="J33" s="3">
+        <v>1115200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1117900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1071300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>877300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>805900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1394700</v>
+        <v>1529800</v>
       </c>
       <c r="E35" s="3">
-        <v>1256100</v>
+        <v>1351500</v>
       </c>
       <c r="F35" s="3">
-        <v>1163200</v>
+        <v>1217200</v>
       </c>
       <c r="G35" s="3">
-        <v>1034600</v>
+        <v>1127200</v>
       </c>
       <c r="H35" s="3">
-        <v>1096800</v>
+        <v>1002600</v>
       </c>
       <c r="I35" s="3">
-        <v>1150800</v>
+        <v>1062900</v>
       </c>
       <c r="J35" s="3">
+        <v>1115200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1117900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1071300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>877300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>805900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2193700</v>
+        <v>1300000</v>
       </c>
       <c r="E41" s="3">
-        <v>1866900</v>
+        <v>2125800</v>
       </c>
       <c r="F41" s="3">
-        <v>2048200</v>
+        <v>1809100</v>
       </c>
       <c r="G41" s="3">
-        <v>580400</v>
+        <v>1984800</v>
       </c>
       <c r="H41" s="3">
-        <v>681000</v>
+        <v>562500</v>
       </c>
       <c r="I41" s="3">
-        <v>1279700</v>
+        <v>659900</v>
       </c>
       <c r="J41" s="3">
+        <v>1240100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2053500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1569100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>472100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>594900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2262200</v>
+        <v>3017300</v>
       </c>
       <c r="E42" s="3">
-        <v>2439800</v>
+        <v>2192200</v>
       </c>
       <c r="F42" s="3">
-        <v>2874800</v>
+        <v>2364300</v>
       </c>
       <c r="G42" s="3">
-        <v>3247600</v>
+        <v>2785800</v>
       </c>
       <c r="H42" s="3">
-        <v>3795500</v>
+        <v>3147100</v>
       </c>
       <c r="I42" s="3">
-        <v>6195800</v>
+        <v>3678000</v>
       </c>
       <c r="J42" s="3">
+        <v>6004000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1234800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1045300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1598900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1164500</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2010900</v>
+        <v>3127200</v>
       </c>
       <c r="E43" s="3">
-        <v>2150400</v>
+        <v>1948700</v>
       </c>
       <c r="F43" s="3">
-        <v>2155900</v>
+        <v>2083800</v>
       </c>
       <c r="G43" s="3">
-        <v>2000000</v>
+        <v>2089200</v>
       </c>
       <c r="H43" s="3">
-        <v>2021000</v>
+        <v>1938100</v>
       </c>
       <c r="I43" s="3">
-        <v>3438800</v>
+        <v>1958400</v>
       </c>
       <c r="J43" s="3">
+        <v>3332300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1949900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1937400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1631600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1744700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13700</v>
+        <v>16700</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>13300</v>
       </c>
       <c r="F44" s="3">
-        <v>51000</v>
+        <v>23300</v>
       </c>
       <c r="G44" s="3">
-        <v>43500</v>
+        <v>49500</v>
       </c>
       <c r="H44" s="3">
-        <v>50600</v>
+        <v>42200</v>
       </c>
       <c r="I44" s="3">
-        <v>69600</v>
+        <v>49000</v>
       </c>
       <c r="J44" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K44" s="3">
         <v>62600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>154200</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279000</v>
+        <v>310500</v>
       </c>
       <c r="E45" s="3">
-        <v>235300</v>
+        <v>270400</v>
       </c>
       <c r="F45" s="3">
-        <v>259000</v>
+        <v>228000</v>
       </c>
       <c r="G45" s="3">
-        <v>667900</v>
+        <v>251000</v>
       </c>
       <c r="H45" s="3">
-        <v>414500</v>
+        <v>647200</v>
       </c>
       <c r="I45" s="3">
-        <v>371300</v>
+        <v>401700</v>
       </c>
       <c r="J45" s="3">
+        <v>359800</v>
+      </c>
+      <c r="K45" s="3">
         <v>338600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>256400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>321300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>296300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6759600</v>
+        <v>7771800</v>
       </c>
       <c r="E46" s="3">
-        <v>6716500</v>
+        <v>6550300</v>
       </c>
       <c r="F46" s="3">
-        <v>7389000</v>
+        <v>6508500</v>
       </c>
       <c r="G46" s="3">
-        <v>6539500</v>
+        <v>7160300</v>
       </c>
       <c r="H46" s="3">
-        <v>6962600</v>
+        <v>6337100</v>
       </c>
       <c r="I46" s="3">
-        <v>6496500</v>
+        <v>6747000</v>
       </c>
       <c r="J46" s="3">
+        <v>6295400</v>
+      </c>
+      <c r="K46" s="3">
         <v>5639500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4873400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4066900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3954600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>475500</v>
+        <v>513200</v>
       </c>
       <c r="E47" s="3">
-        <v>439600</v>
+        <v>460800</v>
       </c>
       <c r="F47" s="3">
-        <v>530200</v>
+        <v>426000</v>
       </c>
       <c r="G47" s="3">
-        <v>460000</v>
+        <v>513800</v>
       </c>
       <c r="H47" s="3">
-        <v>333100</v>
+        <v>445800</v>
       </c>
       <c r="I47" s="3">
-        <v>271100</v>
+        <v>322800</v>
       </c>
       <c r="J47" s="3">
+        <v>262700</v>
+      </c>
+      <c r="K47" s="3">
         <v>197400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>176800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>142000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>231700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1312800</v>
+        <v>1374300</v>
       </c>
       <c r="E48" s="3">
-        <v>1264500</v>
+        <v>1272200</v>
       </c>
       <c r="F48" s="3">
-        <v>912200</v>
+        <v>1225300</v>
       </c>
       <c r="G48" s="3">
-        <v>832600</v>
+        <v>883900</v>
       </c>
       <c r="H48" s="3">
-        <v>901700</v>
+        <v>806800</v>
       </c>
       <c r="I48" s="3">
-        <v>839300</v>
+        <v>873800</v>
       </c>
       <c r="J48" s="3">
+        <v>813300</v>
+      </c>
+      <c r="K48" s="3">
         <v>700300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>706900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>668400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>853000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1966600</v>
+        <v>3637600</v>
       </c>
       <c r="E49" s="3">
-        <v>1904100</v>
+        <v>1905700</v>
       </c>
       <c r="F49" s="3">
-        <v>1689200</v>
+        <v>1845100</v>
       </c>
       <c r="G49" s="3">
-        <v>1753200</v>
+        <v>1636900</v>
       </c>
       <c r="H49" s="3">
-        <v>1831000</v>
+        <v>1698900</v>
       </c>
       <c r="I49" s="3">
-        <v>1522400</v>
+        <v>1774300</v>
       </c>
       <c r="J49" s="3">
+        <v>1475300</v>
+      </c>
+      <c r="K49" s="3">
         <v>982000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>898000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>747100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1043500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>227600</v>
+        <v>214500</v>
       </c>
       <c r="E52" s="3">
-        <v>231800</v>
+        <v>220600</v>
       </c>
       <c r="F52" s="3">
-        <v>244000</v>
+        <v>224700</v>
       </c>
       <c r="G52" s="3">
-        <v>242100</v>
+        <v>236400</v>
       </c>
       <c r="H52" s="3">
-        <v>223800</v>
+        <v>234600</v>
       </c>
       <c r="I52" s="3">
-        <v>224900</v>
+        <v>216900</v>
       </c>
       <c r="J52" s="3">
+        <v>218000</v>
+      </c>
+      <c r="K52" s="3">
         <v>233200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>246500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>193200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>221700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10742100</v>
+        <v>13511400</v>
       </c>
       <c r="E54" s="3">
-        <v>10556400</v>
+        <v>10409600</v>
       </c>
       <c r="F54" s="3">
-        <v>10764600</v>
+        <v>10229600</v>
       </c>
       <c r="G54" s="3">
-        <v>9827500</v>
+        <v>10431300</v>
       </c>
       <c r="H54" s="3">
-        <v>10252200</v>
+        <v>9523200</v>
       </c>
       <c r="I54" s="3">
-        <v>9354100</v>
+        <v>9934800</v>
       </c>
       <c r="J54" s="3">
+        <v>9064500</v>
+      </c>
+      <c r="K54" s="3">
         <v>7752400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6901700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5817600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6304600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300200</v>
+        <v>359100</v>
       </c>
       <c r="E57" s="3">
-        <v>349500</v>
+        <v>290900</v>
       </c>
       <c r="F57" s="3">
-        <v>368600</v>
+        <v>338700</v>
       </c>
       <c r="G57" s="3">
-        <v>315300</v>
+        <v>357200</v>
       </c>
       <c r="H57" s="3">
-        <v>303000</v>
+        <v>305600</v>
       </c>
       <c r="I57" s="3">
-        <v>1183900</v>
+        <v>293600</v>
       </c>
       <c r="J57" s="3">
+        <v>1147300</v>
+      </c>
+      <c r="K57" s="3">
         <v>243500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>242000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>204200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>338800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1079400</v>
+        <v>1305700</v>
       </c>
       <c r="E58" s="3">
-        <v>1030500</v>
+        <v>1046000</v>
       </c>
       <c r="F58" s="3">
-        <v>918600</v>
+        <v>998600</v>
       </c>
       <c r="G58" s="3">
-        <v>1201400</v>
+        <v>890200</v>
       </c>
       <c r="H58" s="3">
-        <v>1586600</v>
+        <v>1164200</v>
       </c>
       <c r="I58" s="3">
-        <v>2787100</v>
+        <v>1537500</v>
       </c>
       <c r="J58" s="3">
+        <v>2700800</v>
+      </c>
+      <c r="K58" s="3">
         <v>855400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>559000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>833000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>527000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1592600</v>
+        <v>2195500</v>
       </c>
       <c r="E59" s="3">
-        <v>1415700</v>
+        <v>1543300</v>
       </c>
       <c r="F59" s="3">
-        <v>1482200</v>
+        <v>1371900</v>
       </c>
       <c r="G59" s="3">
-        <v>1241700</v>
+        <v>1436300</v>
       </c>
       <c r="H59" s="3">
-        <v>1076100</v>
+        <v>1203300</v>
       </c>
       <c r="I59" s="3">
-        <v>1127300</v>
+        <v>1042800</v>
       </c>
       <c r="J59" s="3">
+        <v>1092400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1020400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1073900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>877700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>835900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2972100</v>
+        <v>3860300</v>
       </c>
       <c r="E60" s="3">
-        <v>2795800</v>
+        <v>2880100</v>
       </c>
       <c r="F60" s="3">
-        <v>2769400</v>
+        <v>2709200</v>
       </c>
       <c r="G60" s="3">
-        <v>2758500</v>
+        <v>2683700</v>
       </c>
       <c r="H60" s="3">
-        <v>2965700</v>
+        <v>2673100</v>
       </c>
       <c r="I60" s="3">
-        <v>2823800</v>
+        <v>2873900</v>
       </c>
       <c r="J60" s="3">
+        <v>2736400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2119300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1874900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1914900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1701700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>270900</v>
+        <v>896900</v>
       </c>
       <c r="E61" s="3">
-        <v>225800</v>
+        <v>262600</v>
       </c>
       <c r="F61" s="3">
-        <v>366500</v>
+        <v>218800</v>
       </c>
       <c r="G61" s="3">
-        <v>584900</v>
+        <v>355200</v>
       </c>
       <c r="H61" s="3">
-        <v>253400</v>
+        <v>566800</v>
       </c>
       <c r="I61" s="3">
-        <v>224300</v>
+        <v>245500</v>
       </c>
       <c r="J61" s="3">
+        <v>217400</v>
+      </c>
+      <c r="K61" s="3">
         <v>164200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>149900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>325500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>333700</v>
+        <v>507600</v>
       </c>
       <c r="E62" s="3">
-        <v>308200</v>
+        <v>323400</v>
       </c>
       <c r="F62" s="3">
-        <v>254500</v>
+        <v>298700</v>
       </c>
       <c r="G62" s="3">
-        <v>213500</v>
+        <v>246600</v>
       </c>
       <c r="H62" s="3">
-        <v>279900</v>
+        <v>206900</v>
       </c>
       <c r="I62" s="3">
-        <v>267400</v>
+        <v>271300</v>
       </c>
       <c r="J62" s="3">
+        <v>259100</v>
+      </c>
+      <c r="K62" s="3">
         <v>176600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>138100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>121100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>139400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3596100</v>
+        <v>5271200</v>
       </c>
       <c r="E66" s="3">
-        <v>3354100</v>
+        <v>3484800</v>
       </c>
       <c r="F66" s="3">
-        <v>3424500</v>
+        <v>3250200</v>
       </c>
       <c r="G66" s="3">
-        <v>3587900</v>
+        <v>3318500</v>
       </c>
       <c r="H66" s="3">
-        <v>3529900</v>
+        <v>3476900</v>
       </c>
       <c r="I66" s="3">
-        <v>3344100</v>
+        <v>3420600</v>
       </c>
       <c r="J66" s="3">
+        <v>3240600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2481300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2182000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2062800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2178900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6676500</v>
+        <v>7728600</v>
       </c>
       <c r="E72" s="3">
-        <v>6764000</v>
+        <v>6469800</v>
       </c>
       <c r="F72" s="3">
-        <v>6949000</v>
+        <v>6554600</v>
       </c>
       <c r="G72" s="3">
-        <v>5899100</v>
+        <v>6733900</v>
       </c>
       <c r="H72" s="3">
-        <v>6407800</v>
+        <v>5716400</v>
       </c>
       <c r="I72" s="3">
-        <v>5524100</v>
+        <v>6209400</v>
       </c>
       <c r="J72" s="3">
+        <v>5353100</v>
+      </c>
+      <c r="K72" s="3">
         <v>4826400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4327400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3466000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3507000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7146000</v>
+        <v>8240100</v>
       </c>
       <c r="E76" s="3">
-        <v>7202400</v>
+        <v>6924700</v>
       </c>
       <c r="F76" s="3">
-        <v>7340100</v>
+        <v>6979400</v>
       </c>
       <c r="G76" s="3">
-        <v>6239500</v>
+        <v>7112800</v>
       </c>
       <c r="H76" s="3">
-        <v>6722300</v>
+        <v>6046400</v>
       </c>
       <c r="I76" s="3">
-        <v>6010000</v>
+        <v>6514200</v>
       </c>
       <c r="J76" s="3">
+        <v>5824000</v>
+      </c>
+      <c r="K76" s="3">
         <v>5271100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4719700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3754800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4125600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1394700</v>
+        <v>1529800</v>
       </c>
       <c r="E81" s="3">
-        <v>1256100</v>
+        <v>1351500</v>
       </c>
       <c r="F81" s="3">
-        <v>1163200</v>
+        <v>1217200</v>
       </c>
       <c r="G81" s="3">
-        <v>1034600</v>
+        <v>1127200</v>
       </c>
       <c r="H81" s="3">
-        <v>1096800</v>
+        <v>1002600</v>
       </c>
       <c r="I81" s="3">
-        <v>1150800</v>
+        <v>1062900</v>
       </c>
       <c r="J81" s="3">
+        <v>1115200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1117900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1071300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>877300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>805900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,31 +3294,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269500</v>
+        <v>387000</v>
       </c>
       <c r="E83" s="3">
-        <v>251600</v>
+        <v>346300</v>
       </c>
       <c r="F83" s="3">
-        <v>272900</v>
+        <v>261200</v>
       </c>
       <c r="G83" s="3">
-        <v>298500</v>
+        <v>243800</v>
       </c>
       <c r="H83" s="3">
-        <v>193300</v>
+        <v>264500</v>
       </c>
       <c r="I83" s="3">
-        <v>165700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>289300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>187400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3129,12 +3327,15 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>146500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1300300</v>
+        <v>1387200</v>
       </c>
       <c r="E89" s="3">
-        <v>1502800</v>
+        <v>1847300</v>
       </c>
       <c r="F89" s="3">
-        <v>1088300</v>
+        <v>1260100</v>
       </c>
       <c r="G89" s="3">
-        <v>1198600</v>
+        <v>1456300</v>
       </c>
       <c r="H89" s="3">
-        <v>1019000</v>
+        <v>1054600</v>
       </c>
       <c r="I89" s="3">
-        <v>1011100</v>
+        <v>1161500</v>
       </c>
       <c r="J89" s="3">
+        <v>987500</v>
+      </c>
+      <c r="K89" s="3">
         <v>877200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>932900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>931000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>579500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-303600</v>
+        <v>-252300</v>
       </c>
       <c r="E91" s="3">
-        <v>-294300</v>
+        <v>-245100</v>
       </c>
       <c r="F91" s="3">
-        <v>-282600</v>
+        <v>-294200</v>
       </c>
       <c r="G91" s="3">
-        <v>-269400</v>
+        <v>-285200</v>
       </c>
       <c r="H91" s="3">
-        <v>-180200</v>
+        <v>-273800</v>
       </c>
       <c r="I91" s="3">
-        <v>-163600</v>
+        <v>-261100</v>
       </c>
       <c r="J91" s="3">
+        <v>-174700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-115200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-122500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-140300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-187600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,32 +3698,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>439400</v>
+        <v>-2810700</v>
       </c>
       <c r="E94" s="3">
-        <v>647600</v>
+        <v>96900</v>
       </c>
       <c r="F94" s="3">
-        <v>459700</v>
+        <v>425800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1502400</v>
+        <v>627600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1785000</v>
+        <v>445400</v>
       </c>
       <c r="I94" s="3">
-        <v>-330400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-1455900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1729700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3505,12 +3734,15 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-116500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-88700</v>
+        <v>-68400</v>
       </c>
       <c r="E96" s="3">
-        <v>-70200</v>
+        <v>-68300</v>
       </c>
       <c r="F96" s="3">
-        <v>-70000</v>
+        <v>-85900</v>
       </c>
       <c r="G96" s="3">
-        <v>-112800</v>
+        <v>-68000</v>
       </c>
       <c r="H96" s="3">
-        <v>-458600</v>
+        <v>-67900</v>
       </c>
       <c r="I96" s="3">
-        <v>-381000</v>
+        <v>-109300</v>
       </c>
       <c r="J96" s="3">
+        <v>-444400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-300700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-319800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-225800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-249100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,32 +3910,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1950900</v>
+        <v>583300</v>
       </c>
       <c r="E100" s="3">
-        <v>-637800</v>
+        <v>-1613100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1679300</v>
+        <v>-1890500</v>
       </c>
       <c r="G100" s="3">
-        <v>-294000</v>
+        <v>-618100</v>
       </c>
       <c r="H100" s="3">
-        <v>-20500</v>
+        <v>-1627300</v>
       </c>
       <c r="I100" s="3">
-        <v>-113300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-284900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-19900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3701,35 +3946,38 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-251600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24800</v>
+        <v>16100</v>
       </c>
       <c r="E101" s="3">
-        <v>6800</v>
+        <v>-11100</v>
       </c>
       <c r="F101" s="3">
-        <v>4800</v>
+        <v>24100</v>
       </c>
       <c r="G101" s="3">
-        <v>-18200</v>
+        <v>6600</v>
       </c>
       <c r="H101" s="3">
-        <v>7100</v>
+        <v>4700</v>
       </c>
       <c r="I101" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-17700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>6900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3737,46 +3985,52 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>24300</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-186300</v>
+        <v>-824200</v>
       </c>
       <c r="E102" s="3">
-        <v>1519400</v>
+        <v>320000</v>
       </c>
       <c r="F102" s="3">
-        <v>-126500</v>
+        <v>-180600</v>
       </c>
       <c r="G102" s="3">
-        <v>-615900</v>
+        <v>1472300</v>
       </c>
       <c r="H102" s="3">
-        <v>-779300</v>
+        <v>-122600</v>
       </c>
       <c r="I102" s="3">
-        <v>575100</v>
+        <v>-596900</v>
       </c>
       <c r="J102" s="3">
+        <v>-755200</v>
+      </c>
+      <c r="K102" s="3">
         <v>388700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>413300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>235700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9902500</v>
+        <v>9807600</v>
       </c>
       <c r="E8" s="3">
-        <v>7755300</v>
+        <v>7680900</v>
       </c>
       <c r="F8" s="3">
-        <v>7640100</v>
+        <v>7566900</v>
       </c>
       <c r="G8" s="3">
-        <v>7334800</v>
+        <v>7264500</v>
       </c>
       <c r="H8" s="3">
-        <v>6821800</v>
+        <v>6756400</v>
       </c>
       <c r="I8" s="3">
-        <v>6891000</v>
+        <v>6825000</v>
       </c>
       <c r="J8" s="3">
-        <v>6415700</v>
+        <v>6354300</v>
       </c>
       <c r="K8" s="3">
         <v>6066500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6959500</v>
+        <v>6892800</v>
       </c>
       <c r="E9" s="3">
-        <v>5298500</v>
+        <v>5247700</v>
       </c>
       <c r="F9" s="3">
-        <v>5459800</v>
+        <v>5407500</v>
       </c>
       <c r="G9" s="3">
-        <v>5152600</v>
+        <v>5103300</v>
       </c>
       <c r="H9" s="3">
-        <v>4827400</v>
+        <v>4781100</v>
       </c>
       <c r="I9" s="3">
-        <v>4902100</v>
+        <v>4855100</v>
       </c>
       <c r="J9" s="3">
-        <v>4466200</v>
+        <v>4423400</v>
       </c>
       <c r="K9" s="3">
         <v>4151000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2943000</v>
+        <v>2914800</v>
       </c>
       <c r="E10" s="3">
-        <v>2456700</v>
+        <v>2433200</v>
       </c>
       <c r="F10" s="3">
-        <v>2180300</v>
+        <v>2159400</v>
       </c>
       <c r="G10" s="3">
-        <v>2182100</v>
+        <v>2161200</v>
       </c>
       <c r="H10" s="3">
-        <v>1994400</v>
+        <v>1975300</v>
       </c>
       <c r="I10" s="3">
-        <v>1988900</v>
+        <v>1969800</v>
       </c>
       <c r="J10" s="3">
-        <v>1949600</v>
+        <v>1930900</v>
       </c>
       <c r="K10" s="3">
         <v>1915500</v>
@@ -938,19 +938,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="H14" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I14" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>206800</v>
+        <v>204800</v>
       </c>
       <c r="E15" s="3">
-        <v>61600</v>
+        <v>61000</v>
       </c>
       <c r="F15" s="3">
-        <v>44300</v>
+        <v>43900</v>
       </c>
       <c r="G15" s="3">
-        <v>48500</v>
+        <v>48000</v>
       </c>
       <c r="H15" s="3">
-        <v>48400</v>
+        <v>47900</v>
       </c>
       <c r="I15" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="J15" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8146100</v>
+        <v>8068000</v>
       </c>
       <c r="E17" s="3">
-        <v>6214600</v>
+        <v>6155100</v>
       </c>
       <c r="F17" s="3">
-        <v>6316400</v>
+        <v>6255800</v>
       </c>
       <c r="G17" s="3">
-        <v>6083900</v>
+        <v>6025600</v>
       </c>
       <c r="H17" s="3">
-        <v>5766400</v>
+        <v>5711200</v>
       </c>
       <c r="I17" s="3">
-        <v>5715700</v>
+        <v>5660900</v>
       </c>
       <c r="J17" s="3">
-        <v>5203100</v>
+        <v>5153200</v>
       </c>
       <c r="K17" s="3">
         <v>4833700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1756400</v>
+        <v>1739500</v>
       </c>
       <c r="E18" s="3">
-        <v>1540600</v>
+        <v>1525900</v>
       </c>
       <c r="F18" s="3">
-        <v>1323700</v>
+        <v>1311100</v>
       </c>
       <c r="G18" s="3">
-        <v>1250900</v>
+        <v>1238900</v>
       </c>
       <c r="H18" s="3">
-        <v>1055400</v>
+        <v>1045200</v>
       </c>
       <c r="I18" s="3">
-        <v>1175400</v>
+        <v>1164100</v>
       </c>
       <c r="J18" s="3">
-        <v>1212700</v>
+        <v>1201100</v>
       </c>
       <c r="K18" s="3">
         <v>1232900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>204300</v>
+        <v>202300</v>
       </c>
       <c r="E20" s="3">
-        <v>253600</v>
+        <v>251100</v>
       </c>
       <c r="F20" s="3">
-        <v>274400</v>
+        <v>271800</v>
       </c>
       <c r="G20" s="3">
-        <v>264400</v>
+        <v>261900</v>
       </c>
       <c r="H20" s="3">
-        <v>270800</v>
+        <v>268200</v>
       </c>
       <c r="I20" s="3">
-        <v>230300</v>
+        <v>228100</v>
       </c>
       <c r="J20" s="3">
-        <v>243900</v>
+        <v>241600</v>
       </c>
       <c r="K20" s="3">
         <v>220000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2347900</v>
+        <v>2321700</v>
       </c>
       <c r="E21" s="3">
-        <v>2140700</v>
+        <v>2116900</v>
       </c>
       <c r="F21" s="3">
-        <v>1859600</v>
+        <v>1839200</v>
       </c>
       <c r="G21" s="3">
-        <v>1759300</v>
+        <v>1740100</v>
       </c>
       <c r="H21" s="3">
-        <v>1590900</v>
+        <v>1573100</v>
       </c>
       <c r="I21" s="3">
-        <v>1695200</v>
+        <v>1676200</v>
       </c>
       <c r="J21" s="3">
-        <v>1644100</v>
+        <v>1626600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66700</v>
+        <v>66000</v>
       </c>
       <c r="E22" s="3">
-        <v>53800</v>
+        <v>53300</v>
       </c>
       <c r="F22" s="3">
-        <v>64300</v>
+        <v>63700</v>
       </c>
       <c r="G22" s="3">
-        <v>70300</v>
+        <v>69600</v>
       </c>
       <c r="H22" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
       <c r="I22" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="J22" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="K22" s="3">
         <v>9900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1894000</v>
+        <v>1875800</v>
       </c>
       <c r="E23" s="3">
-        <v>1740400</v>
+        <v>1723700</v>
       </c>
       <c r="F23" s="3">
-        <v>1533900</v>
+        <v>1519100</v>
       </c>
       <c r="G23" s="3">
-        <v>1445000</v>
+        <v>1431100</v>
       </c>
       <c r="H23" s="3">
-        <v>1283000</v>
+        <v>1270700</v>
       </c>
       <c r="I23" s="3">
-        <v>1381700</v>
+        <v>1368400</v>
       </c>
       <c r="J23" s="3">
-        <v>1439000</v>
+        <v>1425200</v>
       </c>
       <c r="K23" s="3">
         <v>1442900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>362400</v>
+        <v>358900</v>
       </c>
       <c r="E24" s="3">
-        <v>379900</v>
+        <v>376300</v>
       </c>
       <c r="F24" s="3">
-        <v>310500</v>
+        <v>307500</v>
       </c>
       <c r="G24" s="3">
-        <v>316000</v>
+        <v>313000</v>
       </c>
       <c r="H24" s="3">
-        <v>299900</v>
+        <v>297000</v>
       </c>
       <c r="I24" s="3">
-        <v>315700</v>
+        <v>312600</v>
       </c>
       <c r="J24" s="3">
-        <v>317600</v>
+        <v>314500</v>
       </c>
       <c r="K24" s="3">
         <v>318100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1531600</v>
+        <v>1516900</v>
       </c>
       <c r="E26" s="3">
-        <v>1360400</v>
+        <v>1347400</v>
       </c>
       <c r="F26" s="3">
-        <v>1223400</v>
+        <v>1211600</v>
       </c>
       <c r="G26" s="3">
-        <v>1129000</v>
+        <v>1118100</v>
       </c>
       <c r="H26" s="3">
-        <v>983100</v>
+        <v>973700</v>
       </c>
       <c r="I26" s="3">
-        <v>1066000</v>
+        <v>1055800</v>
       </c>
       <c r="J26" s="3">
-        <v>1121400</v>
+        <v>1110600</v>
       </c>
       <c r="K26" s="3">
         <v>1124800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1529800</v>
+        <v>1515200</v>
       </c>
       <c r="E27" s="3">
-        <v>1351500</v>
+        <v>1338500</v>
       </c>
       <c r="F27" s="3">
-        <v>1217200</v>
+        <v>1205500</v>
       </c>
       <c r="G27" s="3">
-        <v>1127200</v>
+        <v>1116400</v>
       </c>
       <c r="H27" s="3">
-        <v>983000</v>
+        <v>973600</v>
       </c>
       <c r="I27" s="3">
-        <v>1062900</v>
+        <v>1052700</v>
       </c>
       <c r="J27" s="3">
-        <v>1115200</v>
+        <v>1104500</v>
       </c>
       <c r="K27" s="3">
         <v>1117900</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-204300</v>
+        <v>-202300</v>
       </c>
       <c r="E32" s="3">
-        <v>-253600</v>
+        <v>-251100</v>
       </c>
       <c r="F32" s="3">
-        <v>-274400</v>
+        <v>-271800</v>
       </c>
       <c r="G32" s="3">
-        <v>-264400</v>
+        <v>-261900</v>
       </c>
       <c r="H32" s="3">
-        <v>-270800</v>
+        <v>-268200</v>
       </c>
       <c r="I32" s="3">
-        <v>-230300</v>
+        <v>-228100</v>
       </c>
       <c r="J32" s="3">
-        <v>-243900</v>
+        <v>-241600</v>
       </c>
       <c r="K32" s="3">
         <v>-220000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1529800</v>
+        <v>1515200</v>
       </c>
       <c r="E33" s="3">
-        <v>1351500</v>
+        <v>1338500</v>
       </c>
       <c r="F33" s="3">
-        <v>1217200</v>
+        <v>1205500</v>
       </c>
       <c r="G33" s="3">
-        <v>1127200</v>
+        <v>1116400</v>
       </c>
       <c r="H33" s="3">
-        <v>1002600</v>
+        <v>993000</v>
       </c>
       <c r="I33" s="3">
-        <v>1062900</v>
+        <v>1052700</v>
       </c>
       <c r="J33" s="3">
-        <v>1115200</v>
+        <v>1104500</v>
       </c>
       <c r="K33" s="3">
         <v>1117900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1529800</v>
+        <v>1515200</v>
       </c>
       <c r="E35" s="3">
-        <v>1351500</v>
+        <v>1338500</v>
       </c>
       <c r="F35" s="3">
-        <v>1217200</v>
+        <v>1205500</v>
       </c>
       <c r="G35" s="3">
-        <v>1127200</v>
+        <v>1116400</v>
       </c>
       <c r="H35" s="3">
-        <v>1002600</v>
+        <v>993000</v>
       </c>
       <c r="I35" s="3">
-        <v>1062900</v>
+        <v>1052700</v>
       </c>
       <c r="J35" s="3">
-        <v>1115200</v>
+        <v>1104500</v>
       </c>
       <c r="K35" s="3">
         <v>1117900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1300000</v>
+        <v>1287600</v>
       </c>
       <c r="E41" s="3">
-        <v>2125800</v>
+        <v>2105400</v>
       </c>
       <c r="F41" s="3">
-        <v>1809100</v>
+        <v>1791800</v>
       </c>
       <c r="G41" s="3">
-        <v>1984800</v>
+        <v>1965800</v>
       </c>
       <c r="H41" s="3">
-        <v>562500</v>
+        <v>557100</v>
       </c>
       <c r="I41" s="3">
-        <v>659900</v>
+        <v>653600</v>
       </c>
       <c r="J41" s="3">
-        <v>1240100</v>
+        <v>1228200</v>
       </c>
       <c r="K41" s="3">
         <v>2053500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3017300</v>
+        <v>2988400</v>
       </c>
       <c r="E42" s="3">
-        <v>2192200</v>
+        <v>2171100</v>
       </c>
       <c r="F42" s="3">
-        <v>2364300</v>
+        <v>2341600</v>
       </c>
       <c r="G42" s="3">
-        <v>2785800</v>
+        <v>2759100</v>
       </c>
       <c r="H42" s="3">
-        <v>3147100</v>
+        <v>3116900</v>
       </c>
       <c r="I42" s="3">
-        <v>3678000</v>
+        <v>3642700</v>
       </c>
       <c r="J42" s="3">
-        <v>6004000</v>
+        <v>5946400</v>
       </c>
       <c r="K42" s="3">
         <v>1234800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3127200</v>
+        <v>3097300</v>
       </c>
       <c r="E43" s="3">
-        <v>1948700</v>
+        <v>1930000</v>
       </c>
       <c r="F43" s="3">
-        <v>2083800</v>
+        <v>2063800</v>
       </c>
       <c r="G43" s="3">
-        <v>2089200</v>
+        <v>2069200</v>
       </c>
       <c r="H43" s="3">
-        <v>1938100</v>
+        <v>1919500</v>
       </c>
       <c r="I43" s="3">
-        <v>1958400</v>
+        <v>1939700</v>
       </c>
       <c r="J43" s="3">
-        <v>3332300</v>
+        <v>3300400</v>
       </c>
       <c r="K43" s="3">
         <v>1949900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E44" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="F44" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="G44" s="3">
-        <v>49500</v>
+        <v>49000</v>
       </c>
       <c r="H44" s="3">
-        <v>42200</v>
+        <v>41800</v>
       </c>
       <c r="I44" s="3">
-        <v>49000</v>
+        <v>48500</v>
       </c>
       <c r="J44" s="3">
-        <v>67500</v>
+        <v>66800</v>
       </c>
       <c r="K44" s="3">
         <v>62600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>310500</v>
+        <v>307500</v>
       </c>
       <c r="E45" s="3">
-        <v>270400</v>
+        <v>267800</v>
       </c>
       <c r="F45" s="3">
-        <v>228000</v>
+        <v>225800</v>
       </c>
       <c r="G45" s="3">
-        <v>251000</v>
+        <v>248600</v>
       </c>
       <c r="H45" s="3">
-        <v>647200</v>
+        <v>641000</v>
       </c>
       <c r="I45" s="3">
-        <v>401700</v>
+        <v>397800</v>
       </c>
       <c r="J45" s="3">
-        <v>359800</v>
+        <v>356400</v>
       </c>
       <c r="K45" s="3">
         <v>338600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7771800</v>
+        <v>7697300</v>
       </c>
       <c r="E46" s="3">
-        <v>6550300</v>
+        <v>6487500</v>
       </c>
       <c r="F46" s="3">
-        <v>6508500</v>
+        <v>6446200</v>
       </c>
       <c r="G46" s="3">
-        <v>7160300</v>
+        <v>7091600</v>
       </c>
       <c r="H46" s="3">
-        <v>6337100</v>
+        <v>6276300</v>
       </c>
       <c r="I46" s="3">
-        <v>6747000</v>
+        <v>6682300</v>
       </c>
       <c r="J46" s="3">
-        <v>6295400</v>
+        <v>6235000</v>
       </c>
       <c r="K46" s="3">
         <v>5639500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>513200</v>
+        <v>508300</v>
       </c>
       <c r="E47" s="3">
-        <v>460800</v>
+        <v>456400</v>
       </c>
       <c r="F47" s="3">
-        <v>426000</v>
+        <v>421900</v>
       </c>
       <c r="G47" s="3">
-        <v>513800</v>
+        <v>508900</v>
       </c>
       <c r="H47" s="3">
-        <v>445800</v>
+        <v>441500</v>
       </c>
       <c r="I47" s="3">
-        <v>322800</v>
+        <v>319700</v>
       </c>
       <c r="J47" s="3">
-        <v>262700</v>
+        <v>260200</v>
       </c>
       <c r="K47" s="3">
         <v>197400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1374300</v>
+        <v>1361100</v>
       </c>
       <c r="E48" s="3">
-        <v>1272200</v>
+        <v>1260000</v>
       </c>
       <c r="F48" s="3">
-        <v>1225300</v>
+        <v>1213600</v>
       </c>
       <c r="G48" s="3">
-        <v>883900</v>
+        <v>875500</v>
       </c>
       <c r="H48" s="3">
-        <v>806800</v>
+        <v>799100</v>
       </c>
       <c r="I48" s="3">
-        <v>873800</v>
+        <v>865400</v>
       </c>
       <c r="J48" s="3">
-        <v>813300</v>
+        <v>805500</v>
       </c>
       <c r="K48" s="3">
         <v>700300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3637600</v>
+        <v>3602700</v>
       </c>
       <c r="E49" s="3">
-        <v>1905700</v>
+        <v>1887400</v>
       </c>
       <c r="F49" s="3">
-        <v>1845100</v>
+        <v>1827400</v>
       </c>
       <c r="G49" s="3">
-        <v>1636900</v>
+        <v>1621200</v>
       </c>
       <c r="H49" s="3">
-        <v>1698900</v>
+        <v>1682600</v>
       </c>
       <c r="I49" s="3">
-        <v>1774300</v>
+        <v>1757300</v>
       </c>
       <c r="J49" s="3">
-        <v>1475300</v>
+        <v>1461100</v>
       </c>
       <c r="K49" s="3">
         <v>982000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>214500</v>
+        <v>212400</v>
       </c>
       <c r="E52" s="3">
-        <v>220600</v>
+        <v>218500</v>
       </c>
       <c r="F52" s="3">
-        <v>224700</v>
+        <v>222500</v>
       </c>
       <c r="G52" s="3">
-        <v>236400</v>
+        <v>234100</v>
       </c>
       <c r="H52" s="3">
-        <v>234600</v>
+        <v>232400</v>
       </c>
       <c r="I52" s="3">
-        <v>216900</v>
+        <v>214800</v>
       </c>
       <c r="J52" s="3">
-        <v>218000</v>
+        <v>215900</v>
       </c>
       <c r="K52" s="3">
         <v>233200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13511400</v>
+        <v>13381900</v>
       </c>
       <c r="E54" s="3">
-        <v>10409600</v>
+        <v>10309800</v>
       </c>
       <c r="F54" s="3">
-        <v>10229600</v>
+        <v>10131600</v>
       </c>
       <c r="G54" s="3">
-        <v>10431300</v>
+        <v>10331300</v>
       </c>
       <c r="H54" s="3">
-        <v>9523200</v>
+        <v>9431900</v>
       </c>
       <c r="I54" s="3">
-        <v>9934800</v>
+        <v>9839600</v>
       </c>
       <c r="J54" s="3">
-        <v>9064500</v>
+        <v>8977600</v>
       </c>
       <c r="K54" s="3">
         <v>7752400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>359100</v>
+        <v>355700</v>
       </c>
       <c r="E57" s="3">
-        <v>290900</v>
+        <v>288100</v>
       </c>
       <c r="F57" s="3">
-        <v>338700</v>
+        <v>335500</v>
       </c>
       <c r="G57" s="3">
-        <v>357200</v>
+        <v>353700</v>
       </c>
       <c r="H57" s="3">
-        <v>305600</v>
+        <v>302600</v>
       </c>
       <c r="I57" s="3">
-        <v>293600</v>
+        <v>290800</v>
       </c>
       <c r="J57" s="3">
-        <v>1147300</v>
+        <v>1136300</v>
       </c>
       <c r="K57" s="3">
         <v>243500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1305700</v>
+        <v>1293200</v>
       </c>
       <c r="E58" s="3">
-        <v>1046000</v>
+        <v>1035900</v>
       </c>
       <c r="F58" s="3">
-        <v>998600</v>
+        <v>989000</v>
       </c>
       <c r="G58" s="3">
-        <v>890200</v>
+        <v>881600</v>
       </c>
       <c r="H58" s="3">
-        <v>1164200</v>
+        <v>1153100</v>
       </c>
       <c r="I58" s="3">
-        <v>1537500</v>
+        <v>1522700</v>
       </c>
       <c r="J58" s="3">
-        <v>2700800</v>
+        <v>2674900</v>
       </c>
       <c r="K58" s="3">
         <v>855400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2195500</v>
+        <v>2174400</v>
       </c>
       <c r="E59" s="3">
-        <v>1543300</v>
+        <v>1528500</v>
       </c>
       <c r="F59" s="3">
-        <v>1371900</v>
+        <v>1358800</v>
       </c>
       <c r="G59" s="3">
-        <v>1436300</v>
+        <v>1422600</v>
       </c>
       <c r="H59" s="3">
-        <v>1203300</v>
+        <v>1191800</v>
       </c>
       <c r="I59" s="3">
-        <v>1042800</v>
+        <v>1032800</v>
       </c>
       <c r="J59" s="3">
-        <v>1092400</v>
+        <v>1081900</v>
       </c>
       <c r="K59" s="3">
         <v>1020400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3860300</v>
+        <v>3823300</v>
       </c>
       <c r="E60" s="3">
-        <v>2880100</v>
+        <v>2852500</v>
       </c>
       <c r="F60" s="3">
-        <v>2709200</v>
+        <v>2683300</v>
       </c>
       <c r="G60" s="3">
-        <v>2683700</v>
+        <v>2657900</v>
       </c>
       <c r="H60" s="3">
-        <v>2673100</v>
+        <v>2647500</v>
       </c>
       <c r="I60" s="3">
-        <v>2873900</v>
+        <v>2846300</v>
       </c>
       <c r="J60" s="3">
-        <v>2736400</v>
+        <v>2710200</v>
       </c>
       <c r="K60" s="3">
         <v>2119300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>896900</v>
+        <v>888300</v>
       </c>
       <c r="E61" s="3">
-        <v>262600</v>
+        <v>260000</v>
       </c>
       <c r="F61" s="3">
-        <v>218800</v>
+        <v>216700</v>
       </c>
       <c r="G61" s="3">
-        <v>355200</v>
+        <v>351800</v>
       </c>
       <c r="H61" s="3">
-        <v>566800</v>
+        <v>561300</v>
       </c>
       <c r="I61" s="3">
-        <v>245500</v>
+        <v>243200</v>
       </c>
       <c r="J61" s="3">
-        <v>217400</v>
+        <v>215300</v>
       </c>
       <c r="K61" s="3">
         <v>164200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>507600</v>
+        <v>502700</v>
       </c>
       <c r="E62" s="3">
-        <v>323400</v>
+        <v>320300</v>
       </c>
       <c r="F62" s="3">
-        <v>298700</v>
+        <v>295800</v>
       </c>
       <c r="G62" s="3">
-        <v>246600</v>
+        <v>244300</v>
       </c>
       <c r="H62" s="3">
-        <v>206900</v>
+        <v>204900</v>
       </c>
       <c r="I62" s="3">
-        <v>271300</v>
+        <v>268700</v>
       </c>
       <c r="J62" s="3">
-        <v>259100</v>
+        <v>256600</v>
       </c>
       <c r="K62" s="3">
         <v>176600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5271200</v>
+        <v>5220700</v>
       </c>
       <c r="E66" s="3">
-        <v>3484800</v>
+        <v>3451400</v>
       </c>
       <c r="F66" s="3">
-        <v>3250200</v>
+        <v>3219100</v>
       </c>
       <c r="G66" s="3">
-        <v>3318500</v>
+        <v>3286700</v>
       </c>
       <c r="H66" s="3">
-        <v>3476900</v>
+        <v>3443500</v>
       </c>
       <c r="I66" s="3">
-        <v>3420600</v>
+        <v>3387800</v>
       </c>
       <c r="J66" s="3">
-        <v>3240600</v>
+        <v>3209500</v>
       </c>
       <c r="K66" s="3">
         <v>2481300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7728600</v>
+        <v>7654500</v>
       </c>
       <c r="E72" s="3">
-        <v>6469800</v>
+        <v>6407800</v>
       </c>
       <c r="F72" s="3">
-        <v>6554600</v>
+        <v>6491800</v>
       </c>
       <c r="G72" s="3">
-        <v>6733900</v>
+        <v>6669300</v>
       </c>
       <c r="H72" s="3">
-        <v>5716400</v>
+        <v>5661600</v>
       </c>
       <c r="I72" s="3">
-        <v>6209400</v>
+        <v>6149900</v>
       </c>
       <c r="J72" s="3">
-        <v>5353100</v>
+        <v>5301800</v>
       </c>
       <c r="K72" s="3">
         <v>4826400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8240100</v>
+        <v>8161200</v>
       </c>
       <c r="E76" s="3">
-        <v>6924700</v>
+        <v>6858400</v>
       </c>
       <c r="F76" s="3">
-        <v>6979400</v>
+        <v>6912500</v>
       </c>
       <c r="G76" s="3">
-        <v>7112800</v>
+        <v>7044600</v>
       </c>
       <c r="H76" s="3">
-        <v>6046400</v>
+        <v>5988400</v>
       </c>
       <c r="I76" s="3">
-        <v>6514200</v>
+        <v>6451800</v>
       </c>
       <c r="J76" s="3">
-        <v>5824000</v>
+        <v>5768100</v>
       </c>
       <c r="K76" s="3">
         <v>5271100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1529800</v>
+        <v>1515200</v>
       </c>
       <c r="E81" s="3">
-        <v>1351500</v>
+        <v>1338500</v>
       </c>
       <c r="F81" s="3">
-        <v>1217200</v>
+        <v>1205500</v>
       </c>
       <c r="G81" s="3">
-        <v>1127200</v>
+        <v>1116400</v>
       </c>
       <c r="H81" s="3">
-        <v>1002600</v>
+        <v>993000</v>
       </c>
       <c r="I81" s="3">
-        <v>1062900</v>
+        <v>1052700</v>
       </c>
       <c r="J81" s="3">
-        <v>1115200</v>
+        <v>1104500</v>
       </c>
       <c r="K81" s="3">
         <v>1117900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>387000</v>
+        <v>383300</v>
       </c>
       <c r="E83" s="3">
-        <v>346300</v>
+        <v>342900</v>
       </c>
       <c r="F83" s="3">
-        <v>261200</v>
+        <v>258700</v>
       </c>
       <c r="G83" s="3">
-        <v>243800</v>
+        <v>241500</v>
       </c>
       <c r="H83" s="3">
-        <v>264500</v>
+        <v>261900</v>
       </c>
       <c r="I83" s="3">
-        <v>289300</v>
+        <v>286500</v>
       </c>
       <c r="J83" s="3">
-        <v>187400</v>
+        <v>185600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1387200</v>
+        <v>1373900</v>
       </c>
       <c r="E89" s="3">
-        <v>1847300</v>
+        <v>1829600</v>
       </c>
       <c r="F89" s="3">
-        <v>1260100</v>
+        <v>1248000</v>
       </c>
       <c r="G89" s="3">
-        <v>1456300</v>
+        <v>1442300</v>
       </c>
       <c r="H89" s="3">
-        <v>1054600</v>
+        <v>1044500</v>
       </c>
       <c r="I89" s="3">
-        <v>1161500</v>
+        <v>1150400</v>
       </c>
       <c r="J89" s="3">
-        <v>987500</v>
+        <v>978000</v>
       </c>
       <c r="K89" s="3">
         <v>877200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-252300</v>
+        <v>-249900</v>
       </c>
       <c r="E91" s="3">
-        <v>-245100</v>
+        <v>-242800</v>
       </c>
       <c r="F91" s="3">
-        <v>-294200</v>
+        <v>-291400</v>
       </c>
       <c r="G91" s="3">
-        <v>-285200</v>
+        <v>-282500</v>
       </c>
       <c r="H91" s="3">
-        <v>-273800</v>
+        <v>-271200</v>
       </c>
       <c r="I91" s="3">
-        <v>-261100</v>
+        <v>-258600</v>
       </c>
       <c r="J91" s="3">
-        <v>-174700</v>
+        <v>-173000</v>
       </c>
       <c r="K91" s="3">
         <v>-115200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2810700</v>
+        <v>-2783700</v>
       </c>
       <c r="E94" s="3">
-        <v>96900</v>
+        <v>96000</v>
       </c>
       <c r="F94" s="3">
-        <v>425800</v>
+        <v>421700</v>
       </c>
       <c r="G94" s="3">
-        <v>627600</v>
+        <v>621600</v>
       </c>
       <c r="H94" s="3">
-        <v>445400</v>
+        <v>441200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1455900</v>
+        <v>-1441900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1729700</v>
+        <v>-1713100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-68400</v>
+        <v>-67800</v>
       </c>
       <c r="E96" s="3">
-        <v>-68300</v>
+        <v>-67700</v>
       </c>
       <c r="F96" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="G96" s="3">
-        <v>-68000</v>
+        <v>-67400</v>
       </c>
       <c r="H96" s="3">
-        <v>-67900</v>
+        <v>-67200</v>
       </c>
       <c r="I96" s="3">
-        <v>-109300</v>
+        <v>-108300</v>
       </c>
       <c r="J96" s="3">
-        <v>-444400</v>
+        <v>-440100</v>
       </c>
       <c r="K96" s="3">
         <v>-300700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>583300</v>
+        <v>577700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1613100</v>
+        <v>-1597600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1890500</v>
+        <v>-1872400</v>
       </c>
       <c r="G100" s="3">
-        <v>-618100</v>
+        <v>-612200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1627300</v>
+        <v>-1611700</v>
       </c>
       <c r="I100" s="3">
-        <v>-284900</v>
+        <v>-282100</v>
       </c>
       <c r="J100" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="E101" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="F101" s="3">
-        <v>24100</v>
+        <v>23800</v>
       </c>
       <c r="G101" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H101" s="3">
         <v>4700</v>
       </c>
       <c r="I101" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="J101" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-824200</v>
+        <v>-816300</v>
       </c>
       <c r="E102" s="3">
-        <v>320000</v>
+        <v>316900</v>
       </c>
       <c r="F102" s="3">
-        <v>-180600</v>
+        <v>-178800</v>
       </c>
       <c r="G102" s="3">
-        <v>1472300</v>
+        <v>1458200</v>
       </c>
       <c r="H102" s="3">
-        <v>-122600</v>
+        <v>-121400</v>
       </c>
       <c r="I102" s="3">
-        <v>-596900</v>
+        <v>-591200</v>
       </c>
       <c r="J102" s="3">
-        <v>-755200</v>
+        <v>-748000</v>
       </c>
       <c r="K102" s="3">
         <v>388700</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9807600</v>
+        <v>9641500</v>
       </c>
       <c r="E8" s="3">
-        <v>7680900</v>
+        <v>7550900</v>
       </c>
       <c r="F8" s="3">
-        <v>7566900</v>
+        <v>7438700</v>
       </c>
       <c r="G8" s="3">
-        <v>7264500</v>
+        <v>7141500</v>
       </c>
       <c r="H8" s="3">
-        <v>6756400</v>
+        <v>6642000</v>
       </c>
       <c r="I8" s="3">
-        <v>6825000</v>
+        <v>6709400</v>
       </c>
       <c r="J8" s="3">
-        <v>6354300</v>
+        <v>6246600</v>
       </c>
       <c r="K8" s="3">
         <v>6066500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6892800</v>
+        <v>6776100</v>
       </c>
       <c r="E9" s="3">
-        <v>5247700</v>
+        <v>5158900</v>
       </c>
       <c r="F9" s="3">
-        <v>5407500</v>
+        <v>5315900</v>
       </c>
       <c r="G9" s="3">
-        <v>5103300</v>
+        <v>5016800</v>
       </c>
       <c r="H9" s="3">
-        <v>4781100</v>
+        <v>4700200</v>
       </c>
       <c r="I9" s="3">
-        <v>4855100</v>
+        <v>4772900</v>
       </c>
       <c r="J9" s="3">
-        <v>4423400</v>
+        <v>4348500</v>
       </c>
       <c r="K9" s="3">
         <v>4151000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2914800</v>
+        <v>2865400</v>
       </c>
       <c r="E10" s="3">
-        <v>2433200</v>
+        <v>2392000</v>
       </c>
       <c r="F10" s="3">
-        <v>2159400</v>
+        <v>2122900</v>
       </c>
       <c r="G10" s="3">
-        <v>2161200</v>
+        <v>2124600</v>
       </c>
       <c r="H10" s="3">
-        <v>1975300</v>
+        <v>1941800</v>
       </c>
       <c r="I10" s="3">
-        <v>1969800</v>
+        <v>1936500</v>
       </c>
       <c r="J10" s="3">
-        <v>1930900</v>
+        <v>1898200</v>
       </c>
       <c r="K10" s="3">
         <v>1915500</v>
@@ -938,19 +938,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>23300</v>
+        <v>22900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="H14" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="I14" s="3">
-        <v>-12700</v>
+        <v>-12500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>204800</v>
+        <v>201400</v>
       </c>
       <c r="E15" s="3">
-        <v>61000</v>
+        <v>60000</v>
       </c>
       <c r="F15" s="3">
-        <v>43900</v>
+        <v>43100</v>
       </c>
       <c r="G15" s="3">
-        <v>48000</v>
+        <v>47200</v>
       </c>
       <c r="H15" s="3">
-        <v>47900</v>
+        <v>47100</v>
       </c>
       <c r="I15" s="3">
-        <v>39400</v>
+        <v>38700</v>
       </c>
       <c r="J15" s="3">
-        <v>21600</v>
+        <v>21200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8068000</v>
+        <v>7931400</v>
       </c>
       <c r="E17" s="3">
-        <v>6155100</v>
+        <v>6050800</v>
       </c>
       <c r="F17" s="3">
-        <v>6255800</v>
+        <v>6149900</v>
       </c>
       <c r="G17" s="3">
-        <v>6025600</v>
+        <v>5923500</v>
       </c>
       <c r="H17" s="3">
-        <v>5711200</v>
+        <v>5614400</v>
       </c>
       <c r="I17" s="3">
-        <v>5660900</v>
+        <v>5565000</v>
       </c>
       <c r="J17" s="3">
-        <v>5153200</v>
+        <v>5065900</v>
       </c>
       <c r="K17" s="3">
         <v>4833700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1739500</v>
+        <v>1710100</v>
       </c>
       <c r="E18" s="3">
-        <v>1525900</v>
+        <v>1500000</v>
       </c>
       <c r="F18" s="3">
-        <v>1311100</v>
+        <v>1288800</v>
       </c>
       <c r="G18" s="3">
-        <v>1238900</v>
+        <v>1217900</v>
       </c>
       <c r="H18" s="3">
-        <v>1045200</v>
+        <v>1027500</v>
       </c>
       <c r="I18" s="3">
-        <v>1164100</v>
+        <v>1144400</v>
       </c>
       <c r="J18" s="3">
-        <v>1201100</v>
+        <v>1180700</v>
       </c>
       <c r="K18" s="3">
         <v>1232900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>202300</v>
+        <v>198900</v>
       </c>
       <c r="E20" s="3">
-        <v>251100</v>
+        <v>246900</v>
       </c>
       <c r="F20" s="3">
-        <v>271800</v>
+        <v>267200</v>
       </c>
       <c r="G20" s="3">
-        <v>261900</v>
+        <v>257500</v>
       </c>
       <c r="H20" s="3">
-        <v>268200</v>
+        <v>263700</v>
       </c>
       <c r="I20" s="3">
-        <v>228100</v>
+        <v>224200</v>
       </c>
       <c r="J20" s="3">
-        <v>241600</v>
+        <v>237500</v>
       </c>
       <c r="K20" s="3">
         <v>220000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2321700</v>
+        <v>2286100</v>
       </c>
       <c r="E21" s="3">
-        <v>2116900</v>
+        <v>2084300</v>
       </c>
       <c r="F21" s="3">
-        <v>1839200</v>
+        <v>1810500</v>
       </c>
       <c r="G21" s="3">
-        <v>1740100</v>
+        <v>1713000</v>
       </c>
       <c r="H21" s="3">
-        <v>1573100</v>
+        <v>1548900</v>
       </c>
       <c r="I21" s="3">
-        <v>1676200</v>
+        <v>1650500</v>
       </c>
       <c r="J21" s="3">
-        <v>1626600</v>
+        <v>1600800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66000</v>
+        <v>64900</v>
       </c>
       <c r="E22" s="3">
-        <v>53300</v>
+        <v>52400</v>
       </c>
       <c r="F22" s="3">
-        <v>63700</v>
+        <v>62600</v>
       </c>
       <c r="G22" s="3">
-        <v>69600</v>
+        <v>68500</v>
       </c>
       <c r="H22" s="3">
-        <v>42800</v>
+        <v>42100</v>
       </c>
       <c r="I22" s="3">
-        <v>23800</v>
+        <v>23400</v>
       </c>
       <c r="J22" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="K22" s="3">
         <v>9900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1875800</v>
+        <v>1844000</v>
       </c>
       <c r="E23" s="3">
-        <v>1723700</v>
+        <v>1694500</v>
       </c>
       <c r="F23" s="3">
-        <v>1519100</v>
+        <v>1493400</v>
       </c>
       <c r="G23" s="3">
-        <v>1431100</v>
+        <v>1406900</v>
       </c>
       <c r="H23" s="3">
-        <v>1270700</v>
+        <v>1249200</v>
       </c>
       <c r="I23" s="3">
-        <v>1368400</v>
+        <v>1345200</v>
       </c>
       <c r="J23" s="3">
-        <v>1425200</v>
+        <v>1401000</v>
       </c>
       <c r="K23" s="3">
         <v>1442900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>358900</v>
+        <v>352900</v>
       </c>
       <c r="E24" s="3">
-        <v>376300</v>
+        <v>369900</v>
       </c>
       <c r="F24" s="3">
-        <v>307500</v>
+        <v>302300</v>
       </c>
       <c r="G24" s="3">
-        <v>313000</v>
+        <v>307700</v>
       </c>
       <c r="H24" s="3">
-        <v>297000</v>
+        <v>292000</v>
       </c>
       <c r="I24" s="3">
-        <v>312600</v>
+        <v>307300</v>
       </c>
       <c r="J24" s="3">
-        <v>314500</v>
+        <v>309200</v>
       </c>
       <c r="K24" s="3">
         <v>318100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1516900</v>
+        <v>1491200</v>
       </c>
       <c r="E26" s="3">
-        <v>1347400</v>
+        <v>1324600</v>
       </c>
       <c r="F26" s="3">
-        <v>1211600</v>
+        <v>1191100</v>
       </c>
       <c r="G26" s="3">
-        <v>1118100</v>
+        <v>1099200</v>
       </c>
       <c r="H26" s="3">
-        <v>973700</v>
+        <v>957200</v>
       </c>
       <c r="I26" s="3">
-        <v>1055800</v>
+        <v>1037900</v>
       </c>
       <c r="J26" s="3">
-        <v>1110600</v>
+        <v>1091800</v>
       </c>
       <c r="K26" s="3">
         <v>1124800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1515200</v>
+        <v>1489500</v>
       </c>
       <c r="E27" s="3">
-        <v>1338500</v>
+        <v>1315900</v>
       </c>
       <c r="F27" s="3">
-        <v>1205500</v>
+        <v>1185100</v>
       </c>
       <c r="G27" s="3">
-        <v>1116400</v>
+        <v>1097500</v>
       </c>
       <c r="H27" s="3">
-        <v>973600</v>
+        <v>957100</v>
       </c>
       <c r="I27" s="3">
-        <v>1052700</v>
+        <v>1034900</v>
       </c>
       <c r="J27" s="3">
-        <v>1104500</v>
+        <v>1085800</v>
       </c>
       <c r="K27" s="3">
         <v>1117900</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-202300</v>
+        <v>-198900</v>
       </c>
       <c r="E32" s="3">
-        <v>-251100</v>
+        <v>-246900</v>
       </c>
       <c r="F32" s="3">
-        <v>-271800</v>
+        <v>-267200</v>
       </c>
       <c r="G32" s="3">
-        <v>-261900</v>
+        <v>-257500</v>
       </c>
       <c r="H32" s="3">
-        <v>-268200</v>
+        <v>-263700</v>
       </c>
       <c r="I32" s="3">
-        <v>-228100</v>
+        <v>-224200</v>
       </c>
       <c r="J32" s="3">
-        <v>-241600</v>
+        <v>-237500</v>
       </c>
       <c r="K32" s="3">
         <v>-220000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1515200</v>
+        <v>1489500</v>
       </c>
       <c r="E33" s="3">
-        <v>1338500</v>
+        <v>1315900</v>
       </c>
       <c r="F33" s="3">
-        <v>1205500</v>
+        <v>1185100</v>
       </c>
       <c r="G33" s="3">
-        <v>1116400</v>
+        <v>1097500</v>
       </c>
       <c r="H33" s="3">
-        <v>993000</v>
+        <v>976200</v>
       </c>
       <c r="I33" s="3">
-        <v>1052700</v>
+        <v>1034900</v>
       </c>
       <c r="J33" s="3">
-        <v>1104500</v>
+        <v>1085800</v>
       </c>
       <c r="K33" s="3">
         <v>1117900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1515200</v>
+        <v>1489500</v>
       </c>
       <c r="E35" s="3">
-        <v>1338500</v>
+        <v>1315900</v>
       </c>
       <c r="F35" s="3">
-        <v>1205500</v>
+        <v>1185100</v>
       </c>
       <c r="G35" s="3">
-        <v>1116400</v>
+        <v>1097500</v>
       </c>
       <c r="H35" s="3">
-        <v>993000</v>
+        <v>976200</v>
       </c>
       <c r="I35" s="3">
-        <v>1052700</v>
+        <v>1034900</v>
       </c>
       <c r="J35" s="3">
-        <v>1104500</v>
+        <v>1085800</v>
       </c>
       <c r="K35" s="3">
         <v>1117900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1287600</v>
+        <v>1265800</v>
       </c>
       <c r="E41" s="3">
-        <v>2105400</v>
+        <v>2069800</v>
       </c>
       <c r="F41" s="3">
-        <v>1791800</v>
+        <v>1761400</v>
       </c>
       <c r="G41" s="3">
-        <v>1965800</v>
+        <v>1932500</v>
       </c>
       <c r="H41" s="3">
-        <v>557100</v>
+        <v>547600</v>
       </c>
       <c r="I41" s="3">
-        <v>653600</v>
+        <v>642500</v>
       </c>
       <c r="J41" s="3">
-        <v>1228200</v>
+        <v>1207400</v>
       </c>
       <c r="K41" s="3">
         <v>2053500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2988400</v>
+        <v>2937800</v>
       </c>
       <c r="E42" s="3">
-        <v>2171100</v>
+        <v>2134400</v>
       </c>
       <c r="F42" s="3">
-        <v>2341600</v>
+        <v>2301900</v>
       </c>
       <c r="G42" s="3">
-        <v>2759100</v>
+        <v>2712400</v>
       </c>
       <c r="H42" s="3">
-        <v>3116900</v>
+        <v>3064100</v>
       </c>
       <c r="I42" s="3">
-        <v>3642700</v>
+        <v>3581000</v>
       </c>
       <c r="J42" s="3">
-        <v>5946400</v>
+        <v>5845700</v>
       </c>
       <c r="K42" s="3">
         <v>1234800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3097300</v>
+        <v>3044800</v>
       </c>
       <c r="E43" s="3">
-        <v>1930000</v>
+        <v>1897300</v>
       </c>
       <c r="F43" s="3">
-        <v>2063800</v>
+        <v>2028900</v>
       </c>
       <c r="G43" s="3">
-        <v>2069200</v>
+        <v>2034100</v>
       </c>
       <c r="H43" s="3">
-        <v>1919500</v>
+        <v>1887000</v>
       </c>
       <c r="I43" s="3">
-        <v>1939700</v>
+        <v>1906800</v>
       </c>
       <c r="J43" s="3">
-        <v>3300400</v>
+        <v>3244500</v>
       </c>
       <c r="K43" s="3">
         <v>1949900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="E44" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="F44" s="3">
-        <v>23100</v>
+        <v>22700</v>
       </c>
       <c r="G44" s="3">
-        <v>49000</v>
+        <v>48200</v>
       </c>
       <c r="H44" s="3">
-        <v>41800</v>
+        <v>41100</v>
       </c>
       <c r="I44" s="3">
-        <v>48500</v>
+        <v>47700</v>
       </c>
       <c r="J44" s="3">
-        <v>66800</v>
+        <v>65700</v>
       </c>
       <c r="K44" s="3">
         <v>62600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>307500</v>
+        <v>302300</v>
       </c>
       <c r="E45" s="3">
-        <v>267800</v>
+        <v>263200</v>
       </c>
       <c r="F45" s="3">
-        <v>225800</v>
+        <v>222000</v>
       </c>
       <c r="G45" s="3">
-        <v>248600</v>
+        <v>244400</v>
       </c>
       <c r="H45" s="3">
-        <v>641000</v>
+        <v>630200</v>
       </c>
       <c r="I45" s="3">
-        <v>397800</v>
+        <v>391100</v>
       </c>
       <c r="J45" s="3">
-        <v>356400</v>
+        <v>350300</v>
       </c>
       <c r="K45" s="3">
         <v>338600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7697300</v>
+        <v>7567000</v>
       </c>
       <c r="E46" s="3">
-        <v>6487500</v>
+        <v>6377600</v>
       </c>
       <c r="F46" s="3">
-        <v>6446200</v>
+        <v>6337000</v>
       </c>
       <c r="G46" s="3">
-        <v>7091600</v>
+        <v>6971500</v>
       </c>
       <c r="H46" s="3">
-        <v>6276300</v>
+        <v>6170000</v>
       </c>
       <c r="I46" s="3">
-        <v>6682300</v>
+        <v>6569200</v>
       </c>
       <c r="J46" s="3">
-        <v>6235000</v>
+        <v>6129400</v>
       </c>
       <c r="K46" s="3">
         <v>5639500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>508300</v>
+        <v>499600</v>
       </c>
       <c r="E47" s="3">
-        <v>456400</v>
+        <v>448700</v>
       </c>
       <c r="F47" s="3">
-        <v>421900</v>
+        <v>414800</v>
       </c>
       <c r="G47" s="3">
-        <v>508900</v>
+        <v>500300</v>
       </c>
       <c r="H47" s="3">
-        <v>441500</v>
+        <v>434000</v>
       </c>
       <c r="I47" s="3">
-        <v>319700</v>
+        <v>314300</v>
       </c>
       <c r="J47" s="3">
-        <v>260200</v>
+        <v>255800</v>
       </c>
       <c r="K47" s="3">
         <v>197400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1361100</v>
+        <v>1338100</v>
       </c>
       <c r="E48" s="3">
-        <v>1260000</v>
+        <v>1238700</v>
       </c>
       <c r="F48" s="3">
-        <v>1213600</v>
+        <v>1193000</v>
       </c>
       <c r="G48" s="3">
-        <v>875500</v>
+        <v>860600</v>
       </c>
       <c r="H48" s="3">
-        <v>799100</v>
+        <v>785600</v>
       </c>
       <c r="I48" s="3">
-        <v>865400</v>
+        <v>850800</v>
       </c>
       <c r="J48" s="3">
-        <v>805500</v>
+        <v>791900</v>
       </c>
       <c r="K48" s="3">
         <v>700300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3602700</v>
+        <v>3541700</v>
       </c>
       <c r="E49" s="3">
-        <v>1887400</v>
+        <v>1855500</v>
       </c>
       <c r="F49" s="3">
-        <v>1827400</v>
+        <v>1796500</v>
       </c>
       <c r="G49" s="3">
-        <v>1621200</v>
+        <v>1593700</v>
       </c>
       <c r="H49" s="3">
-        <v>1682600</v>
+        <v>1654100</v>
       </c>
       <c r="I49" s="3">
-        <v>1757300</v>
+        <v>1727500</v>
       </c>
       <c r="J49" s="3">
-        <v>1461100</v>
+        <v>1436400</v>
       </c>
       <c r="K49" s="3">
         <v>982000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>212400</v>
+        <v>208800</v>
       </c>
       <c r="E52" s="3">
-        <v>218500</v>
+        <v>214800</v>
       </c>
       <c r="F52" s="3">
-        <v>222500</v>
+        <v>218700</v>
       </c>
       <c r="G52" s="3">
-        <v>234100</v>
+        <v>230200</v>
       </c>
       <c r="H52" s="3">
-        <v>232400</v>
+        <v>228400</v>
       </c>
       <c r="I52" s="3">
-        <v>214800</v>
+        <v>211200</v>
       </c>
       <c r="J52" s="3">
-        <v>215900</v>
+        <v>212200</v>
       </c>
       <c r="K52" s="3">
         <v>233200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13381900</v>
+        <v>13155200</v>
       </c>
       <c r="E54" s="3">
-        <v>10309800</v>
+        <v>10135200</v>
       </c>
       <c r="F54" s="3">
-        <v>10131600</v>
+        <v>9960000</v>
       </c>
       <c r="G54" s="3">
-        <v>10331300</v>
+        <v>10156400</v>
       </c>
       <c r="H54" s="3">
-        <v>9431900</v>
+        <v>9272200</v>
       </c>
       <c r="I54" s="3">
-        <v>9839600</v>
+        <v>9673000</v>
       </c>
       <c r="J54" s="3">
-        <v>8977600</v>
+        <v>8825600</v>
       </c>
       <c r="K54" s="3">
         <v>7752400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>355700</v>
+        <v>349600</v>
       </c>
       <c r="E57" s="3">
-        <v>288100</v>
+        <v>283200</v>
       </c>
       <c r="F57" s="3">
-        <v>335500</v>
+        <v>329800</v>
       </c>
       <c r="G57" s="3">
-        <v>353700</v>
+        <v>347700</v>
       </c>
       <c r="H57" s="3">
-        <v>302600</v>
+        <v>297500</v>
       </c>
       <c r="I57" s="3">
-        <v>290800</v>
+        <v>285900</v>
       </c>
       <c r="J57" s="3">
-        <v>1136300</v>
+        <v>1117000</v>
       </c>
       <c r="K57" s="3">
         <v>243500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1293200</v>
+        <v>1271300</v>
       </c>
       <c r="E58" s="3">
-        <v>1035900</v>
+        <v>1018400</v>
       </c>
       <c r="F58" s="3">
-        <v>989000</v>
+        <v>972300</v>
       </c>
       <c r="G58" s="3">
-        <v>881600</v>
+        <v>866700</v>
       </c>
       <c r="H58" s="3">
-        <v>1153100</v>
+        <v>1133600</v>
       </c>
       <c r="I58" s="3">
-        <v>1522700</v>
+        <v>1496900</v>
       </c>
       <c r="J58" s="3">
-        <v>2674900</v>
+        <v>2629600</v>
       </c>
       <c r="K58" s="3">
         <v>855400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2174400</v>
+        <v>2137600</v>
       </c>
       <c r="E59" s="3">
-        <v>1528500</v>
+        <v>1502600</v>
       </c>
       <c r="F59" s="3">
-        <v>1358800</v>
+        <v>1335800</v>
       </c>
       <c r="G59" s="3">
-        <v>1422600</v>
+        <v>1398500</v>
       </c>
       <c r="H59" s="3">
-        <v>1191800</v>
+        <v>1171600</v>
       </c>
       <c r="I59" s="3">
-        <v>1032800</v>
+        <v>1015300</v>
       </c>
       <c r="J59" s="3">
-        <v>1081900</v>
+        <v>1063600</v>
       </c>
       <c r="K59" s="3">
         <v>1020400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3823300</v>
+        <v>3758500</v>
       </c>
       <c r="E60" s="3">
-        <v>2852500</v>
+        <v>2804200</v>
       </c>
       <c r="F60" s="3">
-        <v>2683300</v>
+        <v>2637800</v>
       </c>
       <c r="G60" s="3">
-        <v>2657900</v>
+        <v>2612900</v>
       </c>
       <c r="H60" s="3">
-        <v>2647500</v>
+        <v>2602700</v>
       </c>
       <c r="I60" s="3">
-        <v>2846300</v>
+        <v>2798100</v>
       </c>
       <c r="J60" s="3">
-        <v>2710200</v>
+        <v>2664300</v>
       </c>
       <c r="K60" s="3">
         <v>2119300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>888300</v>
+        <v>873300</v>
       </c>
       <c r="E61" s="3">
-        <v>260000</v>
+        <v>255600</v>
       </c>
       <c r="F61" s="3">
-        <v>216700</v>
+        <v>213100</v>
       </c>
       <c r="G61" s="3">
-        <v>351800</v>
+        <v>345800</v>
       </c>
       <c r="H61" s="3">
-        <v>561300</v>
+        <v>551800</v>
       </c>
       <c r="I61" s="3">
-        <v>243200</v>
+        <v>239100</v>
       </c>
       <c r="J61" s="3">
-        <v>215300</v>
+        <v>211600</v>
       </c>
       <c r="K61" s="3">
         <v>164200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>502700</v>
+        <v>494200</v>
       </c>
       <c r="E62" s="3">
-        <v>320300</v>
+        <v>314900</v>
       </c>
       <c r="F62" s="3">
-        <v>295800</v>
+        <v>290800</v>
       </c>
       <c r="G62" s="3">
-        <v>244300</v>
+        <v>240100</v>
       </c>
       <c r="H62" s="3">
-        <v>204900</v>
+        <v>201500</v>
       </c>
       <c r="I62" s="3">
-        <v>268700</v>
+        <v>264100</v>
       </c>
       <c r="J62" s="3">
-        <v>256600</v>
+        <v>252300</v>
       </c>
       <c r="K62" s="3">
         <v>176600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5220700</v>
+        <v>5132300</v>
       </c>
       <c r="E66" s="3">
-        <v>3451400</v>
+        <v>3393000</v>
       </c>
       <c r="F66" s="3">
-        <v>3219100</v>
+        <v>3164600</v>
       </c>
       <c r="G66" s="3">
-        <v>3286700</v>
+        <v>3231000</v>
       </c>
       <c r="H66" s="3">
-        <v>3443500</v>
+        <v>3385200</v>
       </c>
       <c r="I66" s="3">
-        <v>3387800</v>
+        <v>3330500</v>
       </c>
       <c r="J66" s="3">
-        <v>3209500</v>
+        <v>3155100</v>
       </c>
       <c r="K66" s="3">
         <v>2481300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7654500</v>
+        <v>7524900</v>
       </c>
       <c r="E72" s="3">
-        <v>6407800</v>
+        <v>6299300</v>
       </c>
       <c r="F72" s="3">
-        <v>6491800</v>
+        <v>6381900</v>
       </c>
       <c r="G72" s="3">
-        <v>6669300</v>
+        <v>6556400</v>
       </c>
       <c r="H72" s="3">
-        <v>5661600</v>
+        <v>5565800</v>
       </c>
       <c r="I72" s="3">
-        <v>6149900</v>
+        <v>6045800</v>
       </c>
       <c r="J72" s="3">
-        <v>5301800</v>
+        <v>5212000</v>
       </c>
       <c r="K72" s="3">
         <v>4826400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8161200</v>
+        <v>8022900</v>
       </c>
       <c r="E76" s="3">
-        <v>6858400</v>
+        <v>6742200</v>
       </c>
       <c r="F76" s="3">
-        <v>6912500</v>
+        <v>6795400</v>
       </c>
       <c r="G76" s="3">
-        <v>7044600</v>
+        <v>6925300</v>
       </c>
       <c r="H76" s="3">
-        <v>5988400</v>
+        <v>5887000</v>
       </c>
       <c r="I76" s="3">
-        <v>6451800</v>
+        <v>6342500</v>
       </c>
       <c r="J76" s="3">
-        <v>5768100</v>
+        <v>5670400</v>
       </c>
       <c r="K76" s="3">
         <v>5271100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1515200</v>
+        <v>1489500</v>
       </c>
       <c r="E81" s="3">
-        <v>1338500</v>
+        <v>1315900</v>
       </c>
       <c r="F81" s="3">
-        <v>1205500</v>
+        <v>1185100</v>
       </c>
       <c r="G81" s="3">
-        <v>1116400</v>
+        <v>1097500</v>
       </c>
       <c r="H81" s="3">
-        <v>993000</v>
+        <v>976200</v>
       </c>
       <c r="I81" s="3">
-        <v>1052700</v>
+        <v>1034900</v>
       </c>
       <c r="J81" s="3">
-        <v>1104500</v>
+        <v>1085800</v>
       </c>
       <c r="K81" s="3">
         <v>1117900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>383300</v>
+        <v>376800</v>
       </c>
       <c r="E83" s="3">
-        <v>342900</v>
+        <v>337100</v>
       </c>
       <c r="F83" s="3">
-        <v>258700</v>
+        <v>254300</v>
       </c>
       <c r="G83" s="3">
-        <v>241500</v>
+        <v>237400</v>
       </c>
       <c r="H83" s="3">
-        <v>261900</v>
+        <v>257500</v>
       </c>
       <c r="I83" s="3">
-        <v>286500</v>
+        <v>281700</v>
       </c>
       <c r="J83" s="3">
-        <v>185600</v>
+        <v>182400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1373900</v>
+        <v>1350600</v>
       </c>
       <c r="E89" s="3">
-        <v>1829600</v>
+        <v>1798600</v>
       </c>
       <c r="F89" s="3">
-        <v>1248000</v>
+        <v>1226800</v>
       </c>
       <c r="G89" s="3">
-        <v>1442300</v>
+        <v>1417900</v>
       </c>
       <c r="H89" s="3">
-        <v>1044500</v>
+        <v>1026800</v>
       </c>
       <c r="I89" s="3">
-        <v>1150400</v>
+        <v>1130900</v>
       </c>
       <c r="J89" s="3">
-        <v>978000</v>
+        <v>961500</v>
       </c>
       <c r="K89" s="3">
         <v>877200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-249900</v>
+        <v>-245700</v>
       </c>
       <c r="E91" s="3">
-        <v>-242800</v>
+        <v>-238600</v>
       </c>
       <c r="F91" s="3">
-        <v>-291400</v>
+        <v>-286400</v>
       </c>
       <c r="G91" s="3">
-        <v>-282500</v>
+        <v>-277700</v>
       </c>
       <c r="H91" s="3">
-        <v>-271200</v>
+        <v>-266600</v>
       </c>
       <c r="I91" s="3">
-        <v>-258600</v>
+        <v>-254200</v>
       </c>
       <c r="J91" s="3">
-        <v>-173000</v>
+        <v>-170100</v>
       </c>
       <c r="K91" s="3">
         <v>-115200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2783700</v>
+        <v>-2736600</v>
       </c>
       <c r="E94" s="3">
-        <v>96000</v>
+        <v>94300</v>
       </c>
       <c r="F94" s="3">
-        <v>421700</v>
+        <v>414600</v>
       </c>
       <c r="G94" s="3">
-        <v>621600</v>
+        <v>611000</v>
       </c>
       <c r="H94" s="3">
-        <v>441200</v>
+        <v>433700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1441900</v>
+        <v>-1417500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1713100</v>
+        <v>-1684100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-67800</v>
+        <v>-66600</v>
       </c>
       <c r="E96" s="3">
-        <v>-67700</v>
+        <v>-66500</v>
       </c>
       <c r="F96" s="3">
-        <v>-85100</v>
+        <v>-83700</v>
       </c>
       <c r="G96" s="3">
-        <v>-67400</v>
+        <v>-66200</v>
       </c>
       <c r="H96" s="3">
-        <v>-67200</v>
+        <v>-66100</v>
       </c>
       <c r="I96" s="3">
-        <v>-108300</v>
+        <v>-106500</v>
       </c>
       <c r="J96" s="3">
-        <v>-440100</v>
+        <v>-432700</v>
       </c>
       <c r="K96" s="3">
         <v>-300700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>577700</v>
+        <v>567900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1597600</v>
+        <v>-1570600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1872400</v>
+        <v>-1840700</v>
       </c>
       <c r="G100" s="3">
-        <v>-612200</v>
+        <v>-601800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1611700</v>
+        <v>-1584400</v>
       </c>
       <c r="I100" s="3">
-        <v>-282100</v>
+        <v>-277300</v>
       </c>
       <c r="J100" s="3">
-        <v>-19700</v>
+        <v>-19300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15900</v>
+        <v>15600</v>
       </c>
       <c r="E101" s="3">
-        <v>-11000</v>
+        <v>-10800</v>
       </c>
       <c r="F101" s="3">
-        <v>23800</v>
+        <v>23400</v>
       </c>
       <c r="G101" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="H101" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I101" s="3">
-        <v>-17500</v>
+        <v>-17200</v>
       </c>
       <c r="J101" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-816300</v>
+        <v>-802500</v>
       </c>
       <c r="E102" s="3">
-        <v>316900</v>
+        <v>311600</v>
       </c>
       <c r="F102" s="3">
-        <v>-178800</v>
+        <v>-175800</v>
       </c>
       <c r="G102" s="3">
-        <v>1458200</v>
+        <v>1433500</v>
       </c>
       <c r="H102" s="3">
-        <v>-121400</v>
+        <v>-119400</v>
       </c>
       <c r="I102" s="3">
-        <v>-591200</v>
+        <v>-581100</v>
       </c>
       <c r="J102" s="3">
-        <v>-748000</v>
+        <v>-735300</v>
       </c>
       <c r="K102" s="3">
         <v>388700</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9641500</v>
+        <v>9562400</v>
       </c>
       <c r="E8" s="3">
-        <v>7550900</v>
+        <v>7488900</v>
       </c>
       <c r="F8" s="3">
-        <v>7438700</v>
+        <v>7377700</v>
       </c>
       <c r="G8" s="3">
-        <v>7141500</v>
+        <v>7082900</v>
       </c>
       <c r="H8" s="3">
-        <v>6642000</v>
+        <v>6587500</v>
       </c>
       <c r="I8" s="3">
-        <v>6709400</v>
+        <v>6654400</v>
       </c>
       <c r="J8" s="3">
-        <v>6246600</v>
+        <v>6195400</v>
       </c>
       <c r="K8" s="3">
         <v>6066500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6776100</v>
+        <v>6720500</v>
       </c>
       <c r="E9" s="3">
-        <v>5158900</v>
+        <v>5116500</v>
       </c>
       <c r="F9" s="3">
-        <v>5315900</v>
+        <v>5272300</v>
       </c>
       <c r="G9" s="3">
-        <v>5016800</v>
+        <v>4975700</v>
       </c>
       <c r="H9" s="3">
-        <v>4700200</v>
+        <v>4661600</v>
       </c>
       <c r="I9" s="3">
-        <v>4772900</v>
+        <v>4733800</v>
       </c>
       <c r="J9" s="3">
-        <v>4348500</v>
+        <v>4312800</v>
       </c>
       <c r="K9" s="3">
         <v>4151000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2865400</v>
+        <v>2841900</v>
       </c>
       <c r="E10" s="3">
-        <v>2392000</v>
+        <v>2372400</v>
       </c>
       <c r="F10" s="3">
-        <v>2122900</v>
+        <v>2105400</v>
       </c>
       <c r="G10" s="3">
-        <v>2124600</v>
+        <v>2107200</v>
       </c>
       <c r="H10" s="3">
-        <v>1941800</v>
+        <v>1925900</v>
       </c>
       <c r="I10" s="3">
-        <v>1936500</v>
+        <v>1920600</v>
       </c>
       <c r="J10" s="3">
-        <v>1898200</v>
+        <v>1882600</v>
       </c>
       <c r="K10" s="3">
         <v>1915500</v>
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -950,7 +950,7 @@
         <v>7800</v>
       </c>
       <c r="I14" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>201400</v>
+        <v>199700</v>
       </c>
       <c r="E15" s="3">
-        <v>60000</v>
+        <v>59500</v>
       </c>
       <c r="F15" s="3">
-        <v>43100</v>
+        <v>42800</v>
       </c>
       <c r="G15" s="3">
-        <v>47200</v>
+        <v>46800</v>
       </c>
       <c r="H15" s="3">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="I15" s="3">
-        <v>38700</v>
+        <v>38400</v>
       </c>
       <c r="J15" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7931400</v>
+        <v>7866300</v>
       </c>
       <c r="E17" s="3">
-        <v>6050800</v>
+        <v>6001200</v>
       </c>
       <c r="F17" s="3">
-        <v>6149900</v>
+        <v>6099400</v>
       </c>
       <c r="G17" s="3">
-        <v>5923500</v>
+        <v>5875000</v>
       </c>
       <c r="H17" s="3">
-        <v>5614400</v>
+        <v>5568400</v>
       </c>
       <c r="I17" s="3">
-        <v>5565000</v>
+        <v>5519400</v>
       </c>
       <c r="J17" s="3">
-        <v>5065900</v>
+        <v>5024400</v>
       </c>
       <c r="K17" s="3">
         <v>4833700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1710100</v>
+        <v>1696100</v>
       </c>
       <c r="E18" s="3">
-        <v>1500000</v>
+        <v>1487700</v>
       </c>
       <c r="F18" s="3">
-        <v>1288800</v>
+        <v>1278300</v>
       </c>
       <c r="G18" s="3">
-        <v>1217900</v>
+        <v>1207900</v>
       </c>
       <c r="H18" s="3">
-        <v>1027500</v>
+        <v>1019100</v>
       </c>
       <c r="I18" s="3">
-        <v>1144400</v>
+        <v>1135000</v>
       </c>
       <c r="J18" s="3">
-        <v>1180700</v>
+        <v>1171000</v>
       </c>
       <c r="K18" s="3">
         <v>1232900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>198900</v>
+        <v>197200</v>
       </c>
       <c r="E20" s="3">
-        <v>246900</v>
+        <v>244800</v>
       </c>
       <c r="F20" s="3">
-        <v>267200</v>
+        <v>265000</v>
       </c>
       <c r="G20" s="3">
-        <v>257500</v>
+        <v>255400</v>
       </c>
       <c r="H20" s="3">
-        <v>263700</v>
+        <v>261500</v>
       </c>
       <c r="I20" s="3">
-        <v>224200</v>
+        <v>222400</v>
       </c>
       <c r="J20" s="3">
-        <v>237500</v>
+        <v>235500</v>
       </c>
       <c r="K20" s="3">
         <v>220000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2286100</v>
+        <v>2229000</v>
       </c>
       <c r="E21" s="3">
-        <v>2084300</v>
+        <v>1985800</v>
       </c>
       <c r="F21" s="3">
-        <v>1810500</v>
+        <v>1779700</v>
       </c>
       <c r="G21" s="3">
-        <v>1713000</v>
+        <v>1719700</v>
       </c>
       <c r="H21" s="3">
-        <v>1548900</v>
+        <v>1561200</v>
       </c>
       <c r="I21" s="3">
-        <v>1650500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1600800</v>
+        <v>1539000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64900</v>
+        <v>64400</v>
       </c>
       <c r="E22" s="3">
-        <v>52400</v>
+        <v>52000</v>
       </c>
       <c r="F22" s="3">
-        <v>62600</v>
+        <v>62100</v>
       </c>
       <c r="G22" s="3">
-        <v>68500</v>
+        <v>67900</v>
       </c>
       <c r="H22" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="I22" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="J22" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="K22" s="3">
         <v>9900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1844000</v>
+        <v>1828900</v>
       </c>
       <c r="E23" s="3">
-        <v>1694500</v>
+        <v>1680600</v>
       </c>
       <c r="F23" s="3">
-        <v>1493400</v>
+        <v>1481200</v>
       </c>
       <c r="G23" s="3">
-        <v>1406900</v>
+        <v>1395400</v>
       </c>
       <c r="H23" s="3">
-        <v>1249200</v>
+        <v>1238900</v>
       </c>
       <c r="I23" s="3">
-        <v>1345200</v>
+        <v>1334200</v>
       </c>
       <c r="J23" s="3">
-        <v>1401000</v>
+        <v>1389500</v>
       </c>
       <c r="K23" s="3">
         <v>1442900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>352900</v>
+        <v>350000</v>
       </c>
       <c r="E24" s="3">
-        <v>369900</v>
+        <v>366900</v>
       </c>
       <c r="F24" s="3">
-        <v>302300</v>
+        <v>299800</v>
       </c>
       <c r="G24" s="3">
-        <v>307700</v>
+        <v>305200</v>
       </c>
       <c r="H24" s="3">
-        <v>292000</v>
+        <v>289600</v>
       </c>
       <c r="I24" s="3">
-        <v>307300</v>
+        <v>304800</v>
       </c>
       <c r="J24" s="3">
-        <v>309200</v>
+        <v>306700</v>
       </c>
       <c r="K24" s="3">
         <v>318100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1491200</v>
+        <v>1479000</v>
       </c>
       <c r="E26" s="3">
-        <v>1324600</v>
+        <v>1313700</v>
       </c>
       <c r="F26" s="3">
-        <v>1191100</v>
+        <v>1181400</v>
       </c>
       <c r="G26" s="3">
-        <v>1099200</v>
+        <v>1090200</v>
       </c>
       <c r="H26" s="3">
-        <v>957200</v>
+        <v>949300</v>
       </c>
       <c r="I26" s="3">
-        <v>1037900</v>
+        <v>1029400</v>
       </c>
       <c r="J26" s="3">
-        <v>1091800</v>
+        <v>1082900</v>
       </c>
       <c r="K26" s="3">
         <v>1124800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1489500</v>
+        <v>1477300</v>
       </c>
       <c r="E27" s="3">
-        <v>1315900</v>
+        <v>1305100</v>
       </c>
       <c r="F27" s="3">
-        <v>1185100</v>
+        <v>1175400</v>
       </c>
       <c r="G27" s="3">
-        <v>1097500</v>
+        <v>1088500</v>
       </c>
       <c r="H27" s="3">
-        <v>957100</v>
+        <v>949300</v>
       </c>
       <c r="I27" s="3">
-        <v>1034900</v>
+        <v>1026400</v>
       </c>
       <c r="J27" s="3">
-        <v>1085800</v>
+        <v>1076900</v>
       </c>
       <c r="K27" s="3">
         <v>1117900</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-198900</v>
+        <v>-197200</v>
       </c>
       <c r="E32" s="3">
-        <v>-246900</v>
+        <v>-244800</v>
       </c>
       <c r="F32" s="3">
-        <v>-267200</v>
+        <v>-265000</v>
       </c>
       <c r="G32" s="3">
-        <v>-257500</v>
+        <v>-255400</v>
       </c>
       <c r="H32" s="3">
-        <v>-263700</v>
+        <v>-261500</v>
       </c>
       <c r="I32" s="3">
-        <v>-224200</v>
+        <v>-222400</v>
       </c>
       <c r="J32" s="3">
-        <v>-237500</v>
+        <v>-235500</v>
       </c>
       <c r="K32" s="3">
         <v>-220000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1489500</v>
+        <v>1477300</v>
       </c>
       <c r="E33" s="3">
-        <v>1315900</v>
+        <v>1305100</v>
       </c>
       <c r="F33" s="3">
-        <v>1185100</v>
+        <v>1175400</v>
       </c>
       <c r="G33" s="3">
-        <v>1097500</v>
+        <v>1088500</v>
       </c>
       <c r="H33" s="3">
-        <v>976200</v>
+        <v>968200</v>
       </c>
       <c r="I33" s="3">
-        <v>1034900</v>
+        <v>1026400</v>
       </c>
       <c r="J33" s="3">
-        <v>1085800</v>
+        <v>1076900</v>
       </c>
       <c r="K33" s="3">
         <v>1117900</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1489500</v>
+        <v>1477300</v>
       </c>
       <c r="E35" s="3">
-        <v>1315900</v>
+        <v>1305100</v>
       </c>
       <c r="F35" s="3">
-        <v>1185100</v>
+        <v>1175400</v>
       </c>
       <c r="G35" s="3">
-        <v>1097500</v>
+        <v>1088500</v>
       </c>
       <c r="H35" s="3">
-        <v>976200</v>
+        <v>968200</v>
       </c>
       <c r="I35" s="3">
-        <v>1034900</v>
+        <v>1026400</v>
       </c>
       <c r="J35" s="3">
-        <v>1085800</v>
+        <v>1076900</v>
       </c>
       <c r="K35" s="3">
         <v>1117900</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1265800</v>
+        <v>1255400</v>
       </c>
       <c r="E41" s="3">
-        <v>2069800</v>
+        <v>2052800</v>
       </c>
       <c r="F41" s="3">
-        <v>1761400</v>
+        <v>1747000</v>
       </c>
       <c r="G41" s="3">
-        <v>1932500</v>
+        <v>1916600</v>
       </c>
       <c r="H41" s="3">
-        <v>547600</v>
+        <v>543100</v>
       </c>
       <c r="I41" s="3">
-        <v>642500</v>
+        <v>637300</v>
       </c>
       <c r="J41" s="3">
-        <v>1207400</v>
+        <v>1197500</v>
       </c>
       <c r="K41" s="3">
         <v>2053500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2937800</v>
+        <v>2913700</v>
       </c>
       <c r="E42" s="3">
-        <v>2134400</v>
+        <v>2116900</v>
       </c>
       <c r="F42" s="3">
-        <v>2301900</v>
+        <v>2283100</v>
       </c>
       <c r="G42" s="3">
-        <v>2712400</v>
+        <v>2690100</v>
       </c>
       <c r="H42" s="3">
-        <v>3064100</v>
+        <v>3039000</v>
       </c>
       <c r="I42" s="3">
-        <v>3581000</v>
+        <v>3551600</v>
       </c>
       <c r="J42" s="3">
-        <v>5845700</v>
+        <v>5797800</v>
       </c>
       <c r="K42" s="3">
         <v>1234800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3044800</v>
+        <v>3019800</v>
       </c>
       <c r="E43" s="3">
-        <v>1897300</v>
+        <v>1881700</v>
       </c>
       <c r="F43" s="3">
-        <v>2028900</v>
+        <v>2012200</v>
       </c>
       <c r="G43" s="3">
-        <v>2034100</v>
+        <v>2017400</v>
       </c>
       <c r="H43" s="3">
-        <v>1887000</v>
+        <v>1871500</v>
       </c>
       <c r="I43" s="3">
-        <v>1906800</v>
+        <v>1891200</v>
       </c>
       <c r="J43" s="3">
-        <v>3244500</v>
+        <v>3217900</v>
       </c>
       <c r="K43" s="3">
         <v>1949900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="E44" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="F44" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="G44" s="3">
-        <v>48200</v>
+        <v>47800</v>
       </c>
       <c r="H44" s="3">
-        <v>41100</v>
+        <v>40700</v>
       </c>
       <c r="I44" s="3">
-        <v>47700</v>
+        <v>47300</v>
       </c>
       <c r="J44" s="3">
-        <v>65700</v>
+        <v>65200</v>
       </c>
       <c r="K44" s="3">
         <v>62600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>302300</v>
+        <v>299900</v>
       </c>
       <c r="E45" s="3">
-        <v>263200</v>
+        <v>261100</v>
       </c>
       <c r="F45" s="3">
-        <v>222000</v>
+        <v>220200</v>
       </c>
       <c r="G45" s="3">
-        <v>244400</v>
+        <v>242400</v>
       </c>
       <c r="H45" s="3">
-        <v>630200</v>
+        <v>625000</v>
       </c>
       <c r="I45" s="3">
-        <v>391100</v>
+        <v>387900</v>
       </c>
       <c r="J45" s="3">
-        <v>350300</v>
+        <v>347500</v>
       </c>
       <c r="K45" s="3">
         <v>338600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7567000</v>
+        <v>7504900</v>
       </c>
       <c r="E46" s="3">
-        <v>6377600</v>
+        <v>6325300</v>
       </c>
       <c r="F46" s="3">
-        <v>6337000</v>
+        <v>6285000</v>
       </c>
       <c r="G46" s="3">
-        <v>6971500</v>
+        <v>6914300</v>
       </c>
       <c r="H46" s="3">
-        <v>6170000</v>
+        <v>6119400</v>
       </c>
       <c r="I46" s="3">
-        <v>6569200</v>
+        <v>6515300</v>
       </c>
       <c r="J46" s="3">
-        <v>6129400</v>
+        <v>6079200</v>
       </c>
       <c r="K46" s="3">
         <v>5639500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>499600</v>
+        <v>495500</v>
       </c>
       <c r="E47" s="3">
-        <v>448700</v>
+        <v>445000</v>
       </c>
       <c r="F47" s="3">
-        <v>414800</v>
+        <v>411400</v>
       </c>
       <c r="G47" s="3">
-        <v>500300</v>
+        <v>496200</v>
       </c>
       <c r="H47" s="3">
-        <v>434000</v>
+        <v>430500</v>
       </c>
       <c r="I47" s="3">
-        <v>314300</v>
+        <v>311700</v>
       </c>
       <c r="J47" s="3">
-        <v>255800</v>
+        <v>253700</v>
       </c>
       <c r="K47" s="3">
         <v>197400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1338100</v>
+        <v>1327100</v>
       </c>
       <c r="E48" s="3">
-        <v>1238700</v>
+        <v>1228500</v>
       </c>
       <c r="F48" s="3">
-        <v>1193000</v>
+        <v>1183200</v>
       </c>
       <c r="G48" s="3">
-        <v>860600</v>
+        <v>853600</v>
       </c>
       <c r="H48" s="3">
-        <v>785600</v>
+        <v>779100</v>
       </c>
       <c r="I48" s="3">
-        <v>850800</v>
+        <v>843800</v>
       </c>
       <c r="J48" s="3">
-        <v>791900</v>
+        <v>785400</v>
       </c>
       <c r="K48" s="3">
         <v>700300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3541700</v>
+        <v>3512700</v>
       </c>
       <c r="E49" s="3">
-        <v>1855500</v>
+        <v>1840200</v>
       </c>
       <c r="F49" s="3">
-        <v>1796500</v>
+        <v>1781800</v>
       </c>
       <c r="G49" s="3">
-        <v>1593700</v>
+        <v>1580700</v>
       </c>
       <c r="H49" s="3">
-        <v>1654100</v>
+        <v>1640600</v>
       </c>
       <c r="I49" s="3">
-        <v>1727500</v>
+        <v>1713400</v>
       </c>
       <c r="J49" s="3">
-        <v>1436400</v>
+        <v>1424600</v>
       </c>
       <c r="K49" s="3">
         <v>982000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>208800</v>
+        <v>207100</v>
       </c>
       <c r="E52" s="3">
-        <v>214800</v>
+        <v>213000</v>
       </c>
       <c r="F52" s="3">
-        <v>218700</v>
+        <v>217000</v>
       </c>
       <c r="G52" s="3">
-        <v>230200</v>
+        <v>228300</v>
       </c>
       <c r="H52" s="3">
-        <v>228400</v>
+        <v>226600</v>
       </c>
       <c r="I52" s="3">
-        <v>211200</v>
+        <v>209400</v>
       </c>
       <c r="J52" s="3">
-        <v>212200</v>
+        <v>210500</v>
       </c>
       <c r="K52" s="3">
         <v>233200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13155200</v>
+        <v>13047300</v>
       </c>
       <c r="E54" s="3">
-        <v>10135200</v>
+        <v>10052000</v>
       </c>
       <c r="F54" s="3">
-        <v>9960000</v>
+        <v>9878300</v>
       </c>
       <c r="G54" s="3">
-        <v>10156400</v>
+        <v>10073000</v>
       </c>
       <c r="H54" s="3">
-        <v>9272200</v>
+        <v>9196100</v>
       </c>
       <c r="I54" s="3">
-        <v>9673000</v>
+        <v>9593600</v>
       </c>
       <c r="J54" s="3">
-        <v>8825600</v>
+        <v>8753200</v>
       </c>
       <c r="K54" s="3">
         <v>7752400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>349600</v>
+        <v>346800</v>
       </c>
       <c r="E57" s="3">
-        <v>283200</v>
+        <v>280900</v>
       </c>
       <c r="F57" s="3">
-        <v>329800</v>
+        <v>327100</v>
       </c>
       <c r="G57" s="3">
-        <v>347700</v>
+        <v>344900</v>
       </c>
       <c r="H57" s="3">
-        <v>297500</v>
+        <v>295100</v>
       </c>
       <c r="I57" s="3">
-        <v>285900</v>
+        <v>283500</v>
       </c>
       <c r="J57" s="3">
-        <v>1117000</v>
+        <v>1107900</v>
       </c>
       <c r="K57" s="3">
         <v>243500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1271300</v>
+        <v>1260900</v>
       </c>
       <c r="E58" s="3">
-        <v>1018400</v>
+        <v>1010000</v>
       </c>
       <c r="F58" s="3">
-        <v>972300</v>
+        <v>964300</v>
       </c>
       <c r="G58" s="3">
-        <v>866700</v>
+        <v>859600</v>
       </c>
       <c r="H58" s="3">
-        <v>1133600</v>
+        <v>1124300</v>
       </c>
       <c r="I58" s="3">
-        <v>1496900</v>
+        <v>1484700</v>
       </c>
       <c r="J58" s="3">
-        <v>2629600</v>
+        <v>2608100</v>
       </c>
       <c r="K58" s="3">
         <v>855400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2137600</v>
+        <v>2120100</v>
       </c>
       <c r="E59" s="3">
-        <v>1502600</v>
+        <v>1490300</v>
       </c>
       <c r="F59" s="3">
-        <v>1335800</v>
+        <v>1324800</v>
       </c>
       <c r="G59" s="3">
-        <v>1398500</v>
+        <v>1387000</v>
       </c>
       <c r="H59" s="3">
-        <v>1171600</v>
+        <v>1162000</v>
       </c>
       <c r="I59" s="3">
-        <v>1015300</v>
+        <v>1007000</v>
       </c>
       <c r="J59" s="3">
-        <v>1063600</v>
+        <v>1054900</v>
       </c>
       <c r="K59" s="3">
         <v>1020400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3758500</v>
+        <v>3727700</v>
       </c>
       <c r="E60" s="3">
-        <v>2804200</v>
+        <v>2781200</v>
       </c>
       <c r="F60" s="3">
-        <v>2637800</v>
+        <v>2616200</v>
       </c>
       <c r="G60" s="3">
-        <v>2612900</v>
+        <v>2591500</v>
       </c>
       <c r="H60" s="3">
-        <v>2602700</v>
+        <v>2581300</v>
       </c>
       <c r="I60" s="3">
-        <v>2798100</v>
+        <v>2775200</v>
       </c>
       <c r="J60" s="3">
-        <v>2664300</v>
+        <v>2642400</v>
       </c>
       <c r="K60" s="3">
         <v>2119300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>873300</v>
+        <v>866100</v>
       </c>
       <c r="E61" s="3">
-        <v>255600</v>
+        <v>253500</v>
       </c>
       <c r="F61" s="3">
-        <v>213100</v>
+        <v>211300</v>
       </c>
       <c r="G61" s="3">
-        <v>345800</v>
+        <v>343000</v>
       </c>
       <c r="H61" s="3">
-        <v>551800</v>
+        <v>547300</v>
       </c>
       <c r="I61" s="3">
-        <v>239100</v>
+        <v>237100</v>
       </c>
       <c r="J61" s="3">
-        <v>211600</v>
+        <v>209900</v>
       </c>
       <c r="K61" s="3">
         <v>164200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>494200</v>
+        <v>490100</v>
       </c>
       <c r="E62" s="3">
-        <v>314900</v>
+        <v>312300</v>
       </c>
       <c r="F62" s="3">
-        <v>290800</v>
+        <v>288400</v>
       </c>
       <c r="G62" s="3">
-        <v>240100</v>
+        <v>238200</v>
       </c>
       <c r="H62" s="3">
-        <v>201500</v>
+        <v>199800</v>
       </c>
       <c r="I62" s="3">
-        <v>264100</v>
+        <v>262000</v>
       </c>
       <c r="J62" s="3">
-        <v>252300</v>
+        <v>250200</v>
       </c>
       <c r="K62" s="3">
         <v>176600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5132300</v>
+        <v>5090200</v>
       </c>
       <c r="E66" s="3">
-        <v>3393000</v>
+        <v>3365100</v>
       </c>
       <c r="F66" s="3">
-        <v>3164600</v>
+        <v>3138600</v>
       </c>
       <c r="G66" s="3">
-        <v>3231000</v>
+        <v>3204500</v>
       </c>
       <c r="H66" s="3">
-        <v>3385200</v>
+        <v>3357400</v>
       </c>
       <c r="I66" s="3">
-        <v>3330500</v>
+        <v>3303100</v>
       </c>
       <c r="J66" s="3">
-        <v>3155100</v>
+        <v>3129300</v>
       </c>
       <c r="K66" s="3">
         <v>2481300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7524900</v>
+        <v>7463200</v>
       </c>
       <c r="E72" s="3">
-        <v>6299300</v>
+        <v>6247600</v>
       </c>
       <c r="F72" s="3">
-        <v>6381900</v>
+        <v>6329500</v>
       </c>
       <c r="G72" s="3">
-        <v>6556400</v>
+        <v>6502600</v>
       </c>
       <c r="H72" s="3">
-        <v>5565800</v>
+        <v>5520100</v>
       </c>
       <c r="I72" s="3">
-        <v>6045800</v>
+        <v>5996200</v>
       </c>
       <c r="J72" s="3">
-        <v>5212000</v>
+        <v>5169200</v>
       </c>
       <c r="K72" s="3">
         <v>4826400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8022900</v>
+        <v>7957100</v>
       </c>
       <c r="E76" s="3">
-        <v>6742200</v>
+        <v>6686900</v>
       </c>
       <c r="F76" s="3">
-        <v>6795400</v>
+        <v>6739700</v>
       </c>
       <c r="G76" s="3">
-        <v>6925300</v>
+        <v>6868500</v>
       </c>
       <c r="H76" s="3">
-        <v>5887000</v>
+        <v>5838700</v>
       </c>
       <c r="I76" s="3">
-        <v>6342500</v>
+        <v>6290500</v>
       </c>
       <c r="J76" s="3">
-        <v>5670400</v>
+        <v>5623900</v>
       </c>
       <c r="K76" s="3">
         <v>5271100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1489500</v>
+        <v>1477300</v>
       </c>
       <c r="E81" s="3">
-        <v>1315900</v>
+        <v>1305100</v>
       </c>
       <c r="F81" s="3">
-        <v>1185100</v>
+        <v>1175400</v>
       </c>
       <c r="G81" s="3">
-        <v>1097500</v>
+        <v>1088500</v>
       </c>
       <c r="H81" s="3">
-        <v>976200</v>
+        <v>968200</v>
       </c>
       <c r="I81" s="3">
-        <v>1034900</v>
+        <v>1026400</v>
       </c>
       <c r="J81" s="3">
-        <v>1085800</v>
+        <v>1076900</v>
       </c>
       <c r="K81" s="3">
         <v>1117900</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>376800</v>
+        <v>334400</v>
       </c>
       <c r="E83" s="3">
-        <v>337100</v>
+        <v>252200</v>
       </c>
       <c r="F83" s="3">
-        <v>254300</v>
+        <v>235400</v>
       </c>
       <c r="G83" s="3">
-        <v>237400</v>
+        <v>255400</v>
       </c>
       <c r="H83" s="3">
-        <v>257500</v>
+        <v>279400</v>
       </c>
       <c r="I83" s="3">
-        <v>281700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>182400</v>
+        <v>180900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1350600</v>
+        <v>1783900</v>
       </c>
       <c r="E89" s="3">
-        <v>1798600</v>
+        <v>1216800</v>
       </c>
       <c r="F89" s="3">
-        <v>1226800</v>
+        <v>1406300</v>
       </c>
       <c r="G89" s="3">
-        <v>1417900</v>
+        <v>1018400</v>
       </c>
       <c r="H89" s="3">
-        <v>1026800</v>
+        <v>1121600</v>
       </c>
       <c r="I89" s="3">
-        <v>1130900</v>
+        <v>953600</v>
       </c>
       <c r="J89" s="3">
-        <v>961500</v>
+        <v>946200</v>
       </c>
       <c r="K89" s="3">
         <v>877200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-245700</v>
+        <v>-236700</v>
       </c>
       <c r="E91" s="3">
-        <v>-238600</v>
+        <v>-284100</v>
       </c>
       <c r="F91" s="3">
-        <v>-286400</v>
+        <v>-275400</v>
       </c>
       <c r="G91" s="3">
-        <v>-277700</v>
+        <v>-264400</v>
       </c>
       <c r="H91" s="3">
-        <v>-266600</v>
+        <v>-252100</v>
       </c>
       <c r="I91" s="3">
-        <v>-254200</v>
+        <v>-168700</v>
       </c>
       <c r="J91" s="3">
-        <v>-170100</v>
+        <v>-153100</v>
       </c>
       <c r="K91" s="3">
         <v>-115200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2736600</v>
+        <v>93600</v>
       </c>
       <c r="E94" s="3">
-        <v>94300</v>
+        <v>411200</v>
       </c>
       <c r="F94" s="3">
-        <v>414600</v>
+        <v>606000</v>
       </c>
       <c r="G94" s="3">
-        <v>611000</v>
+        <v>430100</v>
       </c>
       <c r="H94" s="3">
-        <v>433700</v>
+        <v>-1405900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1417500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1684100</v>
+        <v>-1670300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-66600</v>
+        <v>-66000</v>
       </c>
       <c r="E96" s="3">
-        <v>-66500</v>
+        <v>-83000</v>
       </c>
       <c r="F96" s="3">
-        <v>-83700</v>
+        <v>-65700</v>
       </c>
       <c r="G96" s="3">
-        <v>-66200</v>
+        <v>-65500</v>
       </c>
       <c r="H96" s="3">
-        <v>-66100</v>
+        <v>-105600</v>
       </c>
       <c r="I96" s="3">
-        <v>-106500</v>
+        <v>-429100</v>
       </c>
       <c r="J96" s="3">
-        <v>-432700</v>
+        <v>-356500</v>
       </c>
       <c r="K96" s="3">
         <v>-300700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>567900</v>
+        <v>-1557700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1570600</v>
+        <v>-1825600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1840700</v>
+        <v>-596900</v>
       </c>
       <c r="G100" s="3">
-        <v>-601800</v>
+        <v>-1571400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1584400</v>
+        <v>-275100</v>
       </c>
       <c r="I100" s="3">
-        <v>-277300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-19300</v>
+        <v>-19200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15600</v>
+        <v>-10800</v>
       </c>
       <c r="E101" s="3">
-        <v>-10800</v>
+        <v>23200</v>
       </c>
       <c r="F101" s="3">
-        <v>23400</v>
+        <v>6400</v>
       </c>
       <c r="G101" s="3">
-        <v>6400</v>
+        <v>4500</v>
       </c>
       <c r="H101" s="3">
-        <v>4600</v>
+        <v>-17100</v>
       </c>
       <c r="I101" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>6700</v>
+        <v>6600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-802500</v>
+        <v>309000</v>
       </c>
       <c r="E102" s="3">
-        <v>311600</v>
+        <v>-174300</v>
       </c>
       <c r="F102" s="3">
-        <v>-175800</v>
+        <v>1421800</v>
       </c>
       <c r="G102" s="3">
-        <v>1433500</v>
+        <v>-118400</v>
       </c>
       <c r="H102" s="3">
-        <v>-119400</v>
+        <v>-576400</v>
       </c>
       <c r="I102" s="3">
-        <v>-581100</v>
+        <v>-729300</v>
       </c>
       <c r="J102" s="3">
-        <v>-735300</v>
+        <v>538200</v>
       </c>
       <c r="K102" s="3">
         <v>388700</v>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>WIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10940000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9562400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7488900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7377700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7082900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6587500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6654400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6195400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6066500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5966900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4947700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4609100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7803400</v>
+      </c>
+      <c r="E9" s="3">
         <v>6720500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5116500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5272300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4975700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4661600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4733800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4312800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4151000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4060000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3446000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3265000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3136500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2841900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2372400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2105400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2107200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1925900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1920600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1882600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1915500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1906900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1501700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1344100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,35 +944,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>22700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-9600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-12400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -967,36 +986,39 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E15" s="3">
         <v>199700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>59500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>42800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>46800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>46700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>38400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9252100</v>
+      </c>
+      <c r="E17" s="3">
         <v>7866300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6001200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6099400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5875000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5568400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5519400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5024400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4833700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4739100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4022600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3742800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1687800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1696100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1487700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1278300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1207900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1019100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1135000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1171000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1232900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1227700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>925000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>866300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,70 +1148,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E20" s="3">
         <v>197200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>244800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>265000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>255400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>261500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>222400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>235500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>220000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>172000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>125400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>94700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2229000</v>
+        <v>2310800</v>
       </c>
       <c r="E21" s="3">
-        <v>1985800</v>
+        <v>2267000</v>
       </c>
       <c r="F21" s="3">
-        <v>1779700</v>
+        <v>2066900</v>
       </c>
       <c r="G21" s="3">
-        <v>1719700</v>
+        <v>1795500</v>
       </c>
       <c r="H21" s="3">
-        <v>1561200</v>
+        <v>1698700</v>
       </c>
       <c r="I21" s="3">
-        <v>1539000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1536000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1636700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1190,129 +1226,141 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>1107600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E22" s="3">
         <v>64400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>67900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>41700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1785200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1828900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1680600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1481200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1395400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1238900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1334200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1389500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1442900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1387800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1039000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>947500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E24" s="3">
         <v>350000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>366900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>299800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>305200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>289600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>304800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>306700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>318100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>310500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>223600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>187300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1374200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1479000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1313700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1181400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1090200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>949300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1029400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1082900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1124800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1077300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>815500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>760100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1372200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1477300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1305100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1175400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1088500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>949300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1026400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1076900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1117900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1071300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>811200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>756600</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,30 +1544,33 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>18900</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>66100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>49200</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-219200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-197200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-244800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-265000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-255400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-261500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-222400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-235500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-220000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-172000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-125400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-94700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1372200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1477300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1305100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1175400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1088500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>968200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1026400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1076900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1117900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1071300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>877300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>805900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1372200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1477300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1305100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1175400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1088500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>968200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1026400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1076900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1117900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1071300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>877300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>805900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1110800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1255400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2052800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1747000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1916600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>543100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>637300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1197500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2053500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1569100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>472100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>594900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3730700</v>
+      </c>
+      <c r="E42" s="3">
         <v>2913700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2116900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2283100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2690100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3039000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3551600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5797800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1234800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1045300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1598900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1164500</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2814300</v>
+      </c>
+      <c r="E43" s="3">
         <v>3019800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1881700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2012200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2017400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1871500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1891200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3217900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1949900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1937400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1631600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1744700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E44" s="3">
         <v>16100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>22500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>47800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>40700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>47300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>65200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>62600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>65100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>154200</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>322400</v>
+      </c>
+      <c r="E45" s="3">
         <v>299900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>261100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>220200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>242400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>625000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>387900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>347500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>338600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>256400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>321300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>296300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7992700</v>
+      </c>
+      <c r="E46" s="3">
         <v>7504900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6325300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6285000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6914300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6119400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6515300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6079200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5639500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4873400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4066900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3954600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E47" s="3">
         <v>495500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>445000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>411400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>496200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>430500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>311700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>253700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>197400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>176800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>142000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>231700</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1298000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1327100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1228500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1183200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>853600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>779100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>843800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>785400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>706900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>668400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>853000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4243800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3512700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1840200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1781800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1580700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1640600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1713400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1424600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>982000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>898000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>747100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1043500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>190200</v>
+      </c>
+      <c r="E52" s="3">
         <v>207100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>213000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>217000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>228300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>226600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>209400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>210500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>233200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>246500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>193200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>221700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14215700</v>
+      </c>
+      <c r="E54" s="3">
         <v>13047300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10052000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9878300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10073000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9196100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9593600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8753200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7752400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6901700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5817600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6304600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E57" s="3">
         <v>346800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>280900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>327100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>344900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>295100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>283500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1107900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>243500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>242000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>204200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>338800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1178100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1260900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1010000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>964300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>859600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1124300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1484700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2608100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>855400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>559000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>833000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>527000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1796400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2120100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1490300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1324800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1387000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1162000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1007000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1054900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1020400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1073900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>877700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>835900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3237100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3727700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2781200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2616200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2591500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2581300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2775200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2642400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2119300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1874900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1914900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1701700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>933700</v>
+      </c>
+      <c r="E61" s="3">
         <v>866100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>253500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>211300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>343000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>547300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>237100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>209900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>164200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>149900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>325500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>593500</v>
+      </c>
+      <c r="E62" s="3">
         <v>490100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>312300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>288400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>238200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>199800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>262000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>250200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>176600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>138100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>121100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>139400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4771400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5090200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3365100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3138600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3204500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3357400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3303100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3129300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2481300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2182000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2062800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2178900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8761000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7463200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6247600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6329500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6502600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5520100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5996200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5169200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4826400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4327400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3466000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3507000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9444300</v>
+      </c>
+      <c r="E76" s="3">
         <v>7957100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6686900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6739700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6868500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5838700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6290500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5623900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5271100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4719700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3754800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4125600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1372200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1477300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1305100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1175400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1088500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>968200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1026400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1076900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1117900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1071300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>877300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>805900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,32 +3492,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>403800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>373700</v>
+      </c>
+      <c r="F83" s="3">
         <v>334400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>252200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>235400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>255400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>279400</v>
       </c>
-      <c r="I83" s="3">
-        <v>180900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3330,12 +3528,15 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>146500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1579000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1339500</v>
+      </c>
+      <c r="F89" s="3">
         <v>1783900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1216800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1406300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1018400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1121600</v>
       </c>
-      <c r="I89" s="3">
-        <v>953600</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>946200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>877200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>932900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>931000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>579500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-243600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-236700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-284100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-275400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-264400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-252100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-168700</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-153100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-115200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-122500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-140300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-187600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,33 +3927,36 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1016300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2714100</v>
+      </c>
+      <c r="F94" s="3">
         <v>93600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>411200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>606000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>430100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1405900</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1670300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3737,12 +3966,15 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-116500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-396700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-66000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-83000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-65700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-65500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-105600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-429100</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-356500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-300700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-319800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-225800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-249100</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,33 +4155,36 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-736100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>563200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1557700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1825600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-596900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1571400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-275100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3949,36 +4194,39 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-251600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-10800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>23200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>6400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-17100</v>
       </c>
-      <c r="I101" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3988,49 +4236,55 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>24300</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-144700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-795900</v>
+      </c>
+      <c r="F102" s="3">
         <v>309000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-174300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1421800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-118400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-576400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-729300</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>538200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>388700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>413300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>91400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>235700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WIT_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10940000</v>
+        <v>10885700</v>
       </c>
       <c r="E8" s="3">
-        <v>9562400</v>
+        <v>9514900</v>
       </c>
       <c r="F8" s="3">
-        <v>7488900</v>
+        <v>7451700</v>
       </c>
       <c r="G8" s="3">
-        <v>7377700</v>
+        <v>7341100</v>
       </c>
       <c r="H8" s="3">
-        <v>7082900</v>
+        <v>7047700</v>
       </c>
       <c r="I8" s="3">
-        <v>6587500</v>
+        <v>6554800</v>
       </c>
       <c r="J8" s="3">
-        <v>6654400</v>
+        <v>6621300</v>
       </c>
       <c r="K8" s="3">
         <v>6195400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7803400</v>
+        <v>7764700</v>
       </c>
       <c r="E9" s="3">
-        <v>6720500</v>
+        <v>6687100</v>
       </c>
       <c r="F9" s="3">
-        <v>5116500</v>
+        <v>5091200</v>
       </c>
       <c r="G9" s="3">
-        <v>5272300</v>
+        <v>5246100</v>
       </c>
       <c r="H9" s="3">
-        <v>4975700</v>
+        <v>4951000</v>
       </c>
       <c r="I9" s="3">
-        <v>4661600</v>
+        <v>4638500</v>
       </c>
       <c r="J9" s="3">
-        <v>4733800</v>
+        <v>4710300</v>
       </c>
       <c r="K9" s="3">
         <v>4312800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3136500</v>
+        <v>3120900</v>
       </c>
       <c r="E10" s="3">
-        <v>2841900</v>
+        <v>2827800</v>
       </c>
       <c r="F10" s="3">
-        <v>2372400</v>
+        <v>2360600</v>
       </c>
       <c r="G10" s="3">
-        <v>2105400</v>
+        <v>2095000</v>
       </c>
       <c r="H10" s="3">
-        <v>2107200</v>
+        <v>2096700</v>
       </c>
       <c r="I10" s="3">
-        <v>1925900</v>
+        <v>1916300</v>
       </c>
       <c r="J10" s="3">
-        <v>1920600</v>
+        <v>1911100</v>
       </c>
       <c r="K10" s="3">
         <v>1882600</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="I14" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J14" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100100</v>
+        <v>99600</v>
       </c>
       <c r="E15" s="3">
-        <v>199700</v>
+        <v>198700</v>
       </c>
       <c r="F15" s="3">
-        <v>59500</v>
+        <v>59200</v>
       </c>
       <c r="G15" s="3">
-        <v>42800</v>
+        <v>42600</v>
       </c>
       <c r="H15" s="3">
-        <v>46800</v>
+        <v>46600</v>
       </c>
       <c r="I15" s="3">
-        <v>46700</v>
+        <v>46500</v>
       </c>
       <c r="J15" s="3">
-        <v>38400</v>
+        <v>38200</v>
       </c>
       <c r="K15" s="3">
         <v>21000</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9252100</v>
+        <v>9206200</v>
       </c>
       <c r="E17" s="3">
-        <v>7866300</v>
+        <v>7827300</v>
       </c>
       <c r="F17" s="3">
-        <v>6001200</v>
+        <v>5971400</v>
       </c>
       <c r="G17" s="3">
-        <v>6099400</v>
+        <v>6069200</v>
       </c>
       <c r="H17" s="3">
-        <v>5875000</v>
+        <v>5845800</v>
       </c>
       <c r="I17" s="3">
-        <v>5568400</v>
+        <v>5540700</v>
       </c>
       <c r="J17" s="3">
-        <v>5519400</v>
+        <v>5492000</v>
       </c>
       <c r="K17" s="3">
         <v>5024400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1687800</v>
+        <v>1679500</v>
       </c>
       <c r="E18" s="3">
-        <v>1696100</v>
+        <v>1687600</v>
       </c>
       <c r="F18" s="3">
-        <v>1487700</v>
+        <v>1480300</v>
       </c>
       <c r="G18" s="3">
-        <v>1278300</v>
+        <v>1271900</v>
       </c>
       <c r="H18" s="3">
-        <v>1207900</v>
+        <v>1201900</v>
       </c>
       <c r="I18" s="3">
-        <v>1019100</v>
+        <v>1014100</v>
       </c>
       <c r="J18" s="3">
-        <v>1135000</v>
+        <v>1129400</v>
       </c>
       <c r="K18" s="3">
         <v>1171000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>219200</v>
+        <v>218100</v>
       </c>
       <c r="E20" s="3">
-        <v>197200</v>
+        <v>196300</v>
       </c>
       <c r="F20" s="3">
-        <v>244800</v>
+        <v>243600</v>
       </c>
       <c r="G20" s="3">
-        <v>265000</v>
+        <v>263700</v>
       </c>
       <c r="H20" s="3">
-        <v>255400</v>
+        <v>254100</v>
       </c>
       <c r="I20" s="3">
-        <v>261500</v>
+        <v>260200</v>
       </c>
       <c r="J20" s="3">
-        <v>222400</v>
+        <v>221300</v>
       </c>
       <c r="K20" s="3">
         <v>235500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2310800</v>
+        <v>2299000</v>
       </c>
       <c r="E21" s="3">
-        <v>2267000</v>
+        <v>2255400</v>
       </c>
       <c r="F21" s="3">
-        <v>2066900</v>
+        <v>2056400</v>
       </c>
       <c r="G21" s="3">
-        <v>1795500</v>
+        <v>1786400</v>
       </c>
       <c r="H21" s="3">
-        <v>1698700</v>
+        <v>1690100</v>
       </c>
       <c r="I21" s="3">
-        <v>1536000</v>
+        <v>1528200</v>
       </c>
       <c r="J21" s="3">
-        <v>1636700</v>
+        <v>1628400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>121800</v>
+        <v>121200</v>
       </c>
       <c r="E22" s="3">
-        <v>64400</v>
+        <v>64100</v>
       </c>
       <c r="F22" s="3">
-        <v>52000</v>
+        <v>51700</v>
       </c>
       <c r="G22" s="3">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="H22" s="3">
-        <v>67900</v>
+        <v>67600</v>
       </c>
       <c r="I22" s="3">
-        <v>41700</v>
+        <v>41500</v>
       </c>
       <c r="J22" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="K22" s="3">
         <v>17000</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1785200</v>
+        <v>1776300</v>
       </c>
       <c r="E23" s="3">
-        <v>1828900</v>
+        <v>1819800</v>
       </c>
       <c r="F23" s="3">
-        <v>1680600</v>
+        <v>1672300</v>
       </c>
       <c r="G23" s="3">
-        <v>1481200</v>
+        <v>1473800</v>
       </c>
       <c r="H23" s="3">
-        <v>1395400</v>
+        <v>1388400</v>
       </c>
       <c r="I23" s="3">
-        <v>1238900</v>
+        <v>1232800</v>
       </c>
       <c r="J23" s="3">
-        <v>1334200</v>
+        <v>1327600</v>
       </c>
       <c r="K23" s="3">
         <v>1389500</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>411000</v>
+        <v>408900</v>
       </c>
       <c r="E24" s="3">
-        <v>350000</v>
+        <v>348200</v>
       </c>
       <c r="F24" s="3">
-        <v>366900</v>
+        <v>365100</v>
       </c>
       <c r="G24" s="3">
-        <v>299800</v>
+        <v>298300</v>
       </c>
       <c r="H24" s="3">
-        <v>305200</v>
+        <v>303700</v>
       </c>
       <c r="I24" s="3">
-        <v>289600</v>
+        <v>288200</v>
       </c>
       <c r="J24" s="3">
-        <v>304800</v>
+        <v>303300</v>
       </c>
       <c r="K24" s="3">
         <v>306700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1374200</v>
+        <v>1367400</v>
       </c>
       <c r="E26" s="3">
-        <v>1479000</v>
+        <v>1471600</v>
       </c>
       <c r="F26" s="3">
-        <v>1313700</v>
+        <v>1307200</v>
       </c>
       <c r="G26" s="3">
-        <v>1181400</v>
+        <v>1175500</v>
       </c>
       <c r="H26" s="3">
-        <v>1090200</v>
+        <v>1084800</v>
       </c>
       <c r="I26" s="3">
-        <v>949300</v>
+        <v>944600</v>
       </c>
       <c r="J26" s="3">
-        <v>1029400</v>
+        <v>1024300</v>
       </c>
       <c r="K26" s="3">
         <v>1082900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1372200</v>
+        <v>1365400</v>
       </c>
       <c r="E27" s="3">
-        <v>1477300</v>
+        <v>1470000</v>
       </c>
       <c r="F27" s="3">
-        <v>1305100</v>
+        <v>1298600</v>
       </c>
       <c r="G27" s="3">
-        <v>1175400</v>
+        <v>1169500</v>
       </c>
       <c r="H27" s="3">
-        <v>1088500</v>
+        <v>1083100</v>
       </c>
       <c r="I27" s="3">
-        <v>949300</v>
+        <v>944600</v>
       </c>
       <c r="J27" s="3">
-        <v>1026400</v>
+        <v>1021300</v>
       </c>
       <c r="K27" s="3">
         <v>1076900</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-219200</v>
+        <v>-218100</v>
       </c>
       <c r="E32" s="3">
-        <v>-197200</v>
+        <v>-196300</v>
       </c>
       <c r="F32" s="3">
-        <v>-244800</v>
+        <v>-243600</v>
       </c>
       <c r="G32" s="3">
-        <v>-265000</v>
+        <v>-263700</v>
       </c>
       <c r="H32" s="3">
-        <v>-255400</v>
+        <v>-254100</v>
       </c>
       <c r="I32" s="3">
-        <v>-261500</v>
+        <v>-260200</v>
       </c>
       <c r="J32" s="3">
-        <v>-222400</v>
+        <v>-221300</v>
       </c>
       <c r="K32" s="3">
         <v>-235500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1372200</v>
+        <v>1365400</v>
       </c>
       <c r="E33" s="3">
-        <v>1477300</v>
+        <v>1470000</v>
       </c>
       <c r="F33" s="3">
-        <v>1305100</v>
+        <v>1298600</v>
       </c>
       <c r="G33" s="3">
-        <v>1175400</v>
+        <v>1169500</v>
       </c>
       <c r="H33" s="3">
-        <v>1088500</v>
+        <v>1083100</v>
       </c>
       <c r="I33" s="3">
-        <v>968200</v>
+        <v>963400</v>
       </c>
       <c r="J33" s="3">
-        <v>1026400</v>
+        <v>1021300</v>
       </c>
       <c r="K33" s="3">
         <v>1076900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1372200</v>
+        <v>1365400</v>
       </c>
       <c r="E35" s="3">
-        <v>1477300</v>
+        <v>1470000</v>
       </c>
       <c r="F35" s="3">
-        <v>1305100</v>
+        <v>1298600</v>
       </c>
       <c r="G35" s="3">
-        <v>1175400</v>
+        <v>1169500</v>
       </c>
       <c r="H35" s="3">
-        <v>1088500</v>
+        <v>1083100</v>
       </c>
       <c r="I35" s="3">
-        <v>968200</v>
+        <v>963400</v>
       </c>
       <c r="J35" s="3">
-        <v>1026400</v>
+        <v>1021300</v>
       </c>
       <c r="K35" s="3">
         <v>1076900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1110800</v>
+        <v>1105300</v>
       </c>
       <c r="E41" s="3">
-        <v>1255400</v>
+        <v>1249100</v>
       </c>
       <c r="F41" s="3">
-        <v>2052800</v>
+        <v>2042600</v>
       </c>
       <c r="G41" s="3">
-        <v>1747000</v>
+        <v>1738300</v>
       </c>
       <c r="H41" s="3">
-        <v>1916600</v>
+        <v>1907100</v>
       </c>
       <c r="I41" s="3">
-        <v>543100</v>
+        <v>540400</v>
       </c>
       <c r="J41" s="3">
-        <v>637300</v>
+        <v>634100</v>
       </c>
       <c r="K41" s="3">
         <v>1197500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3730700</v>
+        <v>3721300</v>
       </c>
       <c r="E42" s="3">
-        <v>2913700</v>
+        <v>2899200</v>
       </c>
       <c r="F42" s="3">
-        <v>2116900</v>
+        <v>2106400</v>
       </c>
       <c r="G42" s="3">
-        <v>2283100</v>
+        <v>2271700</v>
       </c>
       <c r="H42" s="3">
-        <v>2690100</v>
+        <v>2676800</v>
       </c>
       <c r="I42" s="3">
-        <v>3039000</v>
+        <v>3023900</v>
       </c>
       <c r="J42" s="3">
-        <v>3551600</v>
+        <v>3534000</v>
       </c>
       <c r="K42" s="3">
         <v>5797800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2814300</v>
+        <v>2772700</v>
       </c>
       <c r="E43" s="3">
-        <v>3019800</v>
+        <v>3004800</v>
       </c>
       <c r="F43" s="3">
-        <v>1881700</v>
+        <v>1872400</v>
       </c>
       <c r="G43" s="3">
-        <v>2012200</v>
+        <v>2002200</v>
       </c>
       <c r="H43" s="3">
-        <v>2017400</v>
+        <v>2007400</v>
       </c>
       <c r="I43" s="3">
-        <v>1871500</v>
+        <v>1862200</v>
       </c>
       <c r="J43" s="3">
-        <v>1891200</v>
+        <v>1881800</v>
       </c>
       <c r="K43" s="3">
         <v>3217900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14400</v>
+        <v>44400</v>
       </c>
       <c r="E44" s="3">
-        <v>16100</v>
+        <v>54300</v>
       </c>
       <c r="F44" s="3">
-        <v>12900</v>
+        <v>51300</v>
       </c>
       <c r="G44" s="3">
-        <v>22500</v>
+        <v>60000</v>
       </c>
       <c r="H44" s="3">
-        <v>47800</v>
+        <v>86600</v>
       </c>
       <c r="I44" s="3">
-        <v>40700</v>
+        <v>62400</v>
       </c>
       <c r="J44" s="3">
-        <v>47300</v>
+        <v>64500</v>
       </c>
       <c r="K44" s="3">
         <v>65200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>322400</v>
+        <v>309300</v>
       </c>
       <c r="E45" s="3">
-        <v>299900</v>
+        <v>260100</v>
       </c>
       <c r="F45" s="3">
-        <v>261100</v>
+        <v>221300</v>
       </c>
       <c r="G45" s="3">
-        <v>220200</v>
+        <v>181500</v>
       </c>
       <c r="H45" s="3">
-        <v>242400</v>
+        <v>202100</v>
       </c>
       <c r="I45" s="3">
-        <v>625000</v>
+        <v>600000</v>
       </c>
       <c r="J45" s="3">
-        <v>387900</v>
+        <v>368500</v>
       </c>
       <c r="K45" s="3">
         <v>347500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7992700</v>
+        <v>7953000</v>
       </c>
       <c r="E46" s="3">
-        <v>7504900</v>
+        <v>7467600</v>
       </c>
       <c r="F46" s="3">
-        <v>6325300</v>
+        <v>6293900</v>
       </c>
       <c r="G46" s="3">
-        <v>6285000</v>
+        <v>6253800</v>
       </c>
       <c r="H46" s="3">
-        <v>6914300</v>
+        <v>6880000</v>
       </c>
       <c r="I46" s="3">
-        <v>6119400</v>
+        <v>6089100</v>
       </c>
       <c r="J46" s="3">
-        <v>6515300</v>
+        <v>6482900</v>
       </c>
       <c r="K46" s="3">
         <v>6079200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>491000</v>
+        <v>469800</v>
       </c>
       <c r="E47" s="3">
-        <v>495500</v>
+        <v>476300</v>
       </c>
       <c r="F47" s="3">
-        <v>445000</v>
+        <v>425000</v>
       </c>
       <c r="G47" s="3">
-        <v>411400</v>
+        <v>390300</v>
       </c>
       <c r="H47" s="3">
-        <v>496200</v>
+        <v>476400</v>
       </c>
       <c r="I47" s="3">
-        <v>430500</v>
+        <v>413900</v>
       </c>
       <c r="J47" s="3">
-        <v>311700</v>
+        <v>310200</v>
       </c>
       <c r="K47" s="3">
         <v>253700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1298000</v>
+        <v>1291600</v>
       </c>
       <c r="E48" s="3">
-        <v>1327100</v>
+        <v>1320500</v>
       </c>
       <c r="F48" s="3">
-        <v>1228500</v>
+        <v>1222400</v>
       </c>
       <c r="G48" s="3">
-        <v>1183200</v>
+        <v>1177400</v>
       </c>
       <c r="H48" s="3">
-        <v>853600</v>
+        <v>849300</v>
       </c>
       <c r="I48" s="3">
-        <v>779100</v>
+        <v>775200</v>
       </c>
       <c r="J48" s="3">
-        <v>843800</v>
+        <v>839600</v>
       </c>
       <c r="K48" s="3">
         <v>785400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4243800</v>
+        <v>4222700</v>
       </c>
       <c r="E49" s="3">
-        <v>3512700</v>
+        <v>3495200</v>
       </c>
       <c r="F49" s="3">
-        <v>1840200</v>
+        <v>1831100</v>
       </c>
       <c r="G49" s="3">
-        <v>1781800</v>
+        <v>1772900</v>
       </c>
       <c r="H49" s="3">
-        <v>1580700</v>
+        <v>1572800</v>
       </c>
       <c r="I49" s="3">
-        <v>1640600</v>
+        <v>1632400</v>
       </c>
       <c r="J49" s="3">
-        <v>1713400</v>
+        <v>1704900</v>
       </c>
       <c r="K49" s="3">
         <v>1424600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>190200</v>
+        <v>208100</v>
       </c>
       <c r="E52" s="3">
-        <v>207100</v>
+        <v>222900</v>
       </c>
       <c r="F52" s="3">
-        <v>213000</v>
+        <v>229700</v>
       </c>
       <c r="G52" s="3">
-        <v>217000</v>
+        <v>234900</v>
       </c>
       <c r="H52" s="3">
-        <v>228300</v>
+        <v>244400</v>
       </c>
       <c r="I52" s="3">
-        <v>226600</v>
+        <v>239800</v>
       </c>
       <c r="J52" s="3">
-        <v>209400</v>
+        <v>208400</v>
       </c>
       <c r="K52" s="3">
         <v>210500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14215700</v>
+        <v>14145100</v>
       </c>
       <c r="E54" s="3">
-        <v>13047300</v>
+        <v>12982600</v>
       </c>
       <c r="F54" s="3">
-        <v>10052000</v>
+        <v>10002200</v>
       </c>
       <c r="G54" s="3">
-        <v>9878300</v>
+        <v>9829300</v>
       </c>
       <c r="H54" s="3">
-        <v>10073000</v>
+        <v>10023000</v>
       </c>
       <c r="I54" s="3">
-        <v>9196100</v>
+        <v>9150500</v>
       </c>
       <c r="J54" s="3">
-        <v>9593600</v>
+        <v>9546000</v>
       </c>
       <c r="K54" s="3">
         <v>8753200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>262700</v>
+        <v>261400</v>
       </c>
       <c r="E57" s="3">
-        <v>346800</v>
+        <v>345100</v>
       </c>
       <c r="F57" s="3">
-        <v>280900</v>
+        <v>279500</v>
       </c>
       <c r="G57" s="3">
-        <v>327100</v>
+        <v>325400</v>
       </c>
       <c r="H57" s="3">
-        <v>344900</v>
+        <v>343200</v>
       </c>
       <c r="I57" s="3">
-        <v>295100</v>
+        <v>293600</v>
       </c>
       <c r="J57" s="3">
-        <v>283500</v>
+        <v>282100</v>
       </c>
       <c r="K57" s="3">
         <v>1107900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1178100</v>
+        <v>1172200</v>
       </c>
       <c r="E58" s="3">
-        <v>1260900</v>
+        <v>1254600</v>
       </c>
       <c r="F58" s="3">
-        <v>1010000</v>
+        <v>1005000</v>
       </c>
       <c r="G58" s="3">
-        <v>964300</v>
+        <v>959500</v>
       </c>
       <c r="H58" s="3">
-        <v>859600</v>
+        <v>855300</v>
       </c>
       <c r="I58" s="3">
-        <v>1124300</v>
+        <v>1118700</v>
       </c>
       <c r="J58" s="3">
-        <v>1484700</v>
+        <v>1477300</v>
       </c>
       <c r="K58" s="3">
         <v>2608100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1796400</v>
+        <v>1787500</v>
       </c>
       <c r="E59" s="3">
-        <v>2120100</v>
+        <v>2109500</v>
       </c>
       <c r="F59" s="3">
-        <v>1490300</v>
+        <v>1482900</v>
       </c>
       <c r="G59" s="3">
-        <v>1324800</v>
+        <v>1318200</v>
       </c>
       <c r="H59" s="3">
-        <v>1387000</v>
+        <v>1380100</v>
       </c>
       <c r="I59" s="3">
-        <v>1162000</v>
+        <v>1156200</v>
       </c>
       <c r="J59" s="3">
-        <v>1007000</v>
+        <v>1002000</v>
       </c>
       <c r="K59" s="3">
         <v>1054900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3237100</v>
+        <v>3221100</v>
       </c>
       <c r="E60" s="3">
-        <v>3727700</v>
+        <v>3709200</v>
       </c>
       <c r="F60" s="3">
-        <v>2781200</v>
+        <v>2767400</v>
       </c>
       <c r="G60" s="3">
-        <v>2616200</v>
+        <v>2603200</v>
       </c>
       <c r="H60" s="3">
-        <v>2591500</v>
+        <v>2578600</v>
       </c>
       <c r="I60" s="3">
-        <v>2581300</v>
+        <v>2568500</v>
       </c>
       <c r="J60" s="3">
-        <v>2775200</v>
+        <v>2761400</v>
       </c>
       <c r="K60" s="3">
         <v>2642400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>933700</v>
+        <v>929000</v>
       </c>
       <c r="E61" s="3">
-        <v>866100</v>
+        <v>861800</v>
       </c>
       <c r="F61" s="3">
-        <v>253500</v>
+        <v>252300</v>
       </c>
       <c r="G61" s="3">
-        <v>211300</v>
+        <v>210300</v>
       </c>
       <c r="H61" s="3">
-        <v>343000</v>
+        <v>341300</v>
       </c>
       <c r="I61" s="3">
-        <v>547300</v>
+        <v>544600</v>
       </c>
       <c r="J61" s="3">
-        <v>237100</v>
+        <v>235900</v>
       </c>
       <c r="K61" s="3">
         <v>209900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>593500</v>
+        <v>590600</v>
       </c>
       <c r="E62" s="3">
-        <v>490100</v>
+        <v>487700</v>
       </c>
       <c r="F62" s="3">
-        <v>312300</v>
+        <v>310700</v>
       </c>
       <c r="G62" s="3">
-        <v>288400</v>
+        <v>287000</v>
       </c>
       <c r="H62" s="3">
-        <v>238200</v>
+        <v>237000</v>
       </c>
       <c r="I62" s="3">
-        <v>199800</v>
+        <v>198800</v>
       </c>
       <c r="J62" s="3">
-        <v>262000</v>
+        <v>260700</v>
       </c>
       <c r="K62" s="3">
         <v>250200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4771400</v>
+        <v>4747700</v>
       </c>
       <c r="E66" s="3">
-        <v>5090200</v>
+        <v>5064900</v>
       </c>
       <c r="F66" s="3">
-        <v>3365100</v>
+        <v>3348400</v>
       </c>
       <c r="G66" s="3">
-        <v>3138600</v>
+        <v>3123000</v>
       </c>
       <c r="H66" s="3">
-        <v>3204500</v>
+        <v>3188600</v>
       </c>
       <c r="I66" s="3">
-        <v>3357400</v>
+        <v>3340800</v>
       </c>
       <c r="J66" s="3">
-        <v>3303100</v>
+        <v>3286700</v>
       </c>
       <c r="K66" s="3">
         <v>3129300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8761000</v>
+        <v>8717500</v>
       </c>
       <c r="E72" s="3">
-        <v>7463200</v>
+        <v>7426100</v>
       </c>
       <c r="F72" s="3">
-        <v>6247600</v>
+        <v>6216600</v>
       </c>
       <c r="G72" s="3">
-        <v>6329500</v>
+        <v>6298100</v>
       </c>
       <c r="H72" s="3">
-        <v>6502600</v>
+        <v>6470300</v>
       </c>
       <c r="I72" s="3">
-        <v>5520100</v>
+        <v>5492700</v>
       </c>
       <c r="J72" s="3">
-        <v>5996200</v>
+        <v>5966400</v>
       </c>
       <c r="K72" s="3">
         <v>5169200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9444300</v>
+        <v>9397400</v>
       </c>
       <c r="E76" s="3">
-        <v>7957100</v>
+        <v>7917600</v>
       </c>
       <c r="F76" s="3">
-        <v>6686900</v>
+        <v>6653700</v>
       </c>
       <c r="G76" s="3">
-        <v>6739700</v>
+        <v>6706200</v>
       </c>
       <c r="H76" s="3">
-        <v>6868500</v>
+        <v>6834400</v>
       </c>
       <c r="I76" s="3">
-        <v>5838700</v>
+        <v>5809700</v>
       </c>
       <c r="J76" s="3">
-        <v>6290500</v>
+        <v>6259300</v>
       </c>
       <c r="K76" s="3">
         <v>5623900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1372200</v>
+        <v>1365400</v>
       </c>
       <c r="E81" s="3">
-        <v>1477300</v>
+        <v>1470000</v>
       </c>
       <c r="F81" s="3">
-        <v>1305100</v>
+        <v>1298600</v>
       </c>
       <c r="G81" s="3">
-        <v>1175400</v>
+        <v>1169500</v>
       </c>
       <c r="H81" s="3">
-        <v>1088500</v>
+        <v>1083100</v>
       </c>
       <c r="I81" s="3">
-        <v>968200</v>
+        <v>963400</v>
       </c>
       <c r="J81" s="3">
-        <v>1026400</v>
+        <v>1021300</v>
       </c>
       <c r="K81" s="3">
         <v>1076900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>403800</v>
+        <v>401800</v>
       </c>
       <c r="E83" s="3">
-        <v>373700</v>
+        <v>371900</v>
       </c>
       <c r="F83" s="3">
-        <v>334400</v>
+        <v>332700</v>
       </c>
       <c r="G83" s="3">
-        <v>252200</v>
+        <v>251000</v>
       </c>
       <c r="H83" s="3">
-        <v>235400</v>
+        <v>234300</v>
       </c>
       <c r="I83" s="3">
-        <v>255400</v>
+        <v>254100</v>
       </c>
       <c r="J83" s="3">
-        <v>279400</v>
+        <v>278000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1579000</v>
+        <v>1571100</v>
       </c>
       <c r="E89" s="3">
-        <v>1339500</v>
+        <v>1332900</v>
       </c>
       <c r="F89" s="3">
-        <v>1783900</v>
+        <v>1775000</v>
       </c>
       <c r="G89" s="3">
-        <v>1216800</v>
+        <v>1210700</v>
       </c>
       <c r="H89" s="3">
-        <v>1406300</v>
+        <v>1399300</v>
       </c>
       <c r="I89" s="3">
-        <v>1018400</v>
+        <v>1013300</v>
       </c>
       <c r="J89" s="3">
-        <v>1121600</v>
+        <v>1116100</v>
       </c>
       <c r="K89" s="3">
         <v>946200</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-179300</v>
+        <v>-178500</v>
       </c>
       <c r="E91" s="3">
-        <v>-243600</v>
+        <v>-242400</v>
       </c>
       <c r="F91" s="3">
-        <v>-236700</v>
+        <v>-235500</v>
       </c>
       <c r="G91" s="3">
-        <v>-284100</v>
+        <v>-282700</v>
       </c>
       <c r="H91" s="3">
-        <v>-275400</v>
+        <v>-274100</v>
       </c>
       <c r="I91" s="3">
-        <v>-264400</v>
+        <v>-263100</v>
       </c>
       <c r="J91" s="3">
-        <v>-252100</v>
+        <v>-250900</v>
       </c>
       <c r="K91" s="3">
         <v>-153100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1016300</v>
+        <v>-1011300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2714100</v>
+        <v>-2700700</v>
       </c>
       <c r="F94" s="3">
-        <v>93600</v>
+        <v>93100</v>
       </c>
       <c r="G94" s="3">
-        <v>411200</v>
+        <v>409200</v>
       </c>
       <c r="H94" s="3">
-        <v>606000</v>
+        <v>603000</v>
       </c>
       <c r="I94" s="3">
-        <v>430100</v>
+        <v>428000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1405900</v>
+        <v>-1398900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-396700</v>
+        <v>-394800</v>
       </c>
       <c r="E96" s="3">
-        <v>-66100</v>
+        <v>-65800</v>
       </c>
       <c r="F96" s="3">
-        <v>-66000</v>
+        <v>-65700</v>
       </c>
       <c r="G96" s="3">
-        <v>-83000</v>
+        <v>-82600</v>
       </c>
       <c r="H96" s="3">
-        <v>-65700</v>
+        <v>-65400</v>
       </c>
       <c r="I96" s="3">
-        <v>-65500</v>
+        <v>-65200</v>
       </c>
       <c r="J96" s="3">
-        <v>-105600</v>
+        <v>-105100</v>
       </c>
       <c r="K96" s="3">
         <v>-356500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-736100</v>
+        <v>-732400</v>
       </c>
       <c r="E100" s="3">
-        <v>563200</v>
+        <v>560400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1557700</v>
+        <v>-1549900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1825600</v>
+        <v>-1816500</v>
       </c>
       <c r="H100" s="3">
-        <v>-596900</v>
+        <v>-593900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1571400</v>
+        <v>-1563600</v>
       </c>
       <c r="J100" s="3">
-        <v>-275100</v>
+        <v>-273700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>28700</v>
+        <v>28500</v>
       </c>
       <c r="E101" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="F101" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="G101" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="H101" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="I101" s="3">
         <v>4500</v>
       </c>
       <c r="J101" s="3">
-        <v>-17100</v>
+        <v>-17000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-144700</v>
+        <v>-144000</v>
       </c>
       <c r="E102" s="3">
-        <v>-795900</v>
+        <v>-791900</v>
       </c>
       <c r="F102" s="3">
-        <v>309000</v>
+        <v>307500</v>
       </c>
       <c r="G102" s="3">
-        <v>-174300</v>
+        <v>-173500</v>
       </c>
       <c r="H102" s="3">
-        <v>1421800</v>
+        <v>1414700</v>
       </c>
       <c r="I102" s="3">
-        <v>-118400</v>
+        <v>-117800</v>
       </c>
       <c r="J102" s="3">
-        <v>-576400</v>
+        <v>-573500</v>
       </c>
       <c r="K102" s="3">
         <v>538200</v>
